--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49C0FB5-ECA5-437C-96D0-07C082F9F38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA286CA-548D-406B-9016-D1C2BA6B2C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="370">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1067,6 +1067,78 @@
   </si>
   <si>
     <t>kassielflores7@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>RIDAX CORP S.A.C.</t>
+  </si>
+  <si>
+    <t>FABRICACIONES OSELU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>TICONA BUSTAMANTE NILTON FERNANDO</t>
+  </si>
+  <si>
+    <t>TABLEROS KEPAL E.I.R.L</t>
+  </si>
+  <si>
+    <t>JUCASA &amp; CONTRATISTAS GENERALES S.R.L.</t>
+  </si>
+  <si>
+    <t>202504|202508|202509</t>
+  </si>
+  <si>
+    <t>Saraviaramos3@gmail.com</t>
+  </si>
+  <si>
+    <t>DETALLES TEXTILES S.A.C.</t>
+  </si>
+  <si>
+    <t>cpc@estudiocontablepalomino.com</t>
+  </si>
+  <si>
+    <t>SOLUSOFT PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>llerena_asociados@hotmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>SALVADOR LOGISTICA INTEGRADA S.A.C</t>
+  </si>
+  <si>
+    <t>CHAVEZ TEJADA CARLOS ALFREDO</t>
+  </si>
+  <si>
+    <t>LANGOSTINOS HUGO S.A.C.</t>
+  </si>
+  <si>
+    <t>qaiadelphin@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>GREEN RS S.A.C.</t>
+  </si>
+  <si>
+    <t>SUPERVISION INGENIERIA ARQUITECTURA Y CONSTRUCCION S.R.L.- SINARCO S.R.L.</t>
+  </si>
+  <si>
+    <t>202505|202506|202507</t>
+  </si>
+  <si>
+    <t>G Y G LOGISTICS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>TRANSPORTES GARABANDAL E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSIONES FRANSHO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GRUPO KLP E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SILVER TECH PERU SOCIEDAD ANONIMA CERRADA - SILVER TECH PERU S.A.C</t>
+  </si>
+  <si>
+    <t>sonia.perez@silvertechperu.com.pe</t>
   </si>
 </sst>
 </file>
@@ -1958,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O209"/>
+  <dimension ref="A1:O224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A2" sqref="A2:O224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10111,7 +10183,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>76287917</v>
+        <v>76288513</v>
       </c>
       <c r="B206" t="s">
         <v>15</v>
@@ -10126,92 +10198,89 @@
         <v>17</v>
       </c>
       <c r="F206">
-        <v>20600891082</v>
+        <v>20610901418</v>
       </c>
       <c r="G206" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H206">
-        <v>20600891082</v>
+        <v>20610901418</v>
       </c>
       <c r="I206">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="J206">
-        <v>126</v>
+        <v>77.260000000000005</v>
       </c>
       <c r="K206" t="s">
         <v>18</v>
       </c>
-      <c r="L206">
-        <v>202509</v>
+      <c r="L206" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>76286880</v>
+        <v>76287917</v>
       </c>
       <c r="B207" t="s">
-        <v>33</v>
-      </c>
-      <c r="C207" t="s">
-        <v>83</v>
+        <v>15</v>
+      </c>
+      <c r="C207">
+        <v>45962</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E207" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F207">
-        <v>20612966797</v>
+        <v>20600891082</v>
       </c>
       <c r="G207" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H207">
-        <v>20612966797</v>
+        <v>20600891082</v>
       </c>
       <c r="I207">
         <v>45980</v>
       </c>
       <c r="J207">
-        <v>66.099999999999994</v>
+        <v>126</v>
       </c>
       <c r="K207" t="s">
         <v>18</v>
       </c>
       <c r="L207">
         <v>202509</v>
-      </c>
-      <c r="N207" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>76308331</v>
+        <v>76286880</v>
       </c>
       <c r="B208" t="s">
-        <v>341</v>
+        <v>33</v>
       </c>
       <c r="C208" t="s">
         <v>83</v>
       </c>
       <c r="D208" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E208" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F208">
-        <v>20515270036</v>
+        <v>20612966797</v>
       </c>
       <c r="G208" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H208">
-        <v>20515270036</v>
+        <v>20612966797</v>
       </c>
       <c r="I208">
         <v>45980</v>
@@ -10220,36 +10289,39 @@
         <v>66.099999999999994</v>
       </c>
       <c r="K208" t="s">
-        <v>29</v>
-      </c>
-      <c r="M208" t="s">
-        <v>343</v>
+        <v>18</v>
+      </c>
+      <c r="L208">
+        <v>202509</v>
+      </c>
+      <c r="N208" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>76284352</v>
+        <v>76308331</v>
       </c>
       <c r="B209" t="s">
-        <v>26</v>
-      </c>
-      <c r="C209">
-        <v>45962</v>
+        <v>341</v>
+      </c>
+      <c r="C209" t="s">
+        <v>83</v>
       </c>
       <c r="D209" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E209" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F209">
-        <v>20601931461</v>
+        <v>20515270036</v>
       </c>
       <c r="G209" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H209">
-        <v>20601931461</v>
+        <v>20515270036</v>
       </c>
       <c r="I209">
         <v>45980</v>
@@ -10258,13 +10330,610 @@
         <v>66.099999999999994</v>
       </c>
       <c r="K209" t="s">
-        <v>18</v>
-      </c>
-      <c r="L209">
-        <v>202509</v>
-      </c>
-      <c r="N209" t="s">
+        <v>29</v>
+      </c>
+      <c r="M209" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>76284352</v>
+      </c>
+      <c r="B210" t="s">
+        <v>26</v>
+      </c>
+      <c r="C210">
+        <v>45962</v>
+      </c>
+      <c r="D210" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" t="s">
+        <v>21</v>
+      </c>
+      <c r="F210">
+        <v>20601931461</v>
+      </c>
+      <c r="G210" t="s">
+        <v>344</v>
+      </c>
+      <c r="H210">
+        <v>20601931461</v>
+      </c>
+      <c r="I210">
+        <v>45980</v>
+      </c>
+      <c r="J210">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K210" t="s">
+        <v>18</v>
+      </c>
+      <c r="L210">
+        <v>202509</v>
+      </c>
+      <c r="N210" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>76284257</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" t="s">
+        <v>83</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211">
+        <v>20601648661</v>
+      </c>
+      <c r="G211" t="s">
+        <v>347</v>
+      </c>
+      <c r="H211">
+        <v>20601648661</v>
+      </c>
+      <c r="I211">
+        <v>45980</v>
+      </c>
+      <c r="J211">
+        <v>55</v>
+      </c>
+      <c r="K211" t="s">
+        <v>18</v>
+      </c>
+      <c r="L211" t="s">
+        <v>37</v>
+      </c>
+      <c r="N211" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>76308601</v>
+      </c>
+      <c r="B212" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" t="s">
+        <v>83</v>
+      </c>
+      <c r="D212" t="s">
+        <v>84</v>
+      </c>
+      <c r="E212" t="s">
+        <v>85</v>
+      </c>
+      <c r="F212">
+        <v>20613793357</v>
+      </c>
+      <c r="G212" t="s">
+        <v>349</v>
+      </c>
+      <c r="H212">
+        <v>20613793357</v>
+      </c>
+      <c r="I212">
+        <v>45980</v>
+      </c>
+      <c r="J212">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K212" t="s">
+        <v>18</v>
+      </c>
+      <c r="L212">
+        <v>202508</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>76283119</v>
+      </c>
+      <c r="B213" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213">
+        <v>45962</v>
+      </c>
+      <c r="D213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>21</v>
+      </c>
+      <c r="F213">
+        <v>20534966017</v>
+      </c>
+      <c r="G213" t="s">
+        <v>350</v>
+      </c>
+      <c r="H213">
+        <v>20534966017</v>
+      </c>
+      <c r="I213">
+        <v>45980</v>
+      </c>
+      <c r="J213">
+        <v>93.57</v>
+      </c>
+      <c r="K213" t="s">
+        <v>29</v>
+      </c>
+      <c r="M213" t="s">
+        <v>351</v>
+      </c>
+      <c r="N213" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>76284583</v>
+      </c>
+      <c r="B214" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214">
+        <v>45962</v>
+      </c>
+      <c r="D214" t="s">
+        <v>20</v>
+      </c>
+      <c r="E214" t="s">
+        <v>21</v>
+      </c>
+      <c r="F214">
+        <v>20602748864</v>
+      </c>
+      <c r="G214" t="s">
+        <v>353</v>
+      </c>
+      <c r="H214">
+        <v>20602748864</v>
+      </c>
+      <c r="I214">
+        <v>45980</v>
+      </c>
+      <c r="J214">
+        <v>50</v>
+      </c>
+      <c r="K214" t="s">
+        <v>18</v>
+      </c>
+      <c r="L214" t="s">
+        <v>37</v>
+      </c>
+      <c r="N214" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>76284433</v>
+      </c>
+      <c r="B215" t="s">
+        <v>26</v>
+      </c>
+      <c r="C215">
+        <v>45962</v>
+      </c>
+      <c r="D215" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" t="s">
+        <v>21</v>
+      </c>
+      <c r="F215">
+        <v>20602195121</v>
+      </c>
+      <c r="G215" t="s">
+        <v>355</v>
+      </c>
+      <c r="H215">
+        <v>20602195121</v>
+      </c>
+      <c r="I215">
+        <v>45980</v>
+      </c>
+      <c r="J215">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K215" t="s">
+        <v>29</v>
+      </c>
+      <c r="M215" t="s">
+        <v>37</v>
+      </c>
+      <c r="N215" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>76285594</v>
+      </c>
+      <c r="B216" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" t="s">
+        <v>83</v>
+      </c>
+      <c r="D216" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" t="s">
+        <v>21</v>
+      </c>
+      <c r="F216">
+        <v>20607244686</v>
+      </c>
+      <c r="G216" t="s">
+        <v>357</v>
+      </c>
+      <c r="H216">
+        <v>20607244686</v>
+      </c>
+      <c r="I216">
+        <v>45980</v>
+      </c>
+      <c r="J216">
+        <v>103</v>
+      </c>
+      <c r="K216" t="s">
+        <v>23</v>
+      </c>
+      <c r="L216" t="s">
+        <v>37</v>
+      </c>
+      <c r="M216">
+        <v>202509</v>
+      </c>
+      <c r="N216" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>76286388</v>
+      </c>
+      <c r="B217" t="s">
+        <v>26</v>
+      </c>
+      <c r="C217">
+        <v>45962</v>
+      </c>
+      <c r="D217" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" t="s">
+        <v>21</v>
+      </c>
+      <c r="F217">
+        <v>20610708219</v>
+      </c>
+      <c r="G217" t="s">
+        <v>359</v>
+      </c>
+      <c r="H217">
+        <v>20610708219</v>
+      </c>
+      <c r="I217">
+        <v>45980</v>
+      </c>
+      <c r="J217">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K217" t="s">
+        <v>29</v>
+      </c>
+      <c r="M217">
+        <v>202508</v>
+      </c>
+      <c r="N217" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>76288448</v>
+      </c>
+      <c r="B218" t="s">
+        <v>28</v>
+      </c>
+      <c r="C218">
+        <v>45962</v>
+      </c>
+      <c r="D218" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218">
+        <v>20609879077</v>
+      </c>
+      <c r="G218" t="s">
+        <v>361</v>
+      </c>
+      <c r="H218">
+        <v>20609879077</v>
+      </c>
+      <c r="I218">
+        <v>45975</v>
+      </c>
+      <c r="J218">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K218" t="s">
+        <v>18</v>
+      </c>
+      <c r="L218">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>76287714</v>
+      </c>
+      <c r="B219" t="s">
+        <v>28</v>
+      </c>
+      <c r="C219">
+        <v>45962</v>
+      </c>
+      <c r="D219" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" t="s">
+        <v>17</v>
+      </c>
+      <c r="F219">
+        <v>20539913191</v>
+      </c>
+      <c r="G219" t="s">
+        <v>362</v>
+      </c>
+      <c r="H219">
+        <v>20539913191</v>
+      </c>
+      <c r="I219">
+        <v>45980</v>
+      </c>
+      <c r="J219">
+        <v>69.11</v>
+      </c>
+      <c r="K219" t="s">
+        <v>18</v>
+      </c>
+      <c r="L219" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>76284222</v>
+      </c>
+      <c r="B220" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220">
+        <v>45962</v>
+      </c>
+      <c r="D220" t="s">
+        <v>20</v>
+      </c>
+      <c r="E220" t="s">
+        <v>21</v>
+      </c>
+      <c r="F220">
+        <v>20601507111</v>
+      </c>
+      <c r="G220" t="s">
+        <v>364</v>
+      </c>
+      <c r="H220">
+        <v>20601507111</v>
+      </c>
+      <c r="I220">
+        <v>45980</v>
+      </c>
+      <c r="J220">
+        <v>183.79</v>
+      </c>
+      <c r="K220" t="s">
+        <v>18</v>
+      </c>
+      <c r="L220">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>76284947</v>
+      </c>
+      <c r="B221" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221">
+        <v>45962</v>
+      </c>
+      <c r="D221" t="s">
+        <v>20</v>
+      </c>
+      <c r="E221" t="s">
+        <v>21</v>
+      </c>
+      <c r="F221">
+        <v>20604173575</v>
+      </c>
+      <c r="G221" t="s">
+        <v>365</v>
+      </c>
+      <c r="H221">
+        <v>20604173575</v>
+      </c>
+      <c r="I221">
+        <v>45980</v>
+      </c>
+      <c r="J221">
+        <v>152.11000000000001</v>
+      </c>
+      <c r="K221" t="s">
+        <v>18</v>
+      </c>
+      <c r="L221">
+        <v>202509</v>
+      </c>
+      <c r="N221" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>76288173</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222">
+        <v>45962</v>
+      </c>
+      <c r="D222" t="s">
+        <v>16</v>
+      </c>
+      <c r="E222" t="s">
+        <v>17</v>
+      </c>
+      <c r="F222">
+        <v>20604802602</v>
+      </c>
+      <c r="G222" t="s">
+        <v>366</v>
+      </c>
+      <c r="H222">
+        <v>20604802602</v>
+      </c>
+      <c r="I222">
+        <v>45980</v>
+      </c>
+      <c r="J222">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K222" t="s">
+        <v>18</v>
+      </c>
+      <c r="L222">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>76287949</v>
+      </c>
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223">
+        <v>45962</v>
+      </c>
+      <c r="D223" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" t="s">
+        <v>17</v>
+      </c>
+      <c r="F223">
+        <v>20601369827</v>
+      </c>
+      <c r="G223" t="s">
+        <v>367</v>
+      </c>
+      <c r="H223">
+        <v>20601369827</v>
+      </c>
+      <c r="I223">
+        <v>45979</v>
+      </c>
+      <c r="J223">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K223" t="s">
+        <v>18</v>
+      </c>
+      <c r="L223">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>76282852</v>
+      </c>
+      <c r="B224" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224">
+        <v>45962</v>
+      </c>
+      <c r="D224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" t="s">
+        <v>21</v>
+      </c>
+      <c r="F224">
+        <v>20517143261</v>
+      </c>
+      <c r="G224" t="s">
+        <v>368</v>
+      </c>
+      <c r="H224">
+        <v>20517143261</v>
+      </c>
+      <c r="I224">
+        <v>45980</v>
+      </c>
+      <c r="J224">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K224" t="s">
+        <v>18</v>
+      </c>
+      <c r="L224">
+        <v>202509</v>
+      </c>
+      <c r="N224" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA286CA-548D-406B-9016-D1C2BA6B2C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC4578-E8B1-4EFC-9330-1B07A2A9F296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="cierre_pagos_202511_ (7)" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cierre_pagos_202511_ (7)'!$A$1:$O$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cierre_pagos_202511_ (7)'!$A$1:$O$260</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="422">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -793,9 +793,6 @@
     <t>SNIPER TECH SOCIEDAD ANONIMA CERRADA - SNIPER TECH S.A.C.</t>
   </si>
   <si>
-    <t>CARRILLO CALDERON ORFA</t>
-  </si>
-  <si>
     <t>APS TRADING S.A.C.</t>
   </si>
   <si>
@@ -1003,9 +1000,6 @@
     <t>CERNA MUÑOZ CRISTIAN PAUL</t>
   </si>
   <si>
-    <t>202507|202509</t>
-  </si>
-  <si>
     <t>MEDINA GUTIERREZ YEFERSON FREDY</t>
   </si>
   <si>
@@ -1042,9 +1036,6 @@
     <t>MIGUEL LUDOWIEG S A</t>
   </si>
   <si>
-    <t>199411|202507|202508|202509</t>
-  </si>
-  <si>
     <t>LH SERVICIOS CATERING S.A.C.</t>
   </si>
   <si>
@@ -1139,6 +1130,171 @@
   </si>
   <si>
     <t>sonia.perez@silvertechperu.com.pe</t>
+  </si>
+  <si>
+    <t>legal@servicont.com.pe , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>PAD HOUSE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ALIENWELD PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>ALQAMARI SERVICES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CAUCHO Y MATRICES B.D. E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GRUPO CH &amp; M SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>TABLEROS BREÑA S.A.C.</t>
+  </si>
+  <si>
+    <t>ORE LUNA CARLA MARIA</t>
+  </si>
+  <si>
+    <t>SPARTA PERU EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>spartaperu@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>VARESE CARMELA</t>
+  </si>
+  <si>
+    <t>INVERSIONES REFCH E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EMPERATRIZ</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES PARAGUAYO S.A.C.</t>
+  </si>
+  <si>
+    <t>PEDRO COIFFURE SAC</t>
+  </si>
+  <si>
+    <t>YSELMIX S.A.C.</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES JUVASA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>cyntia.valerai@gmail.com , cpcvict@hotmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>INGETEC &amp; CONSTRUCCIÓN PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>VALERICK S.A.C.</t>
+  </si>
+  <si>
+    <t>MULTISERVICIOS MENA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>josepablomenasflores25@gmail.com</t>
+  </si>
+  <si>
+    <t>ATESA TRANS E.I.R.L</t>
+  </si>
+  <si>
+    <t>GABRIEL GAVILANO</t>
+  </si>
+  <si>
+    <t>GRUPO DUOFARMA PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ ACEVEDO ROSELIN DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>AVERE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>jcamacho3193@gmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>SANTOS HUAMANCUSI CIRILO JULIO</t>
+  </si>
+  <si>
+    <t>santo1834@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>OVM SAC</t>
+  </si>
+  <si>
+    <t>TRANSCASE SERVICIOS LOGISTICOS S.A.C.</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA SEVILLANO SARA MILAGROS</t>
+  </si>
+  <si>
+    <t>MECANORT TRUCKS S.A.C.</t>
+  </si>
+  <si>
+    <t>ITS MANAGEMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>ARNES DE VICENTE JORGE</t>
+  </si>
+  <si>
+    <t>TRANSPORTES Y SERVICIOS KRAM E.I.R.L. - TRANSKRAM E.I.R.L.</t>
+  </si>
+  <si>
+    <t>administracion .</t>
+  </si>
+  <si>
+    <t>MEDIC CENTER FULL VISION S.A.C.</t>
+  </si>
+  <si>
+    <t>REFRIGERACION Y SERVICIOS GENERALES ALCASA S.A.C.</t>
+  </si>
+  <si>
+    <t>PRESUNTA</t>
+  </si>
+  <si>
+    <t>PRIMA_AFP_PRESUNTA</t>
+  </si>
+  <si>
+    <t>GEOMATICA SOLUCIONES S.A.C</t>
+  </si>
+  <si>
+    <t>CHACOSEG S.R.L.</t>
+  </si>
+  <si>
+    <t>pauci_258@hotmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>MARAVI LAGOS JORGE</t>
+  </si>
+  <si>
+    <t>MECANICA DE ASCENSORES ALAMA CARRASCO JAN CARLOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>UNIT FOOD HEALTH S.A.C.</t>
+  </si>
+  <si>
+    <t>202302|202303|202304|202305|202306|202307|202308|202508</t>
+  </si>
+  <si>
+    <t>202204|202205|202208|202212|202301|202302|202303|202304|202305|202306|202508|202509</t>
+  </si>
+  <si>
+    <t>OJEDA OCHOA BENJAMIN</t>
+  </si>
+  <si>
+    <t>benja1481@hotmail.com</t>
+  </si>
+  <si>
+    <t>QUISPE MONGE YOSELYN ERIKA</t>
+  </si>
+  <si>
+    <t>AZ ESTRUCTURAS S.A.C.</t>
+  </si>
+  <si>
+    <t>Ravelocastroluis@outlook.com , asesor30@gicoronado.com</t>
   </si>
 </sst>
 </file>
@@ -2030,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O224"/>
+  <dimension ref="A1:O260"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O224"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3836,7 +3992,7 @@
         <v>202509</v>
       </c>
       <c r="N43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -3991,7 +4147,7 @@
         <v>202509</v>
       </c>
       <c r="N47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -4137,7 +4293,7 @@
         <v>202509</v>
       </c>
       <c r="N51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -4216,7 +4372,7 @@
         <v>37</v>
       </c>
       <c r="N53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -4257,10 +4413,10 @@
         <v>39</v>
       </c>
       <c r="N54" t="s">
+        <v>263</v>
+      </c>
+      <c r="O54" t="s">
         <v>264</v>
-      </c>
-      <c r="O54" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -4301,7 +4457,7 @@
         <v>202509</v>
       </c>
       <c r="N55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -4342,7 +4498,7 @@
         <v>202509</v>
       </c>
       <c r="N56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -4383,7 +4539,7 @@
         <v>202509</v>
       </c>
       <c r="N57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -4424,7 +4580,7 @@
         <v>202509</v>
       </c>
       <c r="N58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -4465,7 +4621,7 @@
         <v>37</v>
       </c>
       <c r="N59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -4620,10 +4776,10 @@
         <v>202509</v>
       </c>
       <c r="N63" t="s">
+        <v>269</v>
+      </c>
+      <c r="O63" t="s">
         <v>270</v>
-      </c>
-      <c r="O63" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -4702,7 +4858,7 @@
         <v>202509</v>
       </c>
       <c r="N65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -4819,7 +4975,7 @@
         <v>202509</v>
       </c>
       <c r="N68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -4860,10 +5016,10 @@
         <v>202509</v>
       </c>
       <c r="N69" t="s">
+        <v>273</v>
+      </c>
+      <c r="O69" t="s">
         <v>274</v>
-      </c>
-      <c r="O69" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -4942,7 +5098,7 @@
         <v>202509</v>
       </c>
       <c r="N71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -5021,7 +5177,7 @@
         <v>202509</v>
       </c>
       <c r="N73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -5100,7 +5256,7 @@
         <v>202509</v>
       </c>
       <c r="N75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -5217,7 +5373,7 @@
         <v>202509</v>
       </c>
       <c r="N78" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -5448,7 +5604,7 @@
         <v>37</v>
       </c>
       <c r="N84" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -5489,7 +5645,7 @@
         <v>202509</v>
       </c>
       <c r="N85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -5568,7 +5724,7 @@
         <v>202509</v>
       </c>
       <c r="N87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -5609,7 +5765,7 @@
         <v>202509</v>
       </c>
       <c r="N88" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -5726,7 +5882,7 @@
         <v>202509</v>
       </c>
       <c r="O91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -5767,7 +5923,7 @@
         <v>202509</v>
       </c>
       <c r="N92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -5925,7 +6081,7 @@
         <v>202509</v>
       </c>
       <c r="N96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -5966,7 +6122,7 @@
         <v>202509</v>
       </c>
       <c r="N97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -6083,7 +6239,7 @@
         <v>202509</v>
       </c>
       <c r="N100" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -6200,7 +6356,7 @@
         <v>202509</v>
       </c>
       <c r="N103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -6279,7 +6435,7 @@
         <v>202509</v>
       </c>
       <c r="N105" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -6361,7 +6517,7 @@
         <v>202509</v>
       </c>
       <c r="N107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -6402,7 +6558,7 @@
         <v>202509</v>
       </c>
       <c r="N108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -6510,7 +6666,7 @@
         <v>202509</v>
       </c>
       <c r="N111" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -6589,7 +6745,7 @@
         <v>202509</v>
       </c>
       <c r="N113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -6668,7 +6824,7 @@
         <v>202509</v>
       </c>
       <c r="N115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -6747,7 +6903,7 @@
         <v>202509</v>
       </c>
       <c r="N117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -6978,7 +7134,7 @@
         <v>202509</v>
       </c>
       <c r="N123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
@@ -7057,7 +7213,7 @@
         <v>202509</v>
       </c>
       <c r="N125" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
@@ -7098,7 +7254,7 @@
         <v>202509</v>
       </c>
       <c r="N126" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -7215,7 +7371,7 @@
         <v>202509</v>
       </c>
       <c r="N129" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -7323,7 +7479,7 @@
         <v>202509</v>
       </c>
       <c r="N132" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
@@ -7364,7 +7520,7 @@
         <v>202509</v>
       </c>
       <c r="N133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
@@ -7481,7 +7637,7 @@
         <v>202509</v>
       </c>
       <c r="N136" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
@@ -7598,7 +7754,7 @@
         <v>36</v>
       </c>
       <c r="N139" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
@@ -7677,7 +7833,7 @@
         <v>37</v>
       </c>
       <c r="N141" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -7756,7 +7912,7 @@
         <v>202509</v>
       </c>
       <c r="N143" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -7826,7 +7982,7 @@
         <v>202509</v>
       </c>
       <c r="N145" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -7867,7 +8023,7 @@
         <v>202509</v>
       </c>
       <c r="N146" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -7908,7 +8064,7 @@
         <v>202509</v>
       </c>
       <c r="N147" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -7990,7 +8146,7 @@
         <v>38</v>
       </c>
       <c r="N149" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -8031,7 +8187,7 @@
         <v>202509</v>
       </c>
       <c r="N150" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -8072,7 +8228,7 @@
         <v>202509</v>
       </c>
       <c r="N151" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -8142,7 +8298,7 @@
         <v>202509</v>
       </c>
       <c r="N153" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -8183,7 +8339,7 @@
         <v>202509</v>
       </c>
       <c r="N154" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -8490,7 +8646,7 @@
         <v>37</v>
       </c>
       <c r="N162" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -8607,7 +8763,7 @@
         <v>219</v>
       </c>
       <c r="N165" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -8753,7 +8909,7 @@
         <v>38</v>
       </c>
       <c r="N169" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -8794,7 +8950,7 @@
         <v>202509</v>
       </c>
       <c r="N170" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -8835,7 +8991,7 @@
         <v>202509</v>
       </c>
       <c r="N171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -8908,13 +9064,13 @@
         <v>66.099999999999994</v>
       </c>
       <c r="K173" t="s">
-        <v>29</v>
-      </c>
-      <c r="M173">
+        <v>18</v>
+      </c>
+      <c r="L173">
         <v>202509</v>
       </c>
       <c r="N173" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -8993,7 +9149,7 @@
         <v>202509</v>
       </c>
       <c r="N175" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
@@ -9034,7 +9190,7 @@
         <v>202509</v>
       </c>
       <c r="N176" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
@@ -9151,7 +9307,7 @@
         <v>202509</v>
       </c>
       <c r="N179" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
@@ -9192,7 +9348,7 @@
         <v>202509</v>
       </c>
       <c r="N180" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
@@ -9309,7 +9465,7 @@
         <v>202509</v>
       </c>
       <c r="N183" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
@@ -9387,8 +9543,8 @@
       <c r="L185" t="s">
         <v>24</v>
       </c>
-      <c r="M185" t="s">
-        <v>324</v>
+      <c r="M185">
+        <v>202509</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
@@ -9467,7 +9623,7 @@
         <v>202509</v>
       </c>
       <c r="N187" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
@@ -9546,7 +9702,7 @@
         <v>202509</v>
       </c>
       <c r="N189" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
@@ -9587,7 +9743,7 @@
         <v>202509</v>
       </c>
       <c r="N190" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
@@ -9628,7 +9784,7 @@
         <v>202509</v>
       </c>
       <c r="N191" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
@@ -9669,7 +9825,7 @@
         <v>202509</v>
       </c>
       <c r="N192" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
@@ -9786,7 +9942,7 @@
         <v>202509</v>
       </c>
       <c r="N195" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
@@ -9829,51 +9985,51 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>76287269</v>
+        <v>76285404</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C197">
         <v>45962</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E197" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F197">
-        <v>41562424</v>
+        <v>20606268859</v>
       </c>
       <c r="G197" t="s">
         <v>254</v>
       </c>
       <c r="H197">
-        <v>10415624242</v>
+        <v>20606268859</v>
       </c>
       <c r="I197">
-        <v>45980</v>
+        <v>45979</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K197" t="s">
-        <v>29</v>
-      </c>
-      <c r="M197">
+        <v>18</v>
+      </c>
+      <c r="L197">
         <v>202509</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>76285404</v>
+        <v>76283921</v>
       </c>
       <c r="B198" t="s">
-        <v>19</v>
-      </c>
-      <c r="C198">
-        <v>45962</v>
+        <v>30</v>
+      </c>
+      <c r="C198" t="s">
+        <v>83</v>
       </c>
       <c r="D198" t="s">
         <v>20</v>
@@ -9882,13 +10038,13 @@
         <v>21</v>
       </c>
       <c r="F198">
-        <v>20606268859</v>
+        <v>20600510330</v>
       </c>
       <c r="G198" t="s">
         <v>255</v>
       </c>
       <c r="H198">
-        <v>20606268859</v>
+        <v>20600510330</v>
       </c>
       <c r="I198">
         <v>45979</v>
@@ -9897,21 +10053,24 @@
         <v>66.099999999999994</v>
       </c>
       <c r="K198" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L198">
+        <v>202508</v>
+      </c>
+      <c r="M198">
         <v>202509</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>76283921</v>
+        <v>76282283</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
-      </c>
-      <c r="C199" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="C199">
+        <v>45962</v>
       </c>
       <c r="D199" t="s">
         <v>20</v>
@@ -9920,33 +10079,33 @@
         <v>21</v>
       </c>
       <c r="F199">
-        <v>20600510330</v>
+        <v>20445228291</v>
       </c>
       <c r="G199" t="s">
         <v>256</v>
       </c>
       <c r="H199">
-        <v>20600510330</v>
+        <v>20445228291</v>
       </c>
       <c r="I199">
-        <v>45979</v>
+        <v>45973</v>
       </c>
       <c r="J199">
-        <v>66.099999999999994</v>
+        <v>68.97</v>
       </c>
       <c r="K199" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L199">
-        <v>202508</v>
-      </c>
-      <c r="M199">
-        <v>202509</v>
+        <v>202509</v>
+      </c>
+      <c r="N199" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>76282283</v>
+        <v>76282715</v>
       </c>
       <c r="B200" t="s">
         <v>19</v>
@@ -9961,39 +10120,36 @@
         <v>21</v>
       </c>
       <c r="F200">
-        <v>20445228291</v>
+        <v>20509192694</v>
       </c>
       <c r="G200" t="s">
         <v>257</v>
       </c>
       <c r="H200">
-        <v>20445228291</v>
+        <v>20509192694</v>
       </c>
       <c r="I200">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="J200">
-        <v>68.97</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K200" t="s">
         <v>18</v>
       </c>
       <c r="L200">
         <v>202509</v>
-      </c>
-      <c r="N200" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>76282715</v>
+        <v>76285424</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
-      </c>
-      <c r="C201">
-        <v>45962</v>
+        <v>30</v>
+      </c>
+      <c r="C201" t="s">
+        <v>83</v>
       </c>
       <c r="D201" t="s">
         <v>20</v>
@@ -10002,13 +10158,13 @@
         <v>21</v>
       </c>
       <c r="F201">
-        <v>20509192694</v>
+        <v>20606379588</v>
       </c>
       <c r="G201" t="s">
         <v>258</v>
       </c>
       <c r="H201">
-        <v>20509192694</v>
+        <v>20606379588</v>
       </c>
       <c r="I201">
         <v>45979</v>
@@ -10025,13 +10181,13 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>76285424</v>
+        <v>76282413</v>
       </c>
       <c r="B202" t="s">
-        <v>30</v>
-      </c>
-      <c r="C202" t="s">
-        <v>83</v>
+        <v>26</v>
+      </c>
+      <c r="C202">
+        <v>45962</v>
       </c>
       <c r="D202" t="s">
         <v>20</v>
@@ -10040,16 +10196,16 @@
         <v>21</v>
       </c>
       <c r="F202">
-        <v>20606379588</v>
+        <v>20477705724</v>
       </c>
       <c r="G202" t="s">
-        <v>259</v>
+        <v>330</v>
       </c>
       <c r="H202">
-        <v>20606379588</v>
+        <v>20477705724</v>
       </c>
       <c r="I202">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="J202">
         <v>66.099999999999994</v>
@@ -10059,14 +10215,17 @@
       </c>
       <c r="L202">
         <v>202509</v>
+      </c>
+      <c r="N202" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>76282413</v>
+        <v>76284018</v>
       </c>
       <c r="B203" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C203">
         <v>45962</v>
@@ -10078,25 +10237,25 @@
         <v>21</v>
       </c>
       <c r="F203">
-        <v>20477705724</v>
+        <v>20600863518</v>
       </c>
       <c r="G203" t="s">
         <v>332</v>
       </c>
       <c r="H203">
-        <v>20477705724</v>
+        <v>20600863518</v>
       </c>
       <c r="I203">
         <v>45980</v>
       </c>
       <c r="J203">
-        <v>66.099999999999994</v>
+        <v>135.08000000000001</v>
       </c>
       <c r="K203" t="s">
         <v>18</v>
       </c>
-      <c r="L203">
-        <v>202509</v>
+      <c r="L203" t="s">
+        <v>37</v>
       </c>
       <c r="N203" t="s">
         <v>333</v>
@@ -10104,34 +10263,34 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>76284018</v>
+        <v>76288513</v>
       </c>
       <c r="B204" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C204">
         <v>45962</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E204" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F204">
-        <v>20600863518</v>
+        <v>20610901418</v>
       </c>
       <c r="G204" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H204">
-        <v>20600863518</v>
+        <v>20610901418</v>
       </c>
       <c r="I204">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="J204">
-        <v>135.08000000000001</v>
+        <v>77.260000000000005</v>
       </c>
       <c r="K204" t="s">
         <v>18</v>
@@ -10139,133 +10298,133 @@
       <c r="L204" t="s">
         <v>37</v>
       </c>
-      <c r="N204" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>76282068</v>
+        <v>76287917</v>
       </c>
       <c r="B205" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C205">
         <v>45962</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E205" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F205">
-        <v>20102164866</v>
+        <v>20600891082</v>
       </c>
       <c r="G205" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H205">
-        <v>20102164866</v>
+        <v>20600891082</v>
       </c>
       <c r="I205">
         <v>45980</v>
       </c>
       <c r="J205">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K205" t="s">
-        <v>29</v>
-      </c>
-      <c r="M205" t="s">
-        <v>337</v>
+        <v>18</v>
+      </c>
+      <c r="L205">
+        <v>202509</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>76288513</v>
+        <v>76286880</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
-      </c>
-      <c r="C206">
-        <v>45962</v>
+        <v>33</v>
+      </c>
+      <c r="C206" t="s">
+        <v>83</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E206" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F206">
-        <v>20610901418</v>
+        <v>20612966797</v>
       </c>
       <c r="G206" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H206">
-        <v>20610901418</v>
+        <v>20612966797</v>
       </c>
       <c r="I206">
-        <v>45981</v>
+        <v>45980</v>
       </c>
       <c r="J206">
-        <v>77.260000000000005</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K206" t="s">
         <v>18</v>
       </c>
-      <c r="L206" t="s">
-        <v>37</v>
+      <c r="L206">
+        <v>202509</v>
+      </c>
+      <c r="N206" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>76287917</v>
+        <v>76308331</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
-      </c>
-      <c r="C207">
-        <v>45962</v>
+        <v>338</v>
+      </c>
+      <c r="C207" t="s">
+        <v>83</v>
       </c>
       <c r="D207" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E207" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F207">
-        <v>20600891082</v>
+        <v>20515270036</v>
       </c>
       <c r="G207" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H207">
-        <v>20600891082</v>
+        <v>20515270036</v>
       </c>
       <c r="I207">
         <v>45980</v>
       </c>
       <c r="J207">
-        <v>126</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K207" t="s">
         <v>18</v>
       </c>
-      <c r="L207">
-        <v>202509</v>
+      <c r="L207" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>76286880</v>
+        <v>76284352</v>
       </c>
       <c r="B208" t="s">
-        <v>33</v>
-      </c>
-      <c r="C208" t="s">
-        <v>83</v>
+        <v>26</v>
+      </c>
+      <c r="C208">
+        <v>45962</v>
       </c>
       <c r="D208" t="s">
         <v>20</v>
@@ -10274,13 +10433,13 @@
         <v>21</v>
       </c>
       <c r="F208">
-        <v>20612966797</v>
+        <v>20601931461</v>
       </c>
       <c r="G208" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H208">
-        <v>20612966797</v>
+        <v>20601931461</v>
       </c>
       <c r="I208">
         <v>45980</v>
@@ -10295,71 +10454,74 @@
         <v>202509</v>
       </c>
       <c r="N208" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>76308331</v>
+        <v>76284257</v>
       </c>
       <c r="B209" t="s">
-        <v>341</v>
+        <v>22</v>
       </c>
       <c r="C209" t="s">
         <v>83</v>
       </c>
       <c r="D209" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E209" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F209">
-        <v>20515270036</v>
+        <v>20601648661</v>
       </c>
       <c r="G209" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H209">
-        <v>20515270036</v>
+        <v>20601648661</v>
       </c>
       <c r="I209">
         <v>45980</v>
       </c>
       <c r="J209">
-        <v>66.099999999999994</v>
+        <v>55</v>
       </c>
       <c r="K209" t="s">
-        <v>29</v>
-      </c>
-      <c r="M209" t="s">
-        <v>343</v>
+        <v>18</v>
+      </c>
+      <c r="L209" t="s">
+        <v>37</v>
+      </c>
+      <c r="N209" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>76284352</v>
+        <v>76308601</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
-      </c>
-      <c r="C210">
-        <v>45962</v>
+        <v>33</v>
+      </c>
+      <c r="C210" t="s">
+        <v>83</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E210" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F210">
-        <v>20601931461</v>
+        <v>20613793357</v>
       </c>
       <c r="G210" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H210">
-        <v>20601931461</v>
+        <v>20613793357</v>
       </c>
       <c r="I210">
         <v>45980</v>
@@ -10371,21 +10533,18 @@
         <v>18</v>
       </c>
       <c r="L210">
-        <v>202509</v>
-      </c>
-      <c r="N210" t="s">
-        <v>345</v>
+        <v>202508</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>76284257</v>
+        <v>76283119</v>
       </c>
       <c r="B211" t="s">
-        <v>22</v>
-      </c>
-      <c r="C211" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="C211">
+        <v>45962</v>
       </c>
       <c r="D211" t="s">
         <v>20</v>
@@ -10394,74 +10553,77 @@
         <v>21</v>
       </c>
       <c r="F211">
-        <v>20601648661</v>
+        <v>20534966017</v>
       </c>
       <c r="G211" t="s">
         <v>347</v>
       </c>
       <c r="H211">
-        <v>20601648661</v>
+        <v>20534966017</v>
       </c>
       <c r="I211">
         <v>45980</v>
       </c>
       <c r="J211">
-        <v>55</v>
+        <v>93.57</v>
       </c>
       <c r="K211" t="s">
         <v>18</v>
       </c>
       <c r="L211" t="s">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="N211" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>76308601</v>
+        <v>76284583</v>
       </c>
       <c r="B212" t="s">
-        <v>33</v>
-      </c>
-      <c r="C212" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="C212">
+        <v>45962</v>
       </c>
       <c r="D212" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E212" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F212">
-        <v>20613793357</v>
+        <v>20602748864</v>
       </c>
       <c r="G212" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H212">
-        <v>20613793357</v>
+        <v>20602748864</v>
       </c>
       <c r="I212">
         <v>45980</v>
       </c>
       <c r="J212">
-        <v>66.099999999999994</v>
+        <v>50</v>
       </c>
       <c r="K212" t="s">
         <v>18</v>
       </c>
-      <c r="L212">
-        <v>202508</v>
+      <c r="L212" t="s">
+        <v>37</v>
+      </c>
+      <c r="N212" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>76283119</v>
+        <v>76284433</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C213">
         <v>45962</v>
@@ -10473,39 +10635,39 @@
         <v>21</v>
       </c>
       <c r="F213">
-        <v>20534966017</v>
+        <v>20602195121</v>
       </c>
       <c r="G213" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H213">
-        <v>20534966017</v>
+        <v>20602195121</v>
       </c>
       <c r="I213">
         <v>45980</v>
       </c>
       <c r="J213">
-        <v>93.57</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K213" t="s">
-        <v>29</v>
-      </c>
-      <c r="M213" t="s">
-        <v>351</v>
+        <v>18</v>
+      </c>
+      <c r="L213" t="s">
+        <v>37</v>
       </c>
       <c r="N213" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>76284583</v>
+        <v>76285594</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
-      </c>
-      <c r="C214">
-        <v>45962</v>
+        <v>22</v>
+      </c>
+      <c r="C214" t="s">
+        <v>83</v>
       </c>
       <c r="D214" t="s">
         <v>20</v>
@@ -10514,33 +10676,36 @@
         <v>21</v>
       </c>
       <c r="F214">
-        <v>20602748864</v>
+        <v>20607244686</v>
       </c>
       <c r="G214" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H214">
-        <v>20602748864</v>
+        <v>20607244686</v>
       </c>
       <c r="I214">
         <v>45980</v>
       </c>
       <c r="J214">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="K214" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L214" t="s">
         <v>37</v>
       </c>
+      <c r="M214">
+        <v>202509</v>
+      </c>
       <c r="N214" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>76284433</v>
+        <v>76286388</v>
       </c>
       <c r="B215" t="s">
         <v>26</v>
@@ -10555,13 +10720,13 @@
         <v>21</v>
       </c>
       <c r="F215">
-        <v>20602195121</v>
+        <v>20610708219</v>
       </c>
       <c r="G215" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H215">
-        <v>20602195121</v>
+        <v>20610708219</v>
       </c>
       <c r="I215">
         <v>45980</v>
@@ -10570,130 +10735,121 @@
         <v>66.099999999999994</v>
       </c>
       <c r="K215" t="s">
-        <v>29</v>
-      </c>
-      <c r="M215" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="L215">
+        <v>202508</v>
       </c>
       <c r="N215" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>76285594</v>
+        <v>76288448</v>
       </c>
       <c r="B216" t="s">
-        <v>22</v>
-      </c>
-      <c r="C216" t="s">
-        <v>83</v>
+        <v>28</v>
+      </c>
+      <c r="C216">
+        <v>45962</v>
       </c>
       <c r="D216" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E216" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F216">
-        <v>20607244686</v>
+        <v>20609879077</v>
       </c>
       <c r="G216" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H216">
-        <v>20607244686</v>
+        <v>20609879077</v>
       </c>
       <c r="I216">
-        <v>45980</v>
+        <v>45975</v>
       </c>
       <c r="J216">
-        <v>103</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K216" t="s">
-        <v>23</v>
-      </c>
-      <c r="L216" t="s">
-        <v>37</v>
-      </c>
-      <c r="M216">
-        <v>202509</v>
-      </c>
-      <c r="N216" t="s">
-        <v>358</v>
+        <v>18</v>
+      </c>
+      <c r="L216">
+        <v>202509</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>76286388</v>
+        <v>76287714</v>
       </c>
       <c r="B217" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C217">
         <v>45962</v>
       </c>
       <c r="D217" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E217" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F217">
-        <v>20610708219</v>
+        <v>20539913191</v>
       </c>
       <c r="G217" t="s">
         <v>359</v>
       </c>
       <c r="H217">
-        <v>20610708219</v>
+        <v>20539913191</v>
       </c>
       <c r="I217">
         <v>45980</v>
       </c>
       <c r="J217">
-        <v>66.099999999999994</v>
+        <v>69.11</v>
       </c>
       <c r="K217" t="s">
-        <v>29</v>
-      </c>
-      <c r="M217">
-        <v>202508</v>
-      </c>
-      <c r="N217" t="s">
+        <v>18</v>
+      </c>
+      <c r="L217" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>76288448</v>
+        <v>76284222</v>
       </c>
       <c r="B218" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C218">
         <v>45962</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E218" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F218">
-        <v>20609879077</v>
+        <v>20601507111</v>
       </c>
       <c r="G218" t="s">
         <v>361</v>
       </c>
       <c r="H218">
-        <v>20609879077</v>
+        <v>20601507111</v>
       </c>
       <c r="I218">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="J218">
-        <v>66.099999999999994</v>
+        <v>183.79</v>
       </c>
       <c r="K218" t="s">
         <v>18</v>
@@ -10704,72 +10860,75 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>76287714</v>
+        <v>76284947</v>
       </c>
       <c r="B219" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C219">
         <v>45962</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E219" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F219">
-        <v>20539913191</v>
+        <v>20604173575</v>
       </c>
       <c r="G219" t="s">
         <v>362</v>
       </c>
       <c r="H219">
-        <v>20539913191</v>
+        <v>20604173575</v>
       </c>
       <c r="I219">
         <v>45980</v>
       </c>
       <c r="J219">
-        <v>69.11</v>
+        <v>152.11000000000001</v>
       </c>
       <c r="K219" t="s">
         <v>18</v>
       </c>
-      <c r="L219" t="s">
-        <v>363</v>
+      <c r="L219">
+        <v>202509</v>
+      </c>
+      <c r="N219" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>76284222</v>
+        <v>76288173</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C220">
         <v>45962</v>
       </c>
       <c r="D220" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E220" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F220">
-        <v>20601507111</v>
+        <v>20604802602</v>
       </c>
       <c r="G220" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H220">
-        <v>20601507111</v>
+        <v>20604802602</v>
       </c>
       <c r="I220">
         <v>45980</v>
       </c>
       <c r="J220">
-        <v>183.79</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K220" t="s">
         <v>18</v>
@@ -10780,69 +10939,66 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>76284947</v>
+        <v>76287949</v>
       </c>
       <c r="B221" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C221">
         <v>45962</v>
       </c>
       <c r="D221" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E221" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F221">
-        <v>20604173575</v>
+        <v>20601369827</v>
       </c>
       <c r="G221" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H221">
-        <v>20604173575</v>
+        <v>20601369827</v>
       </c>
       <c r="I221">
-        <v>45980</v>
+        <v>45979</v>
       </c>
       <c r="J221">
-        <v>152.11000000000001</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K221" t="s">
         <v>18</v>
       </c>
       <c r="L221">
         <v>202509</v>
-      </c>
-      <c r="N221" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>76288173</v>
+        <v>76282852</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C222">
         <v>45962</v>
       </c>
       <c r="D222" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E222" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F222">
-        <v>20604802602</v>
+        <v>20517143261</v>
       </c>
       <c r="G222" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H222">
-        <v>20604802602</v>
+        <v>20517143261</v>
       </c>
       <c r="I222">
         <v>45980</v>
@@ -10856,51 +11012,60 @@
       <c r="L222">
         <v>202509</v>
       </c>
+      <c r="N222" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>76287949</v>
+        <v>76282068</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C223">
         <v>45962</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E223" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F223">
-        <v>20601369827</v>
+        <v>20102164866</v>
       </c>
       <c r="G223" t="s">
+        <v>334</v>
+      </c>
+      <c r="H223">
+        <v>20102164866</v>
+      </c>
+      <c r="I223">
+        <v>45981</v>
+      </c>
+      <c r="J223">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K223" t="s">
+        <v>23</v>
+      </c>
+      <c r="L223" t="s">
+        <v>39</v>
+      </c>
+      <c r="M223">
+        <v>199411</v>
+      </c>
+      <c r="N223" t="s">
         <v>367</v>
-      </c>
-      <c r="H223">
-        <v>20601369827</v>
-      </c>
-      <c r="I223">
-        <v>45979</v>
-      </c>
-      <c r="J223">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K223" t="s">
-        <v>18</v>
-      </c>
-      <c r="L223">
-        <v>202509</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>76282852</v>
+        <v>76285327</v>
       </c>
       <c r="B224" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C224">
         <v>45962</v>
@@ -10912,28 +11077,1435 @@
         <v>21</v>
       </c>
       <c r="F224">
-        <v>20517143261</v>
+        <v>20606012463</v>
       </c>
       <c r="G224" t="s">
         <v>368</v>
       </c>
       <c r="H224">
-        <v>20517143261</v>
+        <v>20606012463</v>
       </c>
       <c r="I224">
+        <v>45981</v>
+      </c>
+      <c r="J224">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K224" t="s">
+        <v>18</v>
+      </c>
+      <c r="L224">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>76288578</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225">
+        <v>45962</v>
+      </c>
+      <c r="D225" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225">
+        <v>20611980745</v>
+      </c>
+      <c r="G225" t="s">
+        <v>369</v>
+      </c>
+      <c r="H225">
+        <v>20611980745</v>
+      </c>
+      <c r="I225">
+        <v>45981</v>
+      </c>
+      <c r="J225">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K225" t="s">
+        <v>18</v>
+      </c>
+      <c r="L225">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>76288206</v>
+      </c>
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226">
+        <v>45962</v>
+      </c>
+      <c r="D226" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" t="s">
+        <v>17</v>
+      </c>
+      <c r="F226">
+        <v>20605405577</v>
+      </c>
+      <c r="G226" t="s">
+        <v>370</v>
+      </c>
+      <c r="H226">
+        <v>20605405577</v>
+      </c>
+      <c r="I226">
+        <v>45981</v>
+      </c>
+      <c r="J226">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K226" t="s">
+        <v>18</v>
+      </c>
+      <c r="L226">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>76287763</v>
+      </c>
+      <c r="B227" t="s">
+        <v>28</v>
+      </c>
+      <c r="C227">
+        <v>45962</v>
+      </c>
+      <c r="D227" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227">
+        <v>20550905303</v>
+      </c>
+      <c r="G227" t="s">
+        <v>371</v>
+      </c>
+      <c r="H227">
+        <v>20550905303</v>
+      </c>
+      <c r="I227">
+        <v>45981</v>
+      </c>
+      <c r="J227">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K227" t="s">
+        <v>18</v>
+      </c>
+      <c r="L227">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>76285327</v>
+      </c>
+      <c r="B228" t="s">
+        <v>26</v>
+      </c>
+      <c r="C228">
+        <v>45962</v>
+      </c>
+      <c r="D228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" t="s">
+        <v>21</v>
+      </c>
+      <c r="F228">
+        <v>20606012463</v>
+      </c>
+      <c r="G228" t="s">
+        <v>368</v>
+      </c>
+      <c r="H228">
+        <v>20606012463</v>
+      </c>
+      <c r="I228">
         <v>45980</v>
       </c>
-      <c r="J224">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K224" t="s">
-        <v>18</v>
-      </c>
-      <c r="L224">
-        <v>202509</v>
-      </c>
-      <c r="N224" t="s">
-        <v>369</v>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228" t="s">
+        <v>18</v>
+      </c>
+      <c r="L228">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>76282300</v>
+      </c>
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229">
+        <v>45962</v>
+      </c>
+      <c r="D229" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" t="s">
+        <v>21</v>
+      </c>
+      <c r="F229">
+        <v>20448771475</v>
+      </c>
+      <c r="G229" t="s">
+        <v>372</v>
+      </c>
+      <c r="H229">
+        <v>20448771475</v>
+      </c>
+      <c r="I229">
+        <v>45981</v>
+      </c>
+      <c r="J229">
+        <v>120</v>
+      </c>
+      <c r="K229" t="s">
+        <v>23</v>
+      </c>
+      <c r="L229">
+        <v>202509</v>
+      </c>
+      <c r="M229">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>76286859</v>
+      </c>
+      <c r="B230" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" t="s">
+        <v>83</v>
+      </c>
+      <c r="D230" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230" t="s">
+        <v>21</v>
+      </c>
+      <c r="F230">
+        <v>20612873497</v>
+      </c>
+      <c r="G230" t="s">
+        <v>373</v>
+      </c>
+      <c r="H230">
+        <v>20612873497</v>
+      </c>
+      <c r="I230">
+        <v>45979</v>
+      </c>
+      <c r="J230">
+        <v>93</v>
+      </c>
+      <c r="K230" t="s">
+        <v>18</v>
+      </c>
+      <c r="L230" t="s">
+        <v>37</v>
+      </c>
+      <c r="N230" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>76283623</v>
+      </c>
+      <c r="B231" t="s">
+        <v>26</v>
+      </c>
+      <c r="C231">
+        <v>45962</v>
+      </c>
+      <c r="D231" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231">
+        <v>20558152321</v>
+      </c>
+      <c r="G231" t="s">
+        <v>375</v>
+      </c>
+      <c r="H231">
+        <v>20558152321</v>
+      </c>
+      <c r="I231">
+        <v>45981</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231" t="s">
+        <v>29</v>
+      </c>
+      <c r="M231" t="s">
+        <v>39</v>
+      </c>
+      <c r="N231" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>76282058</v>
+      </c>
+      <c r="B232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232">
+        <v>45962</v>
+      </c>
+      <c r="D232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" t="s">
+        <v>21</v>
+      </c>
+      <c r="F232">
+        <v>15603065121</v>
+      </c>
+      <c r="G232" t="s">
+        <v>377</v>
+      </c>
+      <c r="H232">
+        <v>15603065121</v>
+      </c>
+      <c r="I232">
+        <v>45980</v>
+      </c>
+      <c r="J232">
+        <v>70</v>
+      </c>
+      <c r="K232" t="s">
+        <v>18</v>
+      </c>
+      <c r="L232">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>76283527</v>
+      </c>
+      <c r="B233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" t="s">
+        <v>83</v>
+      </c>
+      <c r="D233" t="s">
+        <v>20</v>
+      </c>
+      <c r="E233" t="s">
+        <v>21</v>
+      </c>
+      <c r="F233">
+        <v>20554482211</v>
+      </c>
+      <c r="G233" t="s">
+        <v>378</v>
+      </c>
+      <c r="H233">
+        <v>20554482211</v>
+      </c>
+      <c r="I233">
+        <v>45980</v>
+      </c>
+      <c r="J233">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K233" t="s">
+        <v>18</v>
+      </c>
+      <c r="L233" t="s">
+        <v>37</v>
+      </c>
+      <c r="N233" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>76287493</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234">
+        <v>45962</v>
+      </c>
+      <c r="D234" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234">
+        <v>20481733571</v>
+      </c>
+      <c r="G234" t="s">
+        <v>380</v>
+      </c>
+      <c r="H234">
+        <v>20481733571</v>
+      </c>
+      <c r="I234">
+        <v>45980</v>
+      </c>
+      <c r="J234">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K234" t="s">
+        <v>18</v>
+      </c>
+      <c r="L234">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>76287635</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235">
+        <v>45962</v>
+      </c>
+      <c r="D235" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" t="s">
+        <v>17</v>
+      </c>
+      <c r="F235">
+        <v>20522106403</v>
+      </c>
+      <c r="G235" t="s">
+        <v>381</v>
+      </c>
+      <c r="H235">
+        <v>20522106403</v>
+      </c>
+      <c r="I235">
+        <v>45981</v>
+      </c>
+      <c r="J235">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K235" t="s">
+        <v>18</v>
+      </c>
+      <c r="L235">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>76285919</v>
+      </c>
+      <c r="B236" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236">
+        <v>45962</v>
+      </c>
+      <c r="D236" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236" t="s">
+        <v>21</v>
+      </c>
+      <c r="F236">
+        <v>20608786342</v>
+      </c>
+      <c r="G236" t="s">
+        <v>382</v>
+      </c>
+      <c r="H236">
+        <v>20608786342</v>
+      </c>
+      <c r="I236">
+        <v>45980</v>
+      </c>
+      <c r="J236">
+        <v>253.62</v>
+      </c>
+      <c r="K236" t="s">
+        <v>18</v>
+      </c>
+      <c r="L236">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>76282626</v>
+      </c>
+      <c r="B237" t="s">
+        <v>26</v>
+      </c>
+      <c r="C237">
+        <v>45962</v>
+      </c>
+      <c r="D237" t="s">
+        <v>20</v>
+      </c>
+      <c r="E237" t="s">
+        <v>21</v>
+      </c>
+      <c r="F237">
+        <v>20495865747</v>
+      </c>
+      <c r="G237" t="s">
+        <v>383</v>
+      </c>
+      <c r="H237">
+        <v>20495865747</v>
+      </c>
+      <c r="I237">
+        <v>45981</v>
+      </c>
+      <c r="J237">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K237" t="s">
+        <v>18</v>
+      </c>
+      <c r="L237" t="s">
+        <v>37</v>
+      </c>
+      <c r="N237" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>76283520</v>
+      </c>
+      <c r="B238" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238">
+        <v>45962</v>
+      </c>
+      <c r="D238" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238" t="s">
+        <v>21</v>
+      </c>
+      <c r="F238">
+        <v>20554205055</v>
+      </c>
+      <c r="G238" t="s">
+        <v>385</v>
+      </c>
+      <c r="H238">
+        <v>20554205055</v>
+      </c>
+      <c r="I238">
+        <v>45980</v>
+      </c>
+      <c r="J238">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K238" t="s">
+        <v>18</v>
+      </c>
+      <c r="L238">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>76288222</v>
+      </c>
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239">
+        <v>45962</v>
+      </c>
+      <c r="D239" t="s">
+        <v>16</v>
+      </c>
+      <c r="E239" t="s">
+        <v>17</v>
+      </c>
+      <c r="F239">
+        <v>20605628398</v>
+      </c>
+      <c r="G239" t="s">
+        <v>386</v>
+      </c>
+      <c r="H239">
+        <v>20605628398</v>
+      </c>
+      <c r="I239">
+        <v>45981</v>
+      </c>
+      <c r="J239">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K239" t="s">
+        <v>18</v>
+      </c>
+      <c r="L239">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>76286090</v>
+      </c>
+      <c r="B240" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" t="s">
+        <v>83</v>
+      </c>
+      <c r="D240" t="s">
+        <v>20</v>
+      </c>
+      <c r="E240" t="s">
+        <v>21</v>
+      </c>
+      <c r="F240">
+        <v>20609499517</v>
+      </c>
+      <c r="G240" t="s">
+        <v>387</v>
+      </c>
+      <c r="H240">
+        <v>20609499517</v>
+      </c>
+      <c r="I240">
+        <v>45981</v>
+      </c>
+      <c r="J240">
+        <v>91.42</v>
+      </c>
+      <c r="K240" t="s">
+        <v>18</v>
+      </c>
+      <c r="L240">
+        <v>202509</v>
+      </c>
+      <c r="N240" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>76285604</v>
+      </c>
+      <c r="B241" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" t="s">
+        <v>83</v>
+      </c>
+      <c r="D241" t="s">
+        <v>20</v>
+      </c>
+      <c r="E241" t="s">
+        <v>21</v>
+      </c>
+      <c r="F241">
+        <v>20607301515</v>
+      </c>
+      <c r="G241" t="s">
+        <v>389</v>
+      </c>
+      <c r="H241">
+        <v>20607301515</v>
+      </c>
+      <c r="I241">
+        <v>45981</v>
+      </c>
+      <c r="J241">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K241" t="s">
+        <v>18</v>
+      </c>
+      <c r="L241">
+        <v>202509</v>
+      </c>
+      <c r="N241" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>76285467</v>
+      </c>
+      <c r="B242" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242" t="s">
+        <v>83</v>
+      </c>
+      <c r="D242" t="s">
+        <v>20</v>
+      </c>
+      <c r="E242" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242">
+        <v>20606543353</v>
+      </c>
+      <c r="G242" t="s">
+        <v>391</v>
+      </c>
+      <c r="H242">
+        <v>20606543353</v>
+      </c>
+      <c r="I242">
+        <v>45981</v>
+      </c>
+      <c r="J242">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K242" t="s">
+        <v>18</v>
+      </c>
+      <c r="L242" t="s">
+        <v>37</v>
+      </c>
+      <c r="N242" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>76285987</v>
+      </c>
+      <c r="B243" t="s">
+        <v>26</v>
+      </c>
+      <c r="C243">
+        <v>45962</v>
+      </c>
+      <c r="D243" t="s">
+        <v>20</v>
+      </c>
+      <c r="E243" t="s">
+        <v>21</v>
+      </c>
+      <c r="F243">
+        <v>20609057786</v>
+      </c>
+      <c r="G243" t="s">
+        <v>393</v>
+      </c>
+      <c r="H243">
+        <v>20609057786</v>
+      </c>
+      <c r="I243">
+        <v>45979</v>
+      </c>
+      <c r="J243">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K243" t="s">
+        <v>18</v>
+      </c>
+      <c r="L243">
+        <v>202509</v>
+      </c>
+      <c r="N243" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>76281911</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244">
+        <v>45962</v>
+      </c>
+      <c r="D244" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" t="s">
+        <v>21</v>
+      </c>
+      <c r="F244">
+        <v>44380248</v>
+      </c>
+      <c r="G244" t="s">
+        <v>395</v>
+      </c>
+      <c r="H244">
+        <v>10443802482</v>
+      </c>
+      <c r="I244">
+        <v>45980</v>
+      </c>
+      <c r="J244">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K244" t="s">
+        <v>18</v>
+      </c>
+      <c r="L244">
+        <v>202509</v>
+      </c>
+      <c r="N244" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>35</v>
+      </c>
+      <c r="C245" t="s">
+        <v>83</v>
+      </c>
+      <c r="D245" t="s">
+        <v>31</v>
+      </c>
+      <c r="E245" t="s">
+        <v>32</v>
+      </c>
+      <c r="F245">
+        <v>20479722138</v>
+      </c>
+      <c r="G245" t="s">
+        <v>397</v>
+      </c>
+      <c r="H245">
+        <v>20479722138</v>
+      </c>
+      <c r="I245">
+        <v>45981</v>
+      </c>
+      <c r="J245">
+        <v>1291.68</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>76283656</v>
+      </c>
+      <c r="B246" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" t="s">
+        <v>83</v>
+      </c>
+      <c r="D246" t="s">
+        <v>20</v>
+      </c>
+      <c r="E246" t="s">
+        <v>21</v>
+      </c>
+      <c r="F246">
+        <v>20560037628</v>
+      </c>
+      <c r="G246" t="s">
+        <v>398</v>
+      </c>
+      <c r="H246">
+        <v>20560037628</v>
+      </c>
+      <c r="I246">
+        <v>45981</v>
+      </c>
+      <c r="J246">
+        <v>78.959999999999994</v>
+      </c>
+      <c r="K246" t="s">
+        <v>18</v>
+      </c>
+      <c r="L246">
+        <v>202509</v>
+      </c>
+      <c r="N246" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>76284579</v>
+      </c>
+      <c r="B247" t="s">
+        <v>19</v>
+      </c>
+      <c r="C247">
+        <v>45962</v>
+      </c>
+      <c r="D247" t="s">
+        <v>20</v>
+      </c>
+      <c r="E247" t="s">
+        <v>21</v>
+      </c>
+      <c r="F247">
+        <v>20602732828</v>
+      </c>
+      <c r="G247" t="s">
+        <v>400</v>
+      </c>
+      <c r="H247">
+        <v>20602732828</v>
+      </c>
+      <c r="I247">
+        <v>45981</v>
+      </c>
+      <c r="J247">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K247" t="s">
+        <v>18</v>
+      </c>
+      <c r="L247">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>76285904</v>
+      </c>
+      <c r="B248" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" t="s">
+        <v>83</v>
+      </c>
+      <c r="D248" t="s">
+        <v>20</v>
+      </c>
+      <c r="E248" t="s">
+        <v>21</v>
+      </c>
+      <c r="F248">
+        <v>20608703277</v>
+      </c>
+      <c r="G248" t="s">
+        <v>401</v>
+      </c>
+      <c r="H248">
+        <v>20608703277</v>
+      </c>
+      <c r="I248">
+        <v>45981</v>
+      </c>
+      <c r="J248">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K248" t="s">
+        <v>18</v>
+      </c>
+      <c r="L248">
+        <v>202509</v>
+      </c>
+      <c r="N248" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>76283090</v>
+      </c>
+      <c r="B249" t="s">
+        <v>19</v>
+      </c>
+      <c r="C249">
+        <v>45962</v>
+      </c>
+      <c r="D249" t="s">
+        <v>20</v>
+      </c>
+      <c r="E249" t="s">
+        <v>21</v>
+      </c>
+      <c r="F249">
+        <v>20532653917</v>
+      </c>
+      <c r="G249" t="s">
+        <v>403</v>
+      </c>
+      <c r="H249">
+        <v>20532653917</v>
+      </c>
+      <c r="I249">
+        <v>45981</v>
+      </c>
+      <c r="J249">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K249" t="s">
+        <v>18</v>
+      </c>
+      <c r="L249">
+        <v>202509</v>
+      </c>
+      <c r="N249" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>76284117</v>
+      </c>
+      <c r="B250" t="s">
+        <v>19</v>
+      </c>
+      <c r="C250">
+        <v>45962</v>
+      </c>
+      <c r="D250" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" t="s">
+        <v>21</v>
+      </c>
+      <c r="F250">
+        <v>20601229511</v>
+      </c>
+      <c r="G250" t="s">
+        <v>405</v>
+      </c>
+      <c r="H250">
+        <v>20601229511</v>
+      </c>
+      <c r="I250">
+        <v>45981</v>
+      </c>
+      <c r="J250">
+        <v>72.63</v>
+      </c>
+      <c r="K250" t="s">
+        <v>29</v>
+      </c>
+      <c r="M250">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>76286129</v>
+      </c>
+      <c r="B251" t="s">
+        <v>30</v>
+      </c>
+      <c r="C251" t="s">
+        <v>83</v>
+      </c>
+      <c r="D251" t="s">
+        <v>20</v>
+      </c>
+      <c r="E251" t="s">
+        <v>21</v>
+      </c>
+      <c r="F251">
+        <v>20609655870</v>
+      </c>
+      <c r="G251" t="s">
+        <v>406</v>
+      </c>
+      <c r="H251">
+        <v>20609655870</v>
+      </c>
+      <c r="I251">
+        <v>45981</v>
+      </c>
+      <c r="J251">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K251" t="s">
+        <v>18</v>
+      </c>
+      <c r="L251">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>76320296</v>
+      </c>
+      <c r="B252" t="s">
+        <v>19</v>
+      </c>
+      <c r="C252">
+        <v>45962</v>
+      </c>
+      <c r="D252" t="s">
+        <v>407</v>
+      </c>
+      <c r="E252" t="s">
+        <v>408</v>
+      </c>
+      <c r="F252">
+        <v>20543641139</v>
+      </c>
+      <c r="G252" t="s">
+        <v>409</v>
+      </c>
+      <c r="H252">
+        <v>20543641139</v>
+      </c>
+      <c r="I252">
+        <v>45981</v>
+      </c>
+      <c r="J252">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K252" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>76284127</v>
+      </c>
+      <c r="B253" t="s">
+        <v>26</v>
+      </c>
+      <c r="C253">
+        <v>45962</v>
+      </c>
+      <c r="D253" t="s">
+        <v>20</v>
+      </c>
+      <c r="E253" t="s">
+        <v>21</v>
+      </c>
+      <c r="F253">
+        <v>20601260191</v>
+      </c>
+      <c r="G253" t="s">
+        <v>410</v>
+      </c>
+      <c r="H253">
+        <v>20601260191</v>
+      </c>
+      <c r="I253">
+        <v>45981</v>
+      </c>
+      <c r="J253">
+        <v>128.52000000000001</v>
+      </c>
+      <c r="K253" t="s">
+        <v>18</v>
+      </c>
+      <c r="L253">
+        <v>202509</v>
+      </c>
+      <c r="N253" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>76281660</v>
+      </c>
+      <c r="B254" t="s">
+        <v>30</v>
+      </c>
+      <c r="C254" t="s">
+        <v>83</v>
+      </c>
+      <c r="D254" t="s">
+        <v>20</v>
+      </c>
+      <c r="E254" t="s">
+        <v>21</v>
+      </c>
+      <c r="F254">
+        <v>10026160</v>
+      </c>
+      <c r="G254" t="s">
+        <v>412</v>
+      </c>
+      <c r="H254">
+        <v>10100261605</v>
+      </c>
+      <c r="I254">
+        <v>45981</v>
+      </c>
+      <c r="J254">
+        <v>68</v>
+      </c>
+      <c r="K254" t="s">
+        <v>29</v>
+      </c>
+      <c r="M254" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>76288379</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255">
+        <v>45962</v>
+      </c>
+      <c r="D255" t="s">
+        <v>16</v>
+      </c>
+      <c r="E255" t="s">
+        <v>17</v>
+      </c>
+      <c r="F255">
+        <v>20608819771</v>
+      </c>
+      <c r="G255" t="s">
+        <v>413</v>
+      </c>
+      <c r="H255">
+        <v>20608819771</v>
+      </c>
+      <c r="I255">
+        <v>45982</v>
+      </c>
+      <c r="J255">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K255" t="s">
+        <v>18</v>
+      </c>
+      <c r="L255">
+        <v>202508</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>76284989</v>
+      </c>
+      <c r="B256" t="s">
+        <v>19</v>
+      </c>
+      <c r="C256">
+        <v>45962</v>
+      </c>
+      <c r="D256" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256" t="s">
+        <v>21</v>
+      </c>
+      <c r="F256">
+        <v>20604371989</v>
+      </c>
+      <c r="G256" t="s">
+        <v>414</v>
+      </c>
+      <c r="H256">
+        <v>20604371989</v>
+      </c>
+      <c r="I256">
+        <v>45981</v>
+      </c>
+      <c r="J256">
+        <v>900</v>
+      </c>
+      <c r="K256" t="s">
+        <v>23</v>
+      </c>
+      <c r="L256" t="s">
+        <v>415</v>
+      </c>
+      <c r="M256" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>76281824</v>
+      </c>
+      <c r="B257" t="s">
+        <v>19</v>
+      </c>
+      <c r="C257">
+        <v>45962</v>
+      </c>
+      <c r="D257" t="s">
+        <v>20</v>
+      </c>
+      <c r="E257" t="s">
+        <v>21</v>
+      </c>
+      <c r="F257">
+        <v>41191569</v>
+      </c>
+      <c r="G257" t="s">
+        <v>417</v>
+      </c>
+      <c r="H257">
+        <v>10411915692</v>
+      </c>
+      <c r="I257">
+        <v>45981</v>
+      </c>
+      <c r="J257">
+        <v>84.28</v>
+      </c>
+      <c r="K257" t="s">
+        <v>18</v>
+      </c>
+      <c r="L257">
+        <v>202509</v>
+      </c>
+      <c r="N257" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>76307049</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258">
+        <v>45962</v>
+      </c>
+      <c r="D258" t="s">
+        <v>84</v>
+      </c>
+      <c r="E258" t="s">
+        <v>85</v>
+      </c>
+      <c r="F258">
+        <v>45275137</v>
+      </c>
+      <c r="G258" t="s">
+        <v>419</v>
+      </c>
+      <c r="H258">
+        <v>10452751378</v>
+      </c>
+      <c r="I258">
+        <v>45972</v>
+      </c>
+      <c r="J258">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K258" t="s">
+        <v>18</v>
+      </c>
+      <c r="L258">
+        <v>202003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>76286228</v>
+      </c>
+      <c r="B259" t="s">
+        <v>26</v>
+      </c>
+      <c r="C259">
+        <v>45962</v>
+      </c>
+      <c r="D259" t="s">
+        <v>20</v>
+      </c>
+      <c r="E259" t="s">
+        <v>21</v>
+      </c>
+      <c r="F259">
+        <v>20610094113</v>
+      </c>
+      <c r="G259" t="s">
+        <v>420</v>
+      </c>
+      <c r="H259">
+        <v>20610094113</v>
+      </c>
+      <c r="I259">
+        <v>45982</v>
+      </c>
+      <c r="J259">
+        <v>90</v>
+      </c>
+      <c r="K259" t="s">
+        <v>18</v>
+      </c>
+      <c r="L259" t="s">
+        <v>37</v>
+      </c>
+      <c r="N259" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>76283623</v>
+      </c>
+      <c r="B260" t="s">
+        <v>26</v>
+      </c>
+      <c r="C260">
+        <v>45962</v>
+      </c>
+      <c r="D260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" t="s">
+        <v>21</v>
+      </c>
+      <c r="F260">
+        <v>20558152321</v>
+      </c>
+      <c r="G260" t="s">
+        <v>375</v>
+      </c>
+      <c r="H260">
+        <v>20558152321</v>
+      </c>
+      <c r="I260">
+        <v>45982</v>
+      </c>
+      <c r="J260">
+        <v>103.9</v>
+      </c>
+      <c r="K260" t="s">
+        <v>29</v>
+      </c>
+      <c r="M260" t="s">
+        <v>39</v>
+      </c>
+      <c r="N260" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC4578-E8B1-4EFC-9330-1B07A2A9F296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524A3D2D-D02E-4051-A008-331FAF5BCE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="cierre_pagos_202511_ (7)" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cierre_pagos_202511_ (7)'!$A$1:$O$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cierre_pagos_202511_ (7)'!$A$1:$O$202</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="431">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1159,87 +1159,90 @@
     <t>SPARTA PERU EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
   </si>
   <si>
+    <t>VARESE CARMELA</t>
+  </si>
+  <si>
+    <t>INVERSIONES REFCH E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EMPERATRIZ</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES PARAGUAYO S.A.C.</t>
+  </si>
+  <si>
+    <t>PEDRO COIFFURE SAC</t>
+  </si>
+  <si>
+    <t>YSELMIX S.A.C.</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES JUVASA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>cyntia.valerai@gmail.com , cpcvict@hotmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>INGETEC &amp; CONSTRUCCIÓN PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>MECANICA DE ASCENSORES ALAMA CARRASCO JAN CARLOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MULTISERVICIOS MENA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>josepablomenasflores25@gmail.com</t>
+  </si>
+  <si>
+    <t>ATESA TRANS E.I.R.L</t>
+  </si>
+  <si>
+    <t>GABRIEL GAVILANO</t>
+  </si>
+  <si>
+    <t>GRUPO DUOFARMA PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ ACEVEDO ROSELIN DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>AVERE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>jcamacho3193@gmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>SANTOS HUAMANCUSI CIRILO JULIO</t>
+  </si>
+  <si>
+    <t>santo1834@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>OVM SAC</t>
+  </si>
+  <si>
+    <t>TRANSCASE SERVICIOS LOGISTICOS S.A.C.</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA SEVILLANO SARA MILAGROS</t>
+  </si>
+  <si>
+    <t>MECANORT TRUCKS S.A.C.</t>
+  </si>
+  <si>
+    <t>ITS MANAGEMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>ARNES DE VICENTE JORGE</t>
+  </si>
+  <si>
     <t>spartaperu@gmail.com , asesor30@gicoronado.com</t>
   </si>
   <si>
-    <t>VARESE CARMELA</t>
-  </si>
-  <si>
-    <t>INVERSIONES REFCH E.I.R.L.</t>
-  </si>
-  <si>
-    <t>EMPERATRIZ</t>
-  </si>
-  <si>
-    <t>SERVICIOS GENERALES PARAGUAYO S.A.C.</t>
-  </si>
-  <si>
-    <t>PEDRO COIFFURE SAC</t>
-  </si>
-  <si>
-    <t>YSELMIX S.A.C.</t>
-  </si>
-  <si>
-    <t>SERVICIOS GENERALES JUVASA E.I.R.L.</t>
-  </si>
-  <si>
-    <t>cyntia.valerai@gmail.com , cpcvict@hotmail.com , ASESOR30@GICORONADO.COM</t>
-  </si>
-  <si>
-    <t>INGETEC &amp; CONSTRUCCIÓN PERU S.A.C.</t>
-  </si>
-  <si>
     <t>VALERICK S.A.C.</t>
   </si>
   <si>
-    <t>MULTISERVICIOS MENA E.I.R.L.</t>
-  </si>
-  <si>
-    <t>josepablomenasflores25@gmail.com</t>
-  </si>
-  <si>
-    <t>ATESA TRANS E.I.R.L</t>
-  </si>
-  <si>
-    <t>GABRIEL GAVILANO</t>
-  </si>
-  <si>
-    <t>GRUPO DUOFARMA PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ ACEVEDO ROSELIN DE LOS ANGELES</t>
-  </si>
-  <si>
-    <t>AVERE E.I.R.L.</t>
-  </si>
-  <si>
-    <t>jcamacho3193@gmail.com , ASESOR30@GICORONADO.COM</t>
-  </si>
-  <si>
-    <t>SANTOS HUAMANCUSI CIRILO JULIO</t>
-  </si>
-  <si>
-    <t>santo1834@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>OVM SAC</t>
-  </si>
-  <si>
-    <t>TRANSCASE SERVICIOS LOGISTICOS S.A.C.</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA SEVILLANO SARA MILAGROS</t>
-  </si>
-  <si>
-    <t>MECANORT TRUCKS S.A.C.</t>
-  </si>
-  <si>
-    <t>ITS MANAGEMENT S.A.C.</t>
-  </si>
-  <si>
-    <t>ARNES DE VICENTE JORGE</t>
-  </si>
-  <si>
     <t>TRANSPORTES Y SERVICIOS KRAM E.I.R.L. - TRANSKRAM E.I.R.L.</t>
   </si>
   <si>
@@ -1270,9 +1273,6 @@
     <t>MARAVI LAGOS JORGE</t>
   </si>
   <si>
-    <t>MECANICA DE ASCENSORES ALAMA CARRASCO JAN CARLOS E.I.R.L.</t>
-  </si>
-  <si>
     <t>UNIT FOOD HEALTH S.A.C.</t>
   </si>
   <si>
@@ -1295,6 +1295,33 @@
   </si>
   <si>
     <t>Ravelocastroluis@outlook.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>RH ORQUIDEAS S.A.C.</t>
+  </si>
+  <si>
+    <t>SS CONSULTORES Y ASOCIADOS SOCIEDAD ANONIMA CERRADA - SS CONSULTORES S.A.C.</t>
+  </si>
+  <si>
+    <t>gmazzocchi@ss-abogados.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>GASTROREUM MEDIC S.A.C.</t>
+  </si>
+  <si>
+    <t>dianavm2592@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>GARAY MOZO MAXIMO</t>
+  </si>
+  <si>
+    <t>TCONCRETO S.A.C.</t>
+  </si>
+  <si>
+    <t>ymarquez@tconcreto.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>ROHA CONSTRUCCION Y MINERIA S.A.C.</t>
   </si>
 </sst>
 </file>
@@ -2186,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O260"/>
+  <dimension ref="A1:O266"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:O266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7327,9 +7354,9 @@
         <v>160.41999999999999</v>
       </c>
       <c r="K128" t="s">
-        <v>29</v>
-      </c>
-      <c r="M128">
+        <v>18</v>
+      </c>
+      <c r="L128">
         <v>202509</v>
       </c>
     </row>
@@ -11364,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="K231" t="s">
-        <v>29</v>
-      </c>
-      <c r="M231" t="s">
+        <v>18</v>
+      </c>
+      <c r="L231" t="s">
         <v>39</v>
       </c>
       <c r="N231" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
@@ -11393,7 +11420,7 @@
         <v>15603065121</v>
       </c>
       <c r="G232" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H232">
         <v>15603065121</v>
@@ -11431,7 +11458,7 @@
         <v>20554482211</v>
       </c>
       <c r="G233" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H233">
         <v>20554482211</v>
@@ -11449,7 +11476,7 @@
         <v>37</v>
       </c>
       <c r="N233" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
@@ -11472,7 +11499,7 @@
         <v>20481733571</v>
       </c>
       <c r="G234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H234">
         <v>20481733571</v>
@@ -11510,7 +11537,7 @@
         <v>20522106403</v>
       </c>
       <c r="G235" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H235">
         <v>20522106403</v>
@@ -11548,7 +11575,7 @@
         <v>20608786342</v>
       </c>
       <c r="G236" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H236">
         <v>20608786342</v>
@@ -11586,7 +11613,7 @@
         <v>20495865747</v>
       </c>
       <c r="G237" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H237">
         <v>20495865747</v>
@@ -11604,7 +11631,7 @@
         <v>37</v>
       </c>
       <c r="N237" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
@@ -11627,7 +11654,7 @@
         <v>20554205055</v>
       </c>
       <c r="G238" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H238">
         <v>20554205055</v>
@@ -11665,7 +11692,7 @@
         <v>20605628398</v>
       </c>
       <c r="G239" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="H239">
         <v>20605628398</v>
@@ -11703,7 +11730,7 @@
         <v>20609499517</v>
       </c>
       <c r="G240" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H240">
         <v>20609499517</v>
@@ -11721,7 +11748,7 @@
         <v>202509</v>
       </c>
       <c r="N240" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -11744,7 +11771,7 @@
         <v>20607301515</v>
       </c>
       <c r="G241" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H241">
         <v>20607301515</v>
@@ -11762,7 +11789,7 @@
         <v>202509</v>
       </c>
       <c r="N241" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
@@ -11785,7 +11812,7 @@
         <v>20606543353</v>
       </c>
       <c r="G242" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H242">
         <v>20606543353</v>
@@ -11803,7 +11830,7 @@
         <v>37</v>
       </c>
       <c r="N242" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
@@ -11826,7 +11853,7 @@
         <v>20609057786</v>
       </c>
       <c r="G243" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H243">
         <v>20609057786</v>
@@ -11844,7 +11871,7 @@
         <v>202509</v>
       </c>
       <c r="N243" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -11867,7 +11894,7 @@
         <v>44380248</v>
       </c>
       <c r="G244" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H244">
         <v>10443802482</v>
@@ -11885,7 +11912,7 @@
         <v>202509</v>
       </c>
       <c r="N244" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -11905,7 +11932,7 @@
         <v>20479722138</v>
       </c>
       <c r="G245" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H245">
         <v>20479722138</v>
@@ -11937,7 +11964,7 @@
         <v>20560037628</v>
       </c>
       <c r="G246" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H246">
         <v>20560037628</v>
@@ -11955,7 +11982,7 @@
         <v>202509</v>
       </c>
       <c r="N246" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -11978,7 +12005,7 @@
         <v>20602732828</v>
       </c>
       <c r="G247" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H247">
         <v>20602732828</v>
@@ -12016,7 +12043,7 @@
         <v>20608703277</v>
       </c>
       <c r="G248" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H248">
         <v>20608703277</v>
@@ -12034,7 +12061,7 @@
         <v>202509</v>
       </c>
       <c r="N248" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -12057,7 +12084,7 @@
         <v>20532653917</v>
       </c>
       <c r="G249" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H249">
         <v>20532653917</v>
@@ -12075,7 +12102,7 @@
         <v>202509</v>
       </c>
       <c r="N249" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
@@ -12098,7 +12125,7 @@
         <v>20601229511</v>
       </c>
       <c r="G250" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H250">
         <v>20601229511</v>
@@ -12110,9 +12137,9 @@
         <v>72.63</v>
       </c>
       <c r="K250" t="s">
-        <v>29</v>
-      </c>
-      <c r="M250">
+        <v>18</v>
+      </c>
+      <c r="L250">
         <v>202509</v>
       </c>
     </row>
@@ -12136,7 +12163,7 @@
         <v>20609655870</v>
       </c>
       <c r="G251" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H251">
         <v>20609655870</v>
@@ -12165,16 +12192,16 @@
         <v>45962</v>
       </c>
       <c r="D252" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E252" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F252">
         <v>20543641139</v>
       </c>
       <c r="G252" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H252">
         <v>20543641139</v>
@@ -12209,7 +12236,7 @@
         <v>20601260191</v>
       </c>
       <c r="G253" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H253">
         <v>20601260191</v>
@@ -12227,7 +12254,7 @@
         <v>202509</v>
       </c>
       <c r="N253" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
@@ -12250,7 +12277,7 @@
         <v>10026160</v>
       </c>
       <c r="G254" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H254">
         <v>10100261605</v>
@@ -12288,7 +12315,7 @@
         <v>20608819771</v>
       </c>
       <c r="G255" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="H255">
         <v>20608819771</v>
@@ -12499,13 +12526,253 @@
         <v>103.9</v>
       </c>
       <c r="K260" t="s">
+        <v>18</v>
+      </c>
+      <c r="L260" t="s">
+        <v>39</v>
+      </c>
+      <c r="N260" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>76285177</v>
+      </c>
+      <c r="B261" t="s">
+        <v>30</v>
+      </c>
+      <c r="C261" t="s">
+        <v>83</v>
+      </c>
+      <c r="D261" t="s">
+        <v>20</v>
+      </c>
+      <c r="E261" t="s">
+        <v>21</v>
+      </c>
+      <c r="F261">
+        <v>20605360174</v>
+      </c>
+      <c r="G261" t="s">
+        <v>422</v>
+      </c>
+      <c r="H261">
+        <v>20605360174</v>
+      </c>
+      <c r="I261">
+        <v>45982</v>
+      </c>
+      <c r="J261">
+        <v>80</v>
+      </c>
+      <c r="K261" t="s">
         <v>29</v>
       </c>
-      <c r="M260" t="s">
-        <v>39</v>
-      </c>
-      <c r="N260" t="s">
-        <v>376</v>
+      <c r="M261" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>76286041</v>
+      </c>
+      <c r="B262" t="s">
+        <v>26</v>
+      </c>
+      <c r="C262">
+        <v>45962</v>
+      </c>
+      <c r="D262" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" t="s">
+        <v>21</v>
+      </c>
+      <c r="F262">
+        <v>20609299682</v>
+      </c>
+      <c r="G262" t="s">
+        <v>423</v>
+      </c>
+      <c r="H262">
+        <v>20609299682</v>
+      </c>
+      <c r="I262">
+        <v>45982</v>
+      </c>
+      <c r="J262">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K262" t="s">
+        <v>18</v>
+      </c>
+      <c r="L262">
+        <v>202509</v>
+      </c>
+      <c r="N262" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>76286772</v>
+      </c>
+      <c r="B263" t="s">
+        <v>26</v>
+      </c>
+      <c r="C263">
+        <v>45962</v>
+      </c>
+      <c r="D263" t="s">
+        <v>20</v>
+      </c>
+      <c r="E263" t="s">
+        <v>21</v>
+      </c>
+      <c r="F263">
+        <v>20612453889</v>
+      </c>
+      <c r="G263" t="s">
+        <v>425</v>
+      </c>
+      <c r="H263">
+        <v>20612453889</v>
+      </c>
+      <c r="I263">
+        <v>45982</v>
+      </c>
+      <c r="J263">
+        <v>205.96</v>
+      </c>
+      <c r="K263" t="s">
+        <v>29</v>
+      </c>
+      <c r="M263">
+        <v>202509</v>
+      </c>
+      <c r="N263" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>76287278</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264">
+        <v>45962</v>
+      </c>
+      <c r="D264" t="s">
+        <v>16</v>
+      </c>
+      <c r="E264" t="s">
+        <v>17</v>
+      </c>
+      <c r="F264">
+        <v>42500225</v>
+      </c>
+      <c r="G264" t="s">
+        <v>427</v>
+      </c>
+      <c r="H264">
+        <v>10425002258</v>
+      </c>
+      <c r="I264">
+        <v>45981</v>
+      </c>
+      <c r="J264">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K264" t="s">
+        <v>18</v>
+      </c>
+      <c r="L264">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>76286372</v>
+      </c>
+      <c r="B265" t="s">
+        <v>26</v>
+      </c>
+      <c r="C265">
+        <v>45962</v>
+      </c>
+      <c r="D265" t="s">
+        <v>20</v>
+      </c>
+      <c r="E265" t="s">
+        <v>21</v>
+      </c>
+      <c r="F265">
+        <v>20610644491</v>
+      </c>
+      <c r="G265" t="s">
+        <v>428</v>
+      </c>
+      <c r="H265">
+        <v>20610644491</v>
+      </c>
+      <c r="I265">
+        <v>45982</v>
+      </c>
+      <c r="J265">
+        <v>100</v>
+      </c>
+      <c r="K265" t="s">
+        <v>18</v>
+      </c>
+      <c r="L265">
+        <v>202509</v>
+      </c>
+      <c r="N265" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>76282343</v>
+      </c>
+      <c r="B266" t="s">
+        <v>30</v>
+      </c>
+      <c r="C266" t="s">
+        <v>83</v>
+      </c>
+      <c r="D266" t="s">
+        <v>20</v>
+      </c>
+      <c r="E266" t="s">
+        <v>21</v>
+      </c>
+      <c r="F266">
+        <v>20454377011</v>
+      </c>
+      <c r="G266" t="s">
+        <v>430</v>
+      </c>
+      <c r="H266">
+        <v>20454377011</v>
+      </c>
+      <c r="I266">
+        <v>45982</v>
+      </c>
+      <c r="J266">
+        <v>70</v>
+      </c>
+      <c r="K266" t="s">
+        <v>23</v>
+      </c>
+      <c r="L266">
+        <v>202509</v>
+      </c>
+      <c r="M266">
+        <v>201807</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524A3D2D-D02E-4051-A008-331FAF5BCE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45C5FEC-E924-4A9A-8EEB-B81BB68167A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="cierre_pagos_202511_ (7)" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cierre_pagos_202511_ (7)'!$A$1:$O$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cierre_pagos_202511_ (7)'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="445">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1322,13 +1322,55 @@
   </si>
   <si>
     <t>ROHA CONSTRUCCION Y MINERIA S.A.C.</t>
+  </si>
+  <si>
+    <t>AZIZE INGENIEROS S.A.C.</t>
+  </si>
+  <si>
+    <t>AREVALO CORONADO HENRY</t>
+  </si>
+  <si>
+    <t>CORPORATIVO ATAUCHI E.I.R.L.</t>
+  </si>
+  <si>
+    <t>scala.consultores20@gmail.com</t>
+  </si>
+  <si>
+    <t>VIGO PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>CANTERA PATAPO LA VICTORIA SA</t>
+  </si>
+  <si>
+    <t>EISEGMI S.A.C.</t>
+  </si>
+  <si>
+    <t>FIBRAS GENERALES SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>CORPORACION BODY POWER S.A.C.</t>
+  </si>
+  <si>
+    <t>CASTRO BAUTISTA JOSEPH</t>
+  </si>
+  <si>
+    <t>ASOCIACION I.B.E. LA MOLINA</t>
+  </si>
+  <si>
+    <t>secretariaiblamolina@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>ASOCIACION BIO HUERTO VILLA MIRAFLORES</t>
+  </si>
+  <si>
+    <t>biohuerto2018@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1459,13 +1501,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1826,23 +1861,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2213,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O266"/>
+  <dimension ref="A1:O274"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O266"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2285,1636 +2308,1534 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>76288127</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4">
-        <v>45962</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2">
+        <v>45962</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>20603847424</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>20603847424</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
         <v>45967</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>470</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="O2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>76284492</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4">
-        <v>45962</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="C3">
+        <v>45962</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
         <v>20602415296</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>20602415296</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <v>45969</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>157.66</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>76287777</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4">
+        <v>45962</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>20553032319</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>20553032319</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <v>45969</v>
       </c>
-      <c r="J4" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
-        <v>202509</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
+      <c r="M4">
+        <v>202509</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>76287217</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5">
+        <v>45962</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>16740924</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>10167409241</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <v>45969</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>50</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>76288037</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6">
+        <v>45962</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>20602438580</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>20602438580</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>45969</v>
       </c>
-      <c r="J6" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="J6">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>76287188</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
-        <v>45962</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7">
+        <v>45962</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>7346333</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <v>10073463331</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>45969</v>
       </c>
-      <c r="J7" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="J7">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>202509</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>76288473</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8">
+        <v>45962</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>20610285610</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>20610285610</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>45971</v>
       </c>
-      <c r="J8" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="J8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>202509</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>76288635</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9">
+        <v>45962</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>20612838616</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <v>20612838616</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>45971</v>
       </c>
-      <c r="J9" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="J9">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>76282042</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4">
-        <v>45962</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="C10">
+        <v>45962</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
         <v>77063742</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>10770637428</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>45971</v>
       </c>
-      <c r="J10" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4" t="s">
+      <c r="J10">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>202509</v>
+      </c>
+      <c r="N10" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>76282796</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="C11">
+        <v>45962</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
         <v>20513839406</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>20513839406</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>45971</v>
       </c>
-      <c r="J11" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="J11">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>202509</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>76285324</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="C12">
+        <v>45962</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
         <v>20606005327</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>20606005327</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <v>45971</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
         <v>142.13999999999999</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>76281920</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="C13">
+        <v>45962</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
         <v>44781208</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>10447812083</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>45971</v>
       </c>
-      <c r="J13" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="J13">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>76283470</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="C14">
+        <v>45962</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
         <v>20552334036</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14">
         <v>20552334036</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>45971</v>
       </c>
-      <c r="J14" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="J14">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>76284958</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="C15">
+        <v>45962</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15">
         <v>20604227233</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15">
         <v>20604227233</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>45971</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
         <v>111.79</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="3" t="s">
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>202509</v>
+      </c>
+      <c r="N15" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>76282884</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="C16">
+        <v>45962</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16">
         <v>20518875061</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>20518875061</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>45971</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <v>68.400000000000006</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>76284692</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="C17">
+        <v>45962</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17">
         <v>20603094515</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
         <v>20603094515</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>45971</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17">
         <v>96.9</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>202509</v>
+      </c>
+      <c r="N17" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>76284342</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="C18">
+        <v>45962</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18">
         <v>20601892015</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>20601892015</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>45971</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18">
         <v>114.86</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
+      <c r="N18" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>76283472</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="C19">
+        <v>45962</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19">
         <v>20552378831</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19">
         <v>20552378831</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <v>45971</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19">
         <v>91.9</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3" t="s">
+      <c r="N19" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>76283792</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="C20">
+        <v>45962</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20">
         <v>20571434017</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20">
         <v>20571434017</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <v>45971</v>
       </c>
-      <c r="J20" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
+      <c r="J20">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>202509</v>
+      </c>
+      <c r="N20" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>76287236</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21">
+        <v>45962</v>
+      </c>
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>22103341</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21">
         <v>10221033413</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <v>45971</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21">
         <v>56.1</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>76286368</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="C22">
+        <v>45962</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
         <v>20610626361</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22">
         <v>20610626361</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22">
         <v>45971</v>
       </c>
-      <c r="J22" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
+      <c r="J22">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>202509</v>
+      </c>
+      <c r="N22" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>76283234</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="C23">
+        <v>45962</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23">
         <v>20541764144</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23">
         <v>20541764144</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23">
         <v>45971</v>
       </c>
-      <c r="J23" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="J23">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>76282433</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="C24">
+        <v>45962</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24">
         <v>20479879541</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24">
         <v>20479879541</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <v>45971</v>
       </c>
-      <c r="J24" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="J24">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>76282124</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="C25">
+        <v>45962</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25">
         <v>20226013939</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25">
         <v>20226013939</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25">
         <v>45969</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25">
         <v>93.7</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>76282644</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="C26">
+        <v>45962</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26">
         <v>20502304225</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26">
         <v>20502304225</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26">
         <v>45971</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26">
         <v>69.11</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>76286846</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="C27">
+        <v>45962</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27">
         <v>20612817066</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27">
         <v>20612817066</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27">
         <v>45972</v>
       </c>
-      <c r="J27" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3" t="s">
+      <c r="J27">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <v>202509</v>
+      </c>
+      <c r="N27" t="s">
         <v>79</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>76283475</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="C28">
+        <v>45962</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28">
         <v>20552425694</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28">
         <v>20552425694</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28">
         <v>45971</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28">
         <v>190.01</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>76287977</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29">
+        <v>45962</v>
+      </c>
+      <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29">
         <v>20601731127</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29">
         <v>20601731127</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29">
         <v>45972</v>
       </c>
-      <c r="J29" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="J29">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>76308540</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30">
         <v>20601745438</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30">
         <v>20601745438</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30">
         <v>45975</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30">
         <v>50</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>76284440</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="C31">
+        <v>45962</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31">
         <v>20602220959</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31">
         <v>20602220959</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31">
         <v>45972</v>
       </c>
-      <c r="J31" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="3" t="s">
+      <c r="J31">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31">
+        <v>202509</v>
+      </c>
+      <c r="N31" t="s">
         <v>88</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>76284695</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="C32">
+        <v>45962</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32">
         <v>20603114559</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32">
         <v>20603114559</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32">
         <v>45972</v>
       </c>
-      <c r="J32" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="4" t="s">
+      <c r="J32">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
+      <c r="N32" t="s">
         <v>90</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>76285257</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="C33">
+        <v>45962</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33">
         <v>20605710698</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33">
         <v>20605710698</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33">
         <v>45972</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33">
         <v>68.2</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>76284668</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="C34">
+        <v>45962</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34">
         <v>20603033206</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34">
         <v>20603033206</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34">
         <v>45972</v>
       </c>
-      <c r="J34" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="J34">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>76285042</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="C35">
+        <v>45962</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35">
         <v>20604684243</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35">
         <v>20604684243</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35">
         <v>45972</v>
       </c>
-      <c r="J35" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="J35">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>76285747</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="C36">
+        <v>45962</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36">
         <v>20608034502</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36">
         <v>20608034502</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36">
         <v>45972</v>
       </c>
-      <c r="J36" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3" t="s">
+      <c r="J36">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36">
+        <v>202509</v>
+      </c>
+      <c r="N36" t="s">
         <v>95</v>
       </c>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>76283025</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="C37">
+        <v>45962</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37">
         <v>20526553153</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37">
         <v>20526553153</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37">
         <v>45971</v>
       </c>
-      <c r="J37" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="J37">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>76281563</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38">
         <v>490884</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38">
         <v>10004908843</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38">
         <v>45972</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38">
         <v>50</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3" t="s">
+      <c r="K38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <v>202509</v>
+      </c>
+      <c r="N38" t="s">
         <v>99</v>
       </c>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>76286458</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="C39">
+        <v>45962</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39">
         <v>20611018364</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39">
         <v>20611018364</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39">
         <v>45971</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39">
         <v>102</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3" t="s">
+      <c r="K39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39">
+        <v>202509</v>
+      </c>
+      <c r="N39" t="s">
         <v>102</v>
       </c>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>76284449</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="5">
-        <v>45962</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="C40">
+        <v>45962</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40">
         <v>20602249027</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40">
         <v>20602249027</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40">
         <v>45971</v>
       </c>
-      <c r="J40" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="4">
-        <v>202509</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3" t="s">
+      <c r="J40">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40">
+        <v>202509</v>
+      </c>
+      <c r="N40" t="s">
         <v>104</v>
       </c>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>43</v>
       </c>
@@ -3943,7 +3864,7 @@
         <v>1676.61</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>76282059</v>
       </c>
@@ -3981,7 +3902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>76283748</v>
       </c>
@@ -4022,7 +3943,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>76288416</v>
       </c>
@@ -4060,7 +3981,7 @@
         <v>202509</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>76285108</v>
       </c>
@@ -4098,7 +4019,7 @@
         <v>202509</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>76287527</v>
       </c>
@@ -4136,7 +4057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>76283134</v>
       </c>
@@ -4177,7 +4098,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>76283986</v>
       </c>
@@ -11241,10 +11162,10 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>76285327</v>
+        <v>76282300</v>
       </c>
       <c r="B228" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C228">
         <v>45962</v>
@@ -11256,36 +11177,39 @@
         <v>21</v>
       </c>
       <c r="F228">
-        <v>20606012463</v>
+        <v>20448771475</v>
       </c>
       <c r="G228" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H228">
-        <v>20606012463</v>
+        <v>20448771475</v>
       </c>
       <c r="I228">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K228" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L228">
+        <v>202509</v>
+      </c>
+      <c r="M228">
         <v>202509</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>76282300</v>
+        <v>76286859</v>
       </c>
       <c r="B229" t="s">
-        <v>19</v>
-      </c>
-      <c r="C229">
-        <v>45962</v>
+        <v>22</v>
+      </c>
+      <c r="C229" t="s">
+        <v>83</v>
       </c>
       <c r="D229" t="s">
         <v>20</v>
@@ -11294,39 +11218,39 @@
         <v>21</v>
       </c>
       <c r="F229">
-        <v>20448771475</v>
+        <v>20612873497</v>
       </c>
       <c r="G229" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H229">
-        <v>20448771475</v>
+        <v>20612873497</v>
       </c>
       <c r="I229">
-        <v>45981</v>
+        <v>45979</v>
       </c>
       <c r="J229">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="K229" t="s">
-        <v>23</v>
-      </c>
-      <c r="L229">
-        <v>202509</v>
-      </c>
-      <c r="M229">
-        <v>202509</v>
+        <v>18</v>
+      </c>
+      <c r="L229" t="s">
+        <v>37</v>
+      </c>
+      <c r="N229" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>76286859</v>
+        <v>76282058</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
-      </c>
-      <c r="C230" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="C230">
+        <v>45962</v>
       </c>
       <c r="D230" t="s">
         <v>20</v>
@@ -11335,39 +11259,36 @@
         <v>21</v>
       </c>
       <c r="F230">
-        <v>20612873497</v>
+        <v>15603065121</v>
       </c>
       <c r="G230" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H230">
-        <v>20612873497</v>
+        <v>15603065121</v>
       </c>
       <c r="I230">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="J230">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="K230" t="s">
         <v>18</v>
       </c>
-      <c r="L230" t="s">
-        <v>37</v>
-      </c>
-      <c r="N230" t="s">
-        <v>374</v>
+      <c r="L230">
+        <v>202509</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>76283623</v>
+        <v>76283527</v>
       </c>
       <c r="B231" t="s">
-        <v>26</v>
-      </c>
-      <c r="C231">
-        <v>45962</v>
+        <v>22</v>
+      </c>
+      <c r="C231" t="s">
+        <v>83</v>
       </c>
       <c r="D231" t="s">
         <v>20</v>
@@ -11376,60 +11297,60 @@
         <v>21</v>
       </c>
       <c r="F231">
-        <v>20558152321</v>
+        <v>20554482211</v>
       </c>
       <c r="G231" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H231">
-        <v>20558152321</v>
+        <v>20554482211</v>
       </c>
       <c r="I231">
-        <v>45981</v>
+        <v>45980</v>
       </c>
       <c r="J231">
-        <v>0</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K231" t="s">
         <v>18</v>
       </c>
       <c r="L231" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N231" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>76282058</v>
+        <v>76287493</v>
       </c>
       <c r="B232" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C232">
         <v>45962</v>
       </c>
       <c r="D232" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E232" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F232">
-        <v>15603065121</v>
+        <v>20481733571</v>
       </c>
       <c r="G232" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H232">
-        <v>15603065121</v>
+        <v>20481733571</v>
       </c>
       <c r="I232">
         <v>45980</v>
       </c>
       <c r="J232">
-        <v>70</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K232" t="s">
         <v>18</v>
@@ -11440,31 +11361,31 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>76283527</v>
+        <v>76287635</v>
       </c>
       <c r="B233" t="s">
-        <v>22</v>
-      </c>
-      <c r="C233" t="s">
-        <v>83</v>
+        <v>15</v>
+      </c>
+      <c r="C233">
+        <v>45962</v>
       </c>
       <c r="D233" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E233" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F233">
-        <v>20554482211</v>
+        <v>20522106403</v>
       </c>
       <c r="G233" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H233">
-        <v>20554482211</v>
+        <v>20522106403</v>
       </c>
       <c r="I233">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="J233">
         <v>66.099999999999994</v>
@@ -11472,43 +11393,40 @@
       <c r="K233" t="s">
         <v>18</v>
       </c>
-      <c r="L233" t="s">
-        <v>37</v>
-      </c>
-      <c r="N233" t="s">
-        <v>378</v>
+      <c r="L233">
+        <v>202509</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>76287493</v>
+        <v>76285919</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C234">
         <v>45962</v>
       </c>
       <c r="D234" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E234" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F234">
-        <v>20481733571</v>
+        <v>20608786342</v>
       </c>
       <c r="G234" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H234">
-        <v>20481733571</v>
+        <v>20608786342</v>
       </c>
       <c r="I234">
         <v>45980</v>
       </c>
       <c r="J234">
-        <v>66.099999999999994</v>
+        <v>253.62</v>
       </c>
       <c r="K234" t="s">
         <v>18</v>
@@ -11519,28 +11437,28 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>76287635</v>
+        <v>76282626</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C235">
         <v>45962</v>
       </c>
       <c r="D235" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E235" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F235">
-        <v>20522106403</v>
+        <v>20495865747</v>
       </c>
       <c r="G235" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H235">
-        <v>20522106403</v>
+        <v>20495865747</v>
       </c>
       <c r="I235">
         <v>45981</v>
@@ -11551,13 +11469,16 @@
       <c r="K235" t="s">
         <v>18</v>
       </c>
-      <c r="L235">
-        <v>202509</v>
+      <c r="L235" t="s">
+        <v>37</v>
+      </c>
+      <c r="N235" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>76285919</v>
+        <v>76283520</v>
       </c>
       <c r="B236" t="s">
         <v>19</v>
@@ -11572,19 +11493,19 @@
         <v>21</v>
       </c>
       <c r="F236">
-        <v>20608786342</v>
+        <v>20554205055</v>
       </c>
       <c r="G236" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H236">
-        <v>20608786342</v>
+        <v>20554205055</v>
       </c>
       <c r="I236">
         <v>45980</v>
       </c>
       <c r="J236">
-        <v>253.62</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K236" t="s">
         <v>18</v>
@@ -11595,28 +11516,28 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>76282626</v>
+        <v>76288222</v>
       </c>
       <c r="B237" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C237">
         <v>45962</v>
       </c>
       <c r="D237" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E237" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F237">
-        <v>20495865747</v>
+        <v>20605628398</v>
       </c>
       <c r="G237" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="H237">
-        <v>20495865747</v>
+        <v>20605628398</v>
       </c>
       <c r="I237">
         <v>45981</v>
@@ -11627,22 +11548,19 @@
       <c r="K237" t="s">
         <v>18</v>
       </c>
-      <c r="L237" t="s">
-        <v>37</v>
-      </c>
-      <c r="N237" t="s">
-        <v>383</v>
+      <c r="L237">
+        <v>202509</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>76283520</v>
+        <v>76286090</v>
       </c>
       <c r="B238" t="s">
-        <v>19</v>
-      </c>
-      <c r="C238">
-        <v>45962</v>
+        <v>22</v>
+      </c>
+      <c r="C238" t="s">
+        <v>83</v>
       </c>
       <c r="D238" t="s">
         <v>20</v>
@@ -11651,51 +11569,54 @@
         <v>21</v>
       </c>
       <c r="F238">
-        <v>20554205055</v>
+        <v>20609499517</v>
       </c>
       <c r="G238" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H238">
-        <v>20554205055</v>
+        <v>20609499517</v>
       </c>
       <c r="I238">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="J238">
-        <v>66.099999999999994</v>
+        <v>91.42</v>
       </c>
       <c r="K238" t="s">
         <v>18</v>
       </c>
       <c r="L238">
         <v>202509</v>
+      </c>
+      <c r="N238" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>76288222</v>
+        <v>76285604</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
-      </c>
-      <c r="C239">
-        <v>45962</v>
+        <v>22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>83</v>
       </c>
       <c r="D239" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E239" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F239">
-        <v>20605628398</v>
+        <v>20607301515</v>
       </c>
       <c r="G239" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="H239">
-        <v>20605628398</v>
+        <v>20607301515</v>
       </c>
       <c r="I239">
         <v>45981</v>
@@ -11709,10 +11630,13 @@
       <c r="L239">
         <v>202509</v>
       </c>
+      <c r="N239" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>76286090</v>
+        <v>76285467</v>
       </c>
       <c r="B240" t="s">
         <v>22</v>
@@ -11727,39 +11651,39 @@
         <v>21</v>
       </c>
       <c r="F240">
-        <v>20609499517</v>
+        <v>20606543353</v>
       </c>
       <c r="G240" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H240">
-        <v>20609499517</v>
+        <v>20606543353</v>
       </c>
       <c r="I240">
         <v>45981</v>
       </c>
       <c r="J240">
-        <v>91.42</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K240" t="s">
         <v>18</v>
       </c>
-      <c r="L240">
-        <v>202509</v>
+      <c r="L240" t="s">
+        <v>37</v>
       </c>
       <c r="N240" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>76285604</v>
+        <v>76285987</v>
       </c>
       <c r="B241" t="s">
-        <v>22</v>
-      </c>
-      <c r="C241" t="s">
-        <v>83</v>
+        <v>26</v>
+      </c>
+      <c r="C241">
+        <v>45962</v>
       </c>
       <c r="D241" t="s">
         <v>20</v>
@@ -11768,16 +11692,16 @@
         <v>21</v>
       </c>
       <c r="F241">
-        <v>20607301515</v>
+        <v>20609057786</v>
       </c>
       <c r="G241" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H241">
-        <v>20607301515</v>
+        <v>20609057786</v>
       </c>
       <c r="I241">
-        <v>45981</v>
+        <v>45979</v>
       </c>
       <c r="J241">
         <v>66.099999999999994</v>
@@ -11789,164 +11713,161 @@
         <v>202509</v>
       </c>
       <c r="N241" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>76285467</v>
+        <v>76281911</v>
       </c>
       <c r="B242" t="s">
-        <v>22</v>
-      </c>
-      <c r="C242" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242">
+        <v>45962</v>
+      </c>
+      <c r="D242" t="s">
+        <v>20</v>
+      </c>
+      <c r="E242" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242">
+        <v>44380248</v>
+      </c>
+      <c r="G242" t="s">
+        <v>394</v>
+      </c>
+      <c r="H242">
+        <v>10443802482</v>
+      </c>
+      <c r="I242">
+        <v>45980</v>
+      </c>
+      <c r="J242">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K242" t="s">
+        <v>18</v>
+      </c>
+      <c r="L242">
+        <v>202509</v>
+      </c>
+      <c r="N242" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>35</v>
+      </c>
+      <c r="C243" t="s">
         <v>83</v>
       </c>
-      <c r="D242" t="s">
-        <v>20</v>
-      </c>
-      <c r="E242" t="s">
-        <v>21</v>
-      </c>
-      <c r="F242">
-        <v>20606543353</v>
-      </c>
-      <c r="G242" t="s">
-        <v>390</v>
-      </c>
-      <c r="H242">
-        <v>20606543353</v>
-      </c>
-      <c r="I242">
+      <c r="D243" t="s">
+        <v>31</v>
+      </c>
+      <c r="E243" t="s">
+        <v>32</v>
+      </c>
+      <c r="F243">
+        <v>20479722138</v>
+      </c>
+      <c r="G243" t="s">
+        <v>396</v>
+      </c>
+      <c r="H243">
+        <v>20479722138</v>
+      </c>
+      <c r="I243">
         <v>45981</v>
       </c>
-      <c r="J242">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K242" t="s">
-        <v>18</v>
-      </c>
-      <c r="L242" t="s">
-        <v>37</v>
-      </c>
-      <c r="N242" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A243">
-        <v>76285987</v>
-      </c>
-      <c r="B243" t="s">
-        <v>26</v>
-      </c>
-      <c r="C243">
-        <v>45962</v>
-      </c>
-      <c r="D243" t="s">
-        <v>20</v>
-      </c>
-      <c r="E243" t="s">
-        <v>21</v>
-      </c>
-      <c r="F243">
-        <v>20609057786</v>
-      </c>
-      <c r="G243" t="s">
-        <v>392</v>
-      </c>
-      <c r="H243">
-        <v>20609057786</v>
-      </c>
-      <c r="I243">
-        <v>45979</v>
-      </c>
       <c r="J243">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K243" t="s">
-        <v>18</v>
-      </c>
-      <c r="L243">
-        <v>202509</v>
-      </c>
-      <c r="N243" t="s">
-        <v>393</v>
+        <v>1291.68</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>76281911</v>
+        <v>76283656</v>
       </c>
       <c r="B244" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" t="s">
+        <v>83</v>
+      </c>
+      <c r="D244" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" t="s">
+        <v>21</v>
+      </c>
+      <c r="F244">
+        <v>20560037628</v>
+      </c>
+      <c r="G244" t="s">
+        <v>397</v>
+      </c>
+      <c r="H244">
+        <v>20560037628</v>
+      </c>
+      <c r="I244">
+        <v>45981</v>
+      </c>
+      <c r="J244">
+        <v>78.959999999999994</v>
+      </c>
+      <c r="K244" t="s">
+        <v>18</v>
+      </c>
+      <c r="L244">
+        <v>202509</v>
+      </c>
+      <c r="N244" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>76284579</v>
+      </c>
+      <c r="B245" t="s">
         <v>19</v>
       </c>
-      <c r="C244">
-        <v>45962</v>
-      </c>
-      <c r="D244" t="s">
-        <v>20</v>
-      </c>
-      <c r="E244" t="s">
-        <v>21</v>
-      </c>
-      <c r="F244">
-        <v>44380248</v>
-      </c>
-      <c r="G244" t="s">
-        <v>394</v>
-      </c>
-      <c r="H244">
-        <v>10443802482</v>
-      </c>
-      <c r="I244">
-        <v>45980</v>
-      </c>
-      <c r="J244">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K244" t="s">
-        <v>18</v>
-      </c>
-      <c r="L244">
-        <v>202509</v>
-      </c>
-      <c r="N244" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B245" t="s">
-        <v>35</v>
-      </c>
-      <c r="C245" t="s">
-        <v>83</v>
+      <c r="C245">
+        <v>45962</v>
       </c>
       <c r="D245" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E245" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F245">
-        <v>20479722138</v>
+        <v>20602732828</v>
       </c>
       <c r="G245" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H245">
-        <v>20479722138</v>
+        <v>20602732828</v>
       </c>
       <c r="I245">
         <v>45981</v>
       </c>
       <c r="J245">
-        <v>1291.68</v>
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K245" t="s">
+        <v>18</v>
+      </c>
+      <c r="L245">
+        <v>202509</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>76283656</v>
+        <v>76285904</v>
       </c>
       <c r="B246" t="s">
         <v>22</v>
@@ -11961,19 +11882,19 @@
         <v>21</v>
       </c>
       <c r="F246">
-        <v>20560037628</v>
+        <v>20608703277</v>
       </c>
       <c r="G246" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H246">
-        <v>20560037628</v>
+        <v>20608703277</v>
       </c>
       <c r="I246">
         <v>45981</v>
       </c>
       <c r="J246">
-        <v>78.959999999999994</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K246" t="s">
         <v>18</v>
@@ -11982,12 +11903,12 @@
         <v>202509</v>
       </c>
       <c r="N246" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>76284579</v>
+        <v>76283090</v>
       </c>
       <c r="B247" t="s">
         <v>19</v>
@@ -12002,13 +11923,13 @@
         <v>21</v>
       </c>
       <c r="F247">
-        <v>20602732828</v>
+        <v>20532653917</v>
       </c>
       <c r="G247" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H247">
-        <v>20602732828</v>
+        <v>20532653917</v>
       </c>
       <c r="I247">
         <v>45981</v>
@@ -12022,16 +11943,19 @@
       <c r="L247">
         <v>202509</v>
       </c>
+      <c r="N247" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>76285904</v>
+        <v>76284117</v>
       </c>
       <c r="B248" t="s">
-        <v>22</v>
-      </c>
-      <c r="C248" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="C248">
+        <v>45962</v>
       </c>
       <c r="D248" t="s">
         <v>20</v>
@@ -12040,39 +11964,36 @@
         <v>21</v>
       </c>
       <c r="F248">
-        <v>20608703277</v>
+        <v>20601229511</v>
       </c>
       <c r="G248" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H248">
-        <v>20608703277</v>
+        <v>20601229511</v>
       </c>
       <c r="I248">
         <v>45981</v>
       </c>
       <c r="J248">
-        <v>66.099999999999994</v>
+        <v>72.63</v>
       </c>
       <c r="K248" t="s">
         <v>18</v>
       </c>
       <c r="L248">
         <v>202509</v>
-      </c>
-      <c r="N248" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>76283090</v>
+        <v>76286129</v>
       </c>
       <c r="B249" t="s">
-        <v>19</v>
-      </c>
-      <c r="C249">
-        <v>45962</v>
+        <v>30</v>
+      </c>
+      <c r="C249" t="s">
+        <v>83</v>
       </c>
       <c r="D249" t="s">
         <v>20</v>
@@ -12081,13 +12002,13 @@
         <v>21</v>
       </c>
       <c r="F249">
-        <v>20532653917</v>
+        <v>20609655870</v>
       </c>
       <c r="G249" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H249">
-        <v>20532653917</v>
+        <v>20609655870</v>
       </c>
       <c r="I249">
         <v>45981</v>
@@ -12101,13 +12022,10 @@
       <c r="L249">
         <v>202509</v>
       </c>
-      <c r="N249" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>76284117</v>
+        <v>76320296</v>
       </c>
       <c r="B250" t="s">
         <v>19</v>
@@ -12116,42 +12034,39 @@
         <v>45962</v>
       </c>
       <c r="D250" t="s">
-        <v>20</v>
+        <v>408</v>
       </c>
       <c r="E250" t="s">
-        <v>21</v>
+        <v>409</v>
       </c>
       <c r="F250">
-        <v>20601229511</v>
+        <v>20543641139</v>
       </c>
       <c r="G250" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H250">
-        <v>20601229511</v>
+        <v>20543641139</v>
       </c>
       <c r="I250">
         <v>45981</v>
       </c>
       <c r="J250">
-        <v>72.63</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K250" t="s">
-        <v>18</v>
-      </c>
-      <c r="L250">
-        <v>202509</v>
+        <v>29</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>76286129</v>
+        <v>76284127</v>
       </c>
       <c r="B251" t="s">
-        <v>30</v>
-      </c>
-      <c r="C251" t="s">
-        <v>83</v>
+        <v>26</v>
+      </c>
+      <c r="C251">
+        <v>45962</v>
       </c>
       <c r="D251" t="s">
         <v>20</v>
@@ -12160,112 +12075,115 @@
         <v>21</v>
       </c>
       <c r="F251">
-        <v>20609655870</v>
+        <v>20601260191</v>
       </c>
       <c r="G251" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H251">
-        <v>20609655870</v>
+        <v>20601260191</v>
       </c>
       <c r="I251">
         <v>45981</v>
       </c>
       <c r="J251">
-        <v>66.099999999999994</v>
+        <v>128.52000000000001</v>
       </c>
       <c r="K251" t="s">
         <v>18</v>
       </c>
       <c r="L251">
         <v>202509</v>
+      </c>
+      <c r="N251" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>76320296</v>
+        <v>76281660</v>
       </c>
       <c r="B252" t="s">
-        <v>19</v>
-      </c>
-      <c r="C252">
-        <v>45962</v>
+        <v>30</v>
+      </c>
+      <c r="C252" t="s">
+        <v>83</v>
       </c>
       <c r="D252" t="s">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="E252" t="s">
-        <v>409</v>
+        <v>21</v>
       </c>
       <c r="F252">
-        <v>20543641139</v>
+        <v>10026160</v>
       </c>
       <c r="G252" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H252">
-        <v>20543641139</v>
+        <v>10100261605</v>
       </c>
       <c r="I252">
         <v>45981</v>
       </c>
       <c r="J252">
-        <v>66.099999999999994</v>
+        <v>68</v>
       </c>
       <c r="K252" t="s">
         <v>29</v>
       </c>
+      <c r="M252" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>76284127</v>
+        <v>76288379</v>
       </c>
       <c r="B253" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C253">
         <v>45962</v>
       </c>
       <c r="D253" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E253" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F253">
-        <v>20601260191</v>
+        <v>20608819771</v>
       </c>
       <c r="G253" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="H253">
-        <v>20601260191</v>
+        <v>20608819771</v>
       </c>
       <c r="I253">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="J253">
-        <v>128.52000000000001</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K253" t="s">
         <v>18</v>
       </c>
       <c r="L253">
-        <v>202509</v>
-      </c>
-      <c r="N253" t="s">
-        <v>412</v>
+        <v>202508</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>76281660</v>
+        <v>76284989</v>
       </c>
       <c r="B254" t="s">
-        <v>30</v>
-      </c>
-      <c r="C254" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="C254">
+        <v>45962</v>
       </c>
       <c r="D254" t="s">
         <v>20</v>
@@ -12274,112 +12192,115 @@
         <v>21</v>
       </c>
       <c r="F254">
-        <v>10026160</v>
+        <v>20604371989</v>
       </c>
       <c r="G254" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H254">
-        <v>10100261605</v>
+        <v>20604371989</v>
       </c>
       <c r="I254">
         <v>45981</v>
       </c>
       <c r="J254">
-        <v>68</v>
+        <v>900</v>
       </c>
       <c r="K254" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="L254" t="s">
+        <v>415</v>
       </c>
       <c r="M254" t="s">
-        <v>39</v>
+        <v>416</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>76288379</v>
+        <v>76281824</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C255">
         <v>45962</v>
       </c>
       <c r="D255" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E255" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F255">
-        <v>20608819771</v>
+        <v>41191569</v>
       </c>
       <c r="G255" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="H255">
-        <v>20608819771</v>
+        <v>10411915692</v>
       </c>
       <c r="I255">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="J255">
-        <v>66.099999999999994</v>
+        <v>84.28</v>
       </c>
       <c r="K255" t="s">
         <v>18</v>
       </c>
       <c r="L255">
-        <v>202508</v>
+        <v>202509</v>
+      </c>
+      <c r="N255" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>76284989</v>
+        <v>76307049</v>
       </c>
       <c r="B256" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C256">
         <v>45962</v>
       </c>
       <c r="D256" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E256" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F256">
-        <v>20604371989</v>
+        <v>45275137</v>
       </c>
       <c r="G256" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H256">
-        <v>20604371989</v>
+        <v>10452751378</v>
       </c>
       <c r="I256">
-        <v>45981</v>
+        <v>45972</v>
       </c>
       <c r="J256">
-        <v>900</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K256" t="s">
-        <v>23</v>
-      </c>
-      <c r="L256" t="s">
-        <v>415</v>
-      </c>
-      <c r="M256" t="s">
-        <v>416</v>
+        <v>18</v>
+      </c>
+      <c r="L256">
+        <v>202003</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>76281824</v>
+        <v>76286228</v>
       </c>
       <c r="B257" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C257">
         <v>45962</v>
@@ -12391,77 +12312,80 @@
         <v>21</v>
       </c>
       <c r="F257">
-        <v>41191569</v>
+        <v>20610094113</v>
       </c>
       <c r="G257" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H257">
-        <v>10411915692</v>
+        <v>20610094113</v>
       </c>
       <c r="I257">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="J257">
-        <v>84.28</v>
+        <v>90</v>
       </c>
       <c r="K257" t="s">
         <v>18</v>
       </c>
-      <c r="L257">
-        <v>202509</v>
+      <c r="L257" t="s">
+        <v>37</v>
       </c>
       <c r="N257" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>76307049</v>
+        <v>76283623</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C258">
         <v>45962</v>
       </c>
       <c r="D258" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E258" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F258">
-        <v>45275137</v>
+        <v>20558152321</v>
       </c>
       <c r="G258" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="H258">
-        <v>10452751378</v>
+        <v>20558152321</v>
       </c>
       <c r="I258">
-        <v>45972</v>
+        <v>45982</v>
       </c>
       <c r="J258">
-        <v>66.099999999999994</v>
+        <v>103.9</v>
       </c>
       <c r="K258" t="s">
         <v>18</v>
       </c>
-      <c r="L258">
-        <v>202003</v>
+      <c r="L258" t="s">
+        <v>39</v>
+      </c>
+      <c r="N258" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>76286228</v>
+        <v>76285177</v>
       </c>
       <c r="B259" t="s">
-        <v>26</v>
-      </c>
-      <c r="C259">
-        <v>45962</v>
+        <v>30</v>
+      </c>
+      <c r="C259" t="s">
+        <v>83</v>
       </c>
       <c r="D259" t="s">
         <v>20</v>
@@ -12470,33 +12394,30 @@
         <v>21</v>
       </c>
       <c r="F259">
-        <v>20610094113</v>
+        <v>20605360174</v>
       </c>
       <c r="G259" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H259">
-        <v>20610094113</v>
+        <v>20605360174</v>
       </c>
       <c r="I259">
         <v>45982</v>
       </c>
       <c r="J259">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K259" t="s">
-        <v>18</v>
-      </c>
-      <c r="L259" t="s">
+        <v>29</v>
+      </c>
+      <c r="M259" t="s">
         <v>37</v>
-      </c>
-      <c r="N259" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>76283623</v>
+        <v>76286041</v>
       </c>
       <c r="B260" t="s">
         <v>26</v>
@@ -12511,39 +12432,39 @@
         <v>21</v>
       </c>
       <c r="F260">
-        <v>20558152321</v>
+        <v>20609299682</v>
       </c>
       <c r="G260" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="H260">
-        <v>20558152321</v>
+        <v>20609299682</v>
       </c>
       <c r="I260">
         <v>45982</v>
       </c>
       <c r="J260">
-        <v>103.9</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K260" t="s">
         <v>18</v>
       </c>
-      <c r="L260" t="s">
-        <v>39</v>
+      <c r="L260">
+        <v>202509</v>
       </c>
       <c r="N260" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>76285177</v>
+        <v>76286772</v>
       </c>
       <c r="B261" t="s">
-        <v>30</v>
-      </c>
-      <c r="C261" t="s">
-        <v>83</v>
+        <v>26</v>
+      </c>
+      <c r="C261">
+        <v>45962</v>
       </c>
       <c r="D261" t="s">
         <v>20</v>
@@ -12552,54 +12473,57 @@
         <v>21</v>
       </c>
       <c r="F261">
-        <v>20605360174</v>
+        <v>20612453889</v>
       </c>
       <c r="G261" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H261">
-        <v>20605360174</v>
+        <v>20612453889</v>
       </c>
       <c r="I261">
         <v>45982</v>
       </c>
       <c r="J261">
-        <v>80</v>
+        <v>205.96</v>
       </c>
       <c r="K261" t="s">
         <v>29</v>
       </c>
-      <c r="M261" t="s">
-        <v>37</v>
+      <c r="M261">
+        <v>202509</v>
+      </c>
+      <c r="N261" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>76286041</v>
+        <v>76287278</v>
       </c>
       <c r="B262" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C262">
         <v>45962</v>
       </c>
       <c r="D262" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E262" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F262">
-        <v>20609299682</v>
+        <v>42500225</v>
       </c>
       <c r="G262" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H262">
-        <v>20609299682</v>
+        <v>10425002258</v>
       </c>
       <c r="I262">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="J262">
         <v>66.099999999999994</v>
@@ -12609,14 +12533,11 @@
       </c>
       <c r="L262">
         <v>202509</v>
-      </c>
-      <c r="N262" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>76286772</v>
+        <v>76286372</v>
       </c>
       <c r="B263" t="s">
         <v>26</v>
@@ -12631,112 +12552,112 @@
         <v>21</v>
       </c>
       <c r="F263">
-        <v>20612453889</v>
+        <v>20610644491</v>
       </c>
       <c r="G263" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H263">
-        <v>20612453889</v>
+        <v>20610644491</v>
       </c>
       <c r="I263">
         <v>45982</v>
       </c>
       <c r="J263">
-        <v>205.96</v>
+        <v>100</v>
       </c>
       <c r="K263" t="s">
-        <v>29</v>
-      </c>
-      <c r="M263">
+        <v>18</v>
+      </c>
+      <c r="L263">
         <v>202509</v>
       </c>
       <c r="N263" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>76287278</v>
+        <v>76282343</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
-      </c>
-      <c r="C264">
-        <v>45962</v>
+        <v>30</v>
+      </c>
+      <c r="C264" t="s">
+        <v>83</v>
       </c>
       <c r="D264" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E264" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F264">
-        <v>42500225</v>
+        <v>20454377011</v>
       </c>
       <c r="G264" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H264">
-        <v>10425002258</v>
+        <v>20454377011</v>
       </c>
       <c r="I264">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="J264">
-        <v>66.099999999999994</v>
+        <v>70</v>
       </c>
       <c r="K264" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L264">
         <v>202509</v>
+      </c>
+      <c r="M264">
+        <v>201807</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>76286372</v>
+        <v>76287721</v>
       </c>
       <c r="B265" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C265">
         <v>45962</v>
       </c>
       <c r="D265" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E265" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F265">
-        <v>20610644491</v>
+        <v>20543192661</v>
       </c>
       <c r="G265" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H265">
-        <v>20610644491</v>
+        <v>20543192661</v>
       </c>
       <c r="I265">
         <v>45982</v>
       </c>
       <c r="J265">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K265" t="s">
         <v>18</v>
       </c>
       <c r="L265">
         <v>202509</v>
-      </c>
-      <c r="N265" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>76282343</v>
+        <v>76281762</v>
       </c>
       <c r="B266" t="s">
         <v>30</v>
@@ -12751,28 +12672,341 @@
         <v>21</v>
       </c>
       <c r="F266">
-        <v>20454377011</v>
+        <v>27747133</v>
       </c>
       <c r="G266" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H266">
-        <v>20454377011</v>
+        <v>10277471332</v>
       </c>
       <c r="I266">
         <v>45982</v>
       </c>
       <c r="J266">
-        <v>70</v>
+        <v>91.37</v>
       </c>
       <c r="K266" t="s">
-        <v>23</v>
-      </c>
-      <c r="L266">
-        <v>202509</v>
-      </c>
-      <c r="M266">
-        <v>201807</v>
+        <v>18</v>
+      </c>
+      <c r="L266" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>76286210</v>
+      </c>
+      <c r="B267" t="s">
+        <v>33</v>
+      </c>
+      <c r="C267" t="s">
+        <v>83</v>
+      </c>
+      <c r="D267" t="s">
+        <v>20</v>
+      </c>
+      <c r="E267" t="s">
+        <v>21</v>
+      </c>
+      <c r="F267">
+        <v>20610011609</v>
+      </c>
+      <c r="G267" t="s">
+        <v>433</v>
+      </c>
+      <c r="H267">
+        <v>20610011609</v>
+      </c>
+      <c r="I267">
+        <v>45982</v>
+      </c>
+      <c r="J267">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K267" t="s">
+        <v>18</v>
+      </c>
+      <c r="L267">
+        <v>202509</v>
+      </c>
+      <c r="N267" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>76286587</v>
+      </c>
+      <c r="B268" t="s">
+        <v>30</v>
+      </c>
+      <c r="C268" t="s">
+        <v>83</v>
+      </c>
+      <c r="D268" t="s">
+        <v>20</v>
+      </c>
+      <c r="E268" t="s">
+        <v>21</v>
+      </c>
+      <c r="F268">
+        <v>20611659131</v>
+      </c>
+      <c r="G268" t="s">
+        <v>435</v>
+      </c>
+      <c r="H268">
+        <v>20611659131</v>
+      </c>
+      <c r="I268">
+        <v>45982</v>
+      </c>
+      <c r="J268">
+        <v>97.62</v>
+      </c>
+      <c r="K268" t="s">
+        <v>18</v>
+      </c>
+      <c r="L268" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>76282444</v>
+      </c>
+      <c r="B269" t="s">
+        <v>33</v>
+      </c>
+      <c r="C269" t="s">
+        <v>83</v>
+      </c>
+      <c r="D269" t="s">
+        <v>20</v>
+      </c>
+      <c r="E269" t="s">
+        <v>21</v>
+      </c>
+      <c r="F269">
+        <v>20480515961</v>
+      </c>
+      <c r="G269" t="s">
+        <v>436</v>
+      </c>
+      <c r="H269">
+        <v>20480515961</v>
+      </c>
+      <c r="I269">
+        <v>45982</v>
+      </c>
+      <c r="J269">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K269" t="s">
+        <v>18</v>
+      </c>
+      <c r="L269" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>76284001</v>
+      </c>
+      <c r="B270" t="s">
+        <v>19</v>
+      </c>
+      <c r="C270">
+        <v>45962</v>
+      </c>
+      <c r="D270" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" t="s">
+        <v>21</v>
+      </c>
+      <c r="F270">
+        <v>20600781058</v>
+      </c>
+      <c r="G270" t="s">
+        <v>437</v>
+      </c>
+      <c r="H270">
+        <v>20600781058</v>
+      </c>
+      <c r="I270">
+        <v>45982</v>
+      </c>
+      <c r="J270">
+        <v>170</v>
+      </c>
+      <c r="K270" t="s">
+        <v>18</v>
+      </c>
+      <c r="L270" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>76283683</v>
+      </c>
+      <c r="B271" t="s">
+        <v>19</v>
+      </c>
+      <c r="C271">
+        <v>45962</v>
+      </c>
+      <c r="D271" t="s">
+        <v>20</v>
+      </c>
+      <c r="E271" t="s">
+        <v>21</v>
+      </c>
+      <c r="F271">
+        <v>20563296250</v>
+      </c>
+      <c r="G271" t="s">
+        <v>438</v>
+      </c>
+      <c r="H271">
+        <v>20563296250</v>
+      </c>
+      <c r="I271">
+        <v>45982</v>
+      </c>
+      <c r="J271">
+        <v>85</v>
+      </c>
+      <c r="K271" t="s">
+        <v>18</v>
+      </c>
+      <c r="L271">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>76284857</v>
+      </c>
+      <c r="B272" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" t="s">
+        <v>83</v>
+      </c>
+      <c r="D272" t="s">
+        <v>20</v>
+      </c>
+      <c r="E272" t="s">
+        <v>21</v>
+      </c>
+      <c r="F272">
+        <v>20603717105</v>
+      </c>
+      <c r="G272" t="s">
+        <v>439</v>
+      </c>
+      <c r="H272">
+        <v>20603717105</v>
+      </c>
+      <c r="I272">
+        <v>45982</v>
+      </c>
+      <c r="J272">
+        <v>120</v>
+      </c>
+      <c r="K272" t="s">
+        <v>29</v>
+      </c>
+      <c r="M272">
+        <v>202509</v>
+      </c>
+      <c r="N272" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>76282646</v>
+      </c>
+      <c r="B273" t="s">
+        <v>26</v>
+      </c>
+      <c r="C273">
+        <v>45962</v>
+      </c>
+      <c r="D273" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273" t="s">
+        <v>21</v>
+      </c>
+      <c r="F273">
+        <v>20502426177</v>
+      </c>
+      <c r="G273" t="s">
+        <v>441</v>
+      </c>
+      <c r="H273">
+        <v>20502426177</v>
+      </c>
+      <c r="I273">
+        <v>45981</v>
+      </c>
+      <c r="J273">
+        <v>122.08</v>
+      </c>
+      <c r="K273" t="s">
+        <v>18</v>
+      </c>
+      <c r="L273">
+        <v>202509</v>
+      </c>
+      <c r="N273" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>76282158</v>
+      </c>
+      <c r="B274" t="s">
+        <v>22</v>
+      </c>
+      <c r="C274" t="s">
+        <v>83</v>
+      </c>
+      <c r="D274" t="s">
+        <v>20</v>
+      </c>
+      <c r="E274" t="s">
+        <v>21</v>
+      </c>
+      <c r="F274">
+        <v>20321592229</v>
+      </c>
+      <c r="G274" t="s">
+        <v>443</v>
+      </c>
+      <c r="H274">
+        <v>20321592229</v>
+      </c>
+      <c r="I274">
+        <v>45982</v>
+      </c>
+      <c r="J274">
+        <v>91.8</v>
+      </c>
+      <c r="K274" t="s">
+        <v>18</v>
+      </c>
+      <c r="L274">
+        <v>202509</v>
+      </c>
+      <c r="N274" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B6939-5AF2-474E-B105-7B0614230961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181D942-9F59-4D4B-B7FE-C30C78F7CF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="448">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -133,15 +133,6 @@
     <t>202508|202509</t>
   </si>
   <si>
-    <t>aespinoza@colaboraccion.pe , asesor30@gicoronado.com</t>
-  </si>
-  <si>
-    <t>administracion@mbintegraciones.com , ASESOR30@GICORONADO.COM</t>
-  </si>
-  <si>
-    <t>pierinafprada@hotmail.com, asesor30@gicoronado.com</t>
-  </si>
-  <si>
     <t>EDIFICACIONES TORRES S.A.C.</t>
   </si>
   <si>
@@ -190,21 +181,6 @@
     <t>DEL MAR SUREÑO SOCIEDAD ANONIMA CERRADA</t>
   </si>
   <si>
-    <t>administracion@suman.pe , sumaninsumos@gmail.com , asesor30@gicoronado.com</t>
-  </si>
-  <si>
-    <t>transtephanoalexander@gmail.com</t>
-  </si>
-  <si>
-    <t>kell_261@hotmail.com</t>
-  </si>
-  <si>
-    <t>kassielflores7@gmail.com , asesor30@gicoronado.com</t>
-  </si>
-  <si>
-    <t>Saraviaramos3@gmail.com</t>
-  </si>
-  <si>
     <t>PRESUNTA</t>
   </si>
   <si>
@@ -688,9 +664,6 @@
     <t>SL TECNOLOGIA PERU S.A.C.</t>
   </si>
   <si>
-    <t>R &amp; R SERVICIOS AMBIENTALES Y MAS S.A.C.</t>
-  </si>
-  <si>
     <t>ESTUDIO C &amp; M CONSULTORES SAC</t>
   </si>
   <si>
@@ -767,6 +740,639 @@
   </si>
   <si>
     <t>SOOLIMA SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>F001-00035481</t>
+  </si>
+  <si>
+    <t>F001-00035478</t>
+  </si>
+  <si>
+    <t>elazaro@emachsa.com.pe , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035465</t>
+  </si>
+  <si>
+    <t>F001-00035473</t>
+  </si>
+  <si>
+    <t>F001-00035556</t>
+  </si>
+  <si>
+    <t>natalienatalc@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035536</t>
+  </si>
+  <si>
+    <t>F001-00035545</t>
+  </si>
+  <si>
+    <t>contabilidad@tfcperu.com</t>
+  </si>
+  <si>
+    <t>F001-00035555</t>
+  </si>
+  <si>
+    <t>F001-00035560</t>
+  </si>
+  <si>
+    <t>F001-00035552</t>
+  </si>
+  <si>
+    <t>F001-00035491</t>
+  </si>
+  <si>
+    <t>contabilidad.at98@gmai , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035498</t>
+  </si>
+  <si>
+    <t>F001-00035463</t>
+  </si>
+  <si>
+    <t>F001-00035493</t>
+  </si>
+  <si>
+    <t>pauci_258@hotmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035501</t>
+  </si>
+  <si>
+    <t>F001-00035496</t>
+  </si>
+  <si>
+    <t>gerencia@portaldelmarques.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>F001-00035523</t>
+  </si>
+  <si>
+    <t>F001-00035494</t>
+  </si>
+  <si>
+    <t>consorcioebt4@hotmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>F001-00035495</t>
+  </si>
+  <si>
+    <t>taconser@hotmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035499</t>
+  </si>
+  <si>
+    <t>F001-00035502</t>
+  </si>
+  <si>
+    <t>F001-00035490</t>
+  </si>
+  <si>
+    <t>administracion@fastpig.com.pe , asesor30@gicornado.com</t>
+  </si>
+  <si>
+    <t>F001-00035515</t>
+  </si>
+  <si>
+    <t>aa.cc.laresidencia@gmail.com</t>
+  </si>
+  <si>
+    <t>F001-00035524</t>
+  </si>
+  <si>
+    <t>CARRANZA CHILMAZA JORGE LUIS</t>
+  </si>
+  <si>
+    <t>F001-00035516</t>
+  </si>
+  <si>
+    <t>F001-00035505</t>
+  </si>
+  <si>
+    <t>F001-00035527</t>
+  </si>
+  <si>
+    <t>F001-00035504</t>
+  </si>
+  <si>
+    <t>F001-00035529</t>
+  </si>
+  <si>
+    <t>F001-00035511</t>
+  </si>
+  <si>
+    <t>F001-00035526</t>
+  </si>
+  <si>
+    <t>F001-00035525</t>
+  </si>
+  <si>
+    <t>sociedadrr@hotmail.com , sociedadrr.contable@hotmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>F001-00035530</t>
+  </si>
+  <si>
+    <t>liliana-25-08@hotmail.com</t>
+  </si>
+  <si>
+    <t>F001-00035540</t>
+  </si>
+  <si>
+    <t>F001-00035513</t>
+  </si>
+  <si>
+    <t>F001-00035532</t>
+  </si>
+  <si>
+    <t>facturacion@badak.pe , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>F001-00035546</t>
+  </si>
+  <si>
+    <t>Nixondillman@gmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>F001-00035562</t>
+  </si>
+  <si>
+    <t>F001-00035553</t>
+  </si>
+  <si>
+    <t>rreinoso@coorpgenes.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035559</t>
+  </si>
+  <si>
+    <t>F001-00035535</t>
+  </si>
+  <si>
+    <t>F001-00035557</t>
+  </si>
+  <si>
+    <t>F001-00035630</t>
+  </si>
+  <si>
+    <t>F001-00035631</t>
+  </si>
+  <si>
+    <t>vicente.leng@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035549</t>
+  </si>
+  <si>
+    <t>KLINESGA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>F001-00035548</t>
+  </si>
+  <si>
+    <t>F001-00035542</t>
+  </si>
+  <si>
+    <t>F001-00035632</t>
+  </si>
+  <si>
+    <t>F001-00035558</t>
+  </si>
+  <si>
+    <t>juan.damian@inkafruit.pe</t>
+  </si>
+  <si>
+    <t>F001-00035554</t>
+  </si>
+  <si>
+    <t>F001-00035539</t>
+  </si>
+  <si>
+    <t>marleny.ballardo@arival.com.pe , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035572</t>
+  </si>
+  <si>
+    <t>lizbeth.zegarra.escobedoo@gmail.com</t>
+  </si>
+  <si>
+    <t>F001-00035634</t>
+  </si>
+  <si>
+    <t>F001-00035637</t>
+  </si>
+  <si>
+    <t>F001-00035573</t>
+  </si>
+  <si>
+    <t>F001-00035570</t>
+  </si>
+  <si>
+    <t>auzcategui@bluefokus.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035521</t>
+  </si>
+  <si>
+    <t>F001-00035638</t>
+  </si>
+  <si>
+    <t>F001-00035564</t>
+  </si>
+  <si>
+    <t>F001-00035639</t>
+  </si>
+  <si>
+    <t>dei.davalosc@gmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>F001-00035565</t>
+  </si>
+  <si>
+    <t>encargado de pago</t>
+  </si>
+  <si>
+    <t>F001-00035566</t>
+  </si>
+  <si>
+    <t>F001-00035571</t>
+  </si>
+  <si>
+    <t>F001-00035640</t>
+  </si>
+  <si>
+    <t>F001-00035561</t>
+  </si>
+  <si>
+    <t>NARVAEZ YSELA MIRIAM</t>
+  </si>
+  <si>
+    <t>F001-00035567</t>
+  </si>
+  <si>
+    <t>RABANAL MISARI ANA MARIA</t>
+  </si>
+  <si>
+    <t>F001-00035563</t>
+  </si>
+  <si>
+    <t>ghuaracc@ghusof.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035641</t>
+  </si>
+  <si>
+    <t>F001-00035574</t>
+  </si>
+  <si>
+    <t>ARIANA (EP)</t>
+  </si>
+  <si>
+    <t>F001-00035642</t>
+  </si>
+  <si>
+    <t>201101|201102|201103|201105|201106|201107|201108|201109|201111|201112|201301|201302|201303|201305|201306|201307|201308|201309|201311|201312</t>
+  </si>
+  <si>
+    <t>darce@lc-corp.pe</t>
+  </si>
+  <si>
+    <t>F001-00035645</t>
+  </si>
+  <si>
+    <t>F001-00035646</t>
+  </si>
+  <si>
+    <t>reservas@goadventure.com.pe , ASESOR30@GICORONDO.COM</t>
+  </si>
+  <si>
+    <t>F001-00035647</t>
+  </si>
+  <si>
+    <t>F001-00035648</t>
+  </si>
+  <si>
+    <t>arua@hsecperu.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>F001-00035265</t>
+  </si>
+  <si>
+    <t>F001-00035653</t>
+  </si>
+  <si>
+    <t>F001-00035655</t>
+  </si>
+  <si>
+    <t>DOTTY GARCIA</t>
+  </si>
+  <si>
+    <t>F001-00035656</t>
+  </si>
+  <si>
+    <t>F001-00035659</t>
+  </si>
+  <si>
+    <t>F001-00035660</t>
+  </si>
+  <si>
+    <t>F001-00035661</t>
+  </si>
+  <si>
+    <t>asistentecontable1@contadoresgyj.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035662</t>
+  </si>
+  <si>
+    <t>F001-00035663</t>
+  </si>
+  <si>
+    <t>multiconeal@hotmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035664</t>
+  </si>
+  <si>
+    <t>sergio.cueva@hotmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035665</t>
+  </si>
+  <si>
+    <t>F001-00035666</t>
+  </si>
+  <si>
+    <t>merlin14.a@gmail.com</t>
+  </si>
+  <si>
+    <t>F001-00035669</t>
+  </si>
+  <si>
+    <t>F001-00035670</t>
+  </si>
+  <si>
+    <t>jeane.linares@liberty-corporate.com; jeane.linares@libery-corporate.com</t>
+  </si>
+  <si>
+    <t>F001-00035671</t>
+  </si>
+  <si>
+    <t>F001-00035672</t>
+  </si>
+  <si>
+    <t>logistica.pydfire@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035373</t>
+  </si>
+  <si>
+    <t>consorciojhon_mdd@hotmail.com; asesor18@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035674</t>
+  </si>
+  <si>
+    <t>F001-00035675</t>
+  </si>
+  <si>
+    <t>F001-00035676</t>
+  </si>
+  <si>
+    <t>F001-00035677</t>
+  </si>
+  <si>
+    <t>solanhsfinancoop@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>F001-00035263</t>
+  </si>
+  <si>
+    <t>F001-00035680</t>
+  </si>
+  <si>
+    <t>ORIANA</t>
+  </si>
+  <si>
+    <t>F001-00035681</t>
+  </si>
+  <si>
+    <t>201107|201109|201110|201111|201112|201201|201203|201204|201205|201206|201208|201210</t>
+  </si>
+  <si>
+    <t>F001-00035682</t>
+  </si>
+  <si>
+    <t>F001-00035685</t>
+  </si>
+  <si>
+    <t>cemezam@gmail.com; tsalazarst@gmail.com</t>
+  </si>
+  <si>
+    <t>F001-00035687</t>
+  </si>
+  <si>
+    <t>vjpalleh@hotmail.com, ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>hydramarcieza@gmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>josecalle@impactadyb.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>VICTOR GARRIDO</t>
+  </si>
+  <si>
+    <t>icestormperu@gmail.com</t>
+  </si>
+  <si>
+    <t>llerena_asociados@hotmail.com</t>
+  </si>
+  <si>
+    <t>dr_augustocornejo@yahoo.es , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>contabilidad@metalfarime.com</t>
+  </si>
+  <si>
+    <t>RUTH</t>
+  </si>
+  <si>
+    <t>ALDAIR</t>
+  </si>
+  <si>
+    <t>OSCAR GUEVARA</t>
+  </si>
+  <si>
+    <t>KATERIN</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>jmerevillamares25@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>mnolasco@garc-asesor.com ????</t>
+  </si>
+  <si>
+    <t>estudiocontable_campos@hotmail.com</t>
+  </si>
+  <si>
+    <t>FACTURA ADELANTADA</t>
+  </si>
+  <si>
+    <t>et.sanjuanmicautivo@gmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>JCONDORI@MARITIMABUSONICH.COM.PE; cortecho@maritimabusonich.com.pe</t>
+  </si>
+  <si>
+    <t>ventas@ljhsolming.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>YRMA</t>
+  </si>
+  <si>
+    <t>PONCE ROJAS JORDY JULER</t>
+  </si>
+  <si>
+    <t>202507|202508|202510</t>
+  </si>
+  <si>
+    <t>vladimir_quispe_pacco@hotmail.com, asesoor30@goicoronado.com</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>VERONICA</t>
+  </si>
+  <si>
+    <t>laboral@mallasfabrimac.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>cimagrotechnology@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>JEAN PIERRE ARELLANO</t>
+  </si>
+  <si>
+    <t>HILDA VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t>mire13_2@hotmail.com ,ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>SALON NOVOA ROSA JHERALIT</t>
+  </si>
+  <si>
+    <t>C.C.G.E.M. S.A.C.</t>
+  </si>
+  <si>
+    <t>asesoria.contable.arequipa@gmail.com</t>
+  </si>
+  <si>
+    <t>ZEMECA CONSTRUCCION Y MINERIA S.A.C</t>
+  </si>
+  <si>
+    <t>CORPORACION E INVERSIONES L &amp; L S.A.C.</t>
+  </si>
+  <si>
+    <t>TRANSPORTES Y SERVICIOS GENERALES E Y M SOCIEDAD ANONIMA CERRADA - TYSGEM S.A.C.</t>
+  </si>
+  <si>
+    <t>TRANSFERMEND S.A.C.</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA DE PERNOS DEL NORTE SRLTDA</t>
+  </si>
+  <si>
+    <t>CARLOS PRADO</t>
+  </si>
+  <si>
+    <t>ALAMO MORI HECTOR MANUEL</t>
+  </si>
+  <si>
+    <t>MEDICAL GROUP LRG E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HOLDING E INVERSIONES CHYP E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CORREA YAJAHUANCA OTILIO</t>
+  </si>
+  <si>
+    <t>WILLIAM RUIZ</t>
+  </si>
+  <si>
+    <t>ALUZINC ASIA PERU SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>MANUFACTURAS YANVAR S.A.C.</t>
+  </si>
+  <si>
+    <t>manufacturasyanvar@gmail.com</t>
+  </si>
+  <si>
+    <t>AKIRA OTA Y ASOCIADOS CORREDORES DE SEGUROS S.A.C.</t>
+  </si>
+  <si>
+    <t>TRANSPORTES SANTO DOMINGO ICA SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>ASOCIACION CULTURAL ARTES UNIDAS ACAU</t>
+  </si>
+  <si>
+    <t>SANDRA BERNASCONI</t>
+  </si>
+  <si>
+    <t>ESPARTA CONSTRUCTORES S.A.</t>
+  </si>
+  <si>
+    <t>DAMIAN CORP S.A.C.</t>
+  </si>
+  <si>
+    <t>CRISTALES EXPRESS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>liliana.rodriguez@cristalesexpress.com.pe</t>
+  </si>
+  <si>
+    <t>AYMA CCAHUA MARIA VIRGINIA</t>
+  </si>
+  <si>
+    <t>NEGOCIOS DULCICAKE S.A.C.</t>
+  </si>
+  <si>
+    <t>carlosromero.contador06@gmail.com , carlos.085.08@gmail.com ,asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>INVERSIONES GENERALES EL MUNDO DEL ELECTRICISTA S.A.C.</t>
+  </si>
+  <si>
+    <t>TRANSPORTES SILCOM E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SOCIEDAD MINERA EL TRIUNFO S.A.</t>
+  </si>
+  <si>
+    <t>RONESK S.A.C.</t>
+  </si>
+  <si>
+    <t>EDITH GUTIERREZ</t>
+  </si>
+  <si>
+    <t>FABRICACIONES INDUSTRIALES PINOCHET S.A.C. - FABRI IND. PINOCHET S.A.C</t>
+  </si>
+  <si>
+    <t>SIMONS &amp; DE NORIEGA ABOGADOS SOCIEDAD CIVIL DE RESPONSABILIDAD LIMITADA-SIMONS &amp; DE NORIEGA S. CIVIL</t>
   </si>
 </sst>
 </file>
@@ -1639,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,7 +2337,7 @@
         <v>20610144587</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>20610144587</v>
@@ -1746,7 +2352,10 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1769,7 +2378,7 @@
         <v>20609541203</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>20609541203</v>
@@ -1785,6 +2394,9 @@
       </c>
       <c r="L3">
         <v>202510</v>
+      </c>
+      <c r="O3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1807,7 +2419,7 @@
         <v>20539496141</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>20539496141</v>
@@ -1823,6 +2435,12 @@
       </c>
       <c r="L4">
         <v>202510</v>
+      </c>
+      <c r="N4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1845,7 +2463,7 @@
         <v>20601831601</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>20601831601</v>
@@ -1861,6 +2479,9 @@
       </c>
       <c r="L5">
         <v>202510</v>
+      </c>
+      <c r="O5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1883,7 +2504,7 @@
         <v>20610144587</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>20610144587</v>
@@ -1898,10 +2519,10 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1924,7 +2545,7 @@
         <v>20604813175</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H7">
         <v>20604813175</v>
@@ -1939,7 +2560,10 @@
         <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1962,7 +2586,7 @@
         <v>44088164</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H8">
         <v>10440881641</v>
@@ -1978,6 +2602,12 @@
       </c>
       <c r="L8">
         <v>202510</v>
+      </c>
+      <c r="N8" t="s">
+        <v>243</v>
+      </c>
+      <c r="O8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2000,7 +2630,7 @@
         <v>20552774435</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H9">
         <v>20552774435</v>
@@ -2016,6 +2646,9 @@
       </c>
       <c r="L9">
         <v>202510</v>
+      </c>
+      <c r="O9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2029,16 +2662,16 @@
         <v>45992</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>20604729433</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H10">
         <v>20604729433</v>
@@ -2054,6 +2687,12 @@
       </c>
       <c r="L10">
         <v>202510</v>
+      </c>
+      <c r="N10" t="s">
+        <v>246</v>
+      </c>
+      <c r="O10" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2076,7 +2715,7 @@
         <v>20611003791</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H11">
         <v>20611003791</v>
@@ -2093,8 +2732,8 @@
       <c r="L11">
         <v>202510</v>
       </c>
-      <c r="N11" t="s">
-        <v>35</v>
+      <c r="O11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2102,7 +2741,7 @@
         <v>76482958</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>45992</v>
@@ -2117,7 +2756,7 @@
         <v>20601397529</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H12">
         <v>20601397529</v>
@@ -2133,6 +2772,9 @@
       </c>
       <c r="L12">
         <v>202510</v>
+      </c>
+      <c r="O12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2155,7 +2797,7 @@
         <v>20601449413</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H13">
         <v>20601449413</v>
@@ -2172,8 +2814,8 @@
       <c r="L13">
         <v>202510</v>
       </c>
-      <c r="N13" t="s">
-        <v>36</v>
+      <c r="O13" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2196,7 +2838,7 @@
         <v>20612220434</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H14">
         <v>20612220434</v>
@@ -2212,6 +2854,12 @@
       </c>
       <c r="L14">
         <v>202510</v>
+      </c>
+      <c r="N14" t="s">
+        <v>251</v>
+      </c>
+      <c r="O14" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2234,7 +2882,7 @@
         <v>20487548643</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H15">
         <v>20487548643</v>
@@ -2247,6 +2895,12 @@
       </c>
       <c r="K15" t="s">
         <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2269,7 +2923,7 @@
         <v>20601780764</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H16">
         <v>20601780764</v>
@@ -2283,11 +2937,14 @@
       <c r="K16" t="s">
         <v>27</v>
       </c>
-      <c r="N16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>202508</v>
+      </c>
+      <c r="O16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>76476324</v>
       </c>
@@ -2307,7 +2964,7 @@
         <v>20601260191</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H17">
         <v>20601260191</v>
@@ -2325,10 +2982,13 @@
         <v>202510</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="O17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>76478547</v>
       </c>
@@ -2348,7 +3008,7 @@
         <v>20610169661</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H18">
         <v>20610169661</v>
@@ -2365,8 +3025,11 @@
       <c r="L18">
         <v>202510</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>76478568</v>
       </c>
@@ -2386,7 +3049,7 @@
         <v>20610254331</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H19">
         <v>20610254331</v>
@@ -2403,8 +3066,14 @@
       <c r="L19">
         <v>202510</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>258</v>
+      </c>
+      <c r="O19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>76476881</v>
       </c>
@@ -2424,7 +3093,7 @@
         <v>20603010575</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H20">
         <v>20603010575</v>
@@ -2441,11 +3110,11 @@
       <c r="L20">
         <v>202510</v>
       </c>
-      <c r="N20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>76477584</v>
       </c>
@@ -2465,7 +3134,7 @@
         <v>20606070218</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H21">
         <v>20606070218</v>
@@ -2482,8 +3151,14 @@
       <c r="L21">
         <v>202510</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N21" t="s">
+        <v>261</v>
+      </c>
+      <c r="O21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>76475812</v>
       </c>
@@ -2503,7 +3178,7 @@
         <v>20558353814</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H22">
         <v>20558353814</v>
@@ -2521,10 +3196,13 @@
         <v>202510</v>
       </c>
       <c r="N22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="O22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>76482317</v>
       </c>
@@ -2544,7 +3222,7 @@
         <v>20480038267</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H23">
         <v>20480038267</v>
@@ -2562,7 +3240,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>76481896</v>
       </c>
@@ -2582,7 +3260,7 @@
         <v>6598507</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H24">
         <v>10065985077</v>
@@ -2599,16 +3277,16 @@
       <c r="L24">
         <v>202510</v>
       </c>
-      <c r="N24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76482767</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <v>45992</v>
@@ -2623,7 +3301,7 @@
         <v>20558373921</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25">
         <v>20558373921</v>
@@ -2640,8 +3318,11 @@
       <c r="L25">
         <v>202510</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>76476512</v>
       </c>
@@ -2661,7 +3342,7 @@
         <v>20601811252</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26">
         <v>20601811252</v>
@@ -2678,8 +3359,14 @@
       <c r="L26">
         <v>202510</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>267</v>
+      </c>
+      <c r="O26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>76478948</v>
       </c>
@@ -2699,7 +3386,7 @@
         <v>20611910852</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H27">
         <v>20611910852</v>
@@ -2716,8 +3403,14 @@
       <c r="L27">
         <v>202510</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N27" t="s">
+        <v>269</v>
+      </c>
+      <c r="O27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>76477345</v>
       </c>
@@ -2725,7 +3418,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2737,7 +3430,7 @@
         <v>20605050833</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H28">
         <v>20605050833</v>
@@ -2754,8 +3447,14 @@
       <c r="L28">
         <v>202510</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N28" t="s">
+        <v>271</v>
+      </c>
+      <c r="O28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>76474046</v>
       </c>
@@ -2775,7 +3474,7 @@
         <v>42841369</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H29">
         <v>10428413691</v>
@@ -2790,10 +3489,13 @@
         <v>18</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="O29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>76483921</v>
       </c>
@@ -2813,7 +3515,7 @@
         <v>20614146487</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H30">
         <v>20614146487</v>
@@ -2830,8 +3532,11 @@
       <c r="L30">
         <v>202510</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>76481977</v>
       </c>
@@ -2851,7 +3556,7 @@
         <v>29279725</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H31">
         <v>10292797252</v>
@@ -2868,8 +3573,11 @@
       <c r="L31">
         <v>202510</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>76479467</v>
       </c>
@@ -2889,7 +3597,7 @@
         <v>20614227533</v>
       </c>
       <c r="G32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H32">
         <v>20614227533</v>
@@ -2906,8 +3614,11 @@
       <c r="L32">
         <v>202510</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>76475992</v>
       </c>
@@ -2927,7 +3638,7 @@
         <v>20600034945</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H33">
         <v>20600034945</v>
@@ -2942,10 +3653,13 @@
         <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="O33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>76479442</v>
       </c>
@@ -2965,7 +3679,7 @@
         <v>20614049457</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H34">
         <v>20614049457</v>
@@ -2982,8 +3696,11 @@
       <c r="L34">
         <v>202510</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>76479302</v>
       </c>
@@ -3003,7 +3720,7 @@
         <v>20613368362</v>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H35">
         <v>20613368362</v>
@@ -3018,10 +3735,13 @@
         <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="O35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>76479530</v>
       </c>
@@ -3041,7 +3761,7 @@
         <v>20614584247</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H36">
         <v>20614584247</v>
@@ -3058,8 +3778,14 @@
       <c r="L36">
         <v>202510</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N36" t="s">
+        <v>280</v>
+      </c>
+      <c r="O36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>76474543</v>
       </c>
@@ -3079,7 +3805,7 @@
         <v>20479467863</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H37">
         <v>20479467863</v>
@@ -3096,8 +3822,14 @@
       <c r="L37">
         <v>202510</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N37" t="s">
+        <v>282</v>
+      </c>
+      <c r="O37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>76476209</v>
       </c>
@@ -3117,7 +3849,7 @@
         <v>20600824059</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H38">
         <v>20600824059</v>
@@ -3134,8 +3866,11 @@
       <c r="L38">
         <v>202510</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>76481910</v>
       </c>
@@ -3155,7 +3890,7 @@
         <v>8343986</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H39">
         <v>10083439861</v>
@@ -3172,8 +3907,11 @@
       <c r="L39">
         <v>202510</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>76475742</v>
       </c>
@@ -3193,7 +3931,7 @@
         <v>20555653922</v>
       </c>
       <c r="G40" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H40">
         <v>20555653922</v>
@@ -3210,8 +3948,14 @@
       <c r="L40">
         <v>202510</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N40" t="s">
+        <v>286</v>
+      </c>
+      <c r="O40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>76479448</v>
       </c>
@@ -3231,7 +3975,7 @@
         <v>20614087880</v>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H41">
         <v>20614087880</v>
@@ -3248,8 +3992,14 @@
       <c r="L41">
         <v>202510</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N41" t="s">
+        <v>288</v>
+      </c>
+      <c r="O41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>76476485</v>
       </c>
@@ -3269,7 +4019,7 @@
         <v>20601771706</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H42">
         <v>20601771706</v>
@@ -3286,8 +4036,11 @@
       <c r="L42">
         <v>202510</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>76478452</v>
       </c>
@@ -3307,7 +4060,7 @@
         <v>20609804174</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H43">
         <v>20609804174</v>
@@ -3324,8 +4077,14 @@
       <c r="L43">
         <v>202510</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N43" t="s">
+        <v>291</v>
+      </c>
+      <c r="O43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>76487512</v>
       </c>
@@ -3336,16 +4095,16 @@
         <v>45992</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F44">
         <v>41521932</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H44">
         <v>10415219321</v>
@@ -3362,8 +4121,11 @@
       <c r="L44">
         <v>202505</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O44" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>76477524</v>
       </c>
@@ -3383,7 +4145,7 @@
         <v>20605809503</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H45">
         <v>20605809503</v>
@@ -3400,8 +4162,11 @@
       <c r="L45">
         <v>202510</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>76483667</v>
       </c>
@@ -3421,7 +4186,7 @@
         <v>20610694668</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H46">
         <v>20610694668</v>
@@ -3438,8 +4203,11 @@
       <c r="L46">
         <v>202510</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>76482026</v>
       </c>
@@ -3459,7 +4227,7 @@
         <v>42515501</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H47">
         <v>10425155011</v>
@@ -3476,8 +4244,11 @@
       <c r="L47">
         <v>202510</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>76475876</v>
       </c>
@@ -3497,7 +4268,7 @@
         <v>20563578824</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H48">
         <v>20563578824</v>
@@ -3511,8 +4282,17 @@
       <c r="K48" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48" t="s">
+        <v>67</v>
+      </c>
+      <c r="N48" t="s">
+        <v>297</v>
+      </c>
+      <c r="O48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>76475762</v>
       </c>
@@ -3532,7 +4312,7 @@
         <v>20556446084</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H49">
         <v>20556446084</v>
@@ -3547,10 +4327,16 @@
         <v>18</v>
       </c>
       <c r="L49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N49" t="s">
+        <v>299</v>
+      </c>
+      <c r="O49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>76474760</v>
       </c>
@@ -3570,7 +4356,7 @@
         <v>20501929892</v>
       </c>
       <c r="G50" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H50">
         <v>20501929892</v>
@@ -3587,8 +4373,11 @@
       <c r="L50">
         <v>202510</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>76482534</v>
       </c>
@@ -3608,7 +4397,7 @@
         <v>20522965287</v>
       </c>
       <c r="G51" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H51">
         <v>20522965287</v>
@@ -3625,8 +4414,11 @@
       <c r="L51">
         <v>202510</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>76478019</v>
       </c>
@@ -3646,7 +4438,7 @@
         <v>20608053795</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>20608053795</v>
@@ -3663,8 +4455,11 @@
       <c r="L52">
         <v>202510</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>76477031</v>
       </c>
@@ -3684,7 +4479,7 @@
         <v>20603513925</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <v>20603513925</v>
@@ -3701,8 +4496,14 @@
       <c r="L53">
         <v>202510</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N53" t="s">
+        <v>304</v>
+      </c>
+      <c r="O53" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>76474354</v>
       </c>
@@ -3722,7 +4523,7 @@
         <v>20408725586</v>
       </c>
       <c r="G54" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H54">
         <v>20408725586</v>
@@ -3739,8 +4540,11 @@
       <c r="L54">
         <v>202510</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>76475637</v>
       </c>
@@ -3760,7 +4564,7 @@
         <v>20552248466</v>
       </c>
       <c r="G55" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H55">
         <v>20552248466</v>
@@ -3777,13 +4581,19 @@
       <c r="L55">
         <v>202510</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N55" t="s">
+        <v>307</v>
+      </c>
+      <c r="O55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>76476909</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C56">
         <v>45992</v>
@@ -3798,7 +4608,7 @@
         <v>20603083670</v>
       </c>
       <c r="G56" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H56">
         <v>20603083670</v>
@@ -3815,8 +4625,14 @@
       <c r="L56">
         <v>202510</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N56" t="s">
+        <v>309</v>
+      </c>
+      <c r="O56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>76478077</v>
       </c>
@@ -3836,7 +4652,7 @@
         <v>20608326325</v>
       </c>
       <c r="G57" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H57">
         <v>20608326325</v>
@@ -3851,15 +4667,18 @@
         <v>18</v>
       </c>
       <c r="L57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="O57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>76482716</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>45992</v>
@@ -3874,7 +4693,7 @@
         <v>20552314604</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H58">
         <v>20552314604</v>
@@ -3891,8 +4710,11 @@
       <c r="L58">
         <v>202510</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O58" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>76482592</v>
       </c>
@@ -3912,7 +4734,7 @@
         <v>20534091053</v>
       </c>
       <c r="G59" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H59">
         <v>20534091053</v>
@@ -3929,8 +4751,11 @@
       <c r="L59">
         <v>202510</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>76483167</v>
       </c>
@@ -3950,7 +4775,7 @@
         <v>20603336799</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H60">
         <v>20603336799</v>
@@ -3965,10 +4790,10 @@
         <v>18</v>
       </c>
       <c r="L60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>76478103</v>
       </c>
@@ -3988,7 +4813,7 @@
         <v>20608440608</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H61">
         <v>20608440608</v>
@@ -4005,8 +4830,14 @@
       <c r="L61">
         <v>202510</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N61" t="s">
+        <v>314</v>
+      </c>
+      <c r="O61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>76482406</v>
       </c>
@@ -4026,7 +4857,7 @@
         <v>20504169848</v>
       </c>
       <c r="G62" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H62">
         <v>20504169848</v>
@@ -4043,8 +4874,11 @@
       <c r="L62">
         <v>202510</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>76482051</v>
       </c>
@@ -4064,7 +4898,7 @@
         <v>44974063</v>
       </c>
       <c r="G63" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H63">
         <v>10449740632</v>
@@ -4081,8 +4915,11 @@
       <c r="L63">
         <v>202510</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O63" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>76504127</v>
       </c>
@@ -4093,16 +4930,16 @@
         <v>45992</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F64">
         <v>20601652600</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>20601652600</v>
@@ -4119,8 +4956,11 @@
       <c r="L64">
         <v>202510</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>76474744</v>
       </c>
@@ -4140,7 +4980,7 @@
         <v>20495932797</v>
       </c>
       <c r="G65" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H65">
         <v>20495932797</v>
@@ -4157,8 +4997,14 @@
       <c r="L65">
         <v>202510</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N65" t="s">
+        <v>319</v>
+      </c>
+      <c r="O65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>76474794</v>
       </c>
@@ -4166,7 +5012,7 @@
         <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s">
         <v>20</v>
@@ -4178,7 +5024,7 @@
         <v>20505874529</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H66">
         <v>20505874529</v>
@@ -4195,8 +5041,14 @@
       <c r="L66">
         <v>202510</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N66" t="s">
+        <v>321</v>
+      </c>
+      <c r="O66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>76482630</v>
       </c>
@@ -4216,7 +5068,7 @@
         <v>20539694023</v>
       </c>
       <c r="G67" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H67">
         <v>20539694023</v>
@@ -4230,16 +5082,22 @@
       <c r="K67" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>202509</v>
+      </c>
+      <c r="O67" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>76477124</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
         <v>20</v>
@@ -4251,7 +5109,7 @@
         <v>20603914296</v>
       </c>
       <c r="G68" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H68">
         <v>20603914296</v>
@@ -4268,8 +5126,11 @@
       <c r="L68">
         <v>202510</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O68" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>76479084</v>
       </c>
@@ -4277,7 +5138,7 @@
         <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
         <v>20</v>
@@ -4289,7 +5150,7 @@
         <v>20612463591</v>
       </c>
       <c r="G69" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H69">
         <v>20612463591</v>
@@ -4301,10 +5162,16 @@
         <v>127</v>
       </c>
       <c r="K69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="L69">
+        <v>202510</v>
+      </c>
+      <c r="O69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>76475076</v>
       </c>
@@ -4312,7 +5179,7 @@
         <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D70" t="s">
         <v>20</v>
@@ -4324,7 +5191,7 @@
         <v>20521886871</v>
       </c>
       <c r="G70" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H70">
         <v>20521886871</v>
@@ -4341,8 +5208,14 @@
       <c r="L70">
         <v>202510</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N70" t="s">
+        <v>326</v>
+      </c>
+      <c r="O70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>76474019</v>
       </c>
@@ -4350,7 +5223,7 @@
         <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D71" t="s">
         <v>20</v>
@@ -4362,7 +5235,7 @@
         <v>41977629</v>
       </c>
       <c r="G71" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H71">
         <v>10419776292</v>
@@ -4377,10 +5250,16 @@
         <v>18</v>
       </c>
       <c r="L71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N71" t="s">
+        <v>328</v>
+      </c>
+      <c r="O71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>76478209</v>
       </c>
@@ -4400,7 +5279,7 @@
         <v>20608870424</v>
       </c>
       <c r="G72" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H72">
         <v>20608870424</v>
@@ -4417,8 +5296,14 @@
       <c r="L72">
         <v>202510</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N72" t="s">
+        <v>330</v>
+      </c>
+      <c r="O72" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>76475646</v>
       </c>
@@ -4438,7 +5323,7 @@
         <v>20552425694</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>20552425694</v>
@@ -4455,8 +5340,11 @@
       <c r="L73">
         <v>202510</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O73" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>76477631</v>
       </c>
@@ -4464,7 +5352,7 @@
         <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D74" t="s">
         <v>20</v>
@@ -4476,7 +5364,7 @@
         <v>20606210176</v>
       </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H74">
         <v>20606210176</v>
@@ -4490,8 +5378,17 @@
       <c r="K74" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>202510</v>
+      </c>
+      <c r="N74" t="s">
+        <v>333</v>
+      </c>
+      <c r="O74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>76514180</v>
       </c>
@@ -4499,7 +5396,7 @@
         <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
         <v>29</v>
@@ -4511,7 +5408,7 @@
         <v>20519499780</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H75">
         <v>20519499780</v>
@@ -4526,10 +5423,13 @@
         <v>23</v>
       </c>
       <c r="L75" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="M75" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76477902</v>
       </c>
@@ -4549,7 +5449,7 @@
         <v>20607538906</v>
       </c>
       <c r="G76" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H76">
         <v>20607538906</v>
@@ -4566,8 +5466,14 @@
       <c r="L76">
         <v>202510</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N76" t="s">
+        <v>336</v>
+      </c>
+      <c r="O76" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76478219</v>
       </c>
@@ -4587,7 +5493,7 @@
         <v>20608910515</v>
       </c>
       <c r="G77" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H77">
         <v>20608910515</v>
@@ -4604,8 +5510,11 @@
       <c r="L77">
         <v>202510</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O77" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76479175</v>
       </c>
@@ -4625,7 +5534,7 @@
         <v>20612881660</v>
       </c>
       <c r="G78" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H78">
         <v>20612881660</v>
@@ -4642,13 +5551,19 @@
       <c r="L78">
         <v>202510</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N78" t="s">
+        <v>339</v>
+      </c>
+      <c r="O78" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>76482094</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C79">
         <v>45992</v>
@@ -4663,7 +5578,7 @@
         <v>72898075</v>
       </c>
       <c r="G79" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H79">
         <v>10728980759</v>
@@ -4680,8 +5595,11 @@
       <c r="L79">
         <v>202510</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O79" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>76482493</v>
       </c>
@@ -4701,7 +5619,7 @@
         <v>20517330702</v>
       </c>
       <c r="G80" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H80">
         <v>20517330702</v>
@@ -4719,7 +5637,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>76474482</v>
       </c>
@@ -4739,7 +5657,7 @@
         <v>20455671176</v>
       </c>
       <c r="G81" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H81">
         <v>20455671176</v>
@@ -4756,8 +5674,14 @@
       <c r="L81">
         <v>202510</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N81" t="s">
+        <v>342</v>
+      </c>
+      <c r="O81" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>76473991</v>
       </c>
@@ -4765,7 +5689,7 @@
         <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
         <v>20</v>
@@ -4777,7 +5701,7 @@
         <v>40721603</v>
       </c>
       <c r="G82" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H82">
         <v>10407216038</v>
@@ -4794,8 +5718,11 @@
       <c r="L82">
         <v>202510</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O82" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>76474057</v>
       </c>
@@ -4803,7 +5730,7 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
         <v>20</v>
@@ -4815,7 +5742,7 @@
         <v>43371623</v>
       </c>
       <c r="G83" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H83">
         <v>10433716235</v>
@@ -4830,10 +5757,13 @@
         <v>18</v>
       </c>
       <c r="L83" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="O83" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>76481914</v>
       </c>
@@ -4853,7 +5783,7 @@
         <v>9223827</v>
       </c>
       <c r="G84" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H84">
         <v>10092238275</v>
@@ -4871,7 +5801,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>76476539</v>
       </c>
@@ -4879,7 +5809,7 @@
         <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D85" t="s">
         <v>20</v>
@@ -4891,7 +5821,7 @@
         <v>20601897823</v>
       </c>
       <c r="G85" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H85">
         <v>20601897823</v>
@@ -4908,8 +5838,14 @@
       <c r="L85">
         <v>202510</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N85" t="s">
+        <v>346</v>
+      </c>
+      <c r="O85" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>76474937</v>
       </c>
@@ -4929,7 +5865,7 @@
         <v>20514766119</v>
       </c>
       <c r="G86" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H86">
         <v>20514766119</v>
@@ -4946,8 +5882,11 @@
       <c r="L86">
         <v>202510</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O86" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>76479447</v>
       </c>
@@ -4967,7 +5906,7 @@
         <v>20614073897</v>
       </c>
       <c r="G87" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H87">
         <v>20614073897</v>
@@ -4984,8 +5923,11 @@
       <c r="L87">
         <v>202510</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O87" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>76476023</v>
       </c>
@@ -4993,7 +5935,7 @@
         <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D88" t="s">
         <v>20</v>
@@ -5005,7 +5947,7 @@
         <v>20600140451</v>
       </c>
       <c r="G88" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H88">
         <v>20600140451</v>
@@ -5022,8 +5964,11 @@
       <c r="L88">
         <v>202510</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O88" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>76476082</v>
       </c>
@@ -5043,7 +5988,7 @@
         <v>20600406184</v>
       </c>
       <c r="G89" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H89">
         <v>20600406184</v>
@@ -5058,10 +6003,16 @@
         <v>18</v>
       </c>
       <c r="L89" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N89" t="s">
+        <v>351</v>
+      </c>
+      <c r="O89" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>76478304</v>
       </c>
@@ -5081,7 +6032,7 @@
         <v>20609237288</v>
       </c>
       <c r="G90" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H90">
         <v>20609237288</v>
@@ -5098,8 +6049,11 @@
       <c r="L90">
         <v>202510</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O90" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>76475930</v>
       </c>
@@ -5119,7 +6073,7 @@
         <v>20567288308</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>20567288308</v>
@@ -5136,8 +6090,14 @@
       <c r="L91">
         <v>202510</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N91" t="s">
+        <v>354</v>
+      </c>
+      <c r="O91" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>76478147</v>
       </c>
@@ -5157,7 +6117,7 @@
         <v>20608558030</v>
       </c>
       <c r="G92" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H92">
         <v>20608558030</v>
@@ -5174,8 +6134,14 @@
       <c r="L92">
         <v>202510</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N92" t="s">
+        <v>356</v>
+      </c>
+      <c r="O92" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>76475069</v>
       </c>
@@ -5195,7 +6161,7 @@
         <v>20521604647</v>
       </c>
       <c r="G93" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H93">
         <v>20521604647</v>
@@ -5210,10 +6176,13 @@
         <v>18</v>
       </c>
       <c r="L93" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="O93" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>76475953</v>
       </c>
@@ -5233,7 +6202,7 @@
         <v>20569222703</v>
       </c>
       <c r="G94" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H94">
         <v>20569222703</v>
@@ -5250,8 +6219,14 @@
       <c r="L94">
         <v>202510</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N94" t="s">
+        <v>359</v>
+      </c>
+      <c r="O94" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>76474079</v>
       </c>
@@ -5271,7 +6246,7 @@
         <v>44425716</v>
       </c>
       <c r="G95" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H95">
         <v>10444257160</v>
@@ -5288,28 +6263,31 @@
       <c r="L95">
         <v>202510</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O95" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>76503309</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C96">
         <v>45992</v>
       </c>
       <c r="D96" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F96">
         <v>20600764102</v>
       </c>
       <c r="G96" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H96">
         <v>20600764102</v>
@@ -5326,8 +6304,14 @@
       <c r="L96">
         <v>202510</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N96" t="s">
+        <v>362</v>
+      </c>
+      <c r="O96" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>76482650</v>
       </c>
@@ -5347,7 +6331,7 @@
         <v>20543925838</v>
       </c>
       <c r="G97" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H97">
         <v>20543925838</v>
@@ -5364,8 +6348,11 @@
       <c r="L97">
         <v>202510</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O97" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>76475772</v>
       </c>
@@ -5385,7 +6372,7 @@
         <v>20556771074</v>
       </c>
       <c r="G98" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H98">
         <v>20556771074</v>
@@ -5402,13 +6389,19 @@
       <c r="L98">
         <v>202510</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N98" t="s">
+        <v>365</v>
+      </c>
+      <c r="O98" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>76478381</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C99">
         <v>45992</v>
@@ -5423,7 +6416,7 @@
         <v>20609524872</v>
       </c>
       <c r="G99" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H99">
         <v>20609524872</v>
@@ -5438,10 +6431,16 @@
         <v>18</v>
       </c>
       <c r="L99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N99" t="s">
+        <v>367</v>
+      </c>
+      <c r="O99" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>76476377</v>
       </c>
@@ -5461,7 +6460,7 @@
         <v>20601407699</v>
       </c>
       <c r="G100" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H100">
         <v>20601407699</v>
@@ -5478,28 +6477,34 @@
       <c r="L100" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100">
+        <v>202510</v>
+      </c>
+      <c r="O100" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>76487964</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C101" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F101">
         <v>20170417543</v>
       </c>
       <c r="G101" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H101">
         <v>20170417543</v>
@@ -5516,16 +6521,19 @@
       <c r="L101">
         <v>199807</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O101" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>76474266</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D102" t="s">
         <v>20</v>
@@ -5537,7 +6545,7 @@
         <v>20302061425</v>
       </c>
       <c r="G102" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H102">
         <v>20302061425</v>
@@ -5554,8 +6562,11 @@
       <c r="L102">
         <v>202510</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O102" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>76476799</v>
       </c>
@@ -5575,7 +6586,7 @@
         <v>20602745130</v>
       </c>
       <c r="G103" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H103">
         <v>20602745130</v>
@@ -5592,8 +6603,14 @@
       <c r="L103">
         <v>202510</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N103" t="s">
+        <v>372</v>
+      </c>
+      <c r="O103" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>76481987</v>
       </c>
@@ -5613,7 +6630,7 @@
         <v>29721232</v>
       </c>
       <c r="G104" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H104">
         <v>10297212325</v>
@@ -5630,8 +6647,11 @@
       <c r="L104" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O104" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>76477210</v>
       </c>
@@ -5639,7 +6659,7 @@
         <v>22</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D105" t="s">
         <v>20</v>
@@ -5651,7 +6671,7 @@
         <v>20604322678</v>
       </c>
       <c r="G105" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H105">
         <v>20604322678</v>
@@ -5668,8 +6688,14 @@
       <c r="L105">
         <v>202510</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N105" t="s">
+        <v>375</v>
+      </c>
+      <c r="O105" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>76513681</v>
       </c>
@@ -5677,7 +6703,7 @@
         <v>32</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
@@ -5689,7 +6715,7 @@
         <v>20509470848</v>
       </c>
       <c r="G106" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H106">
         <v>20509470848</v>
@@ -5704,10 +6730,13 @@
         <v>23</v>
       </c>
       <c r="L106" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="M106" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>76474770</v>
       </c>
@@ -5727,7 +6756,7 @@
         <v>20503983827</v>
       </c>
       <c r="G107" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H107">
         <v>20503983827</v>
@@ -5744,16 +6773,19 @@
       <c r="L107">
         <v>202510</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O107" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>76477683</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C108" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D108" t="s">
         <v>20</v>
@@ -5765,7 +6797,7 @@
         <v>20606399279</v>
       </c>
       <c r="G108" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H108">
         <v>20606399279</v>
@@ -5782,13 +6814,16 @@
       <c r="L108">
         <v>202510</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O108" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>76474219</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C109">
         <v>45992</v>
@@ -5803,7 +6838,7 @@
         <v>20141011953</v>
       </c>
       <c r="G109" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H109">
         <v>20141011953</v>
@@ -5820,8 +6855,14 @@
       <c r="L109">
         <v>202510</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N109" t="s">
+        <v>380</v>
+      </c>
+      <c r="O109" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>76474477</v>
       </c>
@@ -5841,7 +6882,7 @@
         <v>20455442495</v>
       </c>
       <c r="G110" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H110">
         <v>20455442495</v>
@@ -5858,8 +6899,14 @@
       <c r="L110">
         <v>202510</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110">
+        <v>202509</v>
+      </c>
+      <c r="N110" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>76477559</v>
       </c>
@@ -5879,7 +6926,7 @@
         <v>20605953019</v>
       </c>
       <c r="G111" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H111">
         <v>20605953019</v>
@@ -5896,8 +6943,11 @@
       <c r="L111">
         <v>202510</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N111" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>76475267</v>
       </c>
@@ -5917,7 +6967,7 @@
         <v>20535752932</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>20535752932</v>
@@ -5934,8 +6984,11 @@
       <c r="L112">
         <v>202510</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N112" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>76475694</v>
       </c>
@@ -5955,7 +7008,7 @@
         <v>20554115064</v>
       </c>
       <c r="G113" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H113">
         <v>20554115064</v>
@@ -5973,7 +7026,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>76475753</v>
       </c>
@@ -5993,7 +7046,7 @@
         <v>20556014028</v>
       </c>
       <c r="G114" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H114">
         <v>20556014028</v>
@@ -6007,8 +7060,11 @@
       <c r="K114" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>76474264</v>
       </c>
@@ -6016,7 +7072,7 @@
         <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D115" t="s">
         <v>20</v>
@@ -6028,7 +7084,7 @@
         <v>20298537461</v>
       </c>
       <c r="G115" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H115">
         <v>20298537461</v>
@@ -6045,8 +7101,11 @@
       <c r="L115">
         <v>202510</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N115" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>76475195</v>
       </c>
@@ -6066,7 +7125,7 @@
         <v>20529671980</v>
       </c>
       <c r="G116" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H116">
         <v>20529671980</v>
@@ -6083,13 +7142,16 @@
       <c r="L116">
         <v>202510</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N116" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>76482853</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C117">
         <v>45992</v>
@@ -6104,7 +7166,7 @@
         <v>20600149921</v>
       </c>
       <c r="G117" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H117">
         <v>20600149921</v>
@@ -6121,8 +7183,11 @@
       <c r="L117">
         <v>202510</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N117" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>76483147</v>
       </c>
@@ -6142,7 +7207,7 @@
         <v>20603158734</v>
       </c>
       <c r="G118" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H118">
         <v>20603158734</v>
@@ -6160,7 +7225,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>76475173</v>
       </c>
@@ -6180,7 +7245,7 @@
         <v>20528181334</v>
       </c>
       <c r="G119" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H119">
         <v>20528181334</v>
@@ -6195,10 +7260,10 @@
         <v>18</v>
       </c>
       <c r="L119" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>76482790</v>
       </c>
@@ -6218,7 +7283,7 @@
         <v>20563661136</v>
       </c>
       <c r="G120" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H120">
         <v>20563661136</v>
@@ -6236,7 +7301,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>76477499</v>
       </c>
@@ -6256,7 +7321,7 @@
         <v>20605710698</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>20605710698</v>
@@ -6274,27 +7339,27 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>76498557</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D122" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E122" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F122">
         <v>20514534251</v>
       </c>
       <c r="G122" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H122">
         <v>20514534251</v>
@@ -6312,7 +7377,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>76475111</v>
       </c>
@@ -6332,7 +7397,7 @@
         <v>20524055130</v>
       </c>
       <c r="G123" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H123">
         <v>20524055130</v>
@@ -6350,7 +7415,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>76474877</v>
       </c>
@@ -6358,7 +7423,7 @@
         <v>31</v>
       </c>
       <c r="C124" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D124" t="s">
         <v>20</v>
@@ -6370,7 +7435,7 @@
         <v>20511763089</v>
       </c>
       <c r="G124" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H124">
         <v>20511763089</v>
@@ -6387,8 +7452,11 @@
       <c r="L124">
         <v>202510</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N124" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>76476589</v>
       </c>
@@ -6408,7 +7476,7 @@
         <v>20602028829</v>
       </c>
       <c r="G125" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H125">
         <v>20602028829</v>
@@ -6426,7 +7494,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>76483025</v>
       </c>
@@ -6446,7 +7514,7 @@
         <v>20602074553</v>
       </c>
       <c r="G126" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H126">
         <v>20602074553</v>
@@ -6464,7 +7532,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>76482517</v>
       </c>
@@ -6484,7 +7552,7 @@
         <v>20520837028</v>
       </c>
       <c r="G127" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H127">
         <v>20520837028</v>
@@ -6502,7 +7570,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>76476381</v>
       </c>
@@ -6522,7 +7590,7 @@
         <v>20601412714</v>
       </c>
       <c r="G128" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H128">
         <v>20601412714</v>
@@ -6537,15 +7605,15 @@
         <v>18</v>
       </c>
       <c r="L128" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>76483484</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C129">
         <v>45992</v>
@@ -6560,7 +7628,7 @@
         <v>20608355881</v>
       </c>
       <c r="G129" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H129">
         <v>20608355881</v>
@@ -6578,12 +7646,12 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>76482803</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C130">
         <v>45992</v>
@@ -6598,7 +7666,7 @@
         <v>20565703570</v>
       </c>
       <c r="G130" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H130">
         <v>20565703570</v>
@@ -6616,7 +7684,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>76483350</v>
       </c>
@@ -6636,7 +7704,7 @@
         <v>20606139501</v>
       </c>
       <c r="G131" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H131">
         <v>20606139501</v>
@@ -6654,7 +7722,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>76474693</v>
       </c>
@@ -6691,8 +7759,11 @@
       <c r="L132">
         <v>202510</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N132" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>76479025</v>
       </c>
@@ -6712,7 +7783,7 @@
         <v>20612242373</v>
       </c>
       <c r="G133" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H133">
         <v>20612242373</v>
@@ -6729,13 +7800,16 @@
       <c r="L133">
         <v>202510</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N133" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>76482943</v>
       </c>
       <c r="B134" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C134">
         <v>45992</v>
@@ -6750,7 +7824,7 @@
         <v>20601228336</v>
       </c>
       <c r="G134" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H134">
         <v>20601228336</v>
@@ -6768,7 +7842,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>76478040</v>
       </c>
@@ -6776,7 +7850,7 @@
         <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D135" t="s">
         <v>20</v>
@@ -6788,7 +7862,7 @@
         <v>20608123696</v>
       </c>
       <c r="G135" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H135">
         <v>20608123696</v>
@@ -6805,13 +7879,16 @@
       <c r="L135">
         <v>202510</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N135" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>76482953</v>
       </c>
       <c r="B136" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C136">
         <v>45992</v>
@@ -6826,7 +7903,7 @@
         <v>20601348994</v>
       </c>
       <c r="G136" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H136">
         <v>20601348994</v>
@@ -6844,7 +7921,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>76483194</v>
       </c>
@@ -6864,7 +7941,7 @@
         <v>20603712341</v>
       </c>
       <c r="G137" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H137">
         <v>20603712341</v>
@@ -6882,7 +7959,7 @@
         <v>202509</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>76477674</v>
       </c>
@@ -6902,7 +7979,7 @@
         <v>20606379588</v>
       </c>
       <c r="G138" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H138">
         <v>20606379588</v>
@@ -6920,7 +7997,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>76476898</v>
       </c>
@@ -6928,7 +8005,7 @@
         <v>22</v>
       </c>
       <c r="C139" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D139" t="s">
         <v>20</v>
@@ -6940,7 +8017,7 @@
         <v>20603066112</v>
       </c>
       <c r="G139" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H139">
         <v>20603066112</v>
@@ -6957,8 +8034,11 @@
       <c r="L139">
         <v>202510</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N139" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>76477208</v>
       </c>
@@ -6966,7 +8046,7 @@
         <v>22</v>
       </c>
       <c r="C140" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D140" t="s">
         <v>20</v>
@@ -6978,7 +8058,7 @@
         <v>20604312583</v>
       </c>
       <c r="G140" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H140">
         <v>20604312583</v>
@@ -6995,8 +8075,11 @@
       <c r="L140">
         <v>202510</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N140" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>76474010</v>
       </c>
@@ -7004,7 +8087,7 @@
         <v>22</v>
       </c>
       <c r="C141" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D141" t="s">
         <v>20</v>
@@ -7016,7 +8099,7 @@
         <v>41673301</v>
       </c>
       <c r="G141" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H141">
         <v>10416733011</v>
@@ -7031,15 +8114,18 @@
         <v>18</v>
       </c>
       <c r="L141" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N141" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>76483422</v>
       </c>
       <c r="B142" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C142">
         <v>45992</v>
@@ -7054,7 +8140,7 @@
         <v>20607442810</v>
       </c>
       <c r="G142" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H142">
         <v>20607442810</v>
@@ -7072,7 +8158,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>76475605</v>
       </c>
@@ -7080,7 +8166,7 @@
         <v>22</v>
       </c>
       <c r="C143" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D143" t="s">
         <v>20</v>
@@ -7092,7 +8178,7 @@
         <v>20551438113</v>
       </c>
       <c r="G143" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H143">
         <v>20551438113</v>
@@ -7107,10 +8193,13 @@
         <v>18</v>
       </c>
       <c r="L143" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N143" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>76476513</v>
       </c>
@@ -7118,7 +8207,7 @@
         <v>28</v>
       </c>
       <c r="C144" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D144" t="s">
         <v>20</v>
@@ -7130,7 +8219,7 @@
         <v>20601813832</v>
       </c>
       <c r="G144" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H144">
         <v>20601813832</v>
@@ -7148,7 +8237,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>76476063</v>
       </c>
@@ -7168,7 +8257,7 @@
         <v>20600319613</v>
       </c>
       <c r="G145" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H145">
         <v>20600319613</v>
@@ -7186,7 +8275,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>76479171</v>
       </c>
@@ -7206,7 +8295,7 @@
         <v>20612872008</v>
       </c>
       <c r="G146" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H146">
         <v>20612872008</v>
@@ -7223,8 +8312,11 @@
       <c r="L146">
         <v>202509</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N146" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>76482098</v>
       </c>
@@ -7244,7 +8336,7 @@
         <v>73743076</v>
       </c>
       <c r="G147" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H147">
         <v>10737430761</v>
@@ -7262,7 +8354,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>76475453</v>
       </c>
@@ -7282,7 +8374,7 @@
         <v>20545308038</v>
       </c>
       <c r="G148" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H148">
         <v>20545308038</v>
@@ -7299,8 +8391,11 @@
       <c r="L148">
         <v>202510</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N148" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>76475776</v>
       </c>
@@ -7308,7 +8403,7 @@
         <v>28</v>
       </c>
       <c r="C149" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D149" t="s">
         <v>20</v>
@@ -7320,7 +8415,7 @@
         <v>20556935280</v>
       </c>
       <c r="G149" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H149">
         <v>20556935280</v>
@@ -7338,7 +8433,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>76476825</v>
       </c>
@@ -7346,7 +8441,7 @@
         <v>22</v>
       </c>
       <c r="C150" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D150" t="s">
         <v>20</v>
@@ -7358,7 +8453,7 @@
         <v>20602849636</v>
       </c>
       <c r="G150" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H150">
         <v>20602849636</v>
@@ -7373,10 +8468,13 @@
         <v>18</v>
       </c>
       <c r="L150" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N150" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>76477775</v>
       </c>
@@ -7384,7 +8482,7 @@
         <v>28</v>
       </c>
       <c r="C151" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D151" t="s">
         <v>20</v>
@@ -7396,7 +8494,7 @@
         <v>20606753820</v>
       </c>
       <c r="G151" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H151">
         <v>20606753820</v>
@@ -7414,7 +8512,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>76483301</v>
       </c>
@@ -7434,7 +8532,7 @@
         <v>20605323881</v>
       </c>
       <c r="G152" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H152">
         <v>20605323881</v>
@@ -7452,7 +8550,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>76499232</v>
       </c>
@@ -7463,16 +8561,16 @@
         <v>45992</v>
       </c>
       <c r="D153" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E153" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F153">
         <v>20522752968</v>
       </c>
       <c r="G153" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H153">
         <v>20522752968</v>
@@ -7489,8 +8587,11 @@
       <c r="L153">
         <v>202510</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N153" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>76477972</v>
       </c>
@@ -7510,7 +8611,7 @@
         <v>20607846457</v>
       </c>
       <c r="G154" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H154">
         <v>20607846457</v>
@@ -7528,7 +8629,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>76483545</v>
       </c>
@@ -7548,7 +8649,7 @@
         <v>20609109328</v>
       </c>
       <c r="G155" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H155">
         <v>20609109328</v>
@@ -7566,7 +8667,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>76475176</v>
       </c>
@@ -7586,7 +8687,7 @@
         <v>20528323571</v>
       </c>
       <c r="G156" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H156">
         <v>20528323571</v>
@@ -7604,7 +8705,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>76478994</v>
       </c>
@@ -7624,7 +8725,7 @@
         <v>20612117323</v>
       </c>
       <c r="G157" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H157">
         <v>20612117323</v>
@@ -7642,7 +8743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>76478401</v>
       </c>
@@ -7662,7 +8763,7 @@
         <v>20609585987</v>
       </c>
       <c r="G158" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H158">
         <v>20609585987</v>
@@ -7679,28 +8780,31 @@
       <c r="L158">
         <v>202510</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N158" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>76493315</v>
       </c>
       <c r="B159" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C159">
         <v>45992</v>
       </c>
       <c r="D159" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E159" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F159">
         <v>20115683196</v>
       </c>
       <c r="G159" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H159">
         <v>20115683196</v>
@@ -7717,8 +8821,11 @@
       <c r="L159">
         <v>202510</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N159" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>76478967</v>
       </c>
@@ -7738,7 +8845,7 @@
         <v>20611981997</v>
       </c>
       <c r="G160" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H160">
         <v>20611981997</v>
@@ -7755,8 +8862,11 @@
       <c r="L160">
         <v>202510</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N160" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>76474698</v>
       </c>
@@ -7764,7 +8874,7 @@
         <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D161" t="s">
         <v>20</v>
@@ -7776,7 +8886,7 @@
         <v>20492994945</v>
       </c>
       <c r="G161" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H161">
         <v>20492994945</v>
@@ -7793,8 +8903,14 @@
       <c r="L161">
         <v>202510</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M161">
+        <v>202510</v>
+      </c>
+      <c r="N161" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>76482903</v>
       </c>
@@ -7814,7 +8930,7 @@
         <v>20600743156</v>
       </c>
       <c r="G162" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H162">
         <v>20600743156</v>
@@ -7832,7 +8948,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>76477704</v>
       </c>
@@ -7840,7 +8956,7 @@
         <v>22</v>
       </c>
       <c r="C163" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D163" t="s">
         <v>20</v>
@@ -7852,7 +8968,7 @@
         <v>20606518235</v>
       </c>
       <c r="G163" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H163">
         <v>20606518235</v>
@@ -7869,8 +8985,11 @@
       <c r="L163">
         <v>202510</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N163" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>76477389</v>
       </c>
@@ -7890,7 +9009,7 @@
         <v>20605233890</v>
       </c>
       <c r="G164" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H164">
         <v>20605233890</v>
@@ -7904,13 +9023,16 @@
       <c r="K164" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M164" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>76483928</v>
+        <v>76482838</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C165">
         <v>45992</v>
@@ -7922,19 +9044,19 @@
         <v>17</v>
       </c>
       <c r="F165">
-        <v>20614218186</v>
+        <v>20600002687</v>
       </c>
       <c r="G165" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H165">
-        <v>20614218186</v>
+        <v>20600002687</v>
       </c>
       <c r="I165">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K165" t="s">
         <v>18</v>
@@ -7943,30 +9065,30 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>76482838</v>
+        <v>76476615</v>
       </c>
       <c r="B166" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C166">
         <v>45992</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E166" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F166">
-        <v>20600002687</v>
+        <v>20602104631</v>
       </c>
       <c r="G166" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H166">
-        <v>20600002687</v>
+        <v>20602104631</v>
       </c>
       <c r="I166">
         <v>46009</v>
@@ -7980,13 +9102,16 @@
       <c r="L166">
         <v>202510</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N166" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>76476615</v>
+        <v>76477187</v>
       </c>
       <c r="B167" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C167">
         <v>45992</v>
@@ -7998,16 +9123,16 @@
         <v>21</v>
       </c>
       <c r="F167">
-        <v>20602104631</v>
+        <v>20604243263</v>
       </c>
       <c r="G167" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H167">
-        <v>20602104631</v>
+        <v>20604243263</v>
       </c>
       <c r="I167">
-        <v>46009</v>
+        <v>46008</v>
       </c>
       <c r="J167">
         <v>66.099999999999994</v>
@@ -8019,15 +9144,15 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>76477187</v>
+        <v>76478655</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168">
-        <v>45992</v>
+        <v>22</v>
+      </c>
+      <c r="C168" t="s">
+        <v>82</v>
       </c>
       <c r="D168" t="s">
         <v>20</v>
@@ -8036,36 +9161,39 @@
         <v>21</v>
       </c>
       <c r="F168">
-        <v>20604243263</v>
+        <v>20610621351</v>
       </c>
       <c r="G168" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H168">
-        <v>20604243263</v>
+        <v>20610621351</v>
       </c>
       <c r="I168">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="J168">
-        <v>66.099999999999994</v>
+        <v>93</v>
       </c>
       <c r="K168" t="s">
         <v>18</v>
       </c>
-      <c r="L168">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L168" t="s">
+        <v>54</v>
+      </c>
+      <c r="N168" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>76478655</v>
+        <v>76477598</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
       </c>
       <c r="C169" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D169" t="s">
         <v>20</v>
@@ -8074,133 +9202,142 @@
         <v>21</v>
       </c>
       <c r="F169">
-        <v>20610621351</v>
+        <v>20606102187</v>
       </c>
       <c r="G169" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H169">
-        <v>20610621351</v>
+        <v>20606102187</v>
       </c>
       <c r="I169">
+        <v>46008</v>
+      </c>
+      <c r="J169">
+        <v>161</v>
+      </c>
+      <c r="K169" t="s">
+        <v>18</v>
+      </c>
+      <c r="L169">
+        <v>202510</v>
+      </c>
+      <c r="N169" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>76473985</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170">
+        <v>45992</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170">
+        <v>40477332</v>
+      </c>
+      <c r="G170" t="s">
+        <v>216</v>
+      </c>
+      <c r="H170">
+        <v>10404773327</v>
+      </c>
+      <c r="I170">
         <v>46009</v>
       </c>
-      <c r="J169">
-        <v>93</v>
-      </c>
-      <c r="K169" t="s">
-        <v>18</v>
-      </c>
-      <c r="L169" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>76477598</v>
-      </c>
-      <c r="B170" t="s">
-        <v>22</v>
-      </c>
-      <c r="C170" t="s">
-        <v>90</v>
-      </c>
-      <c r="D170" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170" t="s">
-        <v>21</v>
-      </c>
-      <c r="F170">
-        <v>20606102187</v>
-      </c>
-      <c r="G170" t="s">
-        <v>224</v>
-      </c>
-      <c r="H170">
-        <v>20606102187</v>
-      </c>
-      <c r="I170">
-        <v>46008</v>
-      </c>
       <c r="J170">
-        <v>161</v>
+        <v>190.08</v>
       </c>
       <c r="K170" t="s">
-        <v>18</v>
-      </c>
-      <c r="L170">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="L170" t="s">
+        <v>217</v>
+      </c>
+      <c r="M170" t="s">
+        <v>54</v>
+      </c>
+      <c r="N170" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>76473985</v>
+        <v>76482668</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C171">
         <v>45992</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E171" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F171">
-        <v>40477332</v>
+        <v>20546319289</v>
       </c>
       <c r="G171" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H171">
-        <v>10404773327</v>
+        <v>20546319289</v>
       </c>
       <c r="I171">
         <v>46009</v>
       </c>
       <c r="J171">
-        <v>190.08</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="K171" t="s">
-        <v>23</v>
-      </c>
-      <c r="L171" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="L171">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>76482668</v>
+        <v>76477327</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C172">
         <v>45992</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F172">
-        <v>20546319289</v>
+        <v>20604979855</v>
       </c>
       <c r="G172" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H172">
-        <v>20546319289</v>
+        <v>20604979855</v>
       </c>
       <c r="I172">
         <v>46009</v>
       </c>
       <c r="J172">
-        <v>70.400000000000006</v>
+        <v>292.08</v>
       </c>
       <c r="K172" t="s">
         <v>18</v>
@@ -8208,51 +9345,54 @@
       <c r="L172">
         <v>202510</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N172" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>76477327</v>
+        <v>76483529</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C173">
         <v>45992</v>
       </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E173" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F173">
-        <v>20604979855</v>
+        <v>20608908227</v>
       </c>
       <c r="G173" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H173">
-        <v>20604979855</v>
+        <v>20608908227</v>
       </c>
       <c r="I173">
         <v>46009</v>
       </c>
       <c r="J173">
-        <v>292.08</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K173" t="s">
         <v>18</v>
       </c>
       <c r="L173">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>202508</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>76483529</v>
+        <v>76482163</v>
       </c>
       <c r="B174" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C174">
         <v>45992</v>
@@ -8264,13 +9404,13 @@
         <v>17</v>
       </c>
       <c r="F174">
-        <v>20608908227</v>
+        <v>20170020155</v>
       </c>
       <c r="G174" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H174">
-        <v>20608908227</v>
+        <v>20170020155</v>
       </c>
       <c r="I174">
         <v>46009</v>
@@ -8282,50 +9422,50 @@
         <v>18</v>
       </c>
       <c r="L174">
-        <v>202508</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>76482163</v>
+        <v>76473930</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C175">
         <v>45992</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F175">
-        <v>20170020155</v>
+        <v>21444773</v>
       </c>
       <c r="G175" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H175">
-        <v>20170020155</v>
+        <v>10214447733</v>
       </c>
       <c r="I175">
         <v>46009</v>
       </c>
       <c r="J175">
-        <v>66.099999999999994</v>
+        <v>131.07</v>
       </c>
       <c r="K175" t="s">
         <v>18</v>
       </c>
       <c r="L175">
-        <v>202509</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>76473930</v>
+        <v>76478193</v>
       </c>
       <c r="B176" t="s">
         <v>19</v>
@@ -8340,33 +9480,36 @@
         <v>21</v>
       </c>
       <c r="F176">
-        <v>21444773</v>
+        <v>20608770985</v>
       </c>
       <c r="G176" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H176">
-        <v>10214447733</v>
+        <v>20608770985</v>
       </c>
       <c r="I176">
         <v>46009</v>
       </c>
       <c r="J176">
-        <v>131.07</v>
+        <v>112.01</v>
       </c>
       <c r="K176" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="L176">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>76478193</v>
+        <v>76475622</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177">
-        <v>45992</v>
+        <v>22</v>
+      </c>
+      <c r="C177" t="s">
+        <v>82</v>
       </c>
       <c r="D177" t="s">
         <v>20</v>
@@ -8375,19 +9518,19 @@
         <v>21</v>
       </c>
       <c r="F177">
-        <v>20608770985</v>
+        <v>20551916970</v>
       </c>
       <c r="G177" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H177">
-        <v>20608770985</v>
+        <v>20551916970</v>
       </c>
       <c r="I177">
         <v>46009</v>
       </c>
       <c r="J177">
-        <v>112.01</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K177" t="s">
         <v>18</v>
@@ -8395,16 +9538,19 @@
       <c r="L177">
         <v>202510</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N177" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>76475622</v>
+        <v>76474540</v>
       </c>
       <c r="B178" t="s">
         <v>22</v>
       </c>
       <c r="C178" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D178" t="s">
         <v>20</v>
@@ -8413,13 +9559,13 @@
         <v>21</v>
       </c>
       <c r="F178">
-        <v>20551916970</v>
+        <v>20478157976</v>
       </c>
       <c r="G178" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H178">
-        <v>20551916970</v>
+        <v>20478157976</v>
       </c>
       <c r="I178">
         <v>46009</v>
@@ -8428,18 +9574,24 @@
         <v>66.099999999999994</v>
       </c>
       <c r="K178" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="L178">
+        <v>202510</v>
+      </c>
+      <c r="N178" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>76474540</v>
+        <v>76475278</v>
       </c>
       <c r="B179" t="s">
-        <v>22</v>
-      </c>
-      <c r="C179" t="s">
-        <v>90</v>
+        <v>24</v>
+      </c>
+      <c r="C179">
+        <v>45992</v>
       </c>
       <c r="D179" t="s">
         <v>20</v>
@@ -8448,19 +9600,19 @@
         <v>21</v>
       </c>
       <c r="F179">
-        <v>20478157976</v>
+        <v>20536161601</v>
       </c>
       <c r="G179" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H179">
-        <v>20478157976</v>
+        <v>20536161601</v>
       </c>
       <c r="I179">
         <v>46009</v>
       </c>
       <c r="J179">
-        <v>66.099999999999994</v>
+        <v>101.93</v>
       </c>
       <c r="K179" t="s">
         <v>18</v>
@@ -8468,37 +9620,40 @@
       <c r="L179">
         <v>202510</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N179" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>76475278</v>
+        <v>76482663</v>
       </c>
       <c r="B180" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C180">
         <v>45992</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E180" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F180">
-        <v>20536161601</v>
+        <v>20545667194</v>
       </c>
       <c r="G180" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H180">
-        <v>20536161601</v>
+        <v>20545667194</v>
       </c>
       <c r="I180">
         <v>46009</v>
       </c>
       <c r="J180">
-        <v>101.93</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K180" t="s">
         <v>18</v>
@@ -8507,12 +9662,12 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>76482663</v>
+        <v>76482482</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C181">
         <v>45992</v>
@@ -8524,13 +9679,13 @@
         <v>17</v>
       </c>
       <c r="F181">
-        <v>20545667194</v>
+        <v>20516094762</v>
       </c>
       <c r="G181" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H181">
-        <v>20545667194</v>
+        <v>20516094762</v>
       </c>
       <c r="I181">
         <v>46009</v>
@@ -8545,12 +9700,12 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>76482482</v>
+        <v>76483037</v>
       </c>
       <c r="B182" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C182">
         <v>45992</v>
@@ -8562,19 +9717,19 @@
         <v>17</v>
       </c>
       <c r="F182">
-        <v>20516094762</v>
+        <v>20602156398</v>
       </c>
       <c r="G182" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H182">
-        <v>20516094762</v>
+        <v>20602156398</v>
       </c>
       <c r="I182">
         <v>46009</v>
       </c>
       <c r="J182">
-        <v>66.099999999999994</v>
+        <v>50</v>
       </c>
       <c r="K182" t="s">
         <v>18</v>
@@ -8583,36 +9738,36 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>76483037</v>
+        <v>76475394</v>
       </c>
       <c r="B183" t="s">
-        <v>72</v>
-      </c>
-      <c r="C183">
-        <v>45992</v>
+        <v>28</v>
+      </c>
+      <c r="C183" t="s">
+        <v>82</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F183">
-        <v>20602156398</v>
+        <v>20542353059</v>
       </c>
       <c r="G183" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H183">
-        <v>20602156398</v>
+        <v>20542353059</v>
       </c>
       <c r="I183">
         <v>46009</v>
       </c>
       <c r="J183">
-        <v>50</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K183" t="s">
         <v>18</v>
@@ -8621,15 +9776,15 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>76475394</v>
+        <v>76475653</v>
       </c>
       <c r="B184" t="s">
         <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D184" t="s">
         <v>20</v>
@@ -8638,13 +9793,13 @@
         <v>21</v>
       </c>
       <c r="F184">
-        <v>20542353059</v>
+        <v>20552638337</v>
       </c>
       <c r="G184" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H184">
-        <v>20542353059</v>
+        <v>20552638337</v>
       </c>
       <c r="I184">
         <v>46009</v>
@@ -8655,34 +9810,34 @@
       <c r="K184" t="s">
         <v>18</v>
       </c>
-      <c r="L184">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L184" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>76475653</v>
+        <v>76483072</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C185" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="C185">
+        <v>45992</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F185">
-        <v>20552638337</v>
+        <v>20602426689</v>
       </c>
       <c r="G185" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H185">
-        <v>20552638337</v>
+        <v>20602426689</v>
       </c>
       <c r="I185">
         <v>46009</v>
@@ -8693,34 +9848,34 @@
       <c r="K185" t="s">
         <v>18</v>
       </c>
-      <c r="L185" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L185">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>76483072</v>
+        <v>76474642</v>
       </c>
       <c r="B186" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C186">
         <v>45992</v>
       </c>
       <c r="D186" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E186" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F186">
-        <v>20602426689</v>
+        <v>20488631242</v>
       </c>
       <c r="G186" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H186">
-        <v>20602426689</v>
+        <v>20488631242</v>
       </c>
       <c r="I186">
         <v>46009</v>
@@ -8735,9 +9890,9 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>76474642</v>
+        <v>76474563</v>
       </c>
       <c r="B187" t="s">
         <v>19</v>
@@ -8752,33 +9907,36 @@
         <v>21</v>
       </c>
       <c r="F187">
-        <v>20488631242</v>
+        <v>20480586558</v>
       </c>
       <c r="G187" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H187">
-        <v>20488631242</v>
+        <v>20480586558</v>
       </c>
       <c r="I187">
         <v>46009</v>
       </c>
       <c r="J187">
-        <v>66.099999999999994</v>
+        <v>300</v>
       </c>
       <c r="K187" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="L187">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>76474563</v>
+        <v>76479527</v>
       </c>
       <c r="B188" t="s">
-        <v>19</v>
-      </c>
-      <c r="C188">
-        <v>45992</v>
+        <v>22</v>
+      </c>
+      <c r="C188" t="s">
+        <v>82</v>
       </c>
       <c r="D188" t="s">
         <v>20</v>
@@ -8787,19 +9945,19 @@
         <v>21</v>
       </c>
       <c r="F188">
-        <v>20480586558</v>
+        <v>20614566842</v>
       </c>
       <c r="G188" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H188">
-        <v>20480586558</v>
+        <v>20614566842</v>
       </c>
       <c r="I188">
         <v>46009</v>
       </c>
       <c r="J188">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="K188" t="s">
         <v>18</v>
@@ -8807,16 +9965,19 @@
       <c r="L188">
         <v>202510</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N188" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>76479527</v>
+        <v>76478366</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
-      </c>
-      <c r="C189" t="s">
-        <v>90</v>
+        <v>19</v>
+      </c>
+      <c r="C189">
+        <v>45992</v>
       </c>
       <c r="D189" t="s">
         <v>20</v>
@@ -8825,19 +9986,19 @@
         <v>21</v>
       </c>
       <c r="F189">
-        <v>20614566842</v>
+        <v>20609463717</v>
       </c>
       <c r="G189" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H189">
-        <v>20614566842</v>
+        <v>20609463717</v>
       </c>
       <c r="I189">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="J189">
-        <v>132</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K189" t="s">
         <v>18</v>
@@ -8846,9 +10007,9 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>76478366</v>
+        <v>76475811</v>
       </c>
       <c r="B190" t="s">
         <v>19</v>
@@ -8863,13 +10024,13 @@
         <v>21</v>
       </c>
       <c r="F190">
-        <v>20609463717</v>
+        <v>20558301261</v>
       </c>
       <c r="G190" t="s">
-        <v>245</v>
+        <v>414</v>
       </c>
       <c r="H190">
-        <v>20609463717</v>
+        <v>20558301261</v>
       </c>
       <c r="I190">
         <v>46010</v>
@@ -8881,6 +10042,980 @@
         <v>18</v>
       </c>
       <c r="L190">
+        <v>202510</v>
+      </c>
+      <c r="N190" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>76475970</v>
+      </c>
+      <c r="B191" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191">
+        <v>45992</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191" t="s">
+        <v>21</v>
+      </c>
+      <c r="F191">
+        <v>20571464196</v>
+      </c>
+      <c r="G191" t="s">
+        <v>416</v>
+      </c>
+      <c r="H191">
+        <v>20571464196</v>
+      </c>
+      <c r="I191">
+        <v>46010</v>
+      </c>
+      <c r="J191">
+        <v>84.32</v>
+      </c>
+      <c r="K191" t="s">
+        <v>18</v>
+      </c>
+      <c r="L191" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>76479434</v>
+      </c>
+      <c r="B192" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192">
+        <v>45992</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F192">
+        <v>20613963881</v>
+      </c>
+      <c r="G192" t="s">
+        <v>417</v>
+      </c>
+      <c r="H192">
+        <v>20613963881</v>
+      </c>
+      <c r="I192">
+        <v>46009</v>
+      </c>
+      <c r="J192">
+        <v>124.5</v>
+      </c>
+      <c r="K192" t="s">
+        <v>27</v>
+      </c>
+      <c r="M192">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>76483195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>64</v>
+      </c>
+      <c r="C193">
+        <v>45992</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193">
+        <v>20603720360</v>
+      </c>
+      <c r="G193" t="s">
+        <v>418</v>
+      </c>
+      <c r="H193">
+        <v>20603720360</v>
+      </c>
+      <c r="I193">
+        <v>46010</v>
+      </c>
+      <c r="J193">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K193" t="s">
+        <v>18</v>
+      </c>
+      <c r="L193">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>76483158</v>
+      </c>
+      <c r="B194" t="s">
+        <v>64</v>
+      </c>
+      <c r="C194">
+        <v>45992</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" t="s">
+        <v>17</v>
+      </c>
+      <c r="F194">
+        <v>20603268394</v>
+      </c>
+      <c r="G194" t="s">
+        <v>419</v>
+      </c>
+      <c r="H194">
+        <v>20603268394</v>
+      </c>
+      <c r="I194">
+        <v>46010</v>
+      </c>
+      <c r="J194">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K194" t="s">
+        <v>18</v>
+      </c>
+      <c r="L194">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>76474203</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" t="s">
+        <v>82</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195" t="s">
+        <v>21</v>
+      </c>
+      <c r="F195">
+        <v>20113539675</v>
+      </c>
+      <c r="G195" t="s">
+        <v>420</v>
+      </c>
+      <c r="H195">
+        <v>20113539675</v>
+      </c>
+      <c r="I195">
+        <v>46010</v>
+      </c>
+      <c r="J195">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K195" t="s">
+        <v>18</v>
+      </c>
+      <c r="L195">
+        <v>202510</v>
+      </c>
+      <c r="N195" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>76482077</v>
+      </c>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196">
+        <v>45992</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196">
+        <v>47802618</v>
+      </c>
+      <c r="G196" t="s">
+        <v>422</v>
+      </c>
+      <c r="H196">
+        <v>10478026183</v>
+      </c>
+      <c r="I196">
+        <v>46008</v>
+      </c>
+      <c r="J196">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K196" t="s">
+        <v>18</v>
+      </c>
+      <c r="L196">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>76479156</v>
+      </c>
+      <c r="B197" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" t="s">
+        <v>82</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197" t="s">
+        <v>21</v>
+      </c>
+      <c r="F197">
+        <v>20612797243</v>
+      </c>
+      <c r="G197" t="s">
+        <v>423</v>
+      </c>
+      <c r="H197">
+        <v>20612797243</v>
+      </c>
+      <c r="I197">
+        <v>46010</v>
+      </c>
+      <c r="J197">
+        <v>101.93</v>
+      </c>
+      <c r="K197" t="s">
+        <v>18</v>
+      </c>
+      <c r="L197" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>76478745</v>
+      </c>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" t="s">
+        <v>82</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198" t="s">
+        <v>21</v>
+      </c>
+      <c r="F198">
+        <v>20611056584</v>
+      </c>
+      <c r="G198" t="s">
+        <v>424</v>
+      </c>
+      <c r="H198">
+        <v>20611056584</v>
+      </c>
+      <c r="I198">
+        <v>46010</v>
+      </c>
+      <c r="J198">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K198" t="s">
+        <v>18</v>
+      </c>
+      <c r="L198">
+        <v>202510</v>
+      </c>
+      <c r="N198" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>76473820</v>
+      </c>
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" t="s">
+        <v>82</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199">
+        <v>2867667</v>
+      </c>
+      <c r="G199" t="s">
+        <v>425</v>
+      </c>
+      <c r="H199">
+        <v>10028676676</v>
+      </c>
+      <c r="I199">
+        <v>46010</v>
+      </c>
+      <c r="J199">
+        <v>74</v>
+      </c>
+      <c r="K199" t="s">
+        <v>18</v>
+      </c>
+      <c r="L199" t="s">
+        <v>69</v>
+      </c>
+      <c r="N199" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>76482665</v>
+      </c>
+      <c r="B200" t="s">
+        <v>64</v>
+      </c>
+      <c r="C200">
+        <v>45992</v>
+      </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200">
+        <v>20546007040</v>
+      </c>
+      <c r="G200" t="s">
+        <v>427</v>
+      </c>
+      <c r="H200">
+        <v>20546007040</v>
+      </c>
+      <c r="I200">
+        <v>46010</v>
+      </c>
+      <c r="J200">
+        <v>70</v>
+      </c>
+      <c r="K200" t="s">
+        <v>18</v>
+      </c>
+      <c r="L200">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>76478099</v>
+      </c>
+      <c r="B201" t="s">
+        <v>120</v>
+      </c>
+      <c r="C201" t="s">
+        <v>82</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201" t="s">
+        <v>21</v>
+      </c>
+      <c r="F201">
+        <v>20608421671</v>
+      </c>
+      <c r="G201" t="s">
+        <v>428</v>
+      </c>
+      <c r="H201">
+        <v>20608421671</v>
+      </c>
+      <c r="I201">
+        <v>46010</v>
+      </c>
+      <c r="J201">
+        <v>230.37</v>
+      </c>
+      <c r="K201" t="s">
+        <v>27</v>
+      </c>
+      <c r="M201" t="s">
+        <v>67</v>
+      </c>
+      <c r="N201" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>76476394</v>
+      </c>
+      <c r="B202" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202">
+        <v>45992</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202" t="s">
+        <v>21</v>
+      </c>
+      <c r="F202">
+        <v>20601442753</v>
+      </c>
+      <c r="G202" t="s">
+        <v>430</v>
+      </c>
+      <c r="H202">
+        <v>20601442753</v>
+      </c>
+      <c r="I202">
+        <v>46010</v>
+      </c>
+      <c r="J202">
+        <v>95.15</v>
+      </c>
+      <c r="K202" t="s">
+        <v>27</v>
+      </c>
+      <c r="M202">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>76478834</v>
+      </c>
+      <c r="B203" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" t="s">
+        <v>82</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203">
+        <v>20611458411</v>
+      </c>
+      <c r="G203" t="s">
+        <v>431</v>
+      </c>
+      <c r="H203">
+        <v>20611458411</v>
+      </c>
+      <c r="I203">
+        <v>46010</v>
+      </c>
+      <c r="J203">
+        <v>92.08</v>
+      </c>
+      <c r="K203" t="s">
+        <v>18</v>
+      </c>
+      <c r="L203" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>76513510</v>
+      </c>
+      <c r="B204" t="s">
+        <v>32</v>
+      </c>
+      <c r="C204" t="s">
+        <v>82</v>
+      </c>
+      <c r="D204" t="s">
+        <v>29</v>
+      </c>
+      <c r="E204" t="s">
+        <v>30</v>
+      </c>
+      <c r="F204">
+        <v>20506112487</v>
+      </c>
+      <c r="G204" t="s">
+        <v>432</v>
+      </c>
+      <c r="H204">
+        <v>20506112487</v>
+      </c>
+      <c r="I204">
+        <v>46010</v>
+      </c>
+      <c r="J204">
+        <v>1267.73</v>
+      </c>
+      <c r="K204" t="s">
+        <v>27</v>
+      </c>
+      <c r="N204" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>76501464</v>
+      </c>
+      <c r="B205" t="s">
+        <v>170</v>
+      </c>
+      <c r="C205" t="s">
+        <v>82</v>
+      </c>
+      <c r="D205" t="s">
+        <v>50</v>
+      </c>
+      <c r="E205" t="s">
+        <v>51</v>
+      </c>
+      <c r="F205">
+        <v>20551106897</v>
+      </c>
+      <c r="G205" t="s">
+        <v>434</v>
+      </c>
+      <c r="H205">
+        <v>20551106897</v>
+      </c>
+      <c r="I205">
+        <v>46010</v>
+      </c>
+      <c r="J205">
+        <v>277.52</v>
+      </c>
+      <c r="K205" t="s">
+        <v>18</v>
+      </c>
+      <c r="L205">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>76483826</v>
+      </c>
+      <c r="B206" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206">
+        <v>45992</v>
+      </c>
+      <c r="D206" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206">
+        <v>20612887447</v>
+      </c>
+      <c r="G206" t="s">
+        <v>435</v>
+      </c>
+      <c r="H206">
+        <v>20612887447</v>
+      </c>
+      <c r="I206">
+        <v>46010</v>
+      </c>
+      <c r="J206">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K206" t="s">
+        <v>18</v>
+      </c>
+      <c r="L206">
+        <v>202508</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>76474598</v>
+      </c>
+      <c r="B207" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207">
+        <v>45992</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207">
+        <v>20482477331</v>
+      </c>
+      <c r="G207" t="s">
+        <v>436</v>
+      </c>
+      <c r="H207">
+        <v>20482477331</v>
+      </c>
+      <c r="I207">
+        <v>46003</v>
+      </c>
+      <c r="J207">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K207" t="s">
+        <v>18</v>
+      </c>
+      <c r="L207">
+        <v>202510</v>
+      </c>
+      <c r="N207" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>76482010</v>
+      </c>
+      <c r="B208" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208">
+        <v>45992</v>
+      </c>
+      <c r="D208" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208">
+        <v>41028501</v>
+      </c>
+      <c r="G208" t="s">
+        <v>438</v>
+      </c>
+      <c r="H208">
+        <v>10410285016</v>
+      </c>
+      <c r="I208">
+        <v>46010</v>
+      </c>
+      <c r="J208">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K208" t="s">
+        <v>18</v>
+      </c>
+      <c r="L208">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>76483563</v>
+      </c>
+      <c r="B209" t="s">
+        <v>24</v>
+      </c>
+      <c r="C209">
+        <v>45992</v>
+      </c>
+      <c r="D209" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209">
+        <v>20609406098</v>
+      </c>
+      <c r="G209" t="s">
+        <v>439</v>
+      </c>
+      <c r="H209">
+        <v>20609406098</v>
+      </c>
+      <c r="I209">
+        <v>46010</v>
+      </c>
+      <c r="J209">
+        <v>50</v>
+      </c>
+      <c r="K209" t="s">
+        <v>18</v>
+      </c>
+      <c r="L209">
+        <v>202510</v>
+      </c>
+      <c r="N209" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>76483051</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210">
+        <v>45992</v>
+      </c>
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210">
+        <v>20602258913</v>
+      </c>
+      <c r="G210" t="s">
+        <v>441</v>
+      </c>
+      <c r="H210">
+        <v>20602258913</v>
+      </c>
+      <c r="I210">
+        <v>46010</v>
+      </c>
+      <c r="J210">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K210" t="s">
+        <v>18</v>
+      </c>
+      <c r="L210">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>76483713</v>
+      </c>
+      <c r="B211" t="s">
+        <v>64</v>
+      </c>
+      <c r="C211">
+        <v>45992</v>
+      </c>
+      <c r="D211" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211" t="s">
+        <v>17</v>
+      </c>
+      <c r="F211">
+        <v>20611374128</v>
+      </c>
+      <c r="G211" t="s">
+        <v>442</v>
+      </c>
+      <c r="H211">
+        <v>20611374128</v>
+      </c>
+      <c r="I211">
+        <v>46010</v>
+      </c>
+      <c r="J211">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K211" t="s">
+        <v>18</v>
+      </c>
+      <c r="L211">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>76479150</v>
+      </c>
+      <c r="B212" t="s">
+        <v>28</v>
+      </c>
+      <c r="C212" t="s">
+        <v>82</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212" t="s">
+        <v>21</v>
+      </c>
+      <c r="F212">
+        <v>20612770621</v>
+      </c>
+      <c r="G212" t="s">
+        <v>443</v>
+      </c>
+      <c r="H212">
+        <v>20612770621</v>
+      </c>
+      <c r="I212">
+        <v>46003</v>
+      </c>
+      <c r="J212">
+        <v>174.38</v>
+      </c>
+      <c r="K212" t="s">
+        <v>18</v>
+      </c>
+      <c r="L212" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>76474511</v>
+      </c>
+      <c r="B213" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" t="s">
+        <v>82</v>
+      </c>
+      <c r="D213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>21</v>
+      </c>
+      <c r="F213">
+        <v>20475236131</v>
+      </c>
+      <c r="G213" t="s">
+        <v>444</v>
+      </c>
+      <c r="H213">
+        <v>20475236131</v>
+      </c>
+      <c r="I213">
+        <v>46010</v>
+      </c>
+      <c r="J213">
+        <v>102</v>
+      </c>
+      <c r="K213" t="s">
+        <v>18</v>
+      </c>
+      <c r="L213">
+        <v>202505</v>
+      </c>
+      <c r="N213" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>76483213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>64</v>
+      </c>
+      <c r="C214">
+        <v>45992</v>
+      </c>
+      <c r="D214" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" t="s">
+        <v>17</v>
+      </c>
+      <c r="F214">
+        <v>20603938080</v>
+      </c>
+      <c r="G214" t="s">
+        <v>446</v>
+      </c>
+      <c r="H214">
+        <v>20603938080</v>
+      </c>
+      <c r="I214">
+        <v>46010</v>
+      </c>
+      <c r="J214">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K214" t="s">
+        <v>18</v>
+      </c>
+      <c r="L214">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>76475422</v>
+      </c>
+      <c r="B215" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" t="s">
+        <v>82</v>
+      </c>
+      <c r="D215" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" t="s">
+        <v>21</v>
+      </c>
+      <c r="F215">
+        <v>20544097700</v>
+      </c>
+      <c r="G215" t="s">
+        <v>447</v>
+      </c>
+      <c r="H215">
+        <v>20544097700</v>
+      </c>
+      <c r="I215">
+        <v>46010</v>
+      </c>
+      <c r="J215">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="K215" t="s">
+        <v>18</v>
+      </c>
+      <c r="L215">
         <v>202510</v>
       </c>
     </row>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181D942-9F59-4D4B-B7FE-C30C78F7CF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41874473-8EAF-4F37-9AC7-57A347E122CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="511">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1373,6 +1373,195 @@
   </si>
   <si>
     <t>SIMONS &amp; DE NORIEGA ABOGADOS SOCIEDAD CIVIL DE RESPONSABILIDAD LIMITADA-SIMONS &amp; DE NORIEGA S. CIVIL</t>
+  </si>
+  <si>
+    <t>F001-00035700</t>
+  </si>
+  <si>
+    <t>F001-00035701</t>
+  </si>
+  <si>
+    <t>F001-00035704</t>
+  </si>
+  <si>
+    <t>F001-00035711</t>
+  </si>
+  <si>
+    <t>F001-00035713</t>
+  </si>
+  <si>
+    <t>F001-00035714</t>
+  </si>
+  <si>
+    <t>F001-00035715</t>
+  </si>
+  <si>
+    <t>F001-00035716</t>
+  </si>
+  <si>
+    <t>F001-00035717</t>
+  </si>
+  <si>
+    <t>F001-00035720</t>
+  </si>
+  <si>
+    <t>F001-00035722</t>
+  </si>
+  <si>
+    <t>F001-00035724</t>
+  </si>
+  <si>
+    <t>F001-00035725</t>
+  </si>
+  <si>
+    <t>F001-00035727</t>
+  </si>
+  <si>
+    <t>F001-00035731</t>
+  </si>
+  <si>
+    <t>F001-00035732</t>
+  </si>
+  <si>
+    <t>F001-00035735</t>
+  </si>
+  <si>
+    <t>F001-00035737</t>
+  </si>
+  <si>
+    <t>F001-00035739</t>
+  </si>
+  <si>
+    <t>F001-00035587</t>
+  </si>
+  <si>
+    <t>F001-00035740</t>
+  </si>
+  <si>
+    <t>F001-00035742</t>
+  </si>
+  <si>
+    <t>F001-00035748</t>
+  </si>
+  <si>
+    <t>F001-00035667</t>
+  </si>
+  <si>
+    <t>F001-00035754</t>
+  </si>
+  <si>
+    <t>F001-00035755</t>
+  </si>
+  <si>
+    <t>F001-00035757</t>
+  </si>
+  <si>
+    <t>F001-00035759</t>
+  </si>
+  <si>
+    <t>F001-00035766</t>
+  </si>
+  <si>
+    <t>F001-00035767</t>
+  </si>
+  <si>
+    <t>F001-00035770</t>
+  </si>
+  <si>
+    <t>F001-00035771</t>
+  </si>
+  <si>
+    <t>F001-00035772</t>
+  </si>
+  <si>
+    <t>F001-00035773</t>
+  </si>
+  <si>
+    <t>F001-00035774</t>
+  </si>
+  <si>
+    <t>F001-00035776</t>
+  </si>
+  <si>
+    <t>F001-00035777</t>
+  </si>
+  <si>
+    <t>F001-00035778</t>
+  </si>
+  <si>
+    <t>F001-00035668</t>
+  </si>
+  <si>
+    <t>F001-00035779</t>
+  </si>
+  <si>
+    <t>F001-00035782</t>
+  </si>
+  <si>
+    <t>F001-00035784</t>
+  </si>
+  <si>
+    <t>F001-00035793</t>
+  </si>
+  <si>
+    <t>F001-00035794</t>
+  </si>
+  <si>
+    <t>F001-00035796</t>
+  </si>
+  <si>
+    <t>F001-00035589</t>
+  </si>
+  <si>
+    <t>F001-00035797</t>
+  </si>
+  <si>
+    <t>F001-00035799</t>
+  </si>
+  <si>
+    <t>F001-00035801</t>
+  </si>
+  <si>
+    <t>F001-00035803</t>
+  </si>
+  <si>
+    <t>INTI PERU K&amp;D S.A.C.</t>
+  </si>
+  <si>
+    <t>VALVERDE ALIAGA JUANA INES</t>
+  </si>
+  <si>
+    <t>juanivaliaga@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>TRANSPORTES Y SERVICIOS CAVIR E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EMPRESA DE TRANSPORTE LEYSA S.A.C.</t>
+  </si>
+  <si>
+    <t>MAQUICASA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>WEX PERU INTERNATIONAL S.A.C.</t>
+  </si>
+  <si>
+    <t>wexoperaciones@gmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>INVERSIONES Y CONSTRUCCIONES CAVIMA S.R.L.</t>
+  </si>
+  <si>
+    <t>cesarcortez.contable@gmail.com , mayza_24_04@hotmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>OVER FRESH CONTRACTORS S.A.C.</t>
+  </si>
+  <si>
+    <t>MUNAY &amp;FAM SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>202503|202504|202505|202506</t>
   </si>
 </sst>
 </file>
@@ -2245,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O215"/>
+  <dimension ref="A1:O224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O215"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3239,6 +3428,9 @@
       <c r="L23">
         <v>202510</v>
       </c>
+      <c r="O23" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -4792,6 +4984,9 @@
       <c r="L60" t="s">
         <v>68</v>
       </c>
+      <c r="O60" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -5636,6 +5831,9 @@
       <c r="L80">
         <v>202510</v>
       </c>
+      <c r="O80" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -6905,6 +7103,9 @@
       <c r="N110" t="s">
         <v>382</v>
       </c>
+      <c r="O110" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
@@ -6946,6 +7147,9 @@
       <c r="N111" t="s">
         <v>383</v>
       </c>
+      <c r="O111" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
@@ -6987,8 +7191,11 @@
       <c r="N112" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O112" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>76475694</v>
       </c>
@@ -7025,8 +7232,11 @@
       <c r="L113">
         <v>202510</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O113" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>76475753</v>
       </c>
@@ -7063,8 +7273,11 @@
       <c r="M114">
         <v>202510</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O114" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>76474264</v>
       </c>
@@ -7104,8 +7317,11 @@
       <c r="N115" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O115" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>76475195</v>
       </c>
@@ -7145,8 +7361,11 @@
       <c r="N116" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O116" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>76482853</v>
       </c>
@@ -7186,8 +7405,11 @@
       <c r="N117" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O117" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>76483147</v>
       </c>
@@ -7224,8 +7446,11 @@
       <c r="L118">
         <v>202510</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O118" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>76475173</v>
       </c>
@@ -7262,8 +7487,11 @@
       <c r="L119" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O119" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>76482790</v>
       </c>
@@ -7300,8 +7528,11 @@
       <c r="L120">
         <v>202510</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O120" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>76477499</v>
       </c>
@@ -7338,8 +7569,11 @@
       <c r="L121">
         <v>202510</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O121" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>76498557</v>
       </c>
@@ -7376,8 +7610,11 @@
       <c r="L122">
         <v>202510</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O122" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>76475111</v>
       </c>
@@ -7414,8 +7651,11 @@
       <c r="L123">
         <v>202510</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O123" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>76474877</v>
       </c>
@@ -7455,8 +7695,11 @@
       <c r="N124" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O124" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>76476589</v>
       </c>
@@ -7493,8 +7736,11 @@
       <c r="L125">
         <v>202510</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O125" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>76483025</v>
       </c>
@@ -7531,8 +7777,11 @@
       <c r="L126">
         <v>202510</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O126" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>76482517</v>
       </c>
@@ -7569,8 +7818,11 @@
       <c r="L127">
         <v>202510</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O127" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>76476381</v>
       </c>
@@ -7607,8 +7859,11 @@
       <c r="L128" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O128" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>76483484</v>
       </c>
@@ -7645,8 +7900,11 @@
       <c r="L129">
         <v>202510</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O129" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>76482803</v>
       </c>
@@ -7683,8 +7941,11 @@
       <c r="L130">
         <v>202510</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O130" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>76483350</v>
       </c>
@@ -7721,8 +7982,11 @@
       <c r="L131">
         <v>202510</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O131" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>76474693</v>
       </c>
@@ -7762,8 +8026,11 @@
       <c r="N132" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O132" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>76479025</v>
       </c>
@@ -7803,8 +8070,11 @@
       <c r="N133" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O133" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>76482943</v>
       </c>
@@ -7841,8 +8111,11 @@
       <c r="L134">
         <v>202510</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O134" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>76478040</v>
       </c>
@@ -7882,8 +8155,11 @@
       <c r="N135" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O135" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>76482953</v>
       </c>
@@ -7920,8 +8196,11 @@
       <c r="L136">
         <v>202510</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O136" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>76483194</v>
       </c>
@@ -7958,8 +8237,11 @@
       <c r="L137">
         <v>202509</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O137" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>76477674</v>
       </c>
@@ -7996,8 +8278,11 @@
       <c r="L138">
         <v>202510</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O138" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>76476898</v>
       </c>
@@ -8037,8 +8322,11 @@
       <c r="N139" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O139" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>76477208</v>
       </c>
@@ -8078,8 +8366,11 @@
       <c r="N140" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O140" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>76474010</v>
       </c>
@@ -8119,8 +8410,11 @@
       <c r="N141" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O141" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>76483422</v>
       </c>
@@ -8157,8 +8451,11 @@
       <c r="L142">
         <v>202510</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O142" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>76475605</v>
       </c>
@@ -8198,8 +8495,11 @@
       <c r="N143" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O143" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>76476513</v>
       </c>
@@ -8236,8 +8536,11 @@
       <c r="L144">
         <v>202510</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O144" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>76476063</v>
       </c>
@@ -8274,8 +8577,11 @@
       <c r="L145">
         <v>202510</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O145" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>76479171</v>
       </c>
@@ -8315,8 +8621,11 @@
       <c r="N146" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O146" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>76482098</v>
       </c>
@@ -8354,7 +8663,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>76475453</v>
       </c>
@@ -8394,8 +8703,11 @@
       <c r="N148" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O148" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>76475776</v>
       </c>
@@ -8432,8 +8744,11 @@
       <c r="L149">
         <v>202510</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O149" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>76476825</v>
       </c>
@@ -8473,8 +8788,11 @@
       <c r="N150" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O150" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>76477775</v>
       </c>
@@ -8511,8 +8829,11 @@
       <c r="L151">
         <v>202510</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O151" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>76483301</v>
       </c>
@@ -8549,8 +8870,11 @@
       <c r="L152">
         <v>202510</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O152" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>76499232</v>
       </c>
@@ -8590,8 +8914,11 @@
       <c r="N153" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O153" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>76477972</v>
       </c>
@@ -8628,8 +8955,11 @@
       <c r="L154">
         <v>202510</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O154" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>76483545</v>
       </c>
@@ -8666,8 +8996,11 @@
       <c r="L155">
         <v>202510</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O155" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>76475176</v>
       </c>
@@ -8704,8 +9037,11 @@
       <c r="L156">
         <v>202510</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O156" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>76478994</v>
       </c>
@@ -8742,8 +9078,11 @@
       <c r="L157" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O157" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>76478401</v>
       </c>
@@ -8784,7 +9123,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>76493315</v>
       </c>
@@ -8825,7 +9164,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>76478967</v>
       </c>
@@ -10243,10 +10582,10 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>76482077</v>
+        <v>76483729</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C196">
         <v>45992</v>
@@ -10258,16 +10597,16 @@
         <v>17</v>
       </c>
       <c r="F196">
-        <v>47802618</v>
+        <v>20611575166</v>
       </c>
       <c r="G196" t="s">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="H196">
-        <v>10478026183</v>
+        <v>20611575166</v>
       </c>
       <c r="I196">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="J196">
         <v>66.099999999999994</v>
@@ -10275,19 +10614,19 @@
       <c r="K196" t="s">
         <v>18</v>
       </c>
-      <c r="L196">
-        <v>202510</v>
+      <c r="L196" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>76479156</v>
+        <v>76473855</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
-      </c>
-      <c r="C197" t="s">
-        <v>82</v>
+        <v>24</v>
+      </c>
+      <c r="C197">
+        <v>45992</v>
       </c>
       <c r="D197" t="s">
         <v>20</v>
@@ -10296,36 +10635,39 @@
         <v>21</v>
       </c>
       <c r="F197">
-        <v>20612797243</v>
+        <v>8606217</v>
       </c>
       <c r="G197" t="s">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="H197">
-        <v>20612797243</v>
+        <v>10086062173</v>
       </c>
       <c r="I197">
-        <v>46010</v>
+        <v>46011</v>
       </c>
       <c r="J197">
-        <v>101.93</v>
+        <v>92.15</v>
       </c>
       <c r="K197" t="s">
         <v>18</v>
       </c>
-      <c r="L197" t="s">
-        <v>67</v>
+      <c r="L197">
+        <v>202510</v>
+      </c>
+      <c r="N197" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>76478745</v>
+        <v>76475361</v>
       </c>
       <c r="B198" t="s">
-        <v>22</v>
-      </c>
-      <c r="C198" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="C198">
+        <v>45992</v>
       </c>
       <c r="D198" t="s">
         <v>20</v>
@@ -10334,16 +10676,16 @@
         <v>21</v>
       </c>
       <c r="F198">
-        <v>20611056584</v>
+        <v>20539784871</v>
       </c>
       <c r="G198" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="H198">
-        <v>20611056584</v>
+        <v>20539784871</v>
       </c>
       <c r="I198">
-        <v>46010</v>
+        <v>46011</v>
       </c>
       <c r="J198">
         <v>66.099999999999994</v>
@@ -10352,56 +10694,50 @@
         <v>18</v>
       </c>
       <c r="L198">
-        <v>202510</v>
-      </c>
-      <c r="N198" t="s">
-        <v>394</v>
+        <v>202509</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>76473820</v>
+        <v>76483814</v>
       </c>
       <c r="B199" t="s">
-        <v>22</v>
-      </c>
-      <c r="C199" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="C199">
+        <v>45992</v>
       </c>
       <c r="D199" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E199" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F199">
-        <v>2867667</v>
+        <v>20612721999</v>
       </c>
       <c r="G199" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="H199">
-        <v>10028676676</v>
+        <v>20612721999</v>
       </c>
       <c r="I199">
         <v>46010</v>
       </c>
       <c r="J199">
-        <v>74</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K199" t="s">
         <v>18</v>
       </c>
-      <c r="L199" t="s">
-        <v>69</v>
-      </c>
-      <c r="N199" t="s">
-        <v>426</v>
+      <c r="L199">
+        <v>202510</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>76482665</v>
+        <v>76482876</v>
       </c>
       <c r="B200" t="s">
         <v>64</v>
@@ -10416,19 +10752,19 @@
         <v>17</v>
       </c>
       <c r="F200">
-        <v>20546007040</v>
+        <v>20600407148</v>
       </c>
       <c r="G200" t="s">
-        <v>427</v>
+        <v>503</v>
       </c>
       <c r="H200">
-        <v>20546007040</v>
+        <v>20600407148</v>
       </c>
       <c r="I200">
         <v>46010</v>
       </c>
       <c r="J200">
-        <v>70</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K200" t="s">
         <v>18</v>
@@ -10439,13 +10775,13 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>76478099</v>
+        <v>76476244</v>
       </c>
       <c r="B201" t="s">
-        <v>120</v>
-      </c>
-      <c r="C201" t="s">
-        <v>82</v>
+        <v>24</v>
+      </c>
+      <c r="C201">
+        <v>45992</v>
       </c>
       <c r="D201" t="s">
         <v>20</v>
@@ -10454,36 +10790,36 @@
         <v>21</v>
       </c>
       <c r="F201">
-        <v>20608421671</v>
+        <v>20600950895</v>
       </c>
       <c r="G201" t="s">
-        <v>428</v>
+        <v>504</v>
       </c>
       <c r="H201">
-        <v>20608421671</v>
+        <v>20600950895</v>
       </c>
       <c r="I201">
         <v>46010</v>
       </c>
       <c r="J201">
-        <v>230.37</v>
+        <v>226.55</v>
       </c>
       <c r="K201" t="s">
-        <v>27</v>
-      </c>
-      <c r="M201" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="L201">
+        <v>202510</v>
       </c>
       <c r="N201" t="s">
-        <v>429</v>
+        <v>505</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>76476394</v>
+        <v>76477981</v>
       </c>
       <c r="B202" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C202">
         <v>45992</v>
@@ -10495,133 +10831,139 @@
         <v>21</v>
       </c>
       <c r="F202">
-        <v>20601442753</v>
+        <v>20607871729</v>
       </c>
       <c r="G202" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="H202">
-        <v>20601442753</v>
+        <v>20607871729</v>
       </c>
       <c r="I202">
         <v>46010</v>
       </c>
       <c r="J202">
-        <v>95.15</v>
+        <v>150</v>
       </c>
       <c r="K202" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="L202">
+        <v>202509</v>
       </c>
       <c r="M202">
         <v>202510</v>
+      </c>
+      <c r="N202" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>76478834</v>
+        <v>76483386</v>
       </c>
       <c r="B203" t="s">
-        <v>28</v>
-      </c>
-      <c r="C203" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="C203">
+        <v>45992</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E203" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F203">
-        <v>20611458411</v>
+        <v>20606671912</v>
       </c>
       <c r="G203" t="s">
-        <v>431</v>
+        <v>508</v>
       </c>
       <c r="H203">
-        <v>20611458411</v>
+        <v>20606671912</v>
       </c>
       <c r="I203">
         <v>46010</v>
       </c>
       <c r="J203">
-        <v>92.08</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K203" t="s">
         <v>18</v>
       </c>
-      <c r="L203" t="s">
-        <v>54</v>
+      <c r="L203">
+        <v>202510</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>76513510</v>
+        <v>76479209</v>
       </c>
       <c r="B204" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C204" t="s">
         <v>82</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E204" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F204">
-        <v>20506112487</v>
+        <v>20613040146</v>
       </c>
       <c r="G204" t="s">
-        <v>432</v>
+        <v>509</v>
       </c>
       <c r="H204">
-        <v>20506112487</v>
+        <v>20613040146</v>
       </c>
       <c r="I204">
         <v>46010</v>
       </c>
       <c r="J204">
-        <v>1267.73</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="K204" t="s">
         <v>27</v>
       </c>
-      <c r="N204" t="s">
-        <v>433</v>
+      <c r="M204" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>76501464</v>
+        <v>76482077</v>
       </c>
       <c r="B205" t="s">
-        <v>170</v>
-      </c>
-      <c r="C205" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="C205">
+        <v>45992</v>
       </c>
       <c r="D205" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E205" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F205">
-        <v>20551106897</v>
+        <v>47802618</v>
       </c>
       <c r="G205" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H205">
-        <v>20551106897</v>
+        <v>10478026183</v>
       </c>
       <c r="I205">
-        <v>46010</v>
+        <v>46008</v>
       </c>
       <c r="J205">
-        <v>277.52</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K205" t="s">
         <v>18</v>
@@ -10632,51 +10974,51 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>76483826</v>
+        <v>76479156</v>
       </c>
       <c r="B206" t="s">
-        <v>64</v>
-      </c>
-      <c r="C206">
-        <v>45992</v>
+        <v>28</v>
+      </c>
+      <c r="C206" t="s">
+        <v>82</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E206" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F206">
-        <v>20612887447</v>
+        <v>20612797243</v>
       </c>
       <c r="G206" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="H206">
-        <v>20612887447</v>
+        <v>20612797243</v>
       </c>
       <c r="I206">
         <v>46010</v>
       </c>
       <c r="J206">
-        <v>66.099999999999994</v>
+        <v>101.93</v>
       </c>
       <c r="K206" t="s">
         <v>18</v>
       </c>
-      <c r="L206">
-        <v>202508</v>
+      <c r="L206" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>76474598</v>
+        <v>76478745</v>
       </c>
       <c r="B207" t="s">
-        <v>19</v>
-      </c>
-      <c r="C207">
-        <v>45992</v>
+        <v>22</v>
+      </c>
+      <c r="C207" t="s">
+        <v>82</v>
       </c>
       <c r="D207" t="s">
         <v>20</v>
@@ -10685,16 +11027,16 @@
         <v>21</v>
       </c>
       <c r="F207">
-        <v>20482477331</v>
+        <v>20611056584</v>
       </c>
       <c r="G207" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="H207">
-        <v>20482477331</v>
+        <v>20611056584</v>
       </c>
       <c r="I207">
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="J207">
         <v>66.099999999999994</v>
@@ -10706,53 +11048,56 @@
         <v>202510</v>
       </c>
       <c r="N207" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>76482010</v>
+        <v>76473820</v>
       </c>
       <c r="B208" t="s">
-        <v>64</v>
-      </c>
-      <c r="C208">
-        <v>45992</v>
+        <v>22</v>
+      </c>
+      <c r="C208" t="s">
+        <v>82</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E208" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F208">
-        <v>41028501</v>
+        <v>2867667</v>
       </c>
       <c r="G208" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="H208">
-        <v>10410285016</v>
+        <v>10028676676</v>
       </c>
       <c r="I208">
         <v>46010</v>
       </c>
       <c r="J208">
-        <v>66.099999999999994</v>
+        <v>74</v>
       </c>
       <c r="K208" t="s">
         <v>18</v>
       </c>
-      <c r="L208">
-        <v>202510</v>
+      <c r="L208" t="s">
+        <v>69</v>
+      </c>
+      <c r="N208" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>76483563</v>
+        <v>76482665</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C209">
         <v>45992</v>
@@ -10764,109 +11109,109 @@
         <v>17</v>
       </c>
       <c r="F209">
-        <v>20609406098</v>
+        <v>20546007040</v>
       </c>
       <c r="G209" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="H209">
-        <v>20609406098</v>
+        <v>20546007040</v>
       </c>
       <c r="I209">
         <v>46010</v>
       </c>
       <c r="J209">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K209" t="s">
         <v>18</v>
       </c>
       <c r="L209">
         <v>202510</v>
-      </c>
-      <c r="N209" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>76483051</v>
+        <v>76478099</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
-      </c>
-      <c r="C210">
-        <v>45992</v>
+        <v>120</v>
+      </c>
+      <c r="C210" t="s">
+        <v>82</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E210" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F210">
-        <v>20602258913</v>
+        <v>20608421671</v>
       </c>
       <c r="G210" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="H210">
-        <v>20602258913</v>
+        <v>20608421671</v>
       </c>
       <c r="I210">
         <v>46010</v>
       </c>
       <c r="J210">
-        <v>66.099999999999994</v>
+        <v>230.37</v>
       </c>
       <c r="K210" t="s">
-        <v>18</v>
-      </c>
-      <c r="L210">
-        <v>202510</v>
+        <v>27</v>
+      </c>
+      <c r="M210" t="s">
+        <v>67</v>
+      </c>
+      <c r="N210" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>76483713</v>
+        <v>76476394</v>
       </c>
       <c r="B211" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C211">
         <v>45992</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E211" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F211">
-        <v>20611374128</v>
+        <v>20601442753</v>
       </c>
       <c r="G211" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="H211">
-        <v>20611374128</v>
+        <v>20601442753</v>
       </c>
       <c r="I211">
         <v>46010</v>
       </c>
       <c r="J211">
-        <v>66.099999999999994</v>
+        <v>95.15</v>
       </c>
       <c r="K211" t="s">
-        <v>18</v>
-      </c>
-      <c r="L211">
+        <v>27</v>
+      </c>
+      <c r="M211">
         <v>202510</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>76479150</v>
+        <v>76478834</v>
       </c>
       <c r="B212" t="s">
         <v>28</v>
@@ -10881,98 +11226,95 @@
         <v>21</v>
       </c>
       <c r="F212">
-        <v>20612770621</v>
+        <v>20611458411</v>
       </c>
       <c r="G212" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="H212">
-        <v>20612770621</v>
+        <v>20611458411</v>
       </c>
       <c r="I212">
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="J212">
-        <v>174.38</v>
+        <v>92.08</v>
       </c>
       <c r="K212" t="s">
         <v>18</v>
       </c>
       <c r="L212" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>76474511</v>
+        <v>76513510</v>
       </c>
       <c r="B213" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C213" t="s">
         <v>82</v>
       </c>
       <c r="D213" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E213" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F213">
-        <v>20475236131</v>
+        <v>20506112487</v>
       </c>
       <c r="G213" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="H213">
-        <v>20475236131</v>
+        <v>20506112487</v>
       </c>
       <c r="I213">
         <v>46010</v>
       </c>
       <c r="J213">
-        <v>102</v>
+        <v>1267.73</v>
       </c>
       <c r="K213" t="s">
-        <v>18</v>
-      </c>
-      <c r="L213">
-        <v>202505</v>
+        <v>27</v>
       </c>
       <c r="N213" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>76483213</v>
+        <v>76501464</v>
       </c>
       <c r="B214" t="s">
-        <v>64</v>
-      </c>
-      <c r="C214">
-        <v>45992</v>
+        <v>170</v>
+      </c>
+      <c r="C214" t="s">
+        <v>82</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E214" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F214">
-        <v>20603938080</v>
+        <v>20551106897</v>
       </c>
       <c r="G214" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H214">
-        <v>20603938080</v>
+        <v>20551106897</v>
       </c>
       <c r="I214">
         <v>46010</v>
       </c>
       <c r="J214">
-        <v>66.099999999999994</v>
+        <v>277.52</v>
       </c>
       <c r="K214" t="s">
         <v>18</v>
@@ -10983,39 +11325,390 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>76475422</v>
+        <v>76483826</v>
       </c>
       <c r="B215" t="s">
-        <v>28</v>
-      </c>
-      <c r="C215" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="C215">
+        <v>45992</v>
       </c>
       <c r="D215" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E215" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F215">
-        <v>20544097700</v>
+        <v>20612887447</v>
       </c>
       <c r="G215" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H215">
-        <v>20544097700</v>
+        <v>20612887447</v>
       </c>
       <c r="I215">
         <v>46010</v>
       </c>
       <c r="J215">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K215" t="s">
+        <v>18</v>
+      </c>
+      <c r="L215">
+        <v>202508</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>76474598</v>
+      </c>
+      <c r="B216" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216">
+        <v>45992</v>
+      </c>
+      <c r="D216" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" t="s">
+        <v>21</v>
+      </c>
+      <c r="F216">
+        <v>20482477331</v>
+      </c>
+      <c r="G216" t="s">
+        <v>436</v>
+      </c>
+      <c r="H216">
+        <v>20482477331</v>
+      </c>
+      <c r="I216">
+        <v>46003</v>
+      </c>
+      <c r="J216">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K216" t="s">
+        <v>18</v>
+      </c>
+      <c r="L216">
+        <v>202510</v>
+      </c>
+      <c r="N216" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>76482010</v>
+      </c>
+      <c r="B217" t="s">
+        <v>64</v>
+      </c>
+      <c r="C217">
+        <v>45992</v>
+      </c>
+      <c r="D217" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217">
+        <v>41028501</v>
+      </c>
+      <c r="G217" t="s">
+        <v>438</v>
+      </c>
+      <c r="H217">
+        <v>10410285016</v>
+      </c>
+      <c r="I217">
+        <v>46010</v>
+      </c>
+      <c r="J217">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K217" t="s">
+        <v>18</v>
+      </c>
+      <c r="L217">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>76483563</v>
+      </c>
+      <c r="B218" t="s">
+        <v>24</v>
+      </c>
+      <c r="C218">
+        <v>45992</v>
+      </c>
+      <c r="D218" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218">
+        <v>20609406098</v>
+      </c>
+      <c r="G218" t="s">
+        <v>439</v>
+      </c>
+      <c r="H218">
+        <v>20609406098</v>
+      </c>
+      <c r="I218">
+        <v>46010</v>
+      </c>
+      <c r="J218">
+        <v>50</v>
+      </c>
+      <c r="K218" t="s">
+        <v>18</v>
+      </c>
+      <c r="L218">
+        <v>202510</v>
+      </c>
+      <c r="N218" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>76483051</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219">
+        <v>45992</v>
+      </c>
+      <c r="D219" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" t="s">
+        <v>17</v>
+      </c>
+      <c r="F219">
+        <v>20602258913</v>
+      </c>
+      <c r="G219" t="s">
+        <v>441</v>
+      </c>
+      <c r="H219">
+        <v>20602258913</v>
+      </c>
+      <c r="I219">
+        <v>46010</v>
+      </c>
+      <c r="J219">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K219" t="s">
+        <v>18</v>
+      </c>
+      <c r="L219">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>76483713</v>
+      </c>
+      <c r="B220" t="s">
+        <v>64</v>
+      </c>
+      <c r="C220">
+        <v>45992</v>
+      </c>
+      <c r="D220" t="s">
+        <v>16</v>
+      </c>
+      <c r="E220" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220">
+        <v>20611374128</v>
+      </c>
+      <c r="G220" t="s">
+        <v>442</v>
+      </c>
+      <c r="H220">
+        <v>20611374128</v>
+      </c>
+      <c r="I220">
+        <v>46010</v>
+      </c>
+      <c r="J220">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K220" t="s">
+        <v>18</v>
+      </c>
+      <c r="L220">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>76479150</v>
+      </c>
+      <c r="B221" t="s">
+        <v>28</v>
+      </c>
+      <c r="C221" t="s">
+        <v>82</v>
+      </c>
+      <c r="D221" t="s">
+        <v>20</v>
+      </c>
+      <c r="E221" t="s">
+        <v>21</v>
+      </c>
+      <c r="F221">
+        <v>20612770621</v>
+      </c>
+      <c r="G221" t="s">
+        <v>443</v>
+      </c>
+      <c r="H221">
+        <v>20612770621</v>
+      </c>
+      <c r="I221">
+        <v>46003</v>
+      </c>
+      <c r="J221">
+        <v>174.38</v>
+      </c>
+      <c r="K221" t="s">
+        <v>18</v>
+      </c>
+      <c r="L221" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>76474511</v>
+      </c>
+      <c r="B222" t="s">
+        <v>22</v>
+      </c>
+      <c r="C222" t="s">
+        <v>82</v>
+      </c>
+      <c r="D222" t="s">
+        <v>20</v>
+      </c>
+      <c r="E222" t="s">
+        <v>21</v>
+      </c>
+      <c r="F222">
+        <v>20475236131</v>
+      </c>
+      <c r="G222" t="s">
+        <v>444</v>
+      </c>
+      <c r="H222">
+        <v>20475236131</v>
+      </c>
+      <c r="I222">
+        <v>46010</v>
+      </c>
+      <c r="J222">
+        <v>102</v>
+      </c>
+      <c r="K222" t="s">
+        <v>18</v>
+      </c>
+      <c r="L222">
+        <v>202505</v>
+      </c>
+      <c r="N222" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>76483213</v>
+      </c>
+      <c r="B223" t="s">
+        <v>64</v>
+      </c>
+      <c r="C223">
+        <v>45992</v>
+      </c>
+      <c r="D223" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" t="s">
+        <v>17</v>
+      </c>
+      <c r="F223">
+        <v>20603938080</v>
+      </c>
+      <c r="G223" t="s">
+        <v>446</v>
+      </c>
+      <c r="H223">
+        <v>20603938080</v>
+      </c>
+      <c r="I223">
+        <v>46010</v>
+      </c>
+      <c r="J223">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K223" t="s">
+        <v>18</v>
+      </c>
+      <c r="L223">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>76475422</v>
+      </c>
+      <c r="B224" t="s">
+        <v>28</v>
+      </c>
+      <c r="C224" t="s">
+        <v>82</v>
+      </c>
+      <c r="D224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" t="s">
+        <v>21</v>
+      </c>
+      <c r="F224">
+        <v>20544097700</v>
+      </c>
+      <c r="G224" t="s">
+        <v>447</v>
+      </c>
+      <c r="H224">
+        <v>20544097700</v>
+      </c>
+      <c r="I224">
+        <v>46010</v>
+      </c>
+      <c r="J224">
         <v>70.819999999999993</v>
       </c>
-      <c r="K215" t="s">
-        <v>18</v>
-      </c>
-      <c r="L215">
+      <c r="K224" t="s">
+        <v>18</v>
+      </c>
+      <c r="L224">
         <v>202510</v>
       </c>
     </row>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41874473-8EAF-4F37-9AC7-57A347E122CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7339B-BB0D-4894-B172-C62905ADA102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="543">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1294,9 +1294,6 @@
     <t>DISTRIBUIDORA DE PERNOS DEL NORTE SRLTDA</t>
   </si>
   <si>
-    <t>CARLOS PRADO</t>
-  </si>
-  <si>
     <t>ALAMO MORI HECTOR MANUEL</t>
   </si>
   <si>
@@ -1562,6 +1559,105 @@
   </si>
   <si>
     <t>202503|202504|202505|202506</t>
+  </si>
+  <si>
+    <t>COINSA INGENIEROS SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>GRUPO ACP INVERSIONES Y DESARROLLO</t>
+  </si>
+  <si>
+    <t>SARAVIA OLIVER MARTHA ESTHER ANGELA MILAGROS</t>
+  </si>
+  <si>
+    <t>202507|202508|202509</t>
+  </si>
+  <si>
+    <t>SARAVIA OLIVER MARTHA ESTHER</t>
+  </si>
+  <si>
+    <t>LOGISTICA LIMA SUR S.A.C.</t>
+  </si>
+  <si>
+    <t>ANGELS GYM E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CORPORACION RIP SOL SAC</t>
+  </si>
+  <si>
+    <t>GRUPO BIOTECH S.A.C.</t>
+  </si>
+  <si>
+    <t>GRUPO INMOBILIARIO PRO PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>CONTRERAS ARIZAPANA ALEJANDRO ALLEN</t>
+  </si>
+  <si>
+    <t>DISTRIBUCIONES DEJAVU SAC</t>
+  </si>
+  <si>
+    <t>HUAMANI CHOQUE RENE RAUL</t>
+  </si>
+  <si>
+    <t>ALKHA &amp; CIA S.A.C.</t>
+  </si>
+  <si>
+    <t>TRANSCASE SERVICIOS LOGISTICOS S.A.C.</t>
+  </si>
+  <si>
+    <t>transcase.sl.sac@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>INVERSIONES TRANSPORTES &amp; SERVICIOS GENERALES ARARAT EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>EMI GROUP PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>FORESTALES DAXSA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>contabilidad@forestalesdaxsa.com.pe</t>
+  </si>
+  <si>
+    <t>NATURE SERVICES PERU S.A.</t>
+  </si>
+  <si>
+    <t>frank.hajek@natureservices.net , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>R &amp; R SERVICIOS AMBIENTALES Y MAS S.A.C.</t>
+  </si>
+  <si>
+    <t>TGZ INGENIERIA &amp; GESTION DE ACTIVOS E.I.R.L</t>
+  </si>
+  <si>
+    <t>asistente.administrativo@tgzingenieria.pe , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>CENTRO ODONTOLOGICO MINI SONRISAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>AHUMADA ENCALADA CINDY FABIOLA</t>
+  </si>
+  <si>
+    <t>N Y G REFRIGERACION S.A.C.</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD DEPORTIVA S.A.C.</t>
+  </si>
+  <si>
+    <t>JULIA CARRILLO</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVERSIONES SIU HANMUY S.A.C.</t>
+  </si>
+  <si>
+    <t>BAUTISTA CALDERON IRMA IRIS</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA E IMPORTADORA OSMAR SAC</t>
   </si>
 </sst>
 </file>
@@ -2434,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O224"/>
+  <dimension ref="A1:O248"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:O248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3429,7 +3525,7 @@
         <v>202510</v>
       </c>
       <c r="O23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -4985,7 +5081,7 @@
         <v>68</v>
       </c>
       <c r="O60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -5571,9 +5667,9 @@
         <v>66.099999999999994</v>
       </c>
       <c r="K74" t="s">
-        <v>27</v>
-      </c>
-      <c r="M74">
+        <v>18</v>
+      </c>
+      <c r="L74">
         <v>202510</v>
       </c>
       <c r="N74" t="s">
@@ -5832,7 +5928,7 @@
         <v>202510</v>
       </c>
       <c r="O80" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -7104,7 +7200,7 @@
         <v>382</v>
       </c>
       <c r="O110" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -7148,7 +7244,7 @@
         <v>383</v>
       </c>
       <c r="O111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -7192,7 +7288,7 @@
         <v>384</v>
       </c>
       <c r="O112" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
@@ -7233,7 +7329,7 @@
         <v>202510</v>
       </c>
       <c r="O113" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -7274,7 +7370,7 @@
         <v>202510</v>
       </c>
       <c r="O114" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -7318,7 +7414,7 @@
         <v>385</v>
       </c>
       <c r="O115" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -7362,7 +7458,7 @@
         <v>386</v>
       </c>
       <c r="O116" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -7406,7 +7502,7 @@
         <v>387</v>
       </c>
       <c r="O117" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -7447,7 +7543,7 @@
         <v>202510</v>
       </c>
       <c r="O118" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -7488,7 +7584,7 @@
         <v>67</v>
       </c>
       <c r="O119" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -7529,7 +7625,7 @@
         <v>202510</v>
       </c>
       <c r="O120" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -7570,7 +7666,7 @@
         <v>202510</v>
       </c>
       <c r="O121" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -7611,7 +7707,7 @@
         <v>202510</v>
       </c>
       <c r="O122" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -7652,7 +7748,7 @@
         <v>202510</v>
       </c>
       <c r="O123" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -7696,7 +7792,7 @@
         <v>321</v>
       </c>
       <c r="O124" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -7737,7 +7833,7 @@
         <v>202510</v>
       </c>
       <c r="O125" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -7778,7 +7874,7 @@
         <v>202510</v>
       </c>
       <c r="O126" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -7819,7 +7915,7 @@
         <v>202510</v>
       </c>
       <c r="O127" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -7860,7 +7956,7 @@
         <v>67</v>
       </c>
       <c r="O128" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -7901,7 +7997,7 @@
         <v>202510</v>
       </c>
       <c r="O129" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -7942,7 +8038,7 @@
         <v>202510</v>
       </c>
       <c r="O130" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -7983,7 +8079,7 @@
         <v>202510</v>
       </c>
       <c r="O131" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -8027,7 +8123,7 @@
         <v>388</v>
       </c>
       <c r="O132" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -8071,7 +8167,7 @@
         <v>389</v>
       </c>
       <c r="O133" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -8112,7 +8208,7 @@
         <v>202510</v>
       </c>
       <c r="O134" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -8156,7 +8252,7 @@
         <v>390</v>
       </c>
       <c r="O135" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -8197,7 +8293,7 @@
         <v>202510</v>
       </c>
       <c r="O136" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -8238,7 +8334,7 @@
         <v>202509</v>
       </c>
       <c r="O137" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -8279,7 +8375,7 @@
         <v>202510</v>
       </c>
       <c r="O138" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -8323,7 +8419,7 @@
         <v>391</v>
       </c>
       <c r="O139" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -8367,7 +8463,7 @@
         <v>392</v>
       </c>
       <c r="O140" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -8411,7 +8507,7 @@
         <v>393</v>
       </c>
       <c r="O141" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -8452,7 +8548,7 @@
         <v>202510</v>
       </c>
       <c r="O142" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -8496,7 +8592,7 @@
         <v>394</v>
       </c>
       <c r="O143" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -8537,7 +8633,7 @@
         <v>202510</v>
       </c>
       <c r="O144" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -8578,7 +8674,7 @@
         <v>202510</v>
       </c>
       <c r="O145" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -8622,7 +8718,7 @@
         <v>395</v>
       </c>
       <c r="O146" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -8704,7 +8800,7 @@
         <v>396</v>
       </c>
       <c r="O148" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -8745,7 +8841,7 @@
         <v>202510</v>
       </c>
       <c r="O149" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -8789,7 +8885,7 @@
         <v>397</v>
       </c>
       <c r="O150" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -8830,7 +8926,7 @@
         <v>202510</v>
       </c>
       <c r="O151" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -8871,7 +8967,7 @@
         <v>202510</v>
       </c>
       <c r="O152" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -8915,7 +9011,7 @@
         <v>398</v>
       </c>
       <c r="O153" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -8956,7 +9052,7 @@
         <v>202510</v>
       </c>
       <c r="O154" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -8997,7 +9093,7 @@
         <v>202510</v>
       </c>
       <c r="O155" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -9038,7 +9134,7 @@
         <v>202510</v>
       </c>
       <c r="O156" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -9079,7 +9175,7 @@
         <v>33</v>
       </c>
       <c r="O157" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -10457,9 +10553,9 @@
         <v>124.5</v>
       </c>
       <c r="K192" t="s">
-        <v>27</v>
-      </c>
-      <c r="M192">
+        <v>18</v>
+      </c>
+      <c r="L192">
         <v>202510</v>
       </c>
     </row>
@@ -10576,9 +10672,6 @@
       <c r="L195">
         <v>202510</v>
       </c>
-      <c r="N195" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
@@ -10600,7 +10693,7 @@
         <v>20611575166</v>
       </c>
       <c r="G196" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H196">
         <v>20611575166</v>
@@ -10638,7 +10731,7 @@
         <v>8606217</v>
       </c>
       <c r="G197" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H197">
         <v>10086062173</v>
@@ -10656,7 +10749,7 @@
         <v>202510</v>
       </c>
       <c r="N197" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -10679,7 +10772,7 @@
         <v>20539784871</v>
       </c>
       <c r="G198" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H198">
         <v>20539784871</v>
@@ -10699,7 +10792,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>76483814</v>
+        <v>76482311</v>
       </c>
       <c r="B199" t="s">
         <v>15</v>
@@ -10714,16 +10807,16 @@
         <v>17</v>
       </c>
       <c r="F199">
-        <v>20612721999</v>
+        <v>20478124296</v>
       </c>
       <c r="G199" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H199">
-        <v>20612721999</v>
+        <v>20478124296</v>
       </c>
       <c r="I199">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="J199">
         <v>66.099999999999994</v>
@@ -10737,51 +10830,51 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>76482876</v>
+        <v>76487874</v>
       </c>
       <c r="B200" t="s">
-        <v>64</v>
-      </c>
-      <c r="C200">
-        <v>45992</v>
+        <v>120</v>
+      </c>
+      <c r="C200" t="s">
+        <v>82</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E200" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F200">
-        <v>20600407148</v>
+        <v>20137777305</v>
       </c>
       <c r="G200" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H200">
-        <v>20600407148</v>
+        <v>20137777305</v>
       </c>
       <c r="I200">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="J200">
         <v>66.099999999999994</v>
       </c>
       <c r="K200" t="s">
-        <v>18</v>
-      </c>
-      <c r="L200">
-        <v>202510</v>
+        <v>27</v>
+      </c>
+      <c r="M200">
+        <v>200805</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>76476244</v>
+        <v>76473871</v>
       </c>
       <c r="B201" t="s">
-        <v>24</v>
-      </c>
-      <c r="C201">
-        <v>45992</v>
+        <v>22</v>
+      </c>
+      <c r="C201" t="s">
+        <v>82</v>
       </c>
       <c r="D201" t="s">
         <v>20</v>
@@ -10790,36 +10883,39 @@
         <v>21</v>
       </c>
       <c r="F201">
-        <v>20600950895</v>
+        <v>9941943</v>
       </c>
       <c r="G201" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="H201">
-        <v>20600950895</v>
+        <v>10099419437</v>
       </c>
       <c r="I201">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="J201">
-        <v>226.55</v>
+        <v>88</v>
       </c>
       <c r="K201" t="s">
-        <v>18</v>
-      </c>
-      <c r="L201">
+        <v>23</v>
+      </c>
+      <c r="L201" t="s">
+        <v>513</v>
+      </c>
+      <c r="M201">
         <v>202510</v>
       </c>
       <c r="N201" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>76477981</v>
+        <v>76475559</v>
       </c>
       <c r="B202" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C202">
         <v>45992</v>
@@ -10831,36 +10927,30 @@
         <v>21</v>
       </c>
       <c r="F202">
-        <v>20607871729</v>
+        <v>20549561269</v>
       </c>
       <c r="G202" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H202">
-        <v>20607871729</v>
+        <v>20549561269</v>
       </c>
       <c r="I202">
-        <v>46010</v>
+        <v>46011</v>
       </c>
       <c r="J202">
-        <v>150</v>
+        <v>92.92</v>
       </c>
       <c r="K202" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L202">
-        <v>202509</v>
-      </c>
-      <c r="M202">
-        <v>202510</v>
-      </c>
-      <c r="N202" t="s">
-        <v>507</v>
+        <v>202510</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>76483386</v>
+        <v>76483058</v>
       </c>
       <c r="B203" t="s">
         <v>15</v>
@@ -10875,36 +10965,36 @@
         <v>17</v>
       </c>
       <c r="F203">
-        <v>20606671912</v>
+        <v>20602304061</v>
       </c>
       <c r="G203" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H203">
-        <v>20606671912</v>
+        <v>20602304061</v>
       </c>
       <c r="I203">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="J203">
         <v>66.099999999999994</v>
       </c>
       <c r="K203" t="s">
-        <v>18</v>
-      </c>
-      <c r="L203">
+        <v>27</v>
+      </c>
+      <c r="M203">
         <v>202510</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>76479209</v>
+        <v>76474492</v>
       </c>
       <c r="B204" t="s">
-        <v>120</v>
-      </c>
-      <c r="C204" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="C204">
+        <v>45992</v>
       </c>
       <c r="D204" t="s">
         <v>20</v>
@@ -10913,57 +11003,57 @@
         <v>21</v>
       </c>
       <c r="F204">
-        <v>20613040146</v>
+        <v>20460419418</v>
       </c>
       <c r="G204" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H204">
-        <v>20613040146</v>
+        <v>20460419418</v>
       </c>
       <c r="I204">
-        <v>46010</v>
+        <v>46011</v>
       </c>
       <c r="J204">
-        <v>320.60000000000002</v>
+        <v>141.88</v>
       </c>
       <c r="K204" t="s">
-        <v>27</v>
-      </c>
-      <c r="M204" t="s">
-        <v>510</v>
+        <v>18</v>
+      </c>
+      <c r="L204">
+        <v>202510</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>76482077</v>
+        <v>76478856</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
-      </c>
-      <c r="C205">
-        <v>45992</v>
+        <v>120</v>
+      </c>
+      <c r="C205" t="s">
+        <v>82</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E205" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F205">
-        <v>47802618</v>
+        <v>20611542721</v>
       </c>
       <c r="G205" t="s">
-        <v>422</v>
+        <v>518</v>
       </c>
       <c r="H205">
-        <v>10478026183</v>
+        <v>20611542721</v>
       </c>
       <c r="I205">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="J205">
-        <v>66.099999999999994</v>
+        <v>255.92</v>
       </c>
       <c r="K205" t="s">
         <v>18</v>
@@ -10974,66 +11064,66 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>76479156</v>
+        <v>76483814</v>
       </c>
       <c r="B206" t="s">
-        <v>28</v>
-      </c>
-      <c r="C206" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="C206">
+        <v>45992</v>
       </c>
       <c r="D206" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E206" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F206">
-        <v>20612797243</v>
+        <v>20612721999</v>
       </c>
       <c r="G206" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="H206">
-        <v>20612797243</v>
+        <v>20612721999</v>
       </c>
       <c r="I206">
         <v>46010</v>
       </c>
       <c r="J206">
-        <v>101.93</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K206" t="s">
         <v>18</v>
       </c>
-      <c r="L206" t="s">
-        <v>67</v>
+      <c r="L206">
+        <v>202510</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>76478745</v>
+        <v>76482876</v>
       </c>
       <c r="B207" t="s">
-        <v>22</v>
-      </c>
-      <c r="C207" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="C207">
+        <v>45992</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E207" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F207">
-        <v>20611056584</v>
+        <v>20600407148</v>
       </c>
       <c r="G207" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="H207">
-        <v>20611056584</v>
+        <v>20600407148</v>
       </c>
       <c r="I207">
         <v>46010</v>
@@ -11047,19 +11137,16 @@
       <c r="L207">
         <v>202510</v>
       </c>
-      <c r="N207" t="s">
-        <v>394</v>
-      </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>76473820</v>
+        <v>76476244</v>
       </c>
       <c r="B208" t="s">
-        <v>22</v>
-      </c>
-      <c r="C208" t="s">
-        <v>82</v>
+        <v>24</v>
+      </c>
+      <c r="C208">
+        <v>45992</v>
       </c>
       <c r="D208" t="s">
         <v>20</v>
@@ -11068,118 +11155,118 @@
         <v>21</v>
       </c>
       <c r="F208">
-        <v>2867667</v>
+        <v>20600950895</v>
       </c>
       <c r="G208" t="s">
-        <v>425</v>
+        <v>503</v>
       </c>
       <c r="H208">
-        <v>10028676676</v>
+        <v>20600950895</v>
       </c>
       <c r="I208">
         <v>46010</v>
       </c>
       <c r="J208">
-        <v>74</v>
+        <v>226.55</v>
       </c>
       <c r="K208" t="s">
         <v>18</v>
       </c>
-      <c r="L208" t="s">
-        <v>69</v>
+      <c r="L208">
+        <v>202510</v>
       </c>
       <c r="N208" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>76482665</v>
+        <v>76477981</v>
       </c>
       <c r="B209" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C209">
         <v>45992</v>
       </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E209" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F209">
-        <v>20546007040</v>
+        <v>20607871729</v>
       </c>
       <c r="G209" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
       <c r="H209">
-        <v>20546007040</v>
+        <v>20607871729</v>
       </c>
       <c r="I209">
         <v>46010</v>
       </c>
       <c r="J209">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K209" t="s">
         <v>18</v>
       </c>
-      <c r="L209">
-        <v>202510</v>
+      <c r="L209" t="s">
+        <v>67</v>
+      </c>
+      <c r="N209" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>76478099</v>
+        <v>76483386</v>
       </c>
       <c r="B210" t="s">
-        <v>120</v>
-      </c>
-      <c r="C210" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="C210">
+        <v>45992</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E210" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F210">
-        <v>20608421671</v>
+        <v>20606671912</v>
       </c>
       <c r="G210" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="H210">
-        <v>20608421671</v>
+        <v>20606671912</v>
       </c>
       <c r="I210">
         <v>46010</v>
       </c>
       <c r="J210">
-        <v>230.37</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K210" t="s">
-        <v>27</v>
-      </c>
-      <c r="M210" t="s">
-        <v>67</v>
-      </c>
-      <c r="N210" t="s">
-        <v>429</v>
+        <v>18</v>
+      </c>
+      <c r="L210">
+        <v>202510</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>76476394</v>
+        <v>76479209</v>
       </c>
       <c r="B211" t="s">
-        <v>19</v>
-      </c>
-      <c r="C211">
-        <v>45992</v>
+        <v>120</v>
+      </c>
+      <c r="C211" t="s">
+        <v>82</v>
       </c>
       <c r="D211" t="s">
         <v>20</v>
@@ -11188,481 +11275,481 @@
         <v>21</v>
       </c>
       <c r="F211">
-        <v>20601442753</v>
+        <v>20613040146</v>
       </c>
       <c r="G211" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="H211">
-        <v>20601442753</v>
+        <v>20613040146</v>
       </c>
       <c r="I211">
         <v>46010</v>
       </c>
       <c r="J211">
-        <v>95.15</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="K211" t="s">
-        <v>27</v>
-      </c>
-      <c r="M211">
-        <v>202510</v>
+        <v>18</v>
+      </c>
+      <c r="L211" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>76478834</v>
+        <v>76482077</v>
       </c>
       <c r="B212" t="s">
-        <v>28</v>
-      </c>
-      <c r="C212" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="C212">
+        <v>45992</v>
       </c>
       <c r="D212" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E212" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F212">
-        <v>20611458411</v>
+        <v>47802618</v>
       </c>
       <c r="G212" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="H212">
-        <v>20611458411</v>
+        <v>10478026183</v>
       </c>
       <c r="I212">
-        <v>46010</v>
+        <v>46008</v>
       </c>
       <c r="J212">
-        <v>92.08</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K212" t="s">
         <v>18</v>
       </c>
-      <c r="L212" t="s">
-        <v>54</v>
+      <c r="L212">
+        <v>202510</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>76513510</v>
+        <v>76479156</v>
       </c>
       <c r="B213" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C213" t="s">
         <v>82</v>
       </c>
       <c r="D213" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E213" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F213">
-        <v>20506112487</v>
+        <v>20612797243</v>
       </c>
       <c r="G213" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H213">
-        <v>20506112487</v>
+        <v>20612797243</v>
       </c>
       <c r="I213">
         <v>46010</v>
       </c>
       <c r="J213">
-        <v>1267.73</v>
+        <v>101.93</v>
       </c>
       <c r="K213" t="s">
-        <v>27</v>
-      </c>
-      <c r="N213" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="L213" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>76501464</v>
+        <v>76478745</v>
       </c>
       <c r="B214" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="C214" t="s">
         <v>82</v>
       </c>
       <c r="D214" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E214" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F214">
-        <v>20551106897</v>
+        <v>20611056584</v>
       </c>
       <c r="G214" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="H214">
-        <v>20551106897</v>
+        <v>20611056584</v>
       </c>
       <c r="I214">
         <v>46010</v>
       </c>
       <c r="J214">
-        <v>277.52</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K214" t="s">
         <v>18</v>
       </c>
       <c r="L214">
         <v>202510</v>
+      </c>
+      <c r="N214" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>76483826</v>
+        <v>76473820</v>
       </c>
       <c r="B215" t="s">
-        <v>64</v>
-      </c>
-      <c r="C215">
-        <v>45992</v>
+        <v>22</v>
+      </c>
+      <c r="C215" t="s">
+        <v>82</v>
       </c>
       <c r="D215" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E215" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F215">
-        <v>20612887447</v>
+        <v>2867667</v>
       </c>
       <c r="G215" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="H215">
-        <v>20612887447</v>
+        <v>10028676676</v>
       </c>
       <c r="I215">
         <v>46010</v>
       </c>
       <c r="J215">
-        <v>66.099999999999994</v>
+        <v>74</v>
       </c>
       <c r="K215" t="s">
         <v>18</v>
       </c>
-      <c r="L215">
-        <v>202508</v>
+      <c r="L215" t="s">
+        <v>69</v>
+      </c>
+      <c r="N215" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>76474598</v>
+        <v>76482665</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C216">
         <v>45992</v>
       </c>
       <c r="D216" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E216" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F216">
-        <v>20482477331</v>
+        <v>20546007040</v>
       </c>
       <c r="G216" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H216">
-        <v>20482477331</v>
+        <v>20546007040</v>
       </c>
       <c r="I216">
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="J216">
-        <v>66.099999999999994</v>
+        <v>70</v>
       </c>
       <c r="K216" t="s">
         <v>18</v>
       </c>
       <c r="L216">
         <v>202510</v>
-      </c>
-      <c r="N216" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>76482010</v>
+        <v>76478099</v>
       </c>
       <c r="B217" t="s">
-        <v>64</v>
-      </c>
-      <c r="C217">
-        <v>45992</v>
+        <v>120</v>
+      </c>
+      <c r="C217" t="s">
+        <v>82</v>
       </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E217" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F217">
-        <v>41028501</v>
+        <v>20608421671</v>
       </c>
       <c r="G217" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="H217">
-        <v>10410285016</v>
+        <v>20608421671</v>
       </c>
       <c r="I217">
         <v>46010</v>
       </c>
       <c r="J217">
-        <v>66.099999999999994</v>
+        <v>230.37</v>
       </c>
       <c r="K217" t="s">
         <v>18</v>
       </c>
-      <c r="L217">
-        <v>202510</v>
+      <c r="L217" t="s">
+        <v>67</v>
+      </c>
+      <c r="N217" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>76483563</v>
+        <v>76476394</v>
       </c>
       <c r="B218" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C218">
         <v>45992</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E218" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F218">
-        <v>20609406098</v>
+        <v>20601442753</v>
       </c>
       <c r="G218" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H218">
-        <v>20609406098</v>
+        <v>20601442753</v>
       </c>
       <c r="I218">
         <v>46010</v>
       </c>
       <c r="J218">
-        <v>50</v>
+        <v>95.15</v>
       </c>
       <c r="K218" t="s">
-        <v>18</v>
-      </c>
-      <c r="L218">
-        <v>202510</v>
-      </c>
-      <c r="N218" t="s">
-        <v>440</v>
+        <v>27</v>
+      </c>
+      <c r="M218">
+        <v>202510</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>76483051</v>
+        <v>76478834</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
-      </c>
-      <c r="C219">
-        <v>45992</v>
+        <v>28</v>
+      </c>
+      <c r="C219" t="s">
+        <v>82</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E219" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F219">
-        <v>20602258913</v>
+        <v>20611458411</v>
       </c>
       <c r="G219" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="H219">
-        <v>20602258913</v>
+        <v>20611458411</v>
       </c>
       <c r="I219">
         <v>46010</v>
       </c>
       <c r="J219">
-        <v>66.099999999999994</v>
+        <v>92.08</v>
       </c>
       <c r="K219" t="s">
         <v>18</v>
       </c>
-      <c r="L219">
-        <v>202510</v>
+      <c r="L219" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>76483713</v>
+        <v>76513510</v>
       </c>
       <c r="B220" t="s">
-        <v>64</v>
-      </c>
-      <c r="C220">
-        <v>45992</v>
+        <v>32</v>
+      </c>
+      <c r="C220" t="s">
+        <v>82</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E220" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F220">
-        <v>20611374128</v>
+        <v>20506112487</v>
       </c>
       <c r="G220" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="H220">
-        <v>20611374128</v>
+        <v>20506112487</v>
       </c>
       <c r="I220">
         <v>46010</v>
       </c>
       <c r="J220">
-        <v>66.099999999999994</v>
+        <v>1267.73</v>
       </c>
       <c r="K220" t="s">
-        <v>18</v>
-      </c>
-      <c r="L220">
-        <v>202510</v>
+        <v>27</v>
+      </c>
+      <c r="N220" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>76479150</v>
+        <v>76501464</v>
       </c>
       <c r="B221" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="C221" t="s">
         <v>82</v>
       </c>
       <c r="D221" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E221" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F221">
-        <v>20612770621</v>
+        <v>20551106897</v>
       </c>
       <c r="G221" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H221">
-        <v>20612770621</v>
+        <v>20551106897</v>
       </c>
       <c r="I221">
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="J221">
-        <v>174.38</v>
+        <v>277.52</v>
       </c>
       <c r="K221" t="s">
         <v>18</v>
       </c>
-      <c r="L221" t="s">
-        <v>67</v>
+      <c r="L221">
+        <v>202510</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>76474511</v>
+        <v>76483826</v>
       </c>
       <c r="B222" t="s">
-        <v>22</v>
-      </c>
-      <c r="C222" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="C222">
+        <v>45992</v>
       </c>
       <c r="D222" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E222" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F222">
-        <v>20475236131</v>
+        <v>20612887447</v>
       </c>
       <c r="G222" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="H222">
-        <v>20475236131</v>
+        <v>20612887447</v>
       </c>
       <c r="I222">
         <v>46010</v>
       </c>
       <c r="J222">
-        <v>102</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K222" t="s">
         <v>18</v>
       </c>
       <c r="L222">
-        <v>202505</v>
-      </c>
-      <c r="N222" t="s">
-        <v>445</v>
+        <v>202508</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>76483213</v>
+        <v>76474598</v>
       </c>
       <c r="B223" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C223">
         <v>45992</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E223" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F223">
-        <v>20603938080</v>
+        <v>20482477331</v>
       </c>
       <c r="G223" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H223">
-        <v>20603938080</v>
+        <v>20482477331</v>
       </c>
       <c r="I223">
-        <v>46010</v>
+        <v>46003</v>
       </c>
       <c r="J223">
         <v>66.099999999999994</v>
@@ -11673,43 +11760,985 @@
       <c r="L223">
         <v>202510</v>
       </c>
+      <c r="N223" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>76475422</v>
+        <v>76482010</v>
       </c>
       <c r="B224" t="s">
-        <v>28</v>
-      </c>
-      <c r="C224" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="C224">
+        <v>45992</v>
       </c>
       <c r="D224" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E224" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F224">
-        <v>20544097700</v>
+        <v>41028501</v>
       </c>
       <c r="G224" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="H224">
-        <v>20544097700</v>
+        <v>10410285016</v>
       </c>
       <c r="I224">
         <v>46010</v>
       </c>
       <c r="J224">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K224" t="s">
+        <v>18</v>
+      </c>
+      <c r="L224">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>76483563</v>
+      </c>
+      <c r="B225" t="s">
+        <v>24</v>
+      </c>
+      <c r="C225">
+        <v>45992</v>
+      </c>
+      <c r="D225" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225">
+        <v>20609406098</v>
+      </c>
+      <c r="G225" t="s">
+        <v>438</v>
+      </c>
+      <c r="H225">
+        <v>20609406098</v>
+      </c>
+      <c r="I225">
+        <v>46010</v>
+      </c>
+      <c r="J225">
+        <v>50</v>
+      </c>
+      <c r="K225" t="s">
+        <v>18</v>
+      </c>
+      <c r="L225">
+        <v>202510</v>
+      </c>
+      <c r="N225" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>76483051</v>
+      </c>
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226">
+        <v>45992</v>
+      </c>
+      <c r="D226" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" t="s">
+        <v>17</v>
+      </c>
+      <c r="F226">
+        <v>20602258913</v>
+      </c>
+      <c r="G226" t="s">
+        <v>440</v>
+      </c>
+      <c r="H226">
+        <v>20602258913</v>
+      </c>
+      <c r="I226">
+        <v>46010</v>
+      </c>
+      <c r="J226">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K226" t="s">
+        <v>18</v>
+      </c>
+      <c r="L226">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>76483713</v>
+      </c>
+      <c r="B227" t="s">
+        <v>64</v>
+      </c>
+      <c r="C227">
+        <v>45992</v>
+      </c>
+      <c r="D227" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227">
+        <v>20611374128</v>
+      </c>
+      <c r="G227" t="s">
+        <v>441</v>
+      </c>
+      <c r="H227">
+        <v>20611374128</v>
+      </c>
+      <c r="I227">
+        <v>46010</v>
+      </c>
+      <c r="J227">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K227" t="s">
+        <v>18</v>
+      </c>
+      <c r="L227">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>76479150</v>
+      </c>
+      <c r="B228" t="s">
+        <v>28</v>
+      </c>
+      <c r="C228" t="s">
+        <v>82</v>
+      </c>
+      <c r="D228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" t="s">
+        <v>21</v>
+      </c>
+      <c r="F228">
+        <v>20612770621</v>
+      </c>
+      <c r="G228" t="s">
+        <v>442</v>
+      </c>
+      <c r="H228">
+        <v>20612770621</v>
+      </c>
+      <c r="I228">
+        <v>46003</v>
+      </c>
+      <c r="J228">
+        <v>174.38</v>
+      </c>
+      <c r="K228" t="s">
+        <v>18</v>
+      </c>
+      <c r="L228" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>76474511</v>
+      </c>
+      <c r="B229" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" t="s">
+        <v>82</v>
+      </c>
+      <c r="D229" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" t="s">
+        <v>21</v>
+      </c>
+      <c r="F229">
+        <v>20475236131</v>
+      </c>
+      <c r="G229" t="s">
+        <v>443</v>
+      </c>
+      <c r="H229">
+        <v>20475236131</v>
+      </c>
+      <c r="I229">
+        <v>46010</v>
+      </c>
+      <c r="J229">
+        <v>102</v>
+      </c>
+      <c r="K229" t="s">
+        <v>18</v>
+      </c>
+      <c r="L229">
+        <v>202505</v>
+      </c>
+      <c r="N229" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>76483213</v>
+      </c>
+      <c r="B230" t="s">
+        <v>64</v>
+      </c>
+      <c r="C230">
+        <v>45992</v>
+      </c>
+      <c r="D230" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" t="s">
+        <v>17</v>
+      </c>
+      <c r="F230">
+        <v>20603938080</v>
+      </c>
+      <c r="G230" t="s">
+        <v>445</v>
+      </c>
+      <c r="H230">
+        <v>20603938080</v>
+      </c>
+      <c r="I230">
+        <v>46010</v>
+      </c>
+      <c r="J230">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K230" t="s">
+        <v>18</v>
+      </c>
+      <c r="L230">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>76475422</v>
+      </c>
+      <c r="B231" t="s">
+        <v>28</v>
+      </c>
+      <c r="C231" t="s">
+        <v>82</v>
+      </c>
+      <c r="D231" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231">
+        <v>20544097700</v>
+      </c>
+      <c r="G231" t="s">
+        <v>446</v>
+      </c>
+      <c r="H231">
+        <v>20544097700</v>
+      </c>
+      <c r="I231">
+        <v>46010</v>
+      </c>
+      <c r="J231">
         <v>70.819999999999993</v>
       </c>
-      <c r="K224" t="s">
-        <v>18</v>
-      </c>
-      <c r="L224">
-        <v>202510</v>
+      <c r="K231" t="s">
+        <v>18</v>
+      </c>
+      <c r="L231">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>76478142</v>
+      </c>
+      <c r="B232" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" t="s">
+        <v>82</v>
+      </c>
+      <c r="D232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" t="s">
+        <v>21</v>
+      </c>
+      <c r="F232">
+        <v>20608549332</v>
+      </c>
+      <c r="G232" t="s">
+        <v>519</v>
+      </c>
+      <c r="H232">
+        <v>20608549332</v>
+      </c>
+      <c r="I232">
+        <v>46011</v>
+      </c>
+      <c r="J232">
+        <v>218.13</v>
+      </c>
+      <c r="K232" t="s">
+        <v>18</v>
+      </c>
+      <c r="L232">
+        <v>202510</v>
+      </c>
+      <c r="N232" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>76483813</v>
+      </c>
+      <c r="B233" t="s">
+        <v>64</v>
+      </c>
+      <c r="C233">
+        <v>45992</v>
+      </c>
+      <c r="D233" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233" t="s">
+        <v>17</v>
+      </c>
+      <c r="F233">
+        <v>20612704628</v>
+      </c>
+      <c r="G233" t="s">
+        <v>521</v>
+      </c>
+      <c r="H233">
+        <v>20612704628</v>
+      </c>
+      <c r="I233">
+        <v>46011</v>
+      </c>
+      <c r="J233">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K233" t="s">
+        <v>18</v>
+      </c>
+      <c r="L233">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>76482005</v>
+      </c>
+      <c r="B234" t="s">
+        <v>64</v>
+      </c>
+      <c r="C234">
+        <v>45992</v>
+      </c>
+      <c r="D234" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234">
+        <v>40738899</v>
+      </c>
+      <c r="G234" t="s">
+        <v>522</v>
+      </c>
+      <c r="H234">
+        <v>10407388998</v>
+      </c>
+      <c r="I234">
+        <v>46011</v>
+      </c>
+      <c r="J234">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K234" t="s">
+        <v>18</v>
+      </c>
+      <c r="L234">
+        <v>202507</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>76477146</v>
+      </c>
+      <c r="B235" t="s">
+        <v>28</v>
+      </c>
+      <c r="C235" t="s">
+        <v>82</v>
+      </c>
+      <c r="D235" t="s">
+        <v>20</v>
+      </c>
+      <c r="E235" t="s">
+        <v>21</v>
+      </c>
+      <c r="F235">
+        <v>20604020329</v>
+      </c>
+      <c r="G235" t="s">
+        <v>523</v>
+      </c>
+      <c r="H235">
+        <v>20604020329</v>
+      </c>
+      <c r="I235">
+        <v>46013</v>
+      </c>
+      <c r="J235">
+        <v>471.43</v>
+      </c>
+      <c r="K235" t="s">
+        <v>18</v>
+      </c>
+      <c r="L235">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>76475840</v>
+      </c>
+      <c r="B236" t="s">
+        <v>24</v>
+      </c>
+      <c r="C236">
+        <v>45992</v>
+      </c>
+      <c r="D236" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236" t="s">
+        <v>21</v>
+      </c>
+      <c r="F236">
+        <v>20560037628</v>
+      </c>
+      <c r="G236" t="s">
+        <v>524</v>
+      </c>
+      <c r="H236">
+        <v>20560037628</v>
+      </c>
+      <c r="I236">
+        <v>46013</v>
+      </c>
+      <c r="J236">
+        <v>79.67</v>
+      </c>
+      <c r="K236" t="s">
+        <v>18</v>
+      </c>
+      <c r="L236">
+        <v>202510</v>
+      </c>
+      <c r="N236" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>76476153</v>
+      </c>
+      <c r="B237" t="s">
+        <v>28</v>
+      </c>
+      <c r="C237" t="s">
+        <v>82</v>
+      </c>
+      <c r="D237" t="s">
+        <v>20</v>
+      </c>
+      <c r="E237" t="s">
+        <v>21</v>
+      </c>
+      <c r="F237">
+        <v>20600634071</v>
+      </c>
+      <c r="G237" t="s">
+        <v>526</v>
+      </c>
+      <c r="H237">
+        <v>20600634071</v>
+      </c>
+      <c r="I237">
+        <v>46013</v>
+      </c>
+      <c r="J237">
+        <v>142.56</v>
+      </c>
+      <c r="K237" t="s">
+        <v>18</v>
+      </c>
+      <c r="L237">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>76478073</v>
+      </c>
+      <c r="B238" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" t="s">
+        <v>82</v>
+      </c>
+      <c r="D238" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238" t="s">
+        <v>21</v>
+      </c>
+      <c r="F238">
+        <v>20608307410</v>
+      </c>
+      <c r="G238" t="s">
+        <v>527</v>
+      </c>
+      <c r="H238">
+        <v>20608307410</v>
+      </c>
+      <c r="I238">
+        <v>46013</v>
+      </c>
+      <c r="J238">
+        <v>80.63</v>
+      </c>
+      <c r="K238" t="s">
+        <v>23</v>
+      </c>
+      <c r="L238">
+        <v>202509</v>
+      </c>
+      <c r="M238">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>76512803</v>
+      </c>
+      <c r="B239" t="s">
+        <v>32</v>
+      </c>
+      <c r="C239" t="s">
+        <v>82</v>
+      </c>
+      <c r="D239" t="s">
+        <v>29</v>
+      </c>
+      <c r="E239" t="s">
+        <v>30</v>
+      </c>
+      <c r="F239">
+        <v>20477349243</v>
+      </c>
+      <c r="G239" t="s">
+        <v>528</v>
+      </c>
+      <c r="H239">
+        <v>20477349243</v>
+      </c>
+      <c r="I239">
+        <v>46010</v>
+      </c>
+      <c r="J239">
+        <v>1408.77</v>
+      </c>
+      <c r="K239" t="s">
+        <v>27</v>
+      </c>
+      <c r="N239" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>76474305</v>
+      </c>
+      <c r="B240" t="s">
+        <v>24</v>
+      </c>
+      <c r="C240">
+        <v>45992</v>
+      </c>
+      <c r="D240" t="s">
+        <v>20</v>
+      </c>
+      <c r="E240" t="s">
+        <v>21</v>
+      </c>
+      <c r="F240">
+        <v>20385016582</v>
+      </c>
+      <c r="G240" t="s">
+        <v>530</v>
+      </c>
+      <c r="H240">
+        <v>20385016582</v>
+      </c>
+      <c r="I240">
+        <v>46013</v>
+      </c>
+      <c r="J240">
+        <v>97.95</v>
+      </c>
+      <c r="K240" t="s">
+        <v>18</v>
+      </c>
+      <c r="L240">
+        <v>202510</v>
+      </c>
+      <c r="N240" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>76483928</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241">
+        <v>45992</v>
+      </c>
+      <c r="D241" t="s">
+        <v>16</v>
+      </c>
+      <c r="E241" t="s">
+        <v>17</v>
+      </c>
+      <c r="F241">
+        <v>20614218186</v>
+      </c>
+      <c r="G241" t="s">
+        <v>532</v>
+      </c>
+      <c r="H241">
+        <v>20614218186</v>
+      </c>
+      <c r="I241">
+        <v>46013</v>
+      </c>
+      <c r="J241">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K241" t="s">
+        <v>18</v>
+      </c>
+      <c r="L241">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>76477024</v>
+      </c>
+      <c r="B242" t="s">
+        <v>24</v>
+      </c>
+      <c r="C242">
+        <v>45992</v>
+      </c>
+      <c r="D242" t="s">
+        <v>20</v>
+      </c>
+      <c r="E242" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242">
+        <v>20603482272</v>
+      </c>
+      <c r="G242" t="s">
+        <v>533</v>
+      </c>
+      <c r="H242">
+        <v>20603482272</v>
+      </c>
+      <c r="I242">
+        <v>46013</v>
+      </c>
+      <c r="J242">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="K242" t="s">
+        <v>18</v>
+      </c>
+      <c r="L242">
+        <v>202510</v>
+      </c>
+      <c r="N242" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>76475906</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" t="s">
+        <v>82</v>
+      </c>
+      <c r="D243" t="s">
+        <v>20</v>
+      </c>
+      <c r="E243" t="s">
+        <v>21</v>
+      </c>
+      <c r="F243">
+        <v>20565549805</v>
+      </c>
+      <c r="G243" t="s">
+        <v>535</v>
+      </c>
+      <c r="H243">
+        <v>20565549805</v>
+      </c>
+      <c r="I243">
+        <v>46013</v>
+      </c>
+      <c r="J243">
+        <v>72</v>
+      </c>
+      <c r="K243" t="s">
+        <v>27</v>
+      </c>
+      <c r="M243">
+        <v>202510</v>
+      </c>
+      <c r="N243" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>76483142</v>
+      </c>
+      <c r="B244" t="s">
+        <v>15</v>
+      </c>
+      <c r="C244">
+        <v>45992</v>
+      </c>
+      <c r="D244" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" t="s">
+        <v>17</v>
+      </c>
+      <c r="F244">
+        <v>20603115873</v>
+      </c>
+      <c r="G244" t="s">
+        <v>537</v>
+      </c>
+      <c r="H244">
+        <v>20603115873</v>
+      </c>
+      <c r="I244">
+        <v>46013</v>
+      </c>
+      <c r="J244">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K244" t="s">
+        <v>18</v>
+      </c>
+      <c r="L244">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>76474914</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" t="s">
+        <v>82</v>
+      </c>
+      <c r="D245" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245" t="s">
+        <v>21</v>
+      </c>
+      <c r="F245">
+        <v>20513555475</v>
+      </c>
+      <c r="G245" t="s">
+        <v>538</v>
+      </c>
+      <c r="H245">
+        <v>20513555475</v>
+      </c>
+      <c r="I245">
+        <v>46013</v>
+      </c>
+      <c r="J245">
+        <v>74</v>
+      </c>
+      <c r="K245" t="s">
+        <v>18</v>
+      </c>
+      <c r="L245" t="s">
+        <v>67</v>
+      </c>
+      <c r="N245" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>76477253</v>
+      </c>
+      <c r="B246" t="s">
+        <v>19</v>
+      </c>
+      <c r="C246">
+        <v>45992</v>
+      </c>
+      <c r="D246" t="s">
+        <v>20</v>
+      </c>
+      <c r="E246" t="s">
+        <v>21</v>
+      </c>
+      <c r="F246">
+        <v>20604624291</v>
+      </c>
+      <c r="G246" t="s">
+        <v>540</v>
+      </c>
+      <c r="H246">
+        <v>20604624291</v>
+      </c>
+      <c r="I246">
+        <v>46013</v>
+      </c>
+      <c r="J246">
+        <v>232.43</v>
+      </c>
+      <c r="K246" t="s">
+        <v>18</v>
+      </c>
+      <c r="L246">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>76491320</v>
+      </c>
+      <c r="B247" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247">
+        <v>45992</v>
+      </c>
+      <c r="D247" t="s">
+        <v>50</v>
+      </c>
+      <c r="E247" t="s">
+        <v>51</v>
+      </c>
+      <c r="F247">
+        <v>28820961</v>
+      </c>
+      <c r="G247" t="s">
+        <v>541</v>
+      </c>
+      <c r="H247">
+        <v>10288209613</v>
+      </c>
+      <c r="I247">
+        <v>46013</v>
+      </c>
+      <c r="J247">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K247" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>76474940</v>
+      </c>
+      <c r="B248" t="s">
+        <v>19</v>
+      </c>
+      <c r="C248">
+        <v>45992</v>
+      </c>
+      <c r="D248" t="s">
+        <v>20</v>
+      </c>
+      <c r="E248" t="s">
+        <v>21</v>
+      </c>
+      <c r="F248">
+        <v>20514784362</v>
+      </c>
+      <c r="G248" t="s">
+        <v>542</v>
+      </c>
+      <c r="H248">
+        <v>20514784362</v>
+      </c>
+      <c r="I248">
+        <v>46013</v>
+      </c>
+      <c r="J248">
+        <v>120</v>
+      </c>
+      <c r="K248" t="s">
+        <v>18</v>
+      </c>
+      <c r="L248">
+        <v>202509</v>
+      </c>
+      <c r="N248" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7339B-BB0D-4894-B172-C62905ADA102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D69AD20-6188-4151-99A6-78E788136561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="560">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1658,6 +1658,57 @@
   </si>
   <si>
     <t>DISTRIBUIDORA E IMPORTADORA OSMAR SAC</t>
+  </si>
+  <si>
+    <t>BONANZAS MARINAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PADILLA &amp; PORTUGAL CONSTRUCTORES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>ALVARADO CAMPOS FAUSTINO FRANCISCO</t>
+  </si>
+  <si>
+    <t>202506|202507|202508|202509|202510</t>
+  </si>
+  <si>
+    <t>GRUPO ECOBAN SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>pmgonzales@hotmail.es , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>ESLAVA PARRA YIDDA BEATRIZ</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>SERVICIOS MULTIPLES VAN &amp; LU SOCIEDAD ANONIMA CERRADA - SERVICIOS MULTIPLES VAN &amp; LU S.A.C.</t>
+  </si>
+  <si>
+    <t>serviciosmultiplesvan.lu@gmail.com , enriqueta2910@gmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>TEJAS Y CHOCOTEJAS SRA. BUENDIA S.A.C.</t>
+  </si>
+  <si>
+    <t>MARCELA</t>
+  </si>
+  <si>
+    <t>FLORES TACAS VICTOR ALBERTO</t>
+  </si>
+  <si>
+    <t>202507|202508</t>
+  </si>
+  <si>
+    <t>comercialflores.v@gmail.com , conta_ferreyra@hotmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>URD INVERSIONES EI.R.L.</t>
   </si>
 </sst>
 </file>
@@ -2155,12 +2206,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2530,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O248"/>
+  <dimension ref="A1:O257"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O248"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2546,7 +2601,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46.21875" bestFit="1" customWidth="1"/>
@@ -2555,7 +2610,7 @@
     <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2635,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2627,7 +2682,7 @@
       <c r="H2">
         <v>20610144587</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>45996</v>
       </c>
       <c r="J2">
@@ -2668,7 +2723,7 @@
       <c r="H3">
         <v>20609541203</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>45996</v>
       </c>
       <c r="J3">
@@ -2709,7 +2764,7 @@
       <c r="H4">
         <v>20539496141</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>45996</v>
       </c>
       <c r="J4">
@@ -2753,7 +2808,7 @@
       <c r="H5">
         <v>20601831601</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>45996</v>
       </c>
       <c r="J5">
@@ -2794,7 +2849,7 @@
       <c r="H6">
         <v>20610144587</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>45996</v>
       </c>
       <c r="J6">
@@ -2835,7 +2890,7 @@
       <c r="H7">
         <v>20604813175</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>46002</v>
       </c>
       <c r="J7">
@@ -2876,7 +2931,7 @@
       <c r="H8">
         <v>10440881641</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>46002</v>
       </c>
       <c r="J8">
@@ -2920,7 +2975,7 @@
       <c r="H9">
         <v>20552774435</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>46002</v>
       </c>
       <c r="J9">
@@ -2961,7 +3016,7 @@
       <c r="H10">
         <v>20604729433</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>46002</v>
       </c>
       <c r="J10">
@@ -3005,7 +3060,7 @@
       <c r="H11">
         <v>20611003791</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>46002</v>
       </c>
       <c r="J11">
@@ -3046,7 +3101,7 @@
       <c r="H12">
         <v>20601397529</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>46002</v>
       </c>
       <c r="J12">
@@ -3087,7 +3142,7 @@
       <c r="H13">
         <v>20601449413</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>45997</v>
       </c>
       <c r="J13">
@@ -3128,7 +3183,7 @@
       <c r="H14">
         <v>20612220434</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>45997</v>
       </c>
       <c r="J14">
@@ -3172,7 +3227,7 @@
       <c r="H15">
         <v>20487548643</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>45996</v>
       </c>
       <c r="J15">
@@ -3213,7 +3268,7 @@
       <c r="H16">
         <v>20601780764</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>45997</v>
       </c>
       <c r="J16">
@@ -3254,7 +3309,7 @@
       <c r="H17">
         <v>20601260191</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>45999</v>
       </c>
       <c r="J17">
@@ -3298,7 +3353,7 @@
       <c r="H18">
         <v>20610169661</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>45997</v>
       </c>
       <c r="J18">
@@ -3339,7 +3394,7 @@
       <c r="H19">
         <v>20610254331</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>46001</v>
       </c>
       <c r="J19">
@@ -3383,7 +3438,7 @@
       <c r="H20">
         <v>20603010575</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>45997</v>
       </c>
       <c r="J20">
@@ -3424,7 +3479,7 @@
       <c r="H21">
         <v>20606070218</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>45997</v>
       </c>
       <c r="J21">
@@ -3468,7 +3523,7 @@
       <c r="H22">
         <v>20558353814</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>45998</v>
       </c>
       <c r="J22">
@@ -3512,7 +3567,7 @@
       <c r="H23">
         <v>20480038267</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>45997</v>
       </c>
       <c r="J23">
@@ -3553,7 +3608,7 @@
       <c r="H24">
         <v>10065985077</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>46001</v>
       </c>
       <c r="J24">
@@ -3594,7 +3649,7 @@
       <c r="H25">
         <v>20558373921</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>45997</v>
       </c>
       <c r="J25">
@@ -3635,7 +3690,7 @@
       <c r="H26">
         <v>20601811252</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>46001</v>
       </c>
       <c r="J26">
@@ -3679,7 +3734,7 @@
       <c r="H27">
         <v>20611910852</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>46001</v>
       </c>
       <c r="J27">
@@ -3723,7 +3778,7 @@
       <c r="H28">
         <v>20605050833</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>46001</v>
       </c>
       <c r="J28">
@@ -3767,7 +3822,7 @@
       <c r="H29">
         <v>10428413691</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>46001</v>
       </c>
       <c r="J29">
@@ -3808,7 +3863,7 @@
       <c r="H30">
         <v>20614146487</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>46001</v>
       </c>
       <c r="J30">
@@ -3849,7 +3904,7 @@
       <c r="H31">
         <v>10292797252</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>46001</v>
       </c>
       <c r="J31">
@@ -3890,7 +3945,7 @@
       <c r="H32">
         <v>20614227533</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>46001</v>
       </c>
       <c r="J32">
@@ -3931,7 +3986,7 @@
       <c r="H33">
         <v>20600034945</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <v>46001</v>
       </c>
       <c r="J33">
@@ -3972,7 +4027,7 @@
       <c r="H34">
         <v>20614049457</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="4">
         <v>46001</v>
       </c>
       <c r="J34">
@@ -4013,7 +4068,7 @@
       <c r="H35">
         <v>20613368362</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>46001</v>
       </c>
       <c r="J35">
@@ -4054,7 +4109,7 @@
       <c r="H36">
         <v>20614584247</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="4">
         <v>46001</v>
       </c>
       <c r="J36">
@@ -4098,7 +4153,7 @@
       <c r="H37">
         <v>20479467863</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <v>46002</v>
       </c>
       <c r="J37">
@@ -4142,7 +4197,7 @@
       <c r="H38">
         <v>20600824059</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="4">
         <v>46001</v>
       </c>
       <c r="J38">
@@ -4183,7 +4238,7 @@
       <c r="H39">
         <v>10083439861</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>46002</v>
       </c>
       <c r="J39">
@@ -4224,7 +4279,7 @@
       <c r="H40">
         <v>20555653922</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>46002</v>
       </c>
       <c r="J40">
@@ -4268,7 +4323,7 @@
       <c r="H41">
         <v>20614087880</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <v>46002</v>
       </c>
       <c r="J41">
@@ -4312,7 +4367,7 @@
       <c r="H42">
         <v>20601771706</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="4">
         <v>46002</v>
       </c>
       <c r="J42">
@@ -4353,7 +4408,7 @@
       <c r="H43">
         <v>20609804174</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="4">
         <v>46002</v>
       </c>
       <c r="J43">
@@ -4397,7 +4452,7 @@
       <c r="H44">
         <v>10415219321</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <v>46002</v>
       </c>
       <c r="J44">
@@ -4438,7 +4493,7 @@
       <c r="H45">
         <v>20605809503</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>46002</v>
       </c>
       <c r="J45">
@@ -4479,7 +4534,7 @@
       <c r="H46">
         <v>20610694668</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <v>46002</v>
       </c>
       <c r="J46">
@@ -4520,7 +4575,7 @@
       <c r="H47">
         <v>10425155011</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>46002</v>
       </c>
       <c r="J47">
@@ -4561,7 +4616,7 @@
       <c r="H48">
         <v>20563578824</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <v>46002</v>
       </c>
       <c r="J48">
@@ -4605,7 +4660,7 @@
       <c r="H49">
         <v>20556446084</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>46002</v>
       </c>
       <c r="J49">
@@ -4649,7 +4704,7 @@
       <c r="H50">
         <v>20501929892</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>46002</v>
       </c>
       <c r="J50">
@@ -4690,7 +4745,7 @@
       <c r="H51">
         <v>20522965287</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <v>46002</v>
       </c>
       <c r="J51">
@@ -4731,7 +4786,7 @@
       <c r="H52">
         <v>20608053795</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="4">
         <v>46002</v>
       </c>
       <c r="J52">
@@ -4772,7 +4827,7 @@
       <c r="H53">
         <v>20603513925</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="4">
         <v>46002</v>
       </c>
       <c r="J53">
@@ -4816,7 +4871,7 @@
       <c r="H54">
         <v>20408725586</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="4">
         <v>46002</v>
       </c>
       <c r="J54">
@@ -4857,7 +4912,7 @@
       <c r="H55">
         <v>20552248466</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <v>46003</v>
       </c>
       <c r="J55">
@@ -4901,7 +4956,7 @@
       <c r="H56">
         <v>20603083670</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="4">
         <v>46003</v>
       </c>
       <c r="J56">
@@ -4945,7 +5000,7 @@
       <c r="H57">
         <v>20608326325</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="4">
         <v>46003</v>
       </c>
       <c r="J57">
@@ -4986,7 +5041,7 @@
       <c r="H58">
         <v>20552314604</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="4">
         <v>46003</v>
       </c>
       <c r="J58">
@@ -5027,7 +5082,7 @@
       <c r="H59">
         <v>20534091053</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="4">
         <v>46003</v>
       </c>
       <c r="J59">
@@ -5068,7 +5123,7 @@
       <c r="H60">
         <v>20603336799</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="4">
         <v>46003</v>
       </c>
       <c r="J60">
@@ -5109,7 +5164,7 @@
       <c r="H61">
         <v>20608440608</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="4">
         <v>46001</v>
       </c>
       <c r="J61">
@@ -5153,7 +5208,7 @@
       <c r="H62">
         <v>20504169848</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <v>46003</v>
       </c>
       <c r="J62">
@@ -5194,7 +5249,7 @@
       <c r="H63">
         <v>10449740632</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="4">
         <v>46003</v>
       </c>
       <c r="J63">
@@ -5235,7 +5290,7 @@
       <c r="H64">
         <v>20601652600</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="4">
         <v>46003</v>
       </c>
       <c r="J64">
@@ -5276,7 +5331,7 @@
       <c r="H65">
         <v>20495932797</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="4">
         <v>46003</v>
       </c>
       <c r="J65">
@@ -5320,7 +5375,7 @@
       <c r="H66">
         <v>20505874529</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="4">
         <v>46003</v>
       </c>
       <c r="J66">
@@ -5364,7 +5419,7 @@
       <c r="H67">
         <v>20539694023</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="4">
         <v>46003</v>
       </c>
       <c r="J67">
@@ -5405,7 +5460,7 @@
       <c r="H68">
         <v>20603914296</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="4">
         <v>46003</v>
       </c>
       <c r="J68">
@@ -5446,7 +5501,7 @@
       <c r="H69">
         <v>20612463591</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="4">
         <v>46002</v>
       </c>
       <c r="J69">
@@ -5487,7 +5542,7 @@
       <c r="H70">
         <v>20521886871</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="4">
         <v>46003</v>
       </c>
       <c r="J70">
@@ -5531,7 +5586,7 @@
       <c r="H71">
         <v>10419776292</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="4">
         <v>46003</v>
       </c>
       <c r="J71">
@@ -5575,7 +5630,7 @@
       <c r="H72">
         <v>20608870424</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="4">
         <v>46003</v>
       </c>
       <c r="J72">
@@ -5619,7 +5674,7 @@
       <c r="H73">
         <v>20552425694</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="4">
         <v>46003</v>
       </c>
       <c r="J73">
@@ -5660,7 +5715,7 @@
       <c r="H74">
         <v>20606210176</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="4">
         <v>46003</v>
       </c>
       <c r="J74">
@@ -5704,7 +5759,7 @@
       <c r="H75">
         <v>20519499780</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="4">
         <v>46003</v>
       </c>
       <c r="J75">
@@ -5745,7 +5800,7 @@
       <c r="H76">
         <v>20607538906</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="4">
         <v>46003</v>
       </c>
       <c r="J76">
@@ -5789,7 +5844,7 @@
       <c r="H77">
         <v>20608910515</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="4">
         <v>46003</v>
       </c>
       <c r="J77">
@@ -5830,7 +5885,7 @@
       <c r="H78">
         <v>20612881660</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="4">
         <v>46003</v>
       </c>
       <c r="J78">
@@ -5874,7 +5929,7 @@
       <c r="H79">
         <v>10728980759</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="4">
         <v>46002</v>
       </c>
       <c r="J79">
@@ -5915,7 +5970,7 @@
       <c r="H80">
         <v>20517330702</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="4">
         <v>46004</v>
       </c>
       <c r="J80">
@@ -5956,7 +6011,7 @@
       <c r="H81">
         <v>20455671176</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="4">
         <v>46004</v>
       </c>
       <c r="J81">
@@ -6000,7 +6055,7 @@
       <c r="H82">
         <v>10407216038</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="4">
         <v>46004</v>
       </c>
       <c r="J82">
@@ -6041,7 +6096,7 @@
       <c r="H83">
         <v>10433716235</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="4">
         <v>46004</v>
       </c>
       <c r="J83">
@@ -6082,7 +6137,7 @@
       <c r="H84">
         <v>10092238275</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="4">
         <v>46006</v>
       </c>
       <c r="J84">
@@ -6120,7 +6175,7 @@
       <c r="H85">
         <v>20601897823</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="4">
         <v>46005</v>
       </c>
       <c r="J85">
@@ -6164,7 +6219,7 @@
       <c r="H86">
         <v>20514766119</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="4">
         <v>46006</v>
       </c>
       <c r="J86">
@@ -6205,7 +6260,7 @@
       <c r="H87">
         <v>20614073897</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="4">
         <v>46006</v>
       </c>
       <c r="J87">
@@ -6246,7 +6301,7 @@
       <c r="H88">
         <v>20600140451</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="4">
         <v>46003</v>
       </c>
       <c r="J88">
@@ -6287,7 +6342,7 @@
       <c r="H89">
         <v>20600406184</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="4">
         <v>46006</v>
       </c>
       <c r="J89">
@@ -6331,7 +6386,7 @@
       <c r="H90">
         <v>20609237288</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="4">
         <v>46006</v>
       </c>
       <c r="J90">
@@ -6372,7 +6427,7 @@
       <c r="H91">
         <v>20567288308</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="4">
         <v>46004</v>
       </c>
       <c r="J91">
@@ -6416,7 +6471,7 @@
       <c r="H92">
         <v>20608558030</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="4">
         <v>46006</v>
       </c>
       <c r="J92">
@@ -6460,7 +6515,7 @@
       <c r="H93">
         <v>20521604647</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="4">
         <v>46006</v>
       </c>
       <c r="J93">
@@ -6501,7 +6556,7 @@
       <c r="H94">
         <v>20569222703</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="4">
         <v>46006</v>
       </c>
       <c r="J94">
@@ -6545,7 +6600,7 @@
       <c r="H95">
         <v>10444257160</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="4">
         <v>46006</v>
       </c>
       <c r="J95">
@@ -6586,7 +6641,7 @@
       <c r="H96">
         <v>20600764102</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="4">
         <v>46006</v>
       </c>
       <c r="J96">
@@ -6630,7 +6685,7 @@
       <c r="H97">
         <v>20543925838</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="4">
         <v>46006</v>
       </c>
       <c r="J97">
@@ -6671,7 +6726,7 @@
       <c r="H98">
         <v>20556771074</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="4">
         <v>46006</v>
       </c>
       <c r="J98">
@@ -6715,7 +6770,7 @@
       <c r="H99">
         <v>20609524872</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="4">
         <v>46006</v>
       </c>
       <c r="J99">
@@ -6759,7 +6814,7 @@
       <c r="H100">
         <v>20601407699</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="4">
         <v>46006</v>
       </c>
       <c r="J100">
@@ -6803,7 +6858,7 @@
       <c r="H101">
         <v>20170417543</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="4">
         <v>46006</v>
       </c>
       <c r="J101">
@@ -6844,7 +6899,7 @@
       <c r="H102">
         <v>20302061425</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="4">
         <v>46006</v>
       </c>
       <c r="J102">
@@ -6885,7 +6940,7 @@
       <c r="H103">
         <v>20602745130</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="4">
         <v>46004</v>
       </c>
       <c r="J103">
@@ -6929,7 +6984,7 @@
       <c r="H104">
         <v>10297212325</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="4">
         <v>46004</v>
       </c>
       <c r="J104">
@@ -6970,7 +7025,7 @@
       <c r="H105">
         <v>20604322678</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="4">
         <v>46006</v>
       </c>
       <c r="J105">
@@ -7014,7 +7069,7 @@
       <c r="H106">
         <v>20509470848</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="4">
         <v>46006</v>
       </c>
       <c r="J106">
@@ -7055,7 +7110,7 @@
       <c r="H107">
         <v>20503983827</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="4">
         <v>46006</v>
       </c>
       <c r="J107">
@@ -7096,7 +7151,7 @@
       <c r="H108">
         <v>20606399279</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="4">
         <v>46006</v>
       </c>
       <c r="J108">
@@ -7137,7 +7192,7 @@
       <c r="H109">
         <v>20141011953</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="4">
         <v>46006</v>
       </c>
       <c r="J109">
@@ -7181,7 +7236,7 @@
       <c r="H110">
         <v>20455442495</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="4">
         <v>46006</v>
       </c>
       <c r="J110">
@@ -7228,7 +7283,7 @@
       <c r="H111">
         <v>20605953019</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="4">
         <v>46006</v>
       </c>
       <c r="J111">
@@ -7272,7 +7327,7 @@
       <c r="H112">
         <v>20535752932</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="4">
         <v>46006</v>
       </c>
       <c r="J112">
@@ -7316,7 +7371,7 @@
       <c r="H113">
         <v>20554115064</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="4">
         <v>46003</v>
       </c>
       <c r="J113">
@@ -7357,7 +7412,7 @@
       <c r="H114">
         <v>20556014028</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="4">
         <v>46003</v>
       </c>
       <c r="J114">
@@ -7398,7 +7453,7 @@
       <c r="H115">
         <v>20298537461</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="4">
         <v>46006</v>
       </c>
       <c r="J115">
@@ -7442,7 +7497,7 @@
       <c r="H116">
         <v>20529671980</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="4">
         <v>46006</v>
       </c>
       <c r="J116">
@@ -7486,7 +7541,7 @@
       <c r="H117">
         <v>20600149921</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="4">
         <v>46007</v>
       </c>
       <c r="J117">
@@ -7530,7 +7585,7 @@
       <c r="H118">
         <v>20603158734</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="4">
         <v>46007</v>
       </c>
       <c r="J118">
@@ -7571,7 +7626,7 @@
       <c r="H119">
         <v>20528181334</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="4">
         <v>46007</v>
       </c>
       <c r="J119">
@@ -7612,7 +7667,7 @@
       <c r="H120">
         <v>20563661136</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="4">
         <v>46007</v>
       </c>
       <c r="J120">
@@ -7653,7 +7708,7 @@
       <c r="H121">
         <v>20605710698</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="4">
         <v>46007</v>
       </c>
       <c r="J121">
@@ -7694,7 +7749,7 @@
       <c r="H122">
         <v>20514534251</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="4">
         <v>46007</v>
       </c>
       <c r="J122">
@@ -7735,7 +7790,7 @@
       <c r="H123">
         <v>20524055130</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="4">
         <v>46007</v>
       </c>
       <c r="J123">
@@ -7776,7 +7831,7 @@
       <c r="H124">
         <v>20511763089</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="4">
         <v>46007</v>
       </c>
       <c r="J124">
@@ -7820,7 +7875,7 @@
       <c r="H125">
         <v>20602028829</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="4">
         <v>46007</v>
       </c>
       <c r="J125">
@@ -7861,7 +7916,7 @@
       <c r="H126">
         <v>20602074553</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="4">
         <v>46007</v>
       </c>
       <c r="J126">
@@ -7902,7 +7957,7 @@
       <c r="H127">
         <v>20520837028</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="4">
         <v>46007</v>
       </c>
       <c r="J127">
@@ -7943,7 +7998,7 @@
       <c r="H128">
         <v>20601412714</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="4">
         <v>46007</v>
       </c>
       <c r="J128">
@@ -7984,7 +8039,7 @@
       <c r="H129">
         <v>20608355881</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="4">
         <v>46007</v>
       </c>
       <c r="J129">
@@ -8025,7 +8080,7 @@
       <c r="H130">
         <v>20565703570</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="4">
         <v>46007</v>
       </c>
       <c r="J130">
@@ -8066,7 +8121,7 @@
       <c r="H131">
         <v>20606139501</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="4">
         <v>46008</v>
       </c>
       <c r="J131">
@@ -8107,7 +8162,7 @@
       <c r="H132">
         <v>20492688151</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="4">
         <v>46008</v>
       </c>
       <c r="J132">
@@ -8151,7 +8206,7 @@
       <c r="H133">
         <v>20612242373</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="4">
         <v>46008</v>
       </c>
       <c r="J133">
@@ -8195,7 +8250,7 @@
       <c r="H134">
         <v>20601228336</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="4">
         <v>46008</v>
       </c>
       <c r="J134">
@@ -8236,7 +8291,7 @@
       <c r="H135">
         <v>20608123696</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="4">
         <v>46008</v>
       </c>
       <c r="J135">
@@ -8280,7 +8335,7 @@
       <c r="H136">
         <v>20601348994</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="4">
         <v>46008</v>
       </c>
       <c r="J136">
@@ -8321,7 +8376,7 @@
       <c r="H137">
         <v>20603712341</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="4">
         <v>46008</v>
       </c>
       <c r="J137">
@@ -8362,7 +8417,7 @@
       <c r="H138">
         <v>20606379588</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="4">
         <v>46007</v>
       </c>
       <c r="J138">
@@ -8403,7 +8458,7 @@
       <c r="H139">
         <v>20603066112</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="4">
         <v>46008</v>
       </c>
       <c r="J139">
@@ -8447,7 +8502,7 @@
       <c r="H140">
         <v>20604312583</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="4">
         <v>46008</v>
       </c>
       <c r="J140">
@@ -8491,7 +8546,7 @@
       <c r="H141">
         <v>10416733011</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="4">
         <v>46008</v>
       </c>
       <c r="J141">
@@ -8535,7 +8590,7 @@
       <c r="H142">
         <v>20607442810</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="4">
         <v>46008</v>
       </c>
       <c r="J142">
@@ -8576,7 +8631,7 @@
       <c r="H143">
         <v>20551438113</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="4">
         <v>46008</v>
       </c>
       <c r="J143">
@@ -8620,7 +8675,7 @@
       <c r="H144">
         <v>20601813832</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="4">
         <v>46002</v>
       </c>
       <c r="J144">
@@ -8661,7 +8716,7 @@
       <c r="H145">
         <v>20600319613</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="4">
         <v>46008</v>
       </c>
       <c r="J145">
@@ -8702,7 +8757,7 @@
       <c r="H146">
         <v>20612872008</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="4">
         <v>46008</v>
       </c>
       <c r="J146">
@@ -8746,7 +8801,7 @@
       <c r="H147">
         <v>10737430761</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="4">
         <v>46008</v>
       </c>
       <c r="J147">
@@ -8784,7 +8839,7 @@
       <c r="H148">
         <v>20545308038</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="4">
         <v>46008</v>
       </c>
       <c r="J148">
@@ -8828,7 +8883,7 @@
       <c r="H149">
         <v>20556935280</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="4">
         <v>46008</v>
       </c>
       <c r="J149">
@@ -8869,7 +8924,7 @@
       <c r="H150">
         <v>20602849636</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="4">
         <v>46008</v>
       </c>
       <c r="J150">
@@ -8913,7 +8968,7 @@
       <c r="H151">
         <v>20606753820</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="4">
         <v>46008</v>
       </c>
       <c r="J151">
@@ -8954,7 +9009,7 @@
       <c r="H152">
         <v>20605323881</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="4">
         <v>46008</v>
       </c>
       <c r="J152">
@@ -8995,7 +9050,7 @@
       <c r="H153">
         <v>20522752968</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="4">
         <v>46008</v>
       </c>
       <c r="J153">
@@ -9039,7 +9094,7 @@
       <c r="H154">
         <v>20607846457</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="4">
         <v>46008</v>
       </c>
       <c r="J154">
@@ -9080,7 +9135,7 @@
       <c r="H155">
         <v>20609109328</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="4">
         <v>46008</v>
       </c>
       <c r="J155">
@@ -9121,7 +9176,7 @@
       <c r="H156">
         <v>20528323571</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="4">
         <v>46008</v>
       </c>
       <c r="J156">
@@ -9162,7 +9217,7 @@
       <c r="H157">
         <v>20612117323</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="4">
         <v>46008</v>
       </c>
       <c r="J157">
@@ -9203,7 +9258,7 @@
       <c r="H158">
         <v>20609585987</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="4">
         <v>46009</v>
       </c>
       <c r="J158">
@@ -9244,7 +9299,7 @@
       <c r="H159">
         <v>20115683196</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="4">
         <v>46008</v>
       </c>
       <c r="J159">
@@ -9285,7 +9340,7 @@
       <c r="H160">
         <v>20611981997</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="4">
         <v>46008</v>
       </c>
       <c r="J160">
@@ -9326,7 +9381,7 @@
       <c r="H161">
         <v>20492994945</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="4">
         <v>46008</v>
       </c>
       <c r="J161">
@@ -9370,7 +9425,7 @@
       <c r="H162">
         <v>20600743156</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="4">
         <v>46008</v>
       </c>
       <c r="J162">
@@ -9408,7 +9463,7 @@
       <c r="H163">
         <v>20606518235</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="4">
         <v>46009</v>
       </c>
       <c r="J163">
@@ -9449,7 +9504,7 @@
       <c r="H164">
         <v>20605233890</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="4">
         <v>46002</v>
       </c>
       <c r="J164">
@@ -9487,7 +9542,7 @@
       <c r="H165">
         <v>20600002687</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="4">
         <v>46009</v>
       </c>
       <c r="J165">
@@ -9525,7 +9580,7 @@
       <c r="H166">
         <v>20602104631</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="4">
         <v>46009</v>
       </c>
       <c r="J166">
@@ -9566,7 +9621,7 @@
       <c r="H167">
         <v>20604243263</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="4">
         <v>46008</v>
       </c>
       <c r="J167">
@@ -9604,7 +9659,7 @@
       <c r="H168">
         <v>20610621351</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="4">
         <v>46009</v>
       </c>
       <c r="J168">
@@ -9645,7 +9700,7 @@
       <c r="H169">
         <v>20606102187</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="4">
         <v>46008</v>
       </c>
       <c r="J169">
@@ -9686,7 +9741,7 @@
       <c r="H170">
         <v>10404773327</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="4">
         <v>46009</v>
       </c>
       <c r="J170">
@@ -9730,7 +9785,7 @@
       <c r="H171">
         <v>20546319289</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="4">
         <v>46009</v>
       </c>
       <c r="J171">
@@ -9768,7 +9823,7 @@
       <c r="H172">
         <v>20604979855</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="4">
         <v>46009</v>
       </c>
       <c r="J172">
@@ -9809,7 +9864,7 @@
       <c r="H173">
         <v>20608908227</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="4">
         <v>46009</v>
       </c>
       <c r="J173">
@@ -9847,7 +9902,7 @@
       <c r="H174">
         <v>20170020155</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="4">
         <v>46009</v>
       </c>
       <c r="J174">
@@ -9885,7 +9940,7 @@
       <c r="H175">
         <v>10214447733</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="4">
         <v>46009</v>
       </c>
       <c r="J175">
@@ -9923,7 +9978,7 @@
       <c r="H176">
         <v>20608770985</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="4">
         <v>46009</v>
       </c>
       <c r="J176">
@@ -9961,7 +10016,7 @@
       <c r="H177">
         <v>20551916970</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="4">
         <v>46009</v>
       </c>
       <c r="J177">
@@ -10002,7 +10057,7 @@
       <c r="H178">
         <v>20478157976</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="4">
         <v>46009</v>
       </c>
       <c r="J178">
@@ -10043,7 +10098,7 @@
       <c r="H179">
         <v>20536161601</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="4">
         <v>46009</v>
       </c>
       <c r="J179">
@@ -10084,7 +10139,7 @@
       <c r="H180">
         <v>20545667194</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="4">
         <v>46009</v>
       </c>
       <c r="J180">
@@ -10122,7 +10177,7 @@
       <c r="H181">
         <v>20516094762</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="4">
         <v>46009</v>
       </c>
       <c r="J181">
@@ -10160,7 +10215,7 @@
       <c r="H182">
         <v>20602156398</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="4">
         <v>46009</v>
       </c>
       <c r="J182">
@@ -10198,7 +10253,7 @@
       <c r="H183">
         <v>20542353059</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="4">
         <v>46009</v>
       </c>
       <c r="J183">
@@ -10236,7 +10291,7 @@
       <c r="H184">
         <v>20552638337</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="4">
         <v>46009</v>
       </c>
       <c r="J184">
@@ -10274,7 +10329,7 @@
       <c r="H185">
         <v>20602426689</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="4">
         <v>46009</v>
       </c>
       <c r="J185">
@@ -10312,7 +10367,7 @@
       <c r="H186">
         <v>20488631242</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="4">
         <v>46009</v>
       </c>
       <c r="J186">
@@ -10350,7 +10405,7 @@
       <c r="H187">
         <v>20480586558</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="4">
         <v>46009</v>
       </c>
       <c r="J187">
@@ -10388,7 +10443,7 @@
       <c r="H188">
         <v>20614566842</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="4">
         <v>46009</v>
       </c>
       <c r="J188">
@@ -10429,7 +10484,7 @@
       <c r="H189">
         <v>20609463717</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="4">
         <v>46010</v>
       </c>
       <c r="J189">
@@ -10467,7 +10522,7 @@
       <c r="H190">
         <v>20558301261</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="4">
         <v>46010</v>
       </c>
       <c r="J190">
@@ -10508,7 +10563,7 @@
       <c r="H191">
         <v>20571464196</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="4">
         <v>46010</v>
       </c>
       <c r="J191">
@@ -10546,7 +10601,7 @@
       <c r="H192">
         <v>20613963881</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="4">
         <v>46009</v>
       </c>
       <c r="J192">
@@ -10584,7 +10639,7 @@
       <c r="H193">
         <v>20603720360</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="4">
         <v>46010</v>
       </c>
       <c r="J193">
@@ -10622,7 +10677,7 @@
       <c r="H194">
         <v>20603268394</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="4">
         <v>46010</v>
       </c>
       <c r="J194">
@@ -10660,7 +10715,7 @@
       <c r="H195">
         <v>20113539675</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="4">
         <v>46010</v>
       </c>
       <c r="J195">
@@ -10698,7 +10753,7 @@
       <c r="H196">
         <v>20611575166</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="4">
         <v>46010</v>
       </c>
       <c r="J196">
@@ -10736,7 +10791,7 @@
       <c r="H197">
         <v>10086062173</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="4">
         <v>46011</v>
       </c>
       <c r="J197">
@@ -10777,7 +10832,7 @@
       <c r="H198">
         <v>20539784871</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="4">
         <v>46011</v>
       </c>
       <c r="J198">
@@ -10815,7 +10870,7 @@
       <c r="H199">
         <v>20478124296</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="4">
         <v>46013</v>
       </c>
       <c r="J199">
@@ -10853,7 +10908,7 @@
       <c r="H200">
         <v>20137777305</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="4">
         <v>46013</v>
       </c>
       <c r="J200">
@@ -10891,7 +10946,7 @@
       <c r="H201">
         <v>10099419437</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="4">
         <v>46013</v>
       </c>
       <c r="J201">
@@ -10935,7 +10990,7 @@
       <c r="H202">
         <v>20549561269</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="4">
         <v>46011</v>
       </c>
       <c r="J202">
@@ -10973,16 +11028,16 @@
       <c r="H203">
         <v>20602304061</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="4">
         <v>46013</v>
       </c>
       <c r="J203">
         <v>66.099999999999994</v>
       </c>
       <c r="K203" t="s">
-        <v>27</v>
-      </c>
-      <c r="M203">
+        <v>18</v>
+      </c>
+      <c r="L203">
         <v>202510</v>
       </c>
     </row>
@@ -11011,7 +11066,7 @@
       <c r="H204">
         <v>20460419418</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="4">
         <v>46011</v>
       </c>
       <c r="J204">
@@ -11049,7 +11104,7 @@
       <c r="H205">
         <v>20611542721</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="4">
         <v>46010</v>
       </c>
       <c r="J205">
@@ -11087,7 +11142,7 @@
       <c r="H206">
         <v>20612721999</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="4">
         <v>46010</v>
       </c>
       <c r="J206">
@@ -11125,7 +11180,7 @@
       <c r="H207">
         <v>20600407148</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="4">
         <v>46010</v>
       </c>
       <c r="J207">
@@ -11163,7 +11218,7 @@
       <c r="H208">
         <v>20600950895</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="4">
         <v>46010</v>
       </c>
       <c r="J208">
@@ -11204,7 +11259,7 @@
       <c r="H209">
         <v>20607871729</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="4">
         <v>46010</v>
       </c>
       <c r="J209">
@@ -11245,7 +11300,7 @@
       <c r="H210">
         <v>20606671912</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="4">
         <v>46010</v>
       </c>
       <c r="J210">
@@ -11283,7 +11338,7 @@
       <c r="H211">
         <v>20613040146</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="4">
         <v>46010</v>
       </c>
       <c r="J211">
@@ -11321,7 +11376,7 @@
       <c r="H212">
         <v>10478026183</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="4">
         <v>46008</v>
       </c>
       <c r="J212">
@@ -11359,7 +11414,7 @@
       <c r="H213">
         <v>20612797243</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="4">
         <v>46010</v>
       </c>
       <c r="J213">
@@ -11397,7 +11452,7 @@
       <c r="H214">
         <v>20611056584</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="4">
         <v>46010</v>
       </c>
       <c r="J214">
@@ -11438,7 +11493,7 @@
       <c r="H215">
         <v>10028676676</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="4">
         <v>46010</v>
       </c>
       <c r="J215">
@@ -11479,7 +11534,7 @@
       <c r="H216">
         <v>20546007040</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="4">
         <v>46010</v>
       </c>
       <c r="J216">
@@ -11517,7 +11572,7 @@
       <c r="H217">
         <v>20608421671</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="4">
         <v>46010</v>
       </c>
       <c r="J217">
@@ -11558,7 +11613,7 @@
       <c r="H218">
         <v>20601442753</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="4">
         <v>46010</v>
       </c>
       <c r="J218">
@@ -11596,7 +11651,7 @@
       <c r="H219">
         <v>20611458411</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="4">
         <v>46010</v>
       </c>
       <c r="J219">
@@ -11634,7 +11689,7 @@
       <c r="H220">
         <v>20506112487</v>
       </c>
-      <c r="I220">
+      <c r="I220" s="4">
         <v>46010</v>
       </c>
       <c r="J220">
@@ -11672,7 +11727,7 @@
       <c r="H221">
         <v>20551106897</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="4">
         <v>46010</v>
       </c>
       <c r="J221">
@@ -11710,7 +11765,7 @@
       <c r="H222">
         <v>20612887447</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="4">
         <v>46010</v>
       </c>
       <c r="J222">
@@ -11748,7 +11803,7 @@
       <c r="H223">
         <v>20482477331</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="4">
         <v>46003</v>
       </c>
       <c r="J223">
@@ -11789,7 +11844,7 @@
       <c r="H224">
         <v>10410285016</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="4">
         <v>46010</v>
       </c>
       <c r="J224">
@@ -11827,7 +11882,7 @@
       <c r="H225">
         <v>20609406098</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="4">
         <v>46010</v>
       </c>
       <c r="J225">
@@ -11868,7 +11923,7 @@
       <c r="H226">
         <v>20602258913</v>
       </c>
-      <c r="I226">
+      <c r="I226" s="4">
         <v>46010</v>
       </c>
       <c r="J226">
@@ -11906,7 +11961,7 @@
       <c r="H227">
         <v>20611374128</v>
       </c>
-      <c r="I227">
+      <c r="I227" s="4">
         <v>46010</v>
       </c>
       <c r="J227">
@@ -11944,7 +11999,7 @@
       <c r="H228">
         <v>20612770621</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="4">
         <v>46003</v>
       </c>
       <c r="J228">
@@ -11982,7 +12037,7 @@
       <c r="H229">
         <v>20475236131</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="4">
         <v>46010</v>
       </c>
       <c r="J229">
@@ -12023,7 +12078,7 @@
       <c r="H230">
         <v>20603938080</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="4">
         <v>46010</v>
       </c>
       <c r="J230">
@@ -12061,7 +12116,7 @@
       <c r="H231">
         <v>20544097700</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="4">
         <v>46010</v>
       </c>
       <c r="J231">
@@ -12099,7 +12154,7 @@
       <c r="H232">
         <v>20608549332</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="4">
         <v>46011</v>
       </c>
       <c r="J232">
@@ -12140,7 +12195,7 @@
       <c r="H233">
         <v>20612704628</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="4">
         <v>46011</v>
       </c>
       <c r="J233">
@@ -12178,7 +12233,7 @@
       <c r="H234">
         <v>10407388998</v>
       </c>
-      <c r="I234">
+      <c r="I234" s="4">
         <v>46011</v>
       </c>
       <c r="J234">
@@ -12216,7 +12271,7 @@
       <c r="H235">
         <v>20604020329</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="4">
         <v>46013</v>
       </c>
       <c r="J235">
@@ -12254,7 +12309,7 @@
       <c r="H236">
         <v>20560037628</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="4">
         <v>46013</v>
       </c>
       <c r="J236">
@@ -12295,7 +12350,7 @@
       <c r="H237">
         <v>20600634071</v>
       </c>
-      <c r="I237">
+      <c r="I237" s="4">
         <v>46013</v>
       </c>
       <c r="J237">
@@ -12333,7 +12388,7 @@
       <c r="H238">
         <v>20608307410</v>
       </c>
-      <c r="I238">
+      <c r="I238" s="4">
         <v>46013</v>
       </c>
       <c r="J238">
@@ -12374,7 +12429,7 @@
       <c r="H239">
         <v>20477349243</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="4">
         <v>46010</v>
       </c>
       <c r="J239">
@@ -12412,7 +12467,7 @@
       <c r="H240">
         <v>20385016582</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="4">
         <v>46013</v>
       </c>
       <c r="J240">
@@ -12453,7 +12508,7 @@
       <c r="H241">
         <v>20614218186</v>
       </c>
-      <c r="I241">
+      <c r="I241" s="4">
         <v>46013</v>
       </c>
       <c r="J241">
@@ -12491,7 +12546,7 @@
       <c r="H242">
         <v>20603482272</v>
       </c>
-      <c r="I242">
+      <c r="I242" s="4">
         <v>46013</v>
       </c>
       <c r="J242">
@@ -12532,7 +12587,7 @@
       <c r="H243">
         <v>20565549805</v>
       </c>
-      <c r="I243">
+      <c r="I243" s="4">
         <v>46013</v>
       </c>
       <c r="J243">
@@ -12573,7 +12628,7 @@
       <c r="H244">
         <v>20603115873</v>
       </c>
-      <c r="I244">
+      <c r="I244" s="4">
         <v>46013</v>
       </c>
       <c r="J244">
@@ -12611,7 +12666,7 @@
       <c r="H245">
         <v>20513555475</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="4">
         <v>46013</v>
       </c>
       <c r="J245">
@@ -12652,7 +12707,7 @@
       <c r="H246">
         <v>20604624291</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="4">
         <v>46013</v>
       </c>
       <c r="J246">
@@ -12690,7 +12745,7 @@
       <c r="H247">
         <v>10288209613</v>
       </c>
-      <c r="I247">
+      <c r="I247" s="4">
         <v>46013</v>
       </c>
       <c r="J247">
@@ -12725,7 +12780,7 @@
       <c r="H248">
         <v>20514784362</v>
       </c>
-      <c r="I248">
+      <c r="I248" s="4">
         <v>46013</v>
       </c>
       <c r="J248">
@@ -12739,6 +12794,369 @@
       </c>
       <c r="N248" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>76475500</v>
+      </c>
+      <c r="B249" t="s">
+        <v>28</v>
+      </c>
+      <c r="C249" t="s">
+        <v>82</v>
+      </c>
+      <c r="D249" t="s">
+        <v>20</v>
+      </c>
+      <c r="E249" t="s">
+        <v>21</v>
+      </c>
+      <c r="F249">
+        <v>20546935320</v>
+      </c>
+      <c r="G249" t="s">
+        <v>543</v>
+      </c>
+      <c r="H249">
+        <v>20546935320</v>
+      </c>
+      <c r="I249" s="4">
+        <v>46013</v>
+      </c>
+      <c r="J249">
+        <v>69.11</v>
+      </c>
+      <c r="K249" t="s">
+        <v>27</v>
+      </c>
+      <c r="M249" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>76475600</v>
+      </c>
+      <c r="B250" t="s">
+        <v>22</v>
+      </c>
+      <c r="C250" t="s">
+        <v>82</v>
+      </c>
+      <c r="D250" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" t="s">
+        <v>21</v>
+      </c>
+      <c r="F250">
+        <v>20551300600</v>
+      </c>
+      <c r="G250" t="s">
+        <v>544</v>
+      </c>
+      <c r="H250">
+        <v>20551300600</v>
+      </c>
+      <c r="I250" s="4">
+        <v>46013</v>
+      </c>
+      <c r="J250">
+        <v>83.53</v>
+      </c>
+      <c r="K250" t="s">
+        <v>27</v>
+      </c>
+      <c r="M250">
+        <v>202510</v>
+      </c>
+      <c r="N250" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>76473963</v>
+      </c>
+      <c r="B251" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" t="s">
+        <v>82</v>
+      </c>
+      <c r="D251" t="s">
+        <v>20</v>
+      </c>
+      <c r="E251" t="s">
+        <v>21</v>
+      </c>
+      <c r="F251">
+        <v>28820579</v>
+      </c>
+      <c r="G251" t="s">
+        <v>546</v>
+      </c>
+      <c r="H251">
+        <v>10288205791</v>
+      </c>
+      <c r="I251" s="4">
+        <v>46013</v>
+      </c>
+      <c r="J251">
+        <v>153</v>
+      </c>
+      <c r="K251" t="s">
+        <v>18</v>
+      </c>
+      <c r="L251" t="s">
+        <v>547</v>
+      </c>
+      <c r="N251" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>76478005</v>
+      </c>
+      <c r="B252" t="s">
+        <v>24</v>
+      </c>
+      <c r="C252">
+        <v>45992</v>
+      </c>
+      <c r="D252" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252" t="s">
+        <v>21</v>
+      </c>
+      <c r="F252">
+        <v>20607978019</v>
+      </c>
+      <c r="G252" t="s">
+        <v>548</v>
+      </c>
+      <c r="H252">
+        <v>20607978019</v>
+      </c>
+      <c r="I252" s="4">
+        <v>46013</v>
+      </c>
+      <c r="J252">
+        <v>196.61</v>
+      </c>
+      <c r="K252" t="s">
+        <v>18</v>
+      </c>
+      <c r="L252">
+        <v>202510</v>
+      </c>
+      <c r="N252" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>76474021</v>
+      </c>
+      <c r="B253" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" t="s">
+        <v>82</v>
+      </c>
+      <c r="D253" t="s">
+        <v>20</v>
+      </c>
+      <c r="E253" t="s">
+        <v>21</v>
+      </c>
+      <c r="F253">
+        <v>42034235</v>
+      </c>
+      <c r="G253" t="s">
+        <v>550</v>
+      </c>
+      <c r="H253">
+        <v>10420342352</v>
+      </c>
+      <c r="I253" s="4">
+        <v>46013</v>
+      </c>
+      <c r="J253">
+        <v>68.77</v>
+      </c>
+      <c r="K253" t="s">
+        <v>27</v>
+      </c>
+      <c r="M253">
+        <v>202510</v>
+      </c>
+      <c r="N253" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>76477407</v>
+      </c>
+      <c r="B254" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254">
+        <v>45992</v>
+      </c>
+      <c r="D254" t="s">
+        <v>20</v>
+      </c>
+      <c r="E254" t="s">
+        <v>21</v>
+      </c>
+      <c r="F254">
+        <v>20605289411</v>
+      </c>
+      <c r="G254" t="s">
+        <v>552</v>
+      </c>
+      <c r="H254">
+        <v>20605289411</v>
+      </c>
+      <c r="I254" s="4">
+        <v>46014</v>
+      </c>
+      <c r="J254">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K254" t="s">
+        <v>18</v>
+      </c>
+      <c r="L254">
+        <v>202510</v>
+      </c>
+      <c r="N254" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>76475252</v>
+      </c>
+      <c r="B255" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" t="s">
+        <v>82</v>
+      </c>
+      <c r="D255" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" t="s">
+        <v>21</v>
+      </c>
+      <c r="F255">
+        <v>20535020249</v>
+      </c>
+      <c r="G255" t="s">
+        <v>554</v>
+      </c>
+      <c r="H255">
+        <v>20535020249</v>
+      </c>
+      <c r="I255" s="4">
+        <v>46010</v>
+      </c>
+      <c r="J255">
+        <v>407</v>
+      </c>
+      <c r="K255" t="s">
+        <v>18</v>
+      </c>
+      <c r="L255">
+        <v>202510</v>
+      </c>
+      <c r="N255" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>76474054</v>
+      </c>
+      <c r="B256" t="s">
+        <v>24</v>
+      </c>
+      <c r="C256">
+        <v>45992</v>
+      </c>
+      <c r="D256" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256" t="s">
+        <v>21</v>
+      </c>
+      <c r="F256">
+        <v>43201841</v>
+      </c>
+      <c r="G256" t="s">
+        <v>556</v>
+      </c>
+      <c r="H256">
+        <v>10432018411</v>
+      </c>
+      <c r="I256" s="4">
+        <v>46014</v>
+      </c>
+      <c r="J256">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="K256" t="s">
+        <v>18</v>
+      </c>
+      <c r="L256" t="s">
+        <v>557</v>
+      </c>
+      <c r="N256" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>76483534</v>
+      </c>
+      <c r="B257" t="s">
+        <v>64</v>
+      </c>
+      <c r="C257">
+        <v>45992</v>
+      </c>
+      <c r="D257" t="s">
+        <v>16</v>
+      </c>
+      <c r="E257" t="s">
+        <v>17</v>
+      </c>
+      <c r="F257">
+        <v>20608953630</v>
+      </c>
+      <c r="G257" t="s">
+        <v>559</v>
+      </c>
+      <c r="H257">
+        <v>20608953630</v>
+      </c>
+      <c r="I257" s="4">
+        <v>46013</v>
+      </c>
+      <c r="J257">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K257" t="s">
+        <v>18</v>
+      </c>
+      <c r="L257">
+        <v>202510</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D69AD20-6188-4151-99A6-78E788136561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F7AB9-C677-4CB1-A4B3-1A18E0E5A540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="568">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -439,9 +439,6 @@
     <t>MAMANI MOGROVEJO RONDOLFO</t>
   </si>
   <si>
-    <t>JAIME DE LA TORRE IDA ROGELIA</t>
-  </si>
-  <si>
     <t>CITEC SERVICES PERU S.A.C.</t>
   </si>
   <si>
@@ -1678,9 +1675,6 @@
     <t>GRUPO ECOBAN SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
   </si>
   <si>
-    <t>pmgonzales@hotmail.es , asesor30@gicoronado.com</t>
-  </si>
-  <si>
     <t>ESLAVA PARRA YIDDA BEATRIZ</t>
   </si>
   <si>
@@ -1709,6 +1703,36 @@
   </si>
   <si>
     <t>URD INVERSIONES EI.R.L.</t>
+  </si>
+  <si>
+    <t>CORPORACION GONZALEZ G</t>
+  </si>
+  <si>
+    <t>201205|201211|201306|201307|201308|201309|201310|201311|201312|201401|201402|201403|201404|201405|201406|201407|201408|201409|201410|201411|201412|201</t>
+  </si>
+  <si>
+    <t>CÁRDENAS AUTOMOTRIZ SOCIEDAD ANÓNIMA CERRADA</t>
+  </si>
+  <si>
+    <t>202506|202507</t>
+  </si>
+  <si>
+    <t>PERU CAPITAL CIEN S.A.C</t>
+  </si>
+  <si>
+    <t>SAINT-LÜSSE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>gmuro@saintlusse.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>LUBELU SERVICES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INSTITUTO MEDICO CASTILLA S.A.C.</t>
+  </si>
+  <si>
+    <t>maxadcg@gmail.com , asesor30@gicoronado.com</t>
   </si>
 </sst>
 </file>
@@ -2585,10 +2609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O257"/>
+  <dimension ref="A1:O262"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2:O262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2695,7 +2719,7 @@
         <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2736,7 +2760,7 @@
         <v>202510</v>
       </c>
       <c r="O3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2777,10 +2801,10 @@
         <v>202510</v>
       </c>
       <c r="N4" t="s">
+        <v>238</v>
+      </c>
+      <c r="O4" t="s">
         <v>239</v>
-      </c>
-      <c r="O4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2821,7 +2845,7 @@
         <v>202510</v>
       </c>
       <c r="O5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2862,7 +2886,7 @@
         <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2903,7 +2927,7 @@
         <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2944,10 +2968,10 @@
         <v>202510</v>
       </c>
       <c r="N8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O8" t="s">
         <v>243</v>
-      </c>
-      <c r="O8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2988,7 +3012,7 @@
         <v>202510</v>
       </c>
       <c r="O9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -3029,10 +3053,10 @@
         <v>202510</v>
       </c>
       <c r="N10" t="s">
+        <v>245</v>
+      </c>
+      <c r="O10" t="s">
         <v>246</v>
-      </c>
-      <c r="O10" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -3073,7 +3097,7 @@
         <v>202510</v>
       </c>
       <c r="O11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -3114,7 +3138,7 @@
         <v>202510</v>
       </c>
       <c r="O12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -3155,7 +3179,7 @@
         <v>202510</v>
       </c>
       <c r="O13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -3196,10 +3220,10 @@
         <v>202510</v>
       </c>
       <c r="N14" t="s">
+        <v>250</v>
+      </c>
+      <c r="O14" t="s">
         <v>251</v>
-      </c>
-      <c r="O14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -3240,7 +3264,7 @@
         <v>67</v>
       </c>
       <c r="O15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -3281,7 +3305,7 @@
         <v>202508</v>
       </c>
       <c r="O16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -3322,10 +3346,10 @@
         <v>202510</v>
       </c>
       <c r="N17" t="s">
+        <v>254</v>
+      </c>
+      <c r="O17" t="s">
         <v>255</v>
-      </c>
-      <c r="O17" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -3366,7 +3390,7 @@
         <v>202510</v>
       </c>
       <c r="O18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -3407,10 +3431,10 @@
         <v>202510</v>
       </c>
       <c r="N19" t="s">
+        <v>257</v>
+      </c>
+      <c r="O19" t="s">
         <v>258</v>
-      </c>
-      <c r="O19" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -3451,7 +3475,7 @@
         <v>202510</v>
       </c>
       <c r="O20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -3492,10 +3516,10 @@
         <v>202510</v>
       </c>
       <c r="N21" t="s">
+        <v>260</v>
+      </c>
+      <c r="O21" t="s">
         <v>261</v>
-      </c>
-      <c r="O21" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3536,10 +3560,10 @@
         <v>202510</v>
       </c>
       <c r="N22" t="s">
+        <v>262</v>
+      </c>
+      <c r="O22" t="s">
         <v>263</v>
-      </c>
-      <c r="O22" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -3580,7 +3604,7 @@
         <v>202510</v>
       </c>
       <c r="O23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -3621,7 +3645,7 @@
         <v>202510</v>
       </c>
       <c r="O24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -3662,7 +3686,7 @@
         <v>202510</v>
       </c>
       <c r="O25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -3703,10 +3727,10 @@
         <v>202510</v>
       </c>
       <c r="N26" t="s">
+        <v>266</v>
+      </c>
+      <c r="O26" t="s">
         <v>267</v>
-      </c>
-      <c r="O26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -3747,10 +3771,10 @@
         <v>202510</v>
       </c>
       <c r="N27" t="s">
+        <v>268</v>
+      </c>
+      <c r="O27" t="s">
         <v>269</v>
-      </c>
-      <c r="O27" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -3791,10 +3815,10 @@
         <v>202510</v>
       </c>
       <c r="N28" t="s">
+        <v>270</v>
+      </c>
+      <c r="O28" t="s">
         <v>271</v>
-      </c>
-      <c r="O28" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -3835,7 +3859,7 @@
         <v>69</v>
       </c>
       <c r="O29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3876,7 +3900,7 @@
         <v>202510</v>
       </c>
       <c r="O30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3917,7 +3941,7 @@
         <v>202510</v>
       </c>
       <c r="O31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3958,7 +3982,7 @@
         <v>202510</v>
       </c>
       <c r="O32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -3999,7 +4023,7 @@
         <v>67</v>
       </c>
       <c r="O33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -4040,7 +4064,7 @@
         <v>202510</v>
       </c>
       <c r="O34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -4081,7 +4105,7 @@
         <v>67</v>
       </c>
       <c r="O35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -4122,10 +4146,10 @@
         <v>202510</v>
       </c>
       <c r="N36" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s">
         <v>280</v>
-      </c>
-      <c r="O36" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -4166,10 +4190,10 @@
         <v>202510</v>
       </c>
       <c r="N37" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" t="s">
         <v>282</v>
-      </c>
-      <c r="O37" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -4210,7 +4234,7 @@
         <v>202510</v>
       </c>
       <c r="O38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -4251,7 +4275,7 @@
         <v>202510</v>
       </c>
       <c r="O39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -4292,10 +4316,10 @@
         <v>202510</v>
       </c>
       <c r="N40" t="s">
+        <v>285</v>
+      </c>
+      <c r="O40" t="s">
         <v>286</v>
-      </c>
-      <c r="O40" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -4336,10 +4360,10 @@
         <v>202510</v>
       </c>
       <c r="N41" t="s">
+        <v>287</v>
+      </c>
+      <c r="O41" t="s">
         <v>288</v>
-      </c>
-      <c r="O41" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -4380,7 +4404,7 @@
         <v>202510</v>
       </c>
       <c r="O42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -4421,10 +4445,10 @@
         <v>202510</v>
       </c>
       <c r="N43" t="s">
+        <v>290</v>
+      </c>
+      <c r="O43" t="s">
         <v>291</v>
-      </c>
-      <c r="O43" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -4465,7 +4489,7 @@
         <v>202505</v>
       </c>
       <c r="O44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -4506,7 +4530,7 @@
         <v>202510</v>
       </c>
       <c r="O45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -4547,7 +4571,7 @@
         <v>202510</v>
       </c>
       <c r="O46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -4588,7 +4612,7 @@
         <v>202510</v>
       </c>
       <c r="O47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -4623,16 +4647,19 @@
         <v>151.15</v>
       </c>
       <c r="K48" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="L48">
+        <v>202509</v>
+      </c>
+      <c r="M48">
+        <v>202510</v>
       </c>
       <c r="N48" t="s">
+        <v>296</v>
+      </c>
+      <c r="O48" t="s">
         <v>297</v>
-      </c>
-      <c r="O48" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -4673,10 +4700,10 @@
         <v>67</v>
       </c>
       <c r="N49" t="s">
+        <v>298</v>
+      </c>
+      <c r="O49" t="s">
         <v>299</v>
-      </c>
-      <c r="O49" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -4717,7 +4744,7 @@
         <v>202510</v>
       </c>
       <c r="O50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -4758,7 +4785,7 @@
         <v>202510</v>
       </c>
       <c r="O51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -4799,7 +4826,7 @@
         <v>202510</v>
       </c>
       <c r="O52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -4840,10 +4867,10 @@
         <v>202510</v>
       </c>
       <c r="N53" t="s">
+        <v>303</v>
+      </c>
+      <c r="O53" t="s">
         <v>304</v>
-      </c>
-      <c r="O53" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -4884,7 +4911,7 @@
         <v>202510</v>
       </c>
       <c r="O54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -4925,10 +4952,10 @@
         <v>202510</v>
       </c>
       <c r="N55" t="s">
+        <v>306</v>
+      </c>
+      <c r="O55" t="s">
         <v>307</v>
-      </c>
-      <c r="O55" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -4969,10 +4996,10 @@
         <v>202510</v>
       </c>
       <c r="N56" t="s">
+        <v>308</v>
+      </c>
+      <c r="O56" t="s">
         <v>309</v>
-      </c>
-      <c r="O56" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -5013,7 +5040,7 @@
         <v>67</v>
       </c>
       <c r="O57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -5054,7 +5081,7 @@
         <v>202510</v>
       </c>
       <c r="O58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -5095,7 +5122,7 @@
         <v>202510</v>
       </c>
       <c r="O59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -5136,7 +5163,7 @@
         <v>68</v>
       </c>
       <c r="O60" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -5177,10 +5204,10 @@
         <v>202510</v>
       </c>
       <c r="N61" t="s">
+        <v>313</v>
+      </c>
+      <c r="O61" t="s">
         <v>314</v>
-      </c>
-      <c r="O61" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -5221,7 +5248,7 @@
         <v>202510</v>
       </c>
       <c r="O62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -5262,7 +5289,7 @@
         <v>202510</v>
       </c>
       <c r="O63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -5303,7 +5330,7 @@
         <v>202510</v>
       </c>
       <c r="O64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -5344,10 +5371,10 @@
         <v>202510</v>
       </c>
       <c r="N65" t="s">
+        <v>318</v>
+      </c>
+      <c r="O65" t="s">
         <v>319</v>
-      </c>
-      <c r="O65" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -5388,10 +5415,10 @@
         <v>202510</v>
       </c>
       <c r="N66" t="s">
+        <v>320</v>
+      </c>
+      <c r="O66" t="s">
         <v>321</v>
-      </c>
-      <c r="O66" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -5432,7 +5459,7 @@
         <v>202509</v>
       </c>
       <c r="O67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -5473,7 +5500,7 @@
         <v>202510</v>
       </c>
       <c r="O68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -5514,7 +5541,7 @@
         <v>202510</v>
       </c>
       <c r="O69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -5555,10 +5582,10 @@
         <v>202510</v>
       </c>
       <c r="N70" t="s">
+        <v>325</v>
+      </c>
+      <c r="O70" t="s">
         <v>326</v>
-      </c>
-      <c r="O70" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -5599,10 +5626,10 @@
         <v>54</v>
       </c>
       <c r="N71" t="s">
+        <v>327</v>
+      </c>
+      <c r="O71" t="s">
         <v>328</v>
-      </c>
-      <c r="O71" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -5643,10 +5670,10 @@
         <v>202510</v>
       </c>
       <c r="N72" t="s">
+        <v>329</v>
+      </c>
+      <c r="O72" t="s">
         <v>330</v>
-      </c>
-      <c r="O72" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -5687,7 +5714,7 @@
         <v>202510</v>
       </c>
       <c r="O73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -5728,10 +5755,10 @@
         <v>202510</v>
       </c>
       <c r="N74" t="s">
+        <v>332</v>
+      </c>
+      <c r="O74" t="s">
         <v>333</v>
-      </c>
-      <c r="O74" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -5772,7 +5799,7 @@
         <v>127</v>
       </c>
       <c r="M75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -5813,10 +5840,10 @@
         <v>202510</v>
       </c>
       <c r="N76" t="s">
+        <v>335</v>
+      </c>
+      <c r="O76" t="s">
         <v>336</v>
-      </c>
-      <c r="O76" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -5857,7 +5884,7 @@
         <v>202510</v>
       </c>
       <c r="O77" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -5898,10 +5925,10 @@
         <v>202510</v>
       </c>
       <c r="N78" t="s">
+        <v>338</v>
+      </c>
+      <c r="O78" t="s">
         <v>339</v>
-      </c>
-      <c r="O78" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -5942,7 +5969,7 @@
         <v>202510</v>
       </c>
       <c r="O79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -5983,7 +6010,7 @@
         <v>202510</v>
       </c>
       <c r="O80" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -6024,10 +6051,10 @@
         <v>202510</v>
       </c>
       <c r="N81" t="s">
+        <v>341</v>
+      </c>
+      <c r="O81" t="s">
         <v>342</v>
-      </c>
-      <c r="O81" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -6068,7 +6095,7 @@
         <v>202510</v>
       </c>
       <c r="O82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -6109,45 +6136,45 @@
         <v>67</v>
       </c>
       <c r="O83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>76481914</v>
+        <v>76478665</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C84">
         <v>45992</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F84">
-        <v>9223827</v>
+        <v>20610662952</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>558</v>
       </c>
       <c r="H84">
-        <v>10092238275</v>
+        <v>20610662952</v>
       </c>
       <c r="I84" s="4">
-        <v>46006</v>
+        <v>46014</v>
       </c>
       <c r="J84">
-        <v>66.099999999999994</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s">
         <v>18</v>
       </c>
-      <c r="L84">
-        <v>202510</v>
+      <c r="L84" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -6170,7 +6197,7 @@
         <v>20601897823</v>
       </c>
       <c r="G85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H85">
         <v>20601897823</v>
@@ -6188,10 +6215,10 @@
         <v>202510</v>
       </c>
       <c r="N85" t="s">
+        <v>345</v>
+      </c>
+      <c r="O85" t="s">
         <v>346</v>
-      </c>
-      <c r="O85" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -6214,7 +6241,7 @@
         <v>20514766119</v>
       </c>
       <c r="G86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H86">
         <v>20514766119</v>
@@ -6232,7 +6259,7 @@
         <v>202510</v>
       </c>
       <c r="O86" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -6255,7 +6282,7 @@
         <v>20614073897</v>
       </c>
       <c r="G87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H87">
         <v>20614073897</v>
@@ -6273,7 +6300,7 @@
         <v>202510</v>
       </c>
       <c r="O87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -6296,7 +6323,7 @@
         <v>20600140451</v>
       </c>
       <c r="G88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H88">
         <v>20600140451</v>
@@ -6314,7 +6341,7 @@
         <v>202510</v>
       </c>
       <c r="O88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -6337,7 +6364,7 @@
         <v>20600406184</v>
       </c>
       <c r="G89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H89">
         <v>20600406184</v>
@@ -6355,10 +6382,10 @@
         <v>67</v>
       </c>
       <c r="N89" t="s">
+        <v>350</v>
+      </c>
+      <c r="O89" t="s">
         <v>351</v>
-      </c>
-      <c r="O89" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -6381,7 +6408,7 @@
         <v>20609237288</v>
       </c>
       <c r="G90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H90">
         <v>20609237288</v>
@@ -6399,7 +6426,7 @@
         <v>202510</v>
       </c>
       <c r="O90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -6440,10 +6467,10 @@
         <v>202510</v>
       </c>
       <c r="N91" t="s">
+        <v>353</v>
+      </c>
+      <c r="O91" t="s">
         <v>354</v>
-      </c>
-      <c r="O91" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -6466,7 +6493,7 @@
         <v>20608558030</v>
       </c>
       <c r="G92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H92">
         <v>20608558030</v>
@@ -6484,10 +6511,10 @@
         <v>202510</v>
       </c>
       <c r="N92" t="s">
+        <v>355</v>
+      </c>
+      <c r="O92" t="s">
         <v>356</v>
-      </c>
-      <c r="O92" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -6510,7 +6537,7 @@
         <v>20521604647</v>
       </c>
       <c r="G93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H93">
         <v>20521604647</v>
@@ -6528,7 +6555,7 @@
         <v>67</v>
       </c>
       <c r="O93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -6569,10 +6596,10 @@
         <v>202510</v>
       </c>
       <c r="N94" t="s">
+        <v>358</v>
+      </c>
+      <c r="O94" t="s">
         <v>359</v>
-      </c>
-      <c r="O94" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -6595,7 +6622,7 @@
         <v>44425716</v>
       </c>
       <c r="G95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H95">
         <v>10444257160</v>
@@ -6613,7 +6640,7 @@
         <v>202510</v>
       </c>
       <c r="O95" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -6636,7 +6663,7 @@
         <v>20600764102</v>
       </c>
       <c r="G96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H96">
         <v>20600764102</v>
@@ -6654,10 +6681,10 @@
         <v>202510</v>
       </c>
       <c r="N96" t="s">
+        <v>361</v>
+      </c>
+      <c r="O96" t="s">
         <v>362</v>
-      </c>
-      <c r="O96" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -6680,7 +6707,7 @@
         <v>20543925838</v>
       </c>
       <c r="G97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H97">
         <v>20543925838</v>
@@ -6698,7 +6725,7 @@
         <v>202510</v>
       </c>
       <c r="O97" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -6721,7 +6748,7 @@
         <v>20556771074</v>
       </c>
       <c r="G98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H98">
         <v>20556771074</v>
@@ -6739,10 +6766,10 @@
         <v>202510</v>
       </c>
       <c r="N98" t="s">
+        <v>364</v>
+      </c>
+      <c r="O98" t="s">
         <v>365</v>
-      </c>
-      <c r="O98" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -6765,7 +6792,7 @@
         <v>20609524872</v>
       </c>
       <c r="G99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H99">
         <v>20609524872</v>
@@ -6783,10 +6810,10 @@
         <v>67</v>
       </c>
       <c r="N99" t="s">
+        <v>366</v>
+      </c>
+      <c r="O99" t="s">
         <v>367</v>
-      </c>
-      <c r="O99" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -6809,7 +6836,7 @@
         <v>20601407699</v>
       </c>
       <c r="G100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H100">
         <v>20601407699</v>
@@ -6830,7 +6857,7 @@
         <v>202510</v>
       </c>
       <c r="O100" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -6853,7 +6880,7 @@
         <v>20170417543</v>
       </c>
       <c r="G101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H101">
         <v>20170417543</v>
@@ -6871,7 +6898,7 @@
         <v>199807</v>
       </c>
       <c r="O101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -6894,7 +6921,7 @@
         <v>20302061425</v>
       </c>
       <c r="G102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H102">
         <v>20302061425</v>
@@ -6912,7 +6939,7 @@
         <v>202510</v>
       </c>
       <c r="O102" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -6935,7 +6962,7 @@
         <v>20602745130</v>
       </c>
       <c r="G103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H103">
         <v>20602745130</v>
@@ -6953,10 +6980,10 @@
         <v>202510</v>
       </c>
       <c r="N103" t="s">
+        <v>371</v>
+      </c>
+      <c r="O103" t="s">
         <v>372</v>
-      </c>
-      <c r="O103" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -6979,7 +7006,7 @@
         <v>29721232</v>
       </c>
       <c r="G104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H104">
         <v>10297212325</v>
@@ -6997,7 +7024,7 @@
         <v>33</v>
       </c>
       <c r="O104" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -7020,7 +7047,7 @@
         <v>20604322678</v>
       </c>
       <c r="G105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H105">
         <v>20604322678</v>
@@ -7038,10 +7065,10 @@
         <v>202510</v>
       </c>
       <c r="N105" t="s">
+        <v>374</v>
+      </c>
+      <c r="O105" t="s">
         <v>375</v>
-      </c>
-      <c r="O105" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -7079,10 +7106,10 @@
         <v>23</v>
       </c>
       <c r="L106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -7105,7 +7132,7 @@
         <v>20503983827</v>
       </c>
       <c r="G107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H107">
         <v>20503983827</v>
@@ -7123,7 +7150,7 @@
         <v>202510</v>
       </c>
       <c r="O107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -7146,7 +7173,7 @@
         <v>20606399279</v>
       </c>
       <c r="G108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H108">
         <v>20606399279</v>
@@ -7164,7 +7191,7 @@
         <v>202510</v>
       </c>
       <c r="O108" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -7187,7 +7214,7 @@
         <v>20141011953</v>
       </c>
       <c r="G109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H109">
         <v>20141011953</v>
@@ -7205,10 +7232,10 @@
         <v>202510</v>
       </c>
       <c r="N109" t="s">
+        <v>379</v>
+      </c>
+      <c r="O109" t="s">
         <v>380</v>
-      </c>
-      <c r="O109" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -7231,7 +7258,7 @@
         <v>20455442495</v>
       </c>
       <c r="G110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H110">
         <v>20455442495</v>
@@ -7252,10 +7279,10 @@
         <v>202509</v>
       </c>
       <c r="N110" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O110" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -7278,7 +7305,7 @@
         <v>20605953019</v>
       </c>
       <c r="G111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H111">
         <v>20605953019</v>
@@ -7296,10 +7323,10 @@
         <v>202510</v>
       </c>
       <c r="N111" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O111" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -7340,10 +7367,10 @@
         <v>202510</v>
       </c>
       <c r="N112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O112" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
@@ -7366,7 +7393,7 @@
         <v>20554115064</v>
       </c>
       <c r="G113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H113">
         <v>20554115064</v>
@@ -7384,7 +7411,7 @@
         <v>202510</v>
       </c>
       <c r="O113" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -7407,7 +7434,7 @@
         <v>20556014028</v>
       </c>
       <c r="G114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H114">
         <v>20556014028</v>
@@ -7419,13 +7446,13 @@
         <v>486.13</v>
       </c>
       <c r="K114" t="s">
-        <v>27</v>
-      </c>
-      <c r="M114">
+        <v>18</v>
+      </c>
+      <c r="L114">
         <v>202510</v>
       </c>
       <c r="O114" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -7448,7 +7475,7 @@
         <v>20298537461</v>
       </c>
       <c r="G115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H115">
         <v>20298537461</v>
@@ -7466,10 +7493,10 @@
         <v>202510</v>
       </c>
       <c r="N115" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O115" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -7492,7 +7519,7 @@
         <v>20529671980</v>
       </c>
       <c r="G116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H116">
         <v>20529671980</v>
@@ -7510,10 +7537,10 @@
         <v>202510</v>
       </c>
       <c r="N116" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O116" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -7536,7 +7563,7 @@
         <v>20600149921</v>
       </c>
       <c r="G117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H117">
         <v>20600149921</v>
@@ -7554,10 +7581,10 @@
         <v>202510</v>
       </c>
       <c r="N117" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O117" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -7598,7 +7625,7 @@
         <v>202510</v>
       </c>
       <c r="O118" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -7621,7 +7648,7 @@
         <v>20528181334</v>
       </c>
       <c r="G119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H119">
         <v>20528181334</v>
@@ -7639,7 +7666,7 @@
         <v>67</v>
       </c>
       <c r="O119" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -7662,7 +7689,7 @@
         <v>20563661136</v>
       </c>
       <c r="G120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H120">
         <v>20563661136</v>
@@ -7680,7 +7707,7 @@
         <v>202510</v>
       </c>
       <c r="O120" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -7721,7 +7748,7 @@
         <v>202510</v>
       </c>
       <c r="O121" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -7729,7 +7756,7 @@
         <v>76498557</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
         <v>82</v>
@@ -7744,7 +7771,7 @@
         <v>20514534251</v>
       </c>
       <c r="G122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H122">
         <v>20514534251</v>
@@ -7762,7 +7789,7 @@
         <v>202510</v>
       </c>
       <c r="O122" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -7785,7 +7812,7 @@
         <v>20524055130</v>
       </c>
       <c r="G123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H123">
         <v>20524055130</v>
@@ -7803,7 +7830,7 @@
         <v>202510</v>
       </c>
       <c r="O123" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -7826,7 +7853,7 @@
         <v>20511763089</v>
       </c>
       <c r="G124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H124">
         <v>20511763089</v>
@@ -7844,10 +7871,10 @@
         <v>202510</v>
       </c>
       <c r="N124" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O124" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -7870,7 +7897,7 @@
         <v>20602028829</v>
       </c>
       <c r="G125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H125">
         <v>20602028829</v>
@@ -7888,7 +7915,7 @@
         <v>202510</v>
       </c>
       <c r="O125" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -7911,7 +7938,7 @@
         <v>20602074553</v>
       </c>
       <c r="G126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H126">
         <v>20602074553</v>
@@ -7929,7 +7956,7 @@
         <v>202510</v>
       </c>
       <c r="O126" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -7952,7 +7979,7 @@
         <v>20520837028</v>
       </c>
       <c r="G127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H127">
         <v>20520837028</v>
@@ -7970,7 +7997,7 @@
         <v>202510</v>
       </c>
       <c r="O127" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -7993,7 +8020,7 @@
         <v>20601412714</v>
       </c>
       <c r="G128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H128">
         <v>20601412714</v>
@@ -8011,7 +8038,7 @@
         <v>67</v>
       </c>
       <c r="O128" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -8034,7 +8061,7 @@
         <v>20608355881</v>
       </c>
       <c r="G129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H129">
         <v>20608355881</v>
@@ -8052,7 +8079,7 @@
         <v>202510</v>
       </c>
       <c r="O129" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -8075,7 +8102,7 @@
         <v>20565703570</v>
       </c>
       <c r="G130" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H130">
         <v>20565703570</v>
@@ -8093,7 +8120,7 @@
         <v>202510</v>
       </c>
       <c r="O130" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -8116,7 +8143,7 @@
         <v>20606139501</v>
       </c>
       <c r="G131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H131">
         <v>20606139501</v>
@@ -8134,7 +8161,7 @@
         <v>202510</v>
       </c>
       <c r="O131" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -8175,10 +8202,10 @@
         <v>202510</v>
       </c>
       <c r="N132" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O132" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -8201,7 +8228,7 @@
         <v>20612242373</v>
       </c>
       <c r="G133" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H133">
         <v>20612242373</v>
@@ -8219,10 +8246,10 @@
         <v>202510</v>
       </c>
       <c r="N133" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O133" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -8245,7 +8272,7 @@
         <v>20601228336</v>
       </c>
       <c r="G134" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H134">
         <v>20601228336</v>
@@ -8263,7 +8290,7 @@
         <v>202510</v>
       </c>
       <c r="O134" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -8286,7 +8313,7 @@
         <v>20608123696</v>
       </c>
       <c r="G135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H135">
         <v>20608123696</v>
@@ -8304,10 +8331,10 @@
         <v>202510</v>
       </c>
       <c r="N135" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O135" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -8330,7 +8357,7 @@
         <v>20601348994</v>
       </c>
       <c r="G136" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H136">
         <v>20601348994</v>
@@ -8348,7 +8375,7 @@
         <v>202510</v>
       </c>
       <c r="O136" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -8371,7 +8398,7 @@
         <v>20603712341</v>
       </c>
       <c r="G137" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H137">
         <v>20603712341</v>
@@ -8389,7 +8416,7 @@
         <v>202509</v>
       </c>
       <c r="O137" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -8430,7 +8457,7 @@
         <v>202510</v>
       </c>
       <c r="O138" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -8453,7 +8480,7 @@
         <v>20603066112</v>
       </c>
       <c r="G139" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H139">
         <v>20603066112</v>
@@ -8471,10 +8498,10 @@
         <v>202510</v>
       </c>
       <c r="N139" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O139" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -8497,7 +8524,7 @@
         <v>20604312583</v>
       </c>
       <c r="G140" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H140">
         <v>20604312583</v>
@@ -8515,10 +8542,10 @@
         <v>202510</v>
       </c>
       <c r="N140" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O140" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -8541,7 +8568,7 @@
         <v>41673301</v>
       </c>
       <c r="G141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H141">
         <v>10416733011</v>
@@ -8559,10 +8586,10 @@
         <v>67</v>
       </c>
       <c r="N141" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O141" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -8585,7 +8612,7 @@
         <v>20607442810</v>
       </c>
       <c r="G142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H142">
         <v>20607442810</v>
@@ -8603,7 +8630,7 @@
         <v>202510</v>
       </c>
       <c r="O142" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -8626,7 +8653,7 @@
         <v>20551438113</v>
       </c>
       <c r="G143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H143">
         <v>20551438113</v>
@@ -8644,10 +8671,10 @@
         <v>67</v>
       </c>
       <c r="N143" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O143" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -8670,7 +8697,7 @@
         <v>20601813832</v>
       </c>
       <c r="G144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H144">
         <v>20601813832</v>
@@ -8688,7 +8715,7 @@
         <v>202510</v>
       </c>
       <c r="O144" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -8711,7 +8738,7 @@
         <v>20600319613</v>
       </c>
       <c r="G145" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H145">
         <v>20600319613</v>
@@ -8729,7 +8756,7 @@
         <v>202510</v>
       </c>
       <c r="O145" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -8752,7 +8779,7 @@
         <v>20612872008</v>
       </c>
       <c r="G146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H146">
         <v>20612872008</v>
@@ -8770,10 +8797,10 @@
         <v>202509</v>
       </c>
       <c r="N146" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O146" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -8796,7 +8823,7 @@
         <v>73743076</v>
       </c>
       <c r="G147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H147">
         <v>10737430761</v>
@@ -8834,7 +8861,7 @@
         <v>20545308038</v>
       </c>
       <c r="G148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H148">
         <v>20545308038</v>
@@ -8852,10 +8879,10 @@
         <v>202510</v>
       </c>
       <c r="N148" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O148" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -8878,7 +8905,7 @@
         <v>20556935280</v>
       </c>
       <c r="G149" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H149">
         <v>20556935280</v>
@@ -8896,7 +8923,7 @@
         <v>202510</v>
       </c>
       <c r="O149" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -8919,7 +8946,7 @@
         <v>20602849636</v>
       </c>
       <c r="G150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H150">
         <v>20602849636</v>
@@ -8937,10 +8964,10 @@
         <v>67</v>
       </c>
       <c r="N150" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O150" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -8963,7 +8990,7 @@
         <v>20606753820</v>
       </c>
       <c r="G151" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H151">
         <v>20606753820</v>
@@ -8981,7 +9008,7 @@
         <v>202510</v>
       </c>
       <c r="O151" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -9004,7 +9031,7 @@
         <v>20605323881</v>
       </c>
       <c r="G152" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H152">
         <v>20605323881</v>
@@ -9022,7 +9049,7 @@
         <v>202510</v>
       </c>
       <c r="O152" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -9045,7 +9072,7 @@
         <v>20522752968</v>
       </c>
       <c r="G153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H153">
         <v>20522752968</v>
@@ -9063,10 +9090,10 @@
         <v>202510</v>
       </c>
       <c r="N153" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O153" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -9089,7 +9116,7 @@
         <v>20607846457</v>
       </c>
       <c r="G154" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H154">
         <v>20607846457</v>
@@ -9107,7 +9134,7 @@
         <v>202510</v>
       </c>
       <c r="O154" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -9130,7 +9157,7 @@
         <v>20609109328</v>
       </c>
       <c r="G155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H155">
         <v>20609109328</v>
@@ -9148,7 +9175,7 @@
         <v>202510</v>
       </c>
       <c r="O155" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -9171,7 +9198,7 @@
         <v>20528323571</v>
       </c>
       <c r="G156" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H156">
         <v>20528323571</v>
@@ -9189,7 +9216,7 @@
         <v>202510</v>
       </c>
       <c r="O156" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -9212,7 +9239,7 @@
         <v>20612117323</v>
       </c>
       <c r="G157" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H157">
         <v>20612117323</v>
@@ -9230,7 +9257,7 @@
         <v>33</v>
       </c>
       <c r="O157" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -9253,7 +9280,7 @@
         <v>20609585987</v>
       </c>
       <c r="G158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H158">
         <v>20609585987</v>
@@ -9271,7 +9298,7 @@
         <v>202510</v>
       </c>
       <c r="N158" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -9294,7 +9321,7 @@
         <v>20115683196</v>
       </c>
       <c r="G159" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H159">
         <v>20115683196</v>
@@ -9312,7 +9339,7 @@
         <v>202510</v>
       </c>
       <c r="N159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -9335,7 +9362,7 @@
         <v>20611981997</v>
       </c>
       <c r="G160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H160">
         <v>20611981997</v>
@@ -9353,7 +9380,7 @@
         <v>202510</v>
       </c>
       <c r="N160" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -9376,7 +9403,7 @@
         <v>20492994945</v>
       </c>
       <c r="G161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H161">
         <v>20492994945</v>
@@ -9397,7 +9424,7 @@
         <v>202510</v>
       </c>
       <c r="N161" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -9420,7 +9447,7 @@
         <v>20600743156</v>
       </c>
       <c r="G162" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H162">
         <v>20600743156</v>
@@ -9458,7 +9485,7 @@
         <v>20606518235</v>
       </c>
       <c r="G163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H163">
         <v>20606518235</v>
@@ -9476,7 +9503,7 @@
         <v>202510</v>
       </c>
       <c r="N163" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -9499,7 +9526,7 @@
         <v>20605233890</v>
       </c>
       <c r="G164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H164">
         <v>20605233890</v>
@@ -9511,10 +9538,10 @@
         <v>304.89999999999998</v>
       </c>
       <c r="K164" t="s">
-        <v>27</v>
-      </c>
-      <c r="M164" t="s">
-        <v>404</v>
+        <v>18</v>
+      </c>
+      <c r="L164" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -9537,7 +9564,7 @@
         <v>20600002687</v>
       </c>
       <c r="G165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H165">
         <v>20600002687</v>
@@ -9575,7 +9602,7 @@
         <v>20602104631</v>
       </c>
       <c r="G166" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H166">
         <v>20602104631</v>
@@ -9593,7 +9620,7 @@
         <v>202510</v>
       </c>
       <c r="N166" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -9616,7 +9643,7 @@
         <v>20604243263</v>
       </c>
       <c r="G167" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H167">
         <v>20604243263</v>
@@ -9654,7 +9681,7 @@
         <v>20610621351</v>
       </c>
       <c r="G168" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H168">
         <v>20610621351</v>
@@ -9672,7 +9699,7 @@
         <v>54</v>
       </c>
       <c r="N168" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -9695,7 +9722,7 @@
         <v>20606102187</v>
       </c>
       <c r="G169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H169">
         <v>20606102187</v>
@@ -9713,7 +9740,7 @@
         <v>202510</v>
       </c>
       <c r="N169" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -9736,7 +9763,7 @@
         <v>40477332</v>
       </c>
       <c r="G170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H170">
         <v>10404773327</v>
@@ -9751,13 +9778,13 @@
         <v>23</v>
       </c>
       <c r="L170" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M170" t="s">
         <v>54</v>
       </c>
       <c r="N170" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -9780,7 +9807,7 @@
         <v>20546319289</v>
       </c>
       <c r="G171" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H171">
         <v>20546319289</v>
@@ -9818,7 +9845,7 @@
         <v>20604979855</v>
       </c>
       <c r="G172" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H172">
         <v>20604979855</v>
@@ -9836,7 +9863,7 @@
         <v>202510</v>
       </c>
       <c r="N172" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -9859,7 +9886,7 @@
         <v>20608908227</v>
       </c>
       <c r="G173" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H173">
         <v>20608908227</v>
@@ -9897,7 +9924,7 @@
         <v>20170020155</v>
       </c>
       <c r="G174" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H174">
         <v>20170020155</v>
@@ -9935,7 +9962,7 @@
         <v>21444773</v>
       </c>
       <c r="G175" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H175">
         <v>10214447733</v>
@@ -9973,7 +10000,7 @@
         <v>20608770985</v>
       </c>
       <c r="G176" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H176">
         <v>20608770985</v>
@@ -10011,7 +10038,7 @@
         <v>20551916970</v>
       </c>
       <c r="G177" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H177">
         <v>20551916970</v>
@@ -10029,7 +10056,7 @@
         <v>202510</v>
       </c>
       <c r="N177" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
@@ -10052,7 +10079,7 @@
         <v>20478157976</v>
       </c>
       <c r="G178" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H178">
         <v>20478157976</v>
@@ -10070,7 +10097,7 @@
         <v>202510</v>
       </c>
       <c r="N178" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
@@ -10093,7 +10120,7 @@
         <v>20536161601</v>
       </c>
       <c r="G179" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H179">
         <v>20536161601</v>
@@ -10111,7 +10138,7 @@
         <v>202510</v>
       </c>
       <c r="N179" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
@@ -10134,7 +10161,7 @@
         <v>20545667194</v>
       </c>
       <c r="G180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H180">
         <v>20545667194</v>
@@ -10172,7 +10199,7 @@
         <v>20516094762</v>
       </c>
       <c r="G181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H181">
         <v>20516094762</v>
@@ -10210,7 +10237,7 @@
         <v>20602156398</v>
       </c>
       <c r="G182" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H182">
         <v>20602156398</v>
@@ -10248,7 +10275,7 @@
         <v>20542353059</v>
       </c>
       <c r="G183" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H183">
         <v>20542353059</v>
@@ -10286,7 +10313,7 @@
         <v>20552638337</v>
       </c>
       <c r="G184" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H184">
         <v>20552638337</v>
@@ -10324,7 +10351,7 @@
         <v>20602426689</v>
       </c>
       <c r="G185" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H185">
         <v>20602426689</v>
@@ -10362,7 +10389,7 @@
         <v>20488631242</v>
       </c>
       <c r="G186" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H186">
         <v>20488631242</v>
@@ -10400,7 +10427,7 @@
         <v>20480586558</v>
       </c>
       <c r="G187" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H187">
         <v>20480586558</v>
@@ -10438,7 +10465,7 @@
         <v>20614566842</v>
       </c>
       <c r="G188" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H188">
         <v>20614566842</v>
@@ -10456,7 +10483,7 @@
         <v>202510</v>
       </c>
       <c r="N188" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
@@ -10479,7 +10506,7 @@
         <v>20609463717</v>
       </c>
       <c r="G189" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H189">
         <v>20609463717</v>
@@ -10517,7 +10544,7 @@
         <v>20558301261</v>
       </c>
       <c r="G190" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H190">
         <v>20558301261</v>
@@ -10535,7 +10562,7 @@
         <v>202510</v>
       </c>
       <c r="N190" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
@@ -10558,7 +10585,7 @@
         <v>20571464196</v>
       </c>
       <c r="G191" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H191">
         <v>20571464196</v>
@@ -10596,7 +10623,7 @@
         <v>20613963881</v>
       </c>
       <c r="G192" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H192">
         <v>20613963881</v>
@@ -10634,7 +10661,7 @@
         <v>20603720360</v>
       </c>
       <c r="G193" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H193">
         <v>20603720360</v>
@@ -10672,7 +10699,7 @@
         <v>20603268394</v>
       </c>
       <c r="G194" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H194">
         <v>20603268394</v>
@@ -10710,7 +10737,7 @@
         <v>20113539675</v>
       </c>
       <c r="G195" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H195">
         <v>20113539675</v>
@@ -10748,7 +10775,7 @@
         <v>20611575166</v>
       </c>
       <c r="G196" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H196">
         <v>20611575166</v>
@@ -10786,7 +10813,7 @@
         <v>8606217</v>
       </c>
       <c r="G197" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H197">
         <v>10086062173</v>
@@ -10804,7 +10831,7 @@
         <v>202510</v>
       </c>
       <c r="N197" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -10827,7 +10854,7 @@
         <v>20539784871</v>
       </c>
       <c r="G198" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H198">
         <v>20539784871</v>
@@ -10865,7 +10892,7 @@
         <v>20478124296</v>
       </c>
       <c r="G199" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H199">
         <v>20478124296</v>
@@ -10903,7 +10930,7 @@
         <v>20137777305</v>
       </c>
       <c r="G200" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H200">
         <v>20137777305</v>
@@ -10915,9 +10942,9 @@
         <v>66.099999999999994</v>
       </c>
       <c r="K200" t="s">
-        <v>27</v>
-      </c>
-      <c r="M200">
+        <v>18</v>
+      </c>
+      <c r="L200">
         <v>200805</v>
       </c>
     </row>
@@ -10941,7 +10968,7 @@
         <v>9941943</v>
       </c>
       <c r="G201" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H201">
         <v>10099419437</v>
@@ -10956,13 +10983,13 @@
         <v>23</v>
       </c>
       <c r="L201" t="s">
+        <v>512</v>
+      </c>
+      <c r="M201">
+        <v>202510</v>
+      </c>
+      <c r="N201" t="s">
         <v>513</v>
-      </c>
-      <c r="M201">
-        <v>202510</v>
-      </c>
-      <c r="N201" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
@@ -10985,7 +11012,7 @@
         <v>20549561269</v>
       </c>
       <c r="G202" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H202">
         <v>20549561269</v>
@@ -11023,7 +11050,7 @@
         <v>20602304061</v>
       </c>
       <c r="G203" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H203">
         <v>20602304061</v>
@@ -11061,7 +11088,7 @@
         <v>20460419418</v>
       </c>
       <c r="G204" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H204">
         <v>20460419418</v>
@@ -11099,7 +11126,7 @@
         <v>20611542721</v>
       </c>
       <c r="G205" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H205">
         <v>20611542721</v>
@@ -11137,7 +11164,7 @@
         <v>20612721999</v>
       </c>
       <c r="G206" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H206">
         <v>20612721999</v>
@@ -11175,7 +11202,7 @@
         <v>20600407148</v>
       </c>
       <c r="G207" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H207">
         <v>20600407148</v>
@@ -11213,7 +11240,7 @@
         <v>20600950895</v>
       </c>
       <c r="G208" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H208">
         <v>20600950895</v>
@@ -11231,7 +11258,7 @@
         <v>202510</v>
       </c>
       <c r="N208" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
@@ -11254,7 +11281,7 @@
         <v>20607871729</v>
       </c>
       <c r="G209" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H209">
         <v>20607871729</v>
@@ -11272,7 +11299,7 @@
         <v>67</v>
       </c>
       <c r="N209" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
@@ -11295,7 +11322,7 @@
         <v>20606671912</v>
       </c>
       <c r="G210" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H210">
         <v>20606671912</v>
@@ -11333,7 +11360,7 @@
         <v>20613040146</v>
       </c>
       <c r="G211" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H211">
         <v>20613040146</v>
@@ -11348,7 +11375,7 @@
         <v>18</v>
       </c>
       <c r="L211" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
@@ -11371,7 +11398,7 @@
         <v>47802618</v>
       </c>
       <c r="G212" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H212">
         <v>10478026183</v>
@@ -11409,7 +11436,7 @@
         <v>20612797243</v>
       </c>
       <c r="G213" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H213">
         <v>20612797243</v>
@@ -11447,7 +11474,7 @@
         <v>20611056584</v>
       </c>
       <c r="G214" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H214">
         <v>20611056584</v>
@@ -11465,7 +11492,7 @@
         <v>202510</v>
       </c>
       <c r="N214" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
@@ -11488,7 +11515,7 @@
         <v>2867667</v>
       </c>
       <c r="G215" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H215">
         <v>10028676676</v>
@@ -11506,7 +11533,7 @@
         <v>69</v>
       </c>
       <c r="N215" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
@@ -11529,7 +11556,7 @@
         <v>20546007040</v>
       </c>
       <c r="G216" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H216">
         <v>20546007040</v>
@@ -11567,7 +11594,7 @@
         <v>20608421671</v>
       </c>
       <c r="G217" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H217">
         <v>20608421671</v>
@@ -11585,7 +11612,7 @@
         <v>67</v>
       </c>
       <c r="N217" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
@@ -11608,7 +11635,7 @@
         <v>20601442753</v>
       </c>
       <c r="G218" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H218">
         <v>20601442753</v>
@@ -11646,7 +11673,7 @@
         <v>20611458411</v>
       </c>
       <c r="G219" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H219">
         <v>20611458411</v>
@@ -11684,7 +11711,7 @@
         <v>20506112487</v>
       </c>
       <c r="G220" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H220">
         <v>20506112487</v>
@@ -11699,7 +11726,7 @@
         <v>27</v>
       </c>
       <c r="N220" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
@@ -11707,7 +11734,7 @@
         <v>76501464</v>
       </c>
       <c r="B221" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C221" t="s">
         <v>82</v>
@@ -11722,7 +11749,7 @@
         <v>20551106897</v>
       </c>
       <c r="G221" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H221">
         <v>20551106897</v>
@@ -11760,7 +11787,7 @@
         <v>20612887447</v>
       </c>
       <c r="G222" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H222">
         <v>20612887447</v>
@@ -11798,7 +11825,7 @@
         <v>20482477331</v>
       </c>
       <c r="G223" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H223">
         <v>20482477331</v>
@@ -11816,7 +11843,7 @@
         <v>202510</v>
       </c>
       <c r="N223" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
@@ -11839,7 +11866,7 @@
         <v>41028501</v>
       </c>
       <c r="G224" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H224">
         <v>10410285016</v>
@@ -11877,7 +11904,7 @@
         <v>20609406098</v>
       </c>
       <c r="G225" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H225">
         <v>20609406098</v>
@@ -11895,7 +11922,7 @@
         <v>202510</v>
       </c>
       <c r="N225" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
@@ -11918,7 +11945,7 @@
         <v>20602258913</v>
       </c>
       <c r="G226" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H226">
         <v>20602258913</v>
@@ -11956,7 +11983,7 @@
         <v>20611374128</v>
       </c>
       <c r="G227" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H227">
         <v>20611374128</v>
@@ -11994,7 +12021,7 @@
         <v>20612770621</v>
       </c>
       <c r="G228" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H228">
         <v>20612770621</v>
@@ -12032,7 +12059,7 @@
         <v>20475236131</v>
       </c>
       <c r="G229" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H229">
         <v>20475236131</v>
@@ -12050,7 +12077,7 @@
         <v>202505</v>
       </c>
       <c r="N229" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
@@ -12073,7 +12100,7 @@
         <v>20603938080</v>
       </c>
       <c r="G230" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H230">
         <v>20603938080</v>
@@ -12111,7 +12138,7 @@
         <v>20544097700</v>
       </c>
       <c r="G231" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H231">
         <v>20544097700</v>
@@ -12149,7 +12176,7 @@
         <v>20608549332</v>
       </c>
       <c r="G232" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H232">
         <v>20608549332</v>
@@ -12167,7 +12194,7 @@
         <v>202510</v>
       </c>
       <c r="N232" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
@@ -12190,7 +12217,7 @@
         <v>20612704628</v>
       </c>
       <c r="G233" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H233">
         <v>20612704628</v>
@@ -12228,7 +12255,7 @@
         <v>40738899</v>
       </c>
       <c r="G234" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H234">
         <v>10407388998</v>
@@ -12266,7 +12293,7 @@
         <v>20604020329</v>
       </c>
       <c r="G235" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H235">
         <v>20604020329</v>
@@ -12304,7 +12331,7 @@
         <v>20560037628</v>
       </c>
       <c r="G236" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H236">
         <v>20560037628</v>
@@ -12322,7 +12349,7 @@
         <v>202510</v>
       </c>
       <c r="N236" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
@@ -12345,7 +12372,7 @@
         <v>20600634071</v>
       </c>
       <c r="G237" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H237">
         <v>20600634071</v>
@@ -12383,7 +12410,7 @@
         <v>20608307410</v>
       </c>
       <c r="G238" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H238">
         <v>20608307410</v>
@@ -12424,7 +12451,7 @@
         <v>20477349243</v>
       </c>
       <c r="G239" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H239">
         <v>20477349243</v>
@@ -12436,10 +12463,13 @@
         <v>1408.77</v>
       </c>
       <c r="K239" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="L239" t="s">
+        <v>559</v>
       </c>
       <c r="N239" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
@@ -12462,7 +12492,7 @@
         <v>20385016582</v>
       </c>
       <c r="G240" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H240">
         <v>20385016582</v>
@@ -12480,7 +12510,7 @@
         <v>202510</v>
       </c>
       <c r="N240" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -12503,7 +12533,7 @@
         <v>20614218186</v>
       </c>
       <c r="G241" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H241">
         <v>20614218186</v>
@@ -12541,7 +12571,7 @@
         <v>20603482272</v>
       </c>
       <c r="G242" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H242">
         <v>20603482272</v>
@@ -12559,7 +12589,7 @@
         <v>202510</v>
       </c>
       <c r="N242" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
@@ -12582,7 +12612,7 @@
         <v>20565549805</v>
       </c>
       <c r="G243" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H243">
         <v>20565549805</v>
@@ -12594,13 +12624,13 @@
         <v>72</v>
       </c>
       <c r="K243" t="s">
-        <v>27</v>
-      </c>
-      <c r="M243">
+        <v>18</v>
+      </c>
+      <c r="L243">
         <v>202510</v>
       </c>
       <c r="N243" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -12623,7 +12653,7 @@
         <v>20603115873</v>
       </c>
       <c r="G244" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H244">
         <v>20603115873</v>
@@ -12661,7 +12691,7 @@
         <v>20513555475</v>
       </c>
       <c r="G245" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H245">
         <v>20513555475</v>
@@ -12679,7 +12709,7 @@
         <v>67</v>
       </c>
       <c r="N245" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -12702,7 +12732,7 @@
         <v>20604624291</v>
       </c>
       <c r="G246" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H246">
         <v>20604624291</v>
@@ -12740,7 +12770,7 @@
         <v>28820961</v>
       </c>
       <c r="G247" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H247">
         <v>10288209613</v>
@@ -12775,7 +12805,7 @@
         <v>20514784362</v>
       </c>
       <c r="G248" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H248">
         <v>20514784362</v>
@@ -12793,7 +12823,7 @@
         <v>202509</v>
       </c>
       <c r="N248" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -12816,7 +12846,7 @@
         <v>20546935320</v>
       </c>
       <c r="G249" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H249">
         <v>20546935320</v>
@@ -12828,9 +12858,9 @@
         <v>69.11</v>
       </c>
       <c r="K249" t="s">
-        <v>27</v>
-      </c>
-      <c r="M249" t="s">
+        <v>18</v>
+      </c>
+      <c r="L249" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12854,7 +12884,7 @@
         <v>20551300600</v>
       </c>
       <c r="G250" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H250">
         <v>20551300600</v>
@@ -12866,13 +12896,13 @@
         <v>83.53</v>
       </c>
       <c r="K250" t="s">
-        <v>27</v>
-      </c>
-      <c r="M250">
+        <v>18</v>
+      </c>
+      <c r="L250">
         <v>202510</v>
       </c>
       <c r="N250" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
@@ -12895,7 +12925,7 @@
         <v>28820579</v>
       </c>
       <c r="G251" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H251">
         <v>10288205791</v>
@@ -12910,10 +12940,10 @@
         <v>18</v>
       </c>
       <c r="L251" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N251" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
@@ -12936,7 +12966,7 @@
         <v>20607978019</v>
       </c>
       <c r="G252" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H252">
         <v>20607978019</v>
@@ -12952,9 +12982,6 @@
       </c>
       <c r="L252">
         <v>202510</v>
-      </c>
-      <c r="N252" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
@@ -12977,7 +13004,7 @@
         <v>42034235</v>
       </c>
       <c r="G253" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H253">
         <v>10420342352</v>
@@ -12989,13 +13016,13 @@
         <v>68.77</v>
       </c>
       <c r="K253" t="s">
-        <v>27</v>
-      </c>
-      <c r="M253">
+        <v>18</v>
+      </c>
+      <c r="L253">
         <v>202510</v>
       </c>
       <c r="N253" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
@@ -13018,7 +13045,7 @@
         <v>20605289411</v>
       </c>
       <c r="G254" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H254">
         <v>20605289411</v>
@@ -13036,7 +13063,7 @@
         <v>202510</v>
       </c>
       <c r="N254" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
@@ -13059,7 +13086,7 @@
         <v>20535020249</v>
       </c>
       <c r="G255" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H255">
         <v>20535020249</v>
@@ -13077,7 +13104,7 @@
         <v>202510</v>
       </c>
       <c r="N255" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
@@ -13100,7 +13127,7 @@
         <v>43201841</v>
       </c>
       <c r="G256" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H256">
         <v>10432018411</v>
@@ -13115,13 +13142,13 @@
         <v>18</v>
       </c>
       <c r="L256" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N256" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>76483534</v>
       </c>
@@ -13141,7 +13168,7 @@
         <v>20608953630</v>
       </c>
       <c r="G257" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H257">
         <v>20608953630</v>
@@ -13157,6 +13184,202 @@
       </c>
       <c r="L257">
         <v>202510</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>76483231</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258">
+        <v>45992</v>
+      </c>
+      <c r="D258" t="s">
+        <v>16</v>
+      </c>
+      <c r="E258" t="s">
+        <v>17</v>
+      </c>
+      <c r="F258">
+        <v>20604156174</v>
+      </c>
+      <c r="G258" t="s">
+        <v>560</v>
+      </c>
+      <c r="H258">
+        <v>20604156174</v>
+      </c>
+      <c r="I258" s="4">
+        <v>46014</v>
+      </c>
+      <c r="J258">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K258" t="s">
+        <v>27</v>
+      </c>
+      <c r="M258" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>76476886</v>
+      </c>
+      <c r="B259" t="s">
+        <v>120</v>
+      </c>
+      <c r="C259" t="s">
+        <v>82</v>
+      </c>
+      <c r="D259" t="s">
+        <v>20</v>
+      </c>
+      <c r="E259" t="s">
+        <v>21</v>
+      </c>
+      <c r="F259">
+        <v>20603030592</v>
+      </c>
+      <c r="G259" t="s">
+        <v>562</v>
+      </c>
+      <c r="H259">
+        <v>20603030592</v>
+      </c>
+      <c r="I259" s="4">
+        <v>46013</v>
+      </c>
+      <c r="J259">
+        <v>125.71</v>
+      </c>
+      <c r="K259" t="s">
+        <v>18</v>
+      </c>
+      <c r="L259">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>76477023</v>
+      </c>
+      <c r="B260" t="s">
+        <v>24</v>
+      </c>
+      <c r="C260">
+        <v>45992</v>
+      </c>
+      <c r="D260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" t="s">
+        <v>21</v>
+      </c>
+      <c r="F260">
+        <v>20603477864</v>
+      </c>
+      <c r="G260" t="s">
+        <v>563</v>
+      </c>
+      <c r="H260">
+        <v>20603477864</v>
+      </c>
+      <c r="I260" s="4">
+        <v>46009</v>
+      </c>
+      <c r="J260">
+        <v>67.819999999999993</v>
+      </c>
+      <c r="K260" t="s">
+        <v>18</v>
+      </c>
+      <c r="L260">
+        <v>202510</v>
+      </c>
+      <c r="N260" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>76474327</v>
+      </c>
+      <c r="B261" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261">
+        <v>45992</v>
+      </c>
+      <c r="D261" t="s">
+        <v>20</v>
+      </c>
+      <c r="E261" t="s">
+        <v>21</v>
+      </c>
+      <c r="F261">
+        <v>20393365537</v>
+      </c>
+      <c r="G261" t="s">
+        <v>565</v>
+      </c>
+      <c r="H261">
+        <v>20393365537</v>
+      </c>
+      <c r="I261" s="4">
+        <v>46014</v>
+      </c>
+      <c r="J261">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K261" t="s">
+        <v>18</v>
+      </c>
+      <c r="L261">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>76476277</v>
+      </c>
+      <c r="B262" t="s">
+        <v>24</v>
+      </c>
+      <c r="C262">
+        <v>45992</v>
+      </c>
+      <c r="D262" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" t="s">
+        <v>21</v>
+      </c>
+      <c r="F262">
+        <v>20601080428</v>
+      </c>
+      <c r="G262" t="s">
+        <v>566</v>
+      </c>
+      <c r="H262">
+        <v>20601080428</v>
+      </c>
+      <c r="I262" s="4">
+        <v>46014</v>
+      </c>
+      <c r="J262">
+        <v>97.91</v>
+      </c>
+      <c r="K262" t="s">
+        <v>18</v>
+      </c>
+      <c r="L262">
+        <v>202510</v>
+      </c>
+      <c r="N262" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F7AB9-C677-4CB1-A4B3-1A18E0E5A540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631CED9E-A25B-4FBE-963F-1D7206641325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="cierre_pagos_202511_ (7)" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cierre_pagos_202511_ (7)'!$A$1:$O$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cierre_pagos_202511_ (7)'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="572">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1733,6 +1733,18 @@
   </si>
   <si>
     <t>maxadcg@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>MARSA &amp; INFRAESTRUCTURAS S.A.C.</t>
+  </si>
+  <si>
+    <t>DEL ALCÁZAR CABREJOS FIORELLA MARILYA</t>
+  </si>
+  <si>
+    <t>ENGINEERING GROUP J &amp; B S.A.C.</t>
+  </si>
+  <si>
+    <t>LA FINCA SAC.</t>
   </si>
 </sst>
 </file>
@@ -2609,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O262"/>
+  <dimension ref="A1:O265"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O262"/>
+      <selection activeCell="A2" sqref="A2:O265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13382,6 +13394,123 @@
         <v>567</v>
       </c>
     </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>76477724</v>
+      </c>
+      <c r="B263" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" t="s">
+        <v>82</v>
+      </c>
+      <c r="D263" t="s">
+        <v>20</v>
+      </c>
+      <c r="E263" t="s">
+        <v>21</v>
+      </c>
+      <c r="F263">
+        <v>20606561891</v>
+      </c>
+      <c r="G263" t="s">
+        <v>568</v>
+      </c>
+      <c r="H263">
+        <v>20606561891</v>
+      </c>
+      <c r="I263" s="4">
+        <v>46014</v>
+      </c>
+      <c r="J263">
+        <v>67</v>
+      </c>
+      <c r="K263" t="s">
+        <v>18</v>
+      </c>
+      <c r="L263">
+        <v>202510</v>
+      </c>
+      <c r="N263" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>76483490</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264">
+        <v>45992</v>
+      </c>
+      <c r="D264" t="s">
+        <v>16</v>
+      </c>
+      <c r="E264" t="s">
+        <v>17</v>
+      </c>
+      <c r="F264">
+        <v>20608413848</v>
+      </c>
+      <c r="G264" t="s">
+        <v>570</v>
+      </c>
+      <c r="H264">
+        <v>20608413848</v>
+      </c>
+      <c r="I264" s="4">
+        <v>46014</v>
+      </c>
+      <c r="J264">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K264" t="s">
+        <v>18</v>
+      </c>
+      <c r="L264" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>76474401</v>
+      </c>
+      <c r="B265" t="s">
+        <v>24</v>
+      </c>
+      <c r="C265">
+        <v>45992</v>
+      </c>
+      <c r="D265" t="s">
+        <v>20</v>
+      </c>
+      <c r="E265" t="s">
+        <v>21</v>
+      </c>
+      <c r="F265">
+        <v>20446534948</v>
+      </c>
+      <c r="G265" t="s">
+        <v>571</v>
+      </c>
+      <c r="H265">
+        <v>20446534948</v>
+      </c>
+      <c r="I265" s="4">
+        <v>45995</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265" t="s">
+        <v>18</v>
+      </c>
+      <c r="L265">
+        <v>202510</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631CED9E-A25B-4FBE-963F-1D7206641325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7181DD27-3E9D-4559-81F7-60BCC0D36926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="652">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1714,9 +1714,6 @@
     <t>CÁRDENAS AUTOMOTRIZ SOCIEDAD ANÓNIMA CERRADA</t>
   </si>
   <si>
-    <t>202506|202507</t>
-  </si>
-  <si>
     <t>PERU CAPITAL CIEN S.A.C</t>
   </si>
   <si>
@@ -1744,7 +1741,250 @@
     <t>ENGINEERING GROUP J &amp; B S.A.C.</t>
   </si>
   <si>
-    <t>LA FINCA SAC.</t>
+    <t>F001-00035808</t>
+  </si>
+  <si>
+    <t>F001-00035809</t>
+  </si>
+  <si>
+    <t>F001-00035810</t>
+  </si>
+  <si>
+    <t>F001-00035813</t>
+  </si>
+  <si>
+    <t>F001-00035816</t>
+  </si>
+  <si>
+    <t>F001-00035817</t>
+  </si>
+  <si>
+    <t>F001-00035819</t>
+  </si>
+  <si>
+    <t>F001-00035820</t>
+  </si>
+  <si>
+    <t>F001-00035821</t>
+  </si>
+  <si>
+    <t>F001-00035822</t>
+  </si>
+  <si>
+    <t>F001-00035693</t>
+  </si>
+  <si>
+    <t>F001-00035824</t>
+  </si>
+  <si>
+    <t>F001-00035825</t>
+  </si>
+  <si>
+    <t>F001-00035826</t>
+  </si>
+  <si>
+    <t>F001-00035833</t>
+  </si>
+  <si>
+    <t>F001-00035697</t>
+  </si>
+  <si>
+    <t>F001-00035834</t>
+  </si>
+  <si>
+    <t>F001-00035690</t>
+  </si>
+  <si>
+    <t>F001-00035698</t>
+  </si>
+  <si>
+    <t>F001-00035835</t>
+  </si>
+  <si>
+    <t>F001-00035836</t>
+  </si>
+  <si>
+    <t>F001-00035837</t>
+  </si>
+  <si>
+    <t>F001-00035839</t>
+  </si>
+  <si>
+    <t>F001-00035840</t>
+  </si>
+  <si>
+    <t>F001-00035841</t>
+  </si>
+  <si>
+    <t>F001-00035844</t>
+  </si>
+  <si>
+    <t>F001-00035845</t>
+  </si>
+  <si>
+    <t>F001-00035763</t>
+  </si>
+  <si>
+    <t>F001-00035850</t>
+  </si>
+  <si>
+    <t>F001-00035851</t>
+  </si>
+  <si>
+    <t>F001-00035694</t>
+  </si>
+  <si>
+    <t>F001-00035852</t>
+  </si>
+  <si>
+    <t>F001-00035853</t>
+  </si>
+  <si>
+    <t>F001-00035897</t>
+  </si>
+  <si>
+    <t>F001-00035854</t>
+  </si>
+  <si>
+    <t>F001-00035855</t>
+  </si>
+  <si>
+    <t>F001-00035856</t>
+  </si>
+  <si>
+    <t>F001-00035859</t>
+  </si>
+  <si>
+    <t>F001-00035860</t>
+  </si>
+  <si>
+    <t>F001-00035791</t>
+  </si>
+  <si>
+    <t>F001-00035861</t>
+  </si>
+  <si>
+    <t>F001-00035862</t>
+  </si>
+  <si>
+    <t>F001-00035865</t>
+  </si>
+  <si>
+    <t>F001-00035866</t>
+  </si>
+  <si>
+    <t>F001-00035867</t>
+  </si>
+  <si>
+    <t>F001-00035870</t>
+  </si>
+  <si>
+    <t>F001-00035871</t>
+  </si>
+  <si>
+    <t>F001-00035873</t>
+  </si>
+  <si>
+    <t>F001-00035874</t>
+  </si>
+  <si>
+    <t>F001-00035875</t>
+  </si>
+  <si>
+    <t>F001-00035876</t>
+  </si>
+  <si>
+    <t>F001-00035878</t>
+  </si>
+  <si>
+    <t>F001-00035879</t>
+  </si>
+  <si>
+    <t>F001-00035880</t>
+  </si>
+  <si>
+    <t>F001-00035882</t>
+  </si>
+  <si>
+    <t>F001-00035883</t>
+  </si>
+  <si>
+    <t>F001-00035884</t>
+  </si>
+  <si>
+    <t>F001-00035886</t>
+  </si>
+  <si>
+    <t>F001-00035887</t>
+  </si>
+  <si>
+    <t>F001-00035889</t>
+  </si>
+  <si>
+    <t>F001-00035890</t>
+  </si>
+  <si>
+    <t>F001-00035891</t>
+  </si>
+  <si>
+    <t>F001-00035892</t>
+  </si>
+  <si>
+    <t>F001-00035893</t>
+  </si>
+  <si>
+    <t>F001-00035894</t>
+  </si>
+  <si>
+    <t>F001-00035896</t>
+  </si>
+  <si>
+    <t>TAPIA QUINTANA ANDRES VICENTE</t>
+  </si>
+  <si>
+    <t>PROGRAMAS PSICOEDUCATIVOS DEL PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>DIAZ PIZANGO CESAR</t>
+  </si>
+  <si>
+    <t>202504|202505</t>
+  </si>
+  <si>
+    <t>VILLA EXPRESS S.A.C.</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA E INVERSIONES L &amp; K S.A.C.</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA Y SERVICIOS MULTIPLES FAGRE.A S.R.L.</t>
+  </si>
+  <si>
+    <t>I.E.P. PERUANO CHINO JUAN XXIII</t>
+  </si>
+  <si>
+    <t>MAXIMUS TRADING S.A.C.</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA EBENEZER AMERICA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>QUINTOS ALAYO MAXIMO AGUSTIN</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL FOOD SYNERGY SOCIEDAD ANONIMA CERRADA - INTERNATIONAL FOOD SYNERGY S.A.C.</t>
+  </si>
+  <si>
+    <t>SOCIEDAD MINERA DE RESPONSABILIDAD LIMITADA FILOMENA 100</t>
+  </si>
+  <si>
+    <t>JUNTA DE PROPIETARIOS AV. AFRANIO DE MELLO FRANCO N 224-228-230-232 - DISTRITO DE JESUS MARIA</t>
+  </si>
+  <si>
+    <t>NATURAL BEAUTY IMPORT S.A.C.</t>
+  </si>
+  <si>
+    <t>S Y F CONSTRUCTORA VENTURA CASILLA E.I.R.L.</t>
   </si>
 </sst>
 </file>
@@ -2621,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O265"/>
+  <dimension ref="A1:O279"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O265"/>
+      <selection activeCell="A2" sqref="A2:O279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5813,6 +6053,9 @@
       <c r="M75" t="s">
         <v>334</v>
       </c>
+      <c r="O75" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -7123,6 +7366,9 @@
       <c r="M106" t="s">
         <v>376</v>
       </c>
+      <c r="O106" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
@@ -8852,6 +9098,9 @@
       <c r="L147">
         <v>202510</v>
       </c>
+      <c r="O147" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
@@ -9312,6 +9561,9 @@
       <c r="N158" t="s">
         <v>398</v>
       </c>
+      <c r="O158" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
@@ -9353,6 +9605,9 @@
       <c r="N159" t="s">
         <v>399</v>
       </c>
+      <c r="O159" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
@@ -9394,8 +9649,11 @@
       <c r="N160" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O160" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>76474698</v>
       </c>
@@ -9438,8 +9696,11 @@
       <c r="N161" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O161" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>76482903</v>
       </c>
@@ -9476,8 +9737,11 @@
       <c r="L162">
         <v>202510</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O162" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>76477704</v>
       </c>
@@ -9517,8 +9781,11 @@
       <c r="N163" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O163" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>76477389</v>
       </c>
@@ -9555,8 +9822,11 @@
       <c r="L164" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O164" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>76482838</v>
       </c>
@@ -9593,8 +9863,11 @@
       <c r="L165">
         <v>202510</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O165" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>76476615</v>
       </c>
@@ -9634,8 +9907,11 @@
       <c r="N166" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O166" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>76477187</v>
       </c>
@@ -9672,8 +9948,11 @@
       <c r="L167">
         <v>202510</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O167" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>76478655</v>
       </c>
@@ -9713,8 +9992,11 @@
       <c r="N168" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O168" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>76477598</v>
       </c>
@@ -9754,8 +10036,11 @@
       <c r="N169" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O169" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>76473985</v>
       </c>
@@ -9798,8 +10083,11 @@
       <c r="N170" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O170" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>76482668</v>
       </c>
@@ -9836,8 +10124,11 @@
       <c r="L171">
         <v>202510</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O171" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>76477327</v>
       </c>
@@ -9877,8 +10168,11 @@
       <c r="N172" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O172" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>76483529</v>
       </c>
@@ -9915,8 +10209,11 @@
       <c r="L173">
         <v>202508</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O173" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>76482163</v>
       </c>
@@ -9953,8 +10250,11 @@
       <c r="L174">
         <v>202509</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O174" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>76473930</v>
       </c>
@@ -9991,8 +10291,11 @@
       <c r="L175">
         <v>202510</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O175" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>76478193</v>
       </c>
@@ -10029,8 +10332,11 @@
       <c r="L176">
         <v>202510</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O176" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>76475622</v>
       </c>
@@ -10070,8 +10376,11 @@
       <c r="N177" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O177" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>76474540</v>
       </c>
@@ -10111,8 +10420,11 @@
       <c r="N178" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O178" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>76475278</v>
       </c>
@@ -10152,8 +10464,11 @@
       <c r="N179" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O179" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>76482663</v>
       </c>
@@ -10190,8 +10505,11 @@
       <c r="L180">
         <v>202510</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O180" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>76482482</v>
       </c>
@@ -10228,8 +10546,11 @@
       <c r="L181">
         <v>202510</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O181" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>76483037</v>
       </c>
@@ -10266,8 +10587,11 @@
       <c r="L182">
         <v>202510</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O182" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>76475394</v>
       </c>
@@ -10304,8 +10628,11 @@
       <c r="L183">
         <v>202510</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O183" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>76475653</v>
       </c>
@@ -10342,8 +10669,11 @@
       <c r="L184" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O184" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>76483072</v>
       </c>
@@ -10380,8 +10710,11 @@
       <c r="L185">
         <v>202510</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O185" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>76474642</v>
       </c>
@@ -10418,8 +10751,11 @@
       <c r="L186">
         <v>202510</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O186" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>76474563</v>
       </c>
@@ -10456,8 +10792,11 @@
       <c r="L187">
         <v>202510</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O187" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>76479527</v>
       </c>
@@ -10497,8 +10836,11 @@
       <c r="N188" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O188" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>76478366</v>
       </c>
@@ -10535,8 +10877,11 @@
       <c r="L189">
         <v>202510</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O189" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>76475811</v>
       </c>
@@ -10576,8 +10921,11 @@
       <c r="N190" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O190" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>76475970</v>
       </c>
@@ -10614,8 +10962,11 @@
       <c r="L191" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O191" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>76479434</v>
       </c>
@@ -10652,8 +11003,11 @@
       <c r="L192">
         <v>202510</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O192" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>76483195</v>
       </c>
@@ -10690,8 +11044,11 @@
       <c r="L193">
         <v>202510</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O193" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>76483158</v>
       </c>
@@ -10728,8 +11085,11 @@
       <c r="L194">
         <v>202510</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O194" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>76474203</v>
       </c>
@@ -10766,8 +11126,11 @@
       <c r="L195">
         <v>202510</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O195" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>76483729</v>
       </c>
@@ -10804,8 +11167,11 @@
       <c r="L196" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O196" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>76473855</v>
       </c>
@@ -10846,7 +11212,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>76475361</v>
       </c>
@@ -10883,8 +11249,11 @@
       <c r="L198">
         <v>202509</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O198" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>76482311</v>
       </c>
@@ -10922,7 +11291,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>76487874</v>
       </c>
@@ -10960,7 +11329,7 @@
         <v>200805</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>76473871</v>
       </c>
@@ -11004,7 +11373,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>76475559</v>
       </c>
@@ -11042,7 +11411,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>76483058</v>
       </c>
@@ -11080,7 +11449,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>76474492</v>
       </c>
@@ -11118,7 +11487,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>76478856</v>
       </c>
@@ -11156,7 +11525,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>76483814</v>
       </c>
@@ -11194,7 +11563,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>76482876</v>
       </c>
@@ -11231,8 +11600,11 @@
       <c r="L207">
         <v>202510</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O207" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>76476244</v>
       </c>
@@ -11273,7 +11645,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>76477981</v>
       </c>
@@ -11313,8 +11685,11 @@
       <c r="N209" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O209" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>76483386</v>
       </c>
@@ -11352,7 +11727,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>76479209</v>
       </c>
@@ -11389,8 +11764,11 @@
       <c r="L211" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O211" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>76482077</v>
       </c>
@@ -11427,8 +11805,11 @@
       <c r="L212">
         <v>202510</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O212" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>76479156</v>
       </c>
@@ -11465,8 +11846,11 @@
       <c r="L213" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O213" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>76478745</v>
       </c>
@@ -11506,8 +11890,11 @@
       <c r="N214" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O214" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>76473820</v>
       </c>
@@ -11547,8 +11934,11 @@
       <c r="N215" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O215" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>76482665</v>
       </c>
@@ -11585,8 +11975,11 @@
       <c r="L216">
         <v>202510</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O216" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>76478099</v>
       </c>
@@ -11626,8 +12019,11 @@
       <c r="N217" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O217" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>76476394</v>
       </c>
@@ -11664,8 +12060,11 @@
       <c r="M218">
         <v>202510</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O218" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>76478834</v>
       </c>
@@ -11702,8 +12101,11 @@
       <c r="L219" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O219" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>76513510</v>
       </c>
@@ -11740,8 +12142,11 @@
       <c r="N220" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O220" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>76501464</v>
       </c>
@@ -11778,8 +12183,11 @@
       <c r="L221">
         <v>202510</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O221" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>76483826</v>
       </c>
@@ -11816,8 +12224,11 @@
       <c r="L222">
         <v>202508</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O222" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>76474598</v>
       </c>
@@ -11857,8 +12268,11 @@
       <c r="N223" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O223" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>76482010</v>
       </c>
@@ -11895,8 +12309,11 @@
       <c r="L224">
         <v>202510</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O224" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>76483563</v>
       </c>
@@ -11936,8 +12353,11 @@
       <c r="N225" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O225" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>76483051</v>
       </c>
@@ -11974,8 +12394,11 @@
       <c r="L226">
         <v>202510</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O226" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>76483713</v>
       </c>
@@ -12012,8 +12435,11 @@
       <c r="L227">
         <v>202510</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O227" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>76479150</v>
       </c>
@@ -12050,8 +12476,11 @@
       <c r="L228" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O228" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>76474511</v>
       </c>
@@ -12091,8 +12520,11 @@
       <c r="N229" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O229" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>76483213</v>
       </c>
@@ -12129,8 +12561,11 @@
       <c r="L230">
         <v>202510</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O230" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>76475422</v>
       </c>
@@ -12167,8 +12602,11 @@
       <c r="L231">
         <v>202510</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O231" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>76478142</v>
       </c>
@@ -12209,7 +12647,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>76483813</v>
       </c>
@@ -12247,7 +12685,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>76482005</v>
       </c>
@@ -12285,7 +12723,7 @@
         <v>202507</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>76477146</v>
       </c>
@@ -12323,7 +12761,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>76475840</v>
       </c>
@@ -12364,7 +12802,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>76476153</v>
       </c>
@@ -12402,7 +12840,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>76478073</v>
       </c>
@@ -12443,7 +12881,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>76512803</v>
       </c>
@@ -12484,7 +12922,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>76474305</v>
       </c>
@@ -13230,10 +13668,13 @@
         <v>66.099999999999994</v>
       </c>
       <c r="K258" t="s">
-        <v>27</v>
-      </c>
-      <c r="M258" t="s">
-        <v>561</v>
+        <v>23</v>
+      </c>
+      <c r="L258">
+        <v>202506</v>
+      </c>
+      <c r="M258">
+        <v>202507</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
@@ -13256,7 +13697,7 @@
         <v>20603030592</v>
       </c>
       <c r="G259" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H259">
         <v>20603030592</v>
@@ -13294,7 +13735,7 @@
         <v>20603477864</v>
       </c>
       <c r="G260" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H260">
         <v>20603477864</v>
@@ -13312,7 +13753,7 @@
         <v>202510</v>
       </c>
       <c r="N260" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
@@ -13335,7 +13776,7 @@
         <v>20393365537</v>
       </c>
       <c r="G261" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H261">
         <v>20393365537</v>
@@ -13373,7 +13814,7 @@
         <v>20601080428</v>
       </c>
       <c r="G262" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H262">
         <v>20601080428</v>
@@ -13391,7 +13832,7 @@
         <v>202510</v>
       </c>
       <c r="N262" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
@@ -13414,7 +13855,7 @@
         <v>20606561891</v>
       </c>
       <c r="G263" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H263">
         <v>20606561891</v>
@@ -13432,7 +13873,7 @@
         <v>202510</v>
       </c>
       <c r="N263" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
@@ -13455,7 +13896,7 @@
         <v>20608413848</v>
       </c>
       <c r="G264" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H264">
         <v>20608413848</v>
@@ -13475,39 +13916,571 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>76474401</v>
+        <v>76482054</v>
       </c>
       <c r="B265" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C265">
         <v>45992</v>
       </c>
       <c r="D265" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E265" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F265">
-        <v>20446534948</v>
+        <v>45437760</v>
       </c>
       <c r="G265" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="H265">
-        <v>20446534948</v>
+        <v>10454377601</v>
       </c>
       <c r="I265" s="4">
-        <v>45995</v>
+        <v>46011</v>
       </c>
       <c r="J265">
-        <v>0</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K265" t="s">
         <v>18</v>
       </c>
       <c r="L265">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>76483751</v>
+      </c>
+      <c r="B266" t="s">
+        <v>26</v>
+      </c>
+      <c r="C266">
+        <v>45992</v>
+      </c>
+      <c r="D266" t="s">
+        <v>16</v>
+      </c>
+      <c r="E266" t="s">
+        <v>17</v>
+      </c>
+      <c r="F266">
+        <v>20611895713</v>
+      </c>
+      <c r="G266" t="s">
+        <v>637</v>
+      </c>
+      <c r="H266">
+        <v>20611895713</v>
+      </c>
+      <c r="I266" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J266">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K266" t="s">
+        <v>18</v>
+      </c>
+      <c r="L266">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>76487371</v>
+      </c>
+      <c r="B267" t="s">
+        <v>32</v>
+      </c>
+      <c r="C267" t="s">
+        <v>82</v>
+      </c>
+      <c r="D267" t="s">
+        <v>35</v>
+      </c>
+      <c r="E267" t="s">
+        <v>36</v>
+      </c>
+      <c r="F267">
+        <v>5292332</v>
+      </c>
+      <c r="G267" t="s">
+        <v>638</v>
+      </c>
+      <c r="H267">
+        <v>10052923323</v>
+      </c>
+      <c r="I267" s="4">
+        <v>46014</v>
+      </c>
+      <c r="J267">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K267" t="s">
+        <v>18</v>
+      </c>
+      <c r="L267" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>76475103</v>
+      </c>
+      <c r="B268" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268">
+        <v>45992</v>
+      </c>
+      <c r="D268" t="s">
+        <v>20</v>
+      </c>
+      <c r="E268" t="s">
+        <v>21</v>
+      </c>
+      <c r="F268">
+        <v>20523639189</v>
+      </c>
+      <c r="G268" t="s">
+        <v>640</v>
+      </c>
+      <c r="H268">
+        <v>20523639189</v>
+      </c>
+      <c r="I268" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J268">
+        <v>73.790000000000006</v>
+      </c>
+      <c r="K268" t="s">
+        <v>18</v>
+      </c>
+      <c r="L268">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>76482336</v>
+      </c>
+      <c r="B269" t="s">
+        <v>19</v>
+      </c>
+      <c r="C269">
+        <v>45992</v>
+      </c>
+      <c r="D269" t="s">
+        <v>16</v>
+      </c>
+      <c r="E269" t="s">
+        <v>17</v>
+      </c>
+      <c r="F269">
+        <v>20482531301</v>
+      </c>
+      <c r="G269" t="s">
+        <v>641</v>
+      </c>
+      <c r="H269">
+        <v>20482531301</v>
+      </c>
+      <c r="I269" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J269">
+        <v>700</v>
+      </c>
+      <c r="K269" t="s">
+        <v>18</v>
+      </c>
+      <c r="L269">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>76475236</v>
+      </c>
+      <c r="B270" t="s">
+        <v>169</v>
+      </c>
+      <c r="C270" t="s">
+        <v>82</v>
+      </c>
+      <c r="D270" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" t="s">
+        <v>21</v>
+      </c>
+      <c r="F270">
+        <v>20533805061</v>
+      </c>
+      <c r="G270" t="s">
+        <v>642</v>
+      </c>
+      <c r="H270">
+        <v>20533805061</v>
+      </c>
+      <c r="I270" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J270">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K270" t="s">
+        <v>18</v>
+      </c>
+      <c r="L270" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>76482156</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271">
+        <v>45992</v>
+      </c>
+      <c r="D271" t="s">
+        <v>16</v>
+      </c>
+      <c r="E271" t="s">
+        <v>17</v>
+      </c>
+      <c r="F271">
+        <v>20156754898</v>
+      </c>
+      <c r="G271" t="s">
+        <v>643</v>
+      </c>
+      <c r="H271">
+        <v>20156754898</v>
+      </c>
+      <c r="I271" s="4">
+        <v>46008</v>
+      </c>
+      <c r="J271">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K271" t="s">
+        <v>18</v>
+      </c>
+      <c r="L271">
+        <v>202507</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>76482934</v>
+      </c>
+      <c r="B272" t="s">
+        <v>64</v>
+      </c>
+      <c r="C272">
+        <v>45992</v>
+      </c>
+      <c r="D272" t="s">
+        <v>16</v>
+      </c>
+      <c r="E272" t="s">
+        <v>17</v>
+      </c>
+      <c r="F272">
+        <v>20601116104</v>
+      </c>
+      <c r="G272" t="s">
+        <v>644</v>
+      </c>
+      <c r="H272">
+        <v>20601116104</v>
+      </c>
+      <c r="I272" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J272">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K272" t="s">
+        <v>18</v>
+      </c>
+      <c r="L272">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>76477617</v>
+      </c>
+      <c r="B273" t="s">
+        <v>169</v>
+      </c>
+      <c r="C273" t="s">
+        <v>82</v>
+      </c>
+      <c r="D273" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273" t="s">
+        <v>21</v>
+      </c>
+      <c r="F273">
+        <v>20606177632</v>
+      </c>
+      <c r="G273" t="s">
+        <v>645</v>
+      </c>
+      <c r="H273">
+        <v>20606177632</v>
+      </c>
+      <c r="I273" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J273">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K273" t="s">
+        <v>18</v>
+      </c>
+      <c r="L273">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>76482075</v>
+      </c>
+      <c r="B274" t="s">
+        <v>64</v>
+      </c>
+      <c r="C274">
+        <v>45992</v>
+      </c>
+      <c r="D274" t="s">
+        <v>16</v>
+      </c>
+      <c r="E274" t="s">
+        <v>17</v>
+      </c>
+      <c r="F274">
+        <v>47292711</v>
+      </c>
+      <c r="G274" t="s">
+        <v>646</v>
+      </c>
+      <c r="H274">
+        <v>10472927111</v>
+      </c>
+      <c r="I274" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J274">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K274" t="s">
+        <v>27</v>
+      </c>
+      <c r="M274">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>76477497</v>
+      </c>
+      <c r="B275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C275">
+        <v>45992</v>
+      </c>
+      <c r="D275" t="s">
+        <v>20</v>
+      </c>
+      <c r="E275" t="s">
+        <v>21</v>
+      </c>
+      <c r="F275">
+        <v>20605705414</v>
+      </c>
+      <c r="G275" t="s">
+        <v>647</v>
+      </c>
+      <c r="H275">
+        <v>20605705414</v>
+      </c>
+      <c r="I275" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J275">
+        <v>73.73</v>
+      </c>
+      <c r="K275" t="s">
+        <v>18</v>
+      </c>
+      <c r="L275">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>76482598</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276">
+        <v>45992</v>
+      </c>
+      <c r="D276" t="s">
+        <v>16</v>
+      </c>
+      <c r="E276" t="s">
+        <v>17</v>
+      </c>
+      <c r="F276">
+        <v>20535697061</v>
+      </c>
+      <c r="G276" t="s">
+        <v>648</v>
+      </c>
+      <c r="H276">
+        <v>20535697061</v>
+      </c>
+      <c r="I276" s="4">
+        <v>46016</v>
+      </c>
+      <c r="J276">
+        <v>128.75</v>
+      </c>
+      <c r="K276" t="s">
+        <v>18</v>
+      </c>
+      <c r="L276">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>76483116</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277">
+        <v>45992</v>
+      </c>
+      <c r="D277" t="s">
+        <v>16</v>
+      </c>
+      <c r="E277" t="s">
+        <v>17</v>
+      </c>
+      <c r="F277">
+        <v>20602868134</v>
+      </c>
+      <c r="G277" t="s">
+        <v>649</v>
+      </c>
+      <c r="H277">
+        <v>20602868134</v>
+      </c>
+      <c r="I277" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J277">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K277" t="s">
+        <v>18</v>
+      </c>
+      <c r="L277">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>76476778</v>
+      </c>
+      <c r="B278" t="s">
+        <v>120</v>
+      </c>
+      <c r="C278" t="s">
+        <v>82</v>
+      </c>
+      <c r="D278" t="s">
+        <v>20</v>
+      </c>
+      <c r="E278" t="s">
+        <v>21</v>
+      </c>
+      <c r="F278">
+        <v>20602669620</v>
+      </c>
+      <c r="G278" t="s">
+        <v>650</v>
+      </c>
+      <c r="H278">
+        <v>20602669620</v>
+      </c>
+      <c r="I278" s="4">
+        <v>46014</v>
+      </c>
+      <c r="J278">
+        <v>244.71</v>
+      </c>
+      <c r="K278" t="s">
+        <v>18</v>
+      </c>
+      <c r="L278">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>76483449</v>
+      </c>
+      <c r="B279" t="s">
+        <v>64</v>
+      </c>
+      <c r="C279">
+        <v>45992</v>
+      </c>
+      <c r="D279" t="s">
+        <v>16</v>
+      </c>
+      <c r="E279" t="s">
+        <v>17</v>
+      </c>
+      <c r="F279">
+        <v>20607919462</v>
+      </c>
+      <c r="G279" t="s">
+        <v>651</v>
+      </c>
+      <c r="H279">
+        <v>20607919462</v>
+      </c>
+      <c r="I279" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J279">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K279" t="s">
+        <v>18</v>
+      </c>
+      <c r="L279">
         <v>202510</v>
       </c>
     </row>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7181DD27-3E9D-4559-81F7-60BCC0D36926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0704DABF-4BEC-4B13-B886-EA53A06A8B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="741">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -940,9 +940,6 @@
     <t>F001-00035558</t>
   </si>
   <si>
-    <t>juan.damian@inkafruit.pe</t>
-  </si>
-  <si>
     <t>F001-00035554</t>
   </si>
   <si>
@@ -1324,9 +1321,6 @@
     <t>ASOCIACION CULTURAL ARTES UNIDAS ACAU</t>
   </si>
   <si>
-    <t>SANDRA BERNASCONI</t>
-  </si>
-  <si>
     <t>ESPARTA CONSTRUCTORES S.A.</t>
   </si>
   <si>
@@ -1567,9 +1561,6 @@
     <t>SARAVIA OLIVER MARTHA ESTHER ANGELA MILAGROS</t>
   </si>
   <si>
-    <t>202507|202508|202509</t>
-  </si>
-  <si>
     <t>SARAVIA OLIVER MARTHA ESTHER</t>
   </si>
   <si>
@@ -1985,6 +1976,282 @@
   </si>
   <si>
     <t>S Y F CONSTRUCTORA VENTURA CASILLA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>F001-00035903</t>
+  </si>
+  <si>
+    <t>F001-00035904</t>
+  </si>
+  <si>
+    <t>F001-00035905</t>
+  </si>
+  <si>
+    <t>F001-00035907</t>
+  </si>
+  <si>
+    <t>F001-00035908</t>
+  </si>
+  <si>
+    <t>F001-00035911</t>
+  </si>
+  <si>
+    <t>F001-00035915</t>
+  </si>
+  <si>
+    <t>F001-00035916</t>
+  </si>
+  <si>
+    <t>F001-00035917</t>
+  </si>
+  <si>
+    <t>F001-00035919</t>
+  </si>
+  <si>
+    <t>F001-00035920</t>
+  </si>
+  <si>
+    <t>F001-00035921</t>
+  </si>
+  <si>
+    <t>F001-00035923</t>
+  </si>
+  <si>
+    <t>F001-00035925</t>
+  </si>
+  <si>
+    <t>F001-00035926</t>
+  </si>
+  <si>
+    <t>F001-00035927</t>
+  </si>
+  <si>
+    <t>F001-00035933</t>
+  </si>
+  <si>
+    <t>F001-00035934</t>
+  </si>
+  <si>
+    <t>F001-00035935</t>
+  </si>
+  <si>
+    <t>F001-00035200</t>
+  </si>
+  <si>
+    <t>F001-00035936</t>
+  </si>
+  <si>
+    <t>F001-00035939</t>
+  </si>
+  <si>
+    <t>F001-00035941</t>
+  </si>
+  <si>
+    <t>F001-00035942</t>
+  </si>
+  <si>
+    <t>F001-00035945</t>
+  </si>
+  <si>
+    <t>F001-00035946</t>
+  </si>
+  <si>
+    <t>F001-00035947</t>
+  </si>
+  <si>
+    <t>F001-00035948</t>
+  </si>
+  <si>
+    <t>F001-00035982</t>
+  </si>
+  <si>
+    <t>F001-00035950</t>
+  </si>
+  <si>
+    <t>F001-00035952</t>
+  </si>
+  <si>
+    <t>F001-00035956</t>
+  </si>
+  <si>
+    <t>F001-00035958</t>
+  </si>
+  <si>
+    <t>F001-00035959</t>
+  </si>
+  <si>
+    <t>F001-00035960</t>
+  </si>
+  <si>
+    <t>F001-00035962</t>
+  </si>
+  <si>
+    <t>F001-00035963</t>
+  </si>
+  <si>
+    <t>F001-00035964</t>
+  </si>
+  <si>
+    <t>F001-00035965</t>
+  </si>
+  <si>
+    <t>F001-00035967</t>
+  </si>
+  <si>
+    <t>F001-00035968</t>
+  </si>
+  <si>
+    <t>F001-00035969</t>
+  </si>
+  <si>
+    <t>F001-00035970</t>
+  </si>
+  <si>
+    <t>F001-00035979</t>
+  </si>
+  <si>
+    <t>F001-00035980</t>
+  </si>
+  <si>
+    <t>MECANICA DE ASCENSORES ALAMA CARRASCO JAN CARLOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES GILBERTO SOCIEDD ANONIMA CERRADA-SERVICIOS GENERALES GILBERTO S.A.C.</t>
+  </si>
+  <si>
+    <t>RUBY</t>
+  </si>
+  <si>
+    <t>ECOFINA P &amp; G DIORGANIC E.I.R.L..</t>
+  </si>
+  <si>
+    <t>FLOR</t>
+  </si>
+  <si>
+    <t>OBRICOM YPK S.A.</t>
+  </si>
+  <si>
+    <t>GRECIA</t>
+  </si>
+  <si>
+    <t>VLC SERVICIOS MEDICOS S.A.C.</t>
+  </si>
+  <si>
+    <t>202504|202505|202506|202507|202508</t>
+  </si>
+  <si>
+    <t>boost.medicina@gmail.com</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA Y SERVICIOS GENERALES PAMAR S.A.C.</t>
+  </si>
+  <si>
+    <t>TRANSPORTES MOCHICA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SERVICIOS ESPECIALES CONTRATISTAS SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>jorge.bernedo9@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>CONSEJO DE ESTUDIANTES DE MEDICINA DE SAN FERNANDO</t>
+  </si>
+  <si>
+    <t>CASA GRANDE SOCABAYA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INFORMATIC TECHNOLOGY LOGISTIC SAC</t>
+  </si>
+  <si>
+    <t>J &amp; K SERVICIOS MULTIPLES Y COMERCIALIZACION E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EL ASADOR CARNES AL CILINDRO S.R.L.</t>
+  </si>
+  <si>
+    <t>RIOS DIAZ JENNIFER TATIANA</t>
+  </si>
+  <si>
+    <t>PEÑA HERNANDEZ MARCOS JAHIR</t>
+  </si>
+  <si>
+    <t>HERNANDEZ GARCIA CARMEN ROSA</t>
+  </si>
+  <si>
+    <t>TRANSPORTES MANOLO S.R.L.</t>
+  </si>
+  <si>
+    <t>YSELMIX S.A.C.</t>
+  </si>
+  <si>
+    <t>&lt;yselmix.sac@gmail.com</t>
+  </si>
+  <si>
+    <t>JUAN FELIX</t>
+  </si>
+  <si>
+    <t>MUELLES OPERADOR LOGISTICO S.A.C.</t>
+  </si>
+  <si>
+    <t>HV ELECTRIC SERVICES S.A.C.</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA ARQCO S.R.L.</t>
+  </si>
+  <si>
+    <t>VIKINKA TRAVEL SOCIEDAD ANONIMA CERRADA-VIKINKA TRAVEL S.A.C</t>
+  </si>
+  <si>
+    <t>vikinka@online.no , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>CALZADOS SHADAI´C E.I.R.L.</t>
+  </si>
+  <si>
+    <t>junescontadorestributarios@gmail.com</t>
+  </si>
+  <si>
+    <t>GRUPO TORRES FRANCO S.A.C.</t>
+  </si>
+  <si>
+    <t>LIMA SUR CORPORATION SOCIEDAD ANÓNIMA CERRADA</t>
+  </si>
+  <si>
+    <t>A1N INVERSIONES Y CONTRATISTAS GENERALES E.I.R.L</t>
+  </si>
+  <si>
+    <t>CASTROCAR 1 S.A.C.</t>
+  </si>
+  <si>
+    <t>MAXVIL CONTRATISTAS GENERALES SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>ETT HOUSE TOURS S.A.C.</t>
+  </si>
+  <si>
+    <t>202505|202506|202507|202508</t>
+  </si>
+  <si>
+    <t>AMBERDE SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE CIENCIAS MEDICAS DEL SUR S.A.C.</t>
+  </si>
+  <si>
+    <t>jloaizap25@gmail.com</t>
+  </si>
+  <si>
+    <t>CENTRO DE FORMACION EN IDIOMAS PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>COVA CONTRATISTAS GENERALES S.A.C.</t>
+  </si>
+  <si>
+    <t>cecilia68@hotmail.com</t>
+  </si>
+  <si>
+    <t>UBF INDUSTRIAL SOCIEDAD ANONIMA CERRADA - UBF INDUSTRIAL S.A.C.</t>
   </si>
 </sst>
 </file>
@@ -2861,10 +3128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O279"/>
+  <dimension ref="A1:O311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O279"/>
+      <selection activeCell="A2" sqref="A2:O311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3510,9 +3777,9 @@
         <v>66.099999999999994</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
         <v>67</v>
       </c>
       <c r="O15" t="s">
@@ -3856,7 +4123,7 @@
         <v>202510</v>
       </c>
       <c r="O23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -5118,11 +5385,8 @@
       <c r="L53">
         <v>202510</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>303</v>
-      </c>
-      <c r="O53" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -5163,7 +5427,7 @@
         <v>202510</v>
       </c>
       <c r="O54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -5204,10 +5468,10 @@
         <v>202510</v>
       </c>
       <c r="N55" t="s">
+        <v>305</v>
+      </c>
+      <c r="O55" t="s">
         <v>306</v>
-      </c>
-      <c r="O55" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -5248,10 +5512,10 @@
         <v>202510</v>
       </c>
       <c r="N56" t="s">
+        <v>307</v>
+      </c>
+      <c r="O56" t="s">
         <v>308</v>
-      </c>
-      <c r="O56" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -5292,7 +5556,7 @@
         <v>67</v>
       </c>
       <c r="O57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -5333,7 +5597,7 @@
         <v>202510</v>
       </c>
       <c r="O58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -5374,7 +5638,7 @@
         <v>202510</v>
       </c>
       <c r="O59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -5415,7 +5679,7 @@
         <v>68</v>
       </c>
       <c r="O60" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -5456,10 +5720,10 @@
         <v>202510</v>
       </c>
       <c r="N61" t="s">
+        <v>312</v>
+      </c>
+      <c r="O61" t="s">
         <v>313</v>
-      </c>
-      <c r="O61" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -5500,7 +5764,7 @@
         <v>202510</v>
       </c>
       <c r="O62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -5541,7 +5805,7 @@
         <v>202510</v>
       </c>
       <c r="O63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -5582,7 +5846,7 @@
         <v>202510</v>
       </c>
       <c r="O64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -5623,10 +5887,10 @@
         <v>202510</v>
       </c>
       <c r="N65" t="s">
+        <v>317</v>
+      </c>
+      <c r="O65" t="s">
         <v>318</v>
-      </c>
-      <c r="O65" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -5667,10 +5931,10 @@
         <v>202510</v>
       </c>
       <c r="N66" t="s">
+        <v>319</v>
+      </c>
+      <c r="O66" t="s">
         <v>320</v>
-      </c>
-      <c r="O66" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -5711,7 +5975,7 @@
         <v>202509</v>
       </c>
       <c r="O67" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -5752,7 +6016,7 @@
         <v>202510</v>
       </c>
       <c r="O68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -5793,7 +6057,7 @@
         <v>202510</v>
       </c>
       <c r="O69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -5834,10 +6098,10 @@
         <v>202510</v>
       </c>
       <c r="N70" t="s">
+        <v>324</v>
+      </c>
+      <c r="O70" t="s">
         <v>325</v>
-      </c>
-      <c r="O70" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -5878,10 +6142,10 @@
         <v>54</v>
       </c>
       <c r="N71" t="s">
+        <v>326</v>
+      </c>
+      <c r="O71" t="s">
         <v>327</v>
-      </c>
-      <c r="O71" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -5922,10 +6186,10 @@
         <v>202510</v>
       </c>
       <c r="N72" t="s">
+        <v>328</v>
+      </c>
+      <c r="O72" t="s">
         <v>329</v>
-      </c>
-      <c r="O72" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -5966,7 +6230,7 @@
         <v>202510</v>
       </c>
       <c r="O73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -6007,10 +6271,10 @@
         <v>202510</v>
       </c>
       <c r="N74" t="s">
+        <v>331</v>
+      </c>
+      <c r="O74" t="s">
         <v>332</v>
-      </c>
-      <c r="O74" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -6051,10 +6315,10 @@
         <v>127</v>
       </c>
       <c r="M75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O75" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -6095,10 +6359,10 @@
         <v>202510</v>
       </c>
       <c r="N76" t="s">
+        <v>334</v>
+      </c>
+      <c r="O76" t="s">
         <v>335</v>
-      </c>
-      <c r="O76" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -6139,7 +6403,7 @@
         <v>202510</v>
       </c>
       <c r="O77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -6180,10 +6444,10 @@
         <v>202510</v>
       </c>
       <c r="N78" t="s">
+        <v>337</v>
+      </c>
+      <c r="O78" t="s">
         <v>338</v>
-      </c>
-      <c r="O78" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -6224,7 +6488,7 @@
         <v>202510</v>
       </c>
       <c r="O79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -6265,7 +6529,7 @@
         <v>202510</v>
       </c>
       <c r="O80" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -6306,10 +6570,10 @@
         <v>202510</v>
       </c>
       <c r="N81" t="s">
+        <v>340</v>
+      </c>
+      <c r="O81" t="s">
         <v>341</v>
-      </c>
-      <c r="O81" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -6350,7 +6614,7 @@
         <v>202510</v>
       </c>
       <c r="O82" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -6391,7 +6655,7 @@
         <v>67</v>
       </c>
       <c r="O83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -6414,7 +6678,7 @@
         <v>20610662952</v>
       </c>
       <c r="G84" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H84">
         <v>20610662952</v>
@@ -6430,6 +6694,9 @@
       </c>
       <c r="L84" t="s">
         <v>67</v>
+      </c>
+      <c r="O84" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -6470,10 +6737,10 @@
         <v>202510</v>
       </c>
       <c r="N85" t="s">
+        <v>344</v>
+      </c>
+      <c r="O85" t="s">
         <v>345</v>
-      </c>
-      <c r="O85" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -6514,7 +6781,7 @@
         <v>202510</v>
       </c>
       <c r="O86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -6555,7 +6822,7 @@
         <v>202510</v>
       </c>
       <c r="O87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -6596,7 +6863,7 @@
         <v>202510</v>
       </c>
       <c r="O88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -6637,10 +6904,10 @@
         <v>67</v>
       </c>
       <c r="N89" t="s">
+        <v>349</v>
+      </c>
+      <c r="O89" t="s">
         <v>350</v>
-      </c>
-      <c r="O89" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -6681,7 +6948,7 @@
         <v>202510</v>
       </c>
       <c r="O90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -6722,10 +6989,10 @@
         <v>202510</v>
       </c>
       <c r="N91" t="s">
+        <v>352</v>
+      </c>
+      <c r="O91" t="s">
         <v>353</v>
-      </c>
-      <c r="O91" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -6766,10 +7033,10 @@
         <v>202510</v>
       </c>
       <c r="N92" t="s">
+        <v>354</v>
+      </c>
+      <c r="O92" t="s">
         <v>355</v>
-      </c>
-      <c r="O92" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -6810,7 +7077,7 @@
         <v>67</v>
       </c>
       <c r="O93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -6851,10 +7118,10 @@
         <v>202510</v>
       </c>
       <c r="N94" t="s">
+        <v>357</v>
+      </c>
+      <c r="O94" t="s">
         <v>358</v>
-      </c>
-      <c r="O94" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -6895,7 +7162,7 @@
         <v>202510</v>
       </c>
       <c r="O95" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -6936,10 +7203,10 @@
         <v>202510</v>
       </c>
       <c r="N96" t="s">
+        <v>360</v>
+      </c>
+      <c r="O96" t="s">
         <v>361</v>
-      </c>
-      <c r="O96" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -6980,7 +7247,7 @@
         <v>202510</v>
       </c>
       <c r="O97" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -7021,10 +7288,10 @@
         <v>202510</v>
       </c>
       <c r="N98" t="s">
+        <v>363</v>
+      </c>
+      <c r="O98" t="s">
         <v>364</v>
-      </c>
-      <c r="O98" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -7065,10 +7332,10 @@
         <v>67</v>
       </c>
       <c r="N99" t="s">
+        <v>365</v>
+      </c>
+      <c r="O99" t="s">
         <v>366</v>
-      </c>
-      <c r="O99" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -7112,7 +7379,7 @@
         <v>202510</v>
       </c>
       <c r="O100" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -7153,7 +7420,7 @@
         <v>199807</v>
       </c>
       <c r="O101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -7194,7 +7461,7 @@
         <v>202510</v>
       </c>
       <c r="O102" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -7235,10 +7502,10 @@
         <v>202510</v>
       </c>
       <c r="N103" t="s">
+        <v>370</v>
+      </c>
+      <c r="O103" t="s">
         <v>371</v>
-      </c>
-      <c r="O103" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -7279,7 +7546,7 @@
         <v>33</v>
       </c>
       <c r="O104" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -7320,10 +7587,10 @@
         <v>202510</v>
       </c>
       <c r="N105" t="s">
+        <v>373</v>
+      </c>
+      <c r="O105" t="s">
         <v>374</v>
-      </c>
-      <c r="O105" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -7364,10 +7631,10 @@
         <v>156</v>
       </c>
       <c r="M106" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O106" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -7408,7 +7675,7 @@
         <v>202510</v>
       </c>
       <c r="O107" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -7449,7 +7716,7 @@
         <v>202510</v>
       </c>
       <c r="O108" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -7490,10 +7757,10 @@
         <v>202510</v>
       </c>
       <c r="N109" t="s">
+        <v>378</v>
+      </c>
+      <c r="O109" t="s">
         <v>379</v>
-      </c>
-      <c r="O109" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -7537,10 +7804,10 @@
         <v>202509</v>
       </c>
       <c r="N110" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O110" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -7581,10 +7848,10 @@
         <v>202510</v>
       </c>
       <c r="N111" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O111" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -7625,10 +7892,10 @@
         <v>202510</v>
       </c>
       <c r="N112" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O112" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
@@ -7669,7 +7936,7 @@
         <v>202510</v>
       </c>
       <c r="O113" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -7710,7 +7977,7 @@
         <v>202510</v>
       </c>
       <c r="O114" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -7751,10 +8018,10 @@
         <v>202510</v>
       </c>
       <c r="N115" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O115" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -7795,10 +8062,10 @@
         <v>202510</v>
       </c>
       <c r="N116" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O116" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -7839,10 +8106,10 @@
         <v>202510</v>
       </c>
       <c r="N117" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O117" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -7883,7 +8150,7 @@
         <v>202510</v>
       </c>
       <c r="O118" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -7924,7 +8191,7 @@
         <v>67</v>
       </c>
       <c r="O119" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -7965,7 +8232,7 @@
         <v>202510</v>
       </c>
       <c r="O120" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -8006,7 +8273,7 @@
         <v>202510</v>
       </c>
       <c r="O121" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -8047,7 +8314,7 @@
         <v>202510</v>
       </c>
       <c r="O122" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -8088,7 +8355,7 @@
         <v>202510</v>
       </c>
       <c r="O123" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -8129,10 +8396,10 @@
         <v>202510</v>
       </c>
       <c r="N124" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O124" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -8173,7 +8440,7 @@
         <v>202510</v>
       </c>
       <c r="O125" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -8214,7 +8481,7 @@
         <v>202510</v>
       </c>
       <c r="O126" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -8255,7 +8522,7 @@
         <v>202510</v>
       </c>
       <c r="O127" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -8296,7 +8563,7 @@
         <v>67</v>
       </c>
       <c r="O128" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -8337,7 +8604,7 @@
         <v>202510</v>
       </c>
       <c r="O129" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -8378,7 +8645,7 @@
         <v>202510</v>
       </c>
       <c r="O130" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -8419,7 +8686,7 @@
         <v>202510</v>
       </c>
       <c r="O131" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -8460,10 +8727,10 @@
         <v>202510</v>
       </c>
       <c r="N132" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O132" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -8504,10 +8771,10 @@
         <v>202510</v>
       </c>
       <c r="N133" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O133" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -8548,7 +8815,7 @@
         <v>202510</v>
       </c>
       <c r="O134" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -8589,10 +8856,10 @@
         <v>202510</v>
       </c>
       <c r="N135" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O135" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -8633,7 +8900,7 @@
         <v>202510</v>
       </c>
       <c r="O136" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -8674,7 +8941,7 @@
         <v>202509</v>
       </c>
       <c r="O137" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -8715,7 +8982,7 @@
         <v>202510</v>
       </c>
       <c r="O138" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -8756,10 +9023,10 @@
         <v>202510</v>
       </c>
       <c r="N139" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O139" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -8800,10 +9067,10 @@
         <v>202510</v>
       </c>
       <c r="N140" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O140" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -8844,10 +9111,10 @@
         <v>67</v>
       </c>
       <c r="N141" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O141" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -8888,7 +9155,7 @@
         <v>202510</v>
       </c>
       <c r="O142" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -8929,10 +9196,10 @@
         <v>67</v>
       </c>
       <c r="N143" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O143" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -8973,7 +9240,7 @@
         <v>202510</v>
       </c>
       <c r="O144" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -9014,7 +9281,7 @@
         <v>202510</v>
       </c>
       <c r="O145" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -9055,10 +9322,10 @@
         <v>202509</v>
       </c>
       <c r="N146" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O146" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -9099,7 +9366,7 @@
         <v>202510</v>
       </c>
       <c r="O147" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -9140,10 +9407,10 @@
         <v>202510</v>
       </c>
       <c r="N148" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O148" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -9184,7 +9451,7 @@
         <v>202510</v>
       </c>
       <c r="O149" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -9225,10 +9492,10 @@
         <v>67</v>
       </c>
       <c r="N150" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O150" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -9269,7 +9536,7 @@
         <v>202510</v>
       </c>
       <c r="O151" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -9310,7 +9577,7 @@
         <v>202510</v>
       </c>
       <c r="O152" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -9351,10 +9618,10 @@
         <v>202510</v>
       </c>
       <c r="N153" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O153" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -9395,7 +9662,7 @@
         <v>202510</v>
       </c>
       <c r="O154" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -9436,7 +9703,7 @@
         <v>202510</v>
       </c>
       <c r="O155" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -9477,7 +9744,7 @@
         <v>202510</v>
       </c>
       <c r="O156" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -9518,7 +9785,7 @@
         <v>33</v>
       </c>
       <c r="O157" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -9559,10 +9826,10 @@
         <v>202510</v>
       </c>
       <c r="N158" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O158" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -9603,10 +9870,10 @@
         <v>202510</v>
       </c>
       <c r="N159" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O159" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -9647,10 +9914,10 @@
         <v>202510</v>
       </c>
       <c r="N160" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O160" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -9694,10 +9961,10 @@
         <v>202510</v>
       </c>
       <c r="N161" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O161" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -9738,7 +10005,7 @@
         <v>202510</v>
       </c>
       <c r="O162" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -9779,10 +10046,10 @@
         <v>202510</v>
       </c>
       <c r="N163" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O163" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
@@ -9820,10 +10087,10 @@
         <v>18</v>
       </c>
       <c r="L164" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O164" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -9864,7 +10131,7 @@
         <v>202510</v>
       </c>
       <c r="O165" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -9905,10 +10172,10 @@
         <v>202510</v>
       </c>
       <c r="N166" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O166" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
@@ -9949,7 +10216,7 @@
         <v>202510</v>
       </c>
       <c r="O167" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -9990,10 +10257,10 @@
         <v>54</v>
       </c>
       <c r="N168" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O168" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -10034,10 +10301,10 @@
         <v>202510</v>
       </c>
       <c r="N169" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O169" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -10081,10 +10348,10 @@
         <v>54</v>
       </c>
       <c r="N170" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O170" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -10125,7 +10392,7 @@
         <v>202510</v>
       </c>
       <c r="O171" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
@@ -10166,10 +10433,10 @@
         <v>202510</v>
       </c>
       <c r="N172" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O172" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
@@ -10210,7 +10477,7 @@
         <v>202508</v>
       </c>
       <c r="O173" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
@@ -10251,7 +10518,7 @@
         <v>202509</v>
       </c>
       <c r="O174" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
@@ -10292,7 +10559,7 @@
         <v>202510</v>
       </c>
       <c r="O175" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -10333,7 +10600,7 @@
         <v>202510</v>
       </c>
       <c r="O176" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
@@ -10374,10 +10641,10 @@
         <v>202510</v>
       </c>
       <c r="N177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O177" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
@@ -10418,10 +10685,10 @@
         <v>202510</v>
       </c>
       <c r="N178" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O178" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
@@ -10462,10 +10729,10 @@
         <v>202510</v>
       </c>
       <c r="N179" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O179" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
@@ -10506,7 +10773,7 @@
         <v>202510</v>
       </c>
       <c r="O180" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
@@ -10547,7 +10814,7 @@
         <v>202510</v>
       </c>
       <c r="O181" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
@@ -10588,7 +10855,7 @@
         <v>202510</v>
       </c>
       <c r="O182" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
@@ -10629,7 +10896,7 @@
         <v>202510</v>
       </c>
       <c r="O183" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
@@ -10670,7 +10937,7 @@
         <v>67</v>
       </c>
       <c r="O184" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
@@ -10711,7 +10978,7 @@
         <v>202510</v>
       </c>
       <c r="O185" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
@@ -10752,7 +11019,7 @@
         <v>202510</v>
       </c>
       <c r="O186" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
@@ -10793,7 +11060,7 @@
         <v>202510</v>
       </c>
       <c r="O187" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
@@ -10834,10 +11101,10 @@
         <v>202510</v>
       </c>
       <c r="N188" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O188" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
@@ -10878,7 +11145,7 @@
         <v>202510</v>
       </c>
       <c r="O189" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.3">
@@ -10901,7 +11168,7 @@
         <v>20558301261</v>
       </c>
       <c r="G190" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H190">
         <v>20558301261</v>
@@ -10919,10 +11186,10 @@
         <v>202510</v>
       </c>
       <c r="N190" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O190" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
@@ -10945,7 +11212,7 @@
         <v>20571464196</v>
       </c>
       <c r="G191" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H191">
         <v>20571464196</v>
@@ -10963,7 +11230,7 @@
         <v>67</v>
       </c>
       <c r="O191" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
@@ -10986,7 +11253,7 @@
         <v>20613963881</v>
       </c>
       <c r="G192" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H192">
         <v>20613963881</v>
@@ -11004,7 +11271,7 @@
         <v>202510</v>
       </c>
       <c r="O192" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.3">
@@ -11027,7 +11294,7 @@
         <v>20603720360</v>
       </c>
       <c r="G193" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H193">
         <v>20603720360</v>
@@ -11045,7 +11312,7 @@
         <v>202510</v>
       </c>
       <c r="O193" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.3">
@@ -11068,7 +11335,7 @@
         <v>20603268394</v>
       </c>
       <c r="G194" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H194">
         <v>20603268394</v>
@@ -11086,7 +11353,7 @@
         <v>202510</v>
       </c>
       <c r="O194" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.3">
@@ -11109,7 +11376,7 @@
         <v>20113539675</v>
       </c>
       <c r="G195" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H195">
         <v>20113539675</v>
@@ -11127,7 +11394,7 @@
         <v>202510</v>
       </c>
       <c r="O195" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.3">
@@ -11150,7 +11417,7 @@
         <v>20611575166</v>
       </c>
       <c r="G196" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H196">
         <v>20611575166</v>
@@ -11168,7 +11435,7 @@
         <v>67</v>
       </c>
       <c r="O196" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.3">
@@ -11191,7 +11458,7 @@
         <v>8606217</v>
       </c>
       <c r="G197" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H197">
         <v>10086062173</v>
@@ -11209,7 +11476,10 @@
         <v>202510</v>
       </c>
       <c r="N197" t="s">
-        <v>498</v>
+        <v>496</v>
+      </c>
+      <c r="O197" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.3">
@@ -11232,7 +11502,7 @@
         <v>20539784871</v>
       </c>
       <c r="G198" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H198">
         <v>20539784871</v>
@@ -11250,7 +11520,7 @@
         <v>202509</v>
       </c>
       <c r="O198" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.3">
@@ -11273,7 +11543,7 @@
         <v>20478124296</v>
       </c>
       <c r="G199" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H199">
         <v>20478124296</v>
@@ -11289,6 +11559,9 @@
       </c>
       <c r="L199">
         <v>202510</v>
+      </c>
+      <c r="O199" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.3">
@@ -11311,7 +11584,7 @@
         <v>20137777305</v>
       </c>
       <c r="G200" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H200">
         <v>20137777305</v>
@@ -11327,6 +11600,9 @@
       </c>
       <c r="L200">
         <v>200805</v>
+      </c>
+      <c r="O200" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.3">
@@ -11349,7 +11625,7 @@
         <v>9941943</v>
       </c>
       <c r="G201" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H201">
         <v>10099419437</v>
@@ -11361,16 +11637,16 @@
         <v>88</v>
       </c>
       <c r="K201" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L201" t="s">
-        <v>512</v>
-      </c>
-      <c r="M201">
-        <v>202510</v>
+        <v>54</v>
       </c>
       <c r="N201" t="s">
-        <v>513</v>
+        <v>510</v>
+      </c>
+      <c r="O201" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.3">
@@ -11393,7 +11669,7 @@
         <v>20549561269</v>
       </c>
       <c r="G202" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H202">
         <v>20549561269</v>
@@ -11409,6 +11685,9 @@
       </c>
       <c r="L202">
         <v>202510</v>
+      </c>
+      <c r="O202" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.3">
@@ -11431,7 +11710,7 @@
         <v>20602304061</v>
       </c>
       <c r="G203" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H203">
         <v>20602304061</v>
@@ -11447,6 +11726,9 @@
       </c>
       <c r="L203">
         <v>202510</v>
+      </c>
+      <c r="O203" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.3">
@@ -11469,7 +11751,7 @@
         <v>20460419418</v>
       </c>
       <c r="G204" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H204">
         <v>20460419418</v>
@@ -11485,6 +11767,9 @@
       </c>
       <c r="L204">
         <v>202510</v>
+      </c>
+      <c r="O204" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.3">
@@ -11507,7 +11792,7 @@
         <v>20611542721</v>
       </c>
       <c r="G205" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H205">
         <v>20611542721</v>
@@ -11523,6 +11808,9 @@
       </c>
       <c r="L205">
         <v>202510</v>
+      </c>
+      <c r="O205" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.3">
@@ -11545,7 +11833,7 @@
         <v>20612721999</v>
       </c>
       <c r="G206" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H206">
         <v>20612721999</v>
@@ -11561,6 +11849,9 @@
       </c>
       <c r="L206">
         <v>202510</v>
+      </c>
+      <c r="O206" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.3">
@@ -11583,7 +11874,7 @@
         <v>20600407148</v>
       </c>
       <c r="G207" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H207">
         <v>20600407148</v>
@@ -11601,7 +11892,7 @@
         <v>202510</v>
       </c>
       <c r="O207" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.3">
@@ -11624,7 +11915,7 @@
         <v>20600950895</v>
       </c>
       <c r="G208" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H208">
         <v>20600950895</v>
@@ -11642,7 +11933,10 @@
         <v>202510</v>
       </c>
       <c r="N208" t="s">
-        <v>503</v>
+        <v>501</v>
+      </c>
+      <c r="O208" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
@@ -11665,7 +11959,7 @@
         <v>20607871729</v>
       </c>
       <c r="G209" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H209">
         <v>20607871729</v>
@@ -11683,10 +11977,10 @@
         <v>67</v>
       </c>
       <c r="N209" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O209" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
@@ -11709,7 +12003,7 @@
         <v>20606671912</v>
       </c>
       <c r="G210" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H210">
         <v>20606671912</v>
@@ -11725,6 +12019,9 @@
       </c>
       <c r="L210">
         <v>202510</v>
+      </c>
+      <c r="O210" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.3">
@@ -11747,7 +12044,7 @@
         <v>20613040146</v>
       </c>
       <c r="G211" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H211">
         <v>20613040146</v>
@@ -11762,10 +12059,10 @@
         <v>18</v>
       </c>
       <c r="L211" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="O211" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.3">
@@ -11788,7 +12085,7 @@
         <v>47802618</v>
       </c>
       <c r="G212" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H212">
         <v>10478026183</v>
@@ -11806,7 +12103,7 @@
         <v>202510</v>
       </c>
       <c r="O212" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.3">
@@ -11829,7 +12126,7 @@
         <v>20612797243</v>
       </c>
       <c r="G213" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H213">
         <v>20612797243</v>
@@ -11847,7 +12144,7 @@
         <v>67</v>
       </c>
       <c r="O213" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.3">
@@ -11870,7 +12167,7 @@
         <v>20611056584</v>
       </c>
       <c r="G214" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H214">
         <v>20611056584</v>
@@ -11888,10 +12185,10 @@
         <v>202510</v>
       </c>
       <c r="N214" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O214" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.3">
@@ -11914,7 +12211,7 @@
         <v>2867667</v>
       </c>
       <c r="G215" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H215">
         <v>10028676676</v>
@@ -11932,10 +12229,10 @@
         <v>69</v>
       </c>
       <c r="N215" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O215" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.3">
@@ -11958,7 +12255,7 @@
         <v>20546007040</v>
       </c>
       <c r="G216" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H216">
         <v>20546007040</v>
@@ -11976,7 +12273,7 @@
         <v>202510</v>
       </c>
       <c r="O216" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.3">
@@ -11999,7 +12296,7 @@
         <v>20608421671</v>
       </c>
       <c r="G217" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H217">
         <v>20608421671</v>
@@ -12017,10 +12314,10 @@
         <v>67</v>
       </c>
       <c r="N217" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O217" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.3">
@@ -12043,7 +12340,7 @@
         <v>20601442753</v>
       </c>
       <c r="G218" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H218">
         <v>20601442753</v>
@@ -12061,7 +12358,7 @@
         <v>202510</v>
       </c>
       <c r="O218" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.3">
@@ -12084,7 +12381,7 @@
         <v>20611458411</v>
       </c>
       <c r="G219" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H219">
         <v>20611458411</v>
@@ -12102,7 +12399,7 @@
         <v>54</v>
       </c>
       <c r="O219" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.3">
@@ -12125,7 +12422,7 @@
         <v>20506112487</v>
       </c>
       <c r="G220" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H220">
         <v>20506112487</v>
@@ -12139,11 +12436,8 @@
       <c r="K220" t="s">
         <v>27</v>
       </c>
-      <c r="N220" t="s">
-        <v>431</v>
-      </c>
       <c r="O220" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.3">
@@ -12166,7 +12460,7 @@
         <v>20551106897</v>
       </c>
       <c r="G221" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H221">
         <v>20551106897</v>
@@ -12184,7 +12478,7 @@
         <v>202510</v>
       </c>
       <c r="O221" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.3">
@@ -12207,7 +12501,7 @@
         <v>20612887447</v>
       </c>
       <c r="G222" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H222">
         <v>20612887447</v>
@@ -12225,7 +12519,7 @@
         <v>202508</v>
       </c>
       <c r="O222" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.3">
@@ -12248,7 +12542,7 @@
         <v>20482477331</v>
       </c>
       <c r="G223" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H223">
         <v>20482477331</v>
@@ -12266,10 +12560,10 @@
         <v>202510</v>
       </c>
       <c r="N223" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O223" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.3">
@@ -12292,7 +12586,7 @@
         <v>41028501</v>
       </c>
       <c r="G224" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H224">
         <v>10410285016</v>
@@ -12310,7 +12604,7 @@
         <v>202510</v>
       </c>
       <c r="O224" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.3">
@@ -12333,7 +12627,7 @@
         <v>20609406098</v>
       </c>
       <c r="G225" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H225">
         <v>20609406098</v>
@@ -12351,10 +12645,10 @@
         <v>202510</v>
       </c>
       <c r="N225" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O225" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.3">
@@ -12377,7 +12671,7 @@
         <v>20602258913</v>
       </c>
       <c r="G226" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H226">
         <v>20602258913</v>
@@ -12395,7 +12689,7 @@
         <v>202510</v>
       </c>
       <c r="O226" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.3">
@@ -12418,7 +12712,7 @@
         <v>20611374128</v>
       </c>
       <c r="G227" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H227">
         <v>20611374128</v>
@@ -12436,7 +12730,7 @@
         <v>202510</v>
       </c>
       <c r="O227" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.3">
@@ -12459,7 +12753,7 @@
         <v>20612770621</v>
       </c>
       <c r="G228" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H228">
         <v>20612770621</v>
@@ -12477,7 +12771,7 @@
         <v>67</v>
       </c>
       <c r="O228" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.3">
@@ -12500,7 +12794,7 @@
         <v>20475236131</v>
       </c>
       <c r="G229" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H229">
         <v>20475236131</v>
@@ -12518,10 +12812,10 @@
         <v>202505</v>
       </c>
       <c r="N229" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O229" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.3">
@@ -12544,7 +12838,7 @@
         <v>20603938080</v>
       </c>
       <c r="G230" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H230">
         <v>20603938080</v>
@@ -12562,7 +12856,7 @@
         <v>202510</v>
       </c>
       <c r="O230" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.3">
@@ -12585,7 +12879,7 @@
         <v>20544097700</v>
       </c>
       <c r="G231" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H231">
         <v>20544097700</v>
@@ -12603,7 +12897,7 @@
         <v>202510</v>
       </c>
       <c r="O231" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.3">
@@ -12626,7 +12920,7 @@
         <v>20608549332</v>
       </c>
       <c r="G232" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H232">
         <v>20608549332</v>
@@ -12644,7 +12938,10 @@
         <v>202510</v>
       </c>
       <c r="N232" t="s">
-        <v>519</v>
+        <v>516</v>
+      </c>
+      <c r="O232" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.3">
@@ -12667,7 +12964,7 @@
         <v>20612704628</v>
       </c>
       <c r="G233" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H233">
         <v>20612704628</v>
@@ -12683,6 +12980,9 @@
       </c>
       <c r="L233">
         <v>202510</v>
+      </c>
+      <c r="O233" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.3">
@@ -12705,7 +13005,7 @@
         <v>40738899</v>
       </c>
       <c r="G234" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H234">
         <v>10407388998</v>
@@ -12721,6 +13021,9 @@
       </c>
       <c r="L234">
         <v>202507</v>
+      </c>
+      <c r="O234" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.3">
@@ -12743,7 +13046,7 @@
         <v>20604020329</v>
       </c>
       <c r="G235" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H235">
         <v>20604020329</v>
@@ -12759,6 +13062,9 @@
       </c>
       <c r="L235">
         <v>202510</v>
+      </c>
+      <c r="O235" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.3">
@@ -12781,7 +13087,7 @@
         <v>20560037628</v>
       </c>
       <c r="G236" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H236">
         <v>20560037628</v>
@@ -12799,7 +13105,10 @@
         <v>202510</v>
       </c>
       <c r="N236" t="s">
-        <v>524</v>
+        <v>521</v>
+      </c>
+      <c r="O236" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.3">
@@ -12822,7 +13131,7 @@
         <v>20600634071</v>
       </c>
       <c r="G237" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H237">
         <v>20600634071</v>
@@ -12838,6 +13147,9 @@
       </c>
       <c r="L237">
         <v>202510</v>
+      </c>
+      <c r="O237" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.3">
@@ -12860,7 +13172,7 @@
         <v>20608307410</v>
       </c>
       <c r="G238" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H238">
         <v>20608307410</v>
@@ -12879,6 +13191,9 @@
       </c>
       <c r="M238">
         <v>202510</v>
+      </c>
+      <c r="O238" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.3">
@@ -12901,7 +13216,7 @@
         <v>20477349243</v>
       </c>
       <c r="G239" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H239">
         <v>20477349243</v>
@@ -12916,10 +13231,13 @@
         <v>18</v>
       </c>
       <c r="L239" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="N239" t="s">
-        <v>528</v>
+        <v>525</v>
+      </c>
+      <c r="O239" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.3">
@@ -12942,7 +13260,7 @@
         <v>20385016582</v>
       </c>
       <c r="G240" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H240">
         <v>20385016582</v>
@@ -12960,10 +13278,13 @@
         <v>202510</v>
       </c>
       <c r="N240" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="O240" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>76483928</v>
       </c>
@@ -12983,7 +13304,7 @@
         <v>20614218186</v>
       </c>
       <c r="G241" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H241">
         <v>20614218186</v>
@@ -13000,8 +13321,11 @@
       <c r="L241">
         <v>202510</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O241" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>76477024</v>
       </c>
@@ -13021,7 +13345,7 @@
         <v>20603482272</v>
       </c>
       <c r="G242" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H242">
         <v>20603482272</v>
@@ -13039,10 +13363,13 @@
         <v>202510</v>
       </c>
       <c r="N242" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="O242" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>76475906</v>
       </c>
@@ -13062,7 +13389,7 @@
         <v>20565549805</v>
       </c>
       <c r="G243" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H243">
         <v>20565549805</v>
@@ -13080,10 +13407,13 @@
         <v>202510</v>
       </c>
       <c r="N243" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="O243" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>76483142</v>
       </c>
@@ -13103,7 +13433,7 @@
         <v>20603115873</v>
       </c>
       <c r="G244" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H244">
         <v>20603115873</v>
@@ -13120,8 +13450,11 @@
       <c r="L244">
         <v>202510</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O244" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>76474914</v>
       </c>
@@ -13141,7 +13474,7 @@
         <v>20513555475</v>
       </c>
       <c r="G245" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H245">
         <v>20513555475</v>
@@ -13159,10 +13492,13 @@
         <v>67</v>
       </c>
       <c r="N245" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="O245" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>76477253</v>
       </c>
@@ -13182,7 +13518,7 @@
         <v>20604624291</v>
       </c>
       <c r="G246" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H246">
         <v>20604624291</v>
@@ -13199,8 +13535,11 @@
       <c r="L246">
         <v>202510</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O246" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>76491320</v>
       </c>
@@ -13220,7 +13559,7 @@
         <v>28820961</v>
       </c>
       <c r="G247" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H247">
         <v>10288209613</v>
@@ -13234,8 +13573,11 @@
       <c r="K247" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O247" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>76474940</v>
       </c>
@@ -13255,7 +13597,7 @@
         <v>20514784362</v>
       </c>
       <c r="G248" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H248">
         <v>20514784362</v>
@@ -13273,10 +13615,13 @@
         <v>202509</v>
       </c>
       <c r="N248" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="O248" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>76475500</v>
       </c>
@@ -13296,7 +13641,7 @@
         <v>20546935320</v>
       </c>
       <c r="G249" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H249">
         <v>20546935320</v>
@@ -13313,8 +13658,11 @@
       <c r="L249" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O249" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>76475600</v>
       </c>
@@ -13334,7 +13682,7 @@
         <v>20551300600</v>
       </c>
       <c r="G250" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H250">
         <v>20551300600</v>
@@ -13352,10 +13700,13 @@
         <v>202510</v>
       </c>
       <c r="N250" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="O250" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>76473963</v>
       </c>
@@ -13375,7 +13726,7 @@
         <v>28820579</v>
       </c>
       <c r="G251" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H251">
         <v>10288205791</v>
@@ -13390,13 +13741,16 @@
         <v>18</v>
       </c>
       <c r="L251" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="N251" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+      <c r="O251" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>76478005</v>
       </c>
@@ -13416,7 +13770,7 @@
         <v>20607978019</v>
       </c>
       <c r="G252" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H252">
         <v>20607978019</v>
@@ -13433,8 +13787,11 @@
       <c r="L252">
         <v>202510</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O252" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>76474021</v>
       </c>
@@ -13454,7 +13811,7 @@
         <v>42034235</v>
       </c>
       <c r="G253" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H253">
         <v>10420342352</v>
@@ -13472,10 +13829,13 @@
         <v>202510</v>
       </c>
       <c r="N253" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+      <c r="O253" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>76477407</v>
       </c>
@@ -13495,7 +13855,7 @@
         <v>20605289411</v>
       </c>
       <c r="G254" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H254">
         <v>20605289411</v>
@@ -13513,10 +13873,13 @@
         <v>202510</v>
       </c>
       <c r="N254" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="O254" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>76475252</v>
       </c>
@@ -13536,7 +13899,7 @@
         <v>20535020249</v>
       </c>
       <c r="G255" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H255">
         <v>20535020249</v>
@@ -13554,10 +13917,13 @@
         <v>202510</v>
       </c>
       <c r="N255" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="O255" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>76474054</v>
       </c>
@@ -13577,7 +13943,7 @@
         <v>43201841</v>
       </c>
       <c r="G256" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H256">
         <v>10432018411</v>
@@ -13592,13 +13958,16 @@
         <v>18</v>
       </c>
       <c r="L256" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="N256" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+      <c r="O256" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>76483534</v>
       </c>
@@ -13618,7 +13987,7 @@
         <v>20608953630</v>
       </c>
       <c r="G257" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H257">
         <v>20608953630</v>
@@ -13635,8 +14004,11 @@
       <c r="L257">
         <v>202510</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O257" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>76483231</v>
       </c>
@@ -13656,7 +14028,7 @@
         <v>20604156174</v>
       </c>
       <c r="G258" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H258">
         <v>20604156174</v>
@@ -13676,8 +14048,11 @@
       <c r="M258">
         <v>202507</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O258" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>76476886</v>
       </c>
@@ -13697,7 +14072,7 @@
         <v>20603030592</v>
       </c>
       <c r="G259" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H259">
         <v>20603030592</v>
@@ -13714,8 +14089,11 @@
       <c r="L259">
         <v>202510</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O259" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>76477023</v>
       </c>
@@ -13735,7 +14113,7 @@
         <v>20603477864</v>
       </c>
       <c r="G260" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H260">
         <v>20603477864</v>
@@ -13753,10 +14131,13 @@
         <v>202510</v>
       </c>
       <c r="N260" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+      <c r="O260" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>76474327</v>
       </c>
@@ -13776,7 +14157,7 @@
         <v>20393365537</v>
       </c>
       <c r="G261" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H261">
         <v>20393365537</v>
@@ -13793,8 +14174,11 @@
       <c r="L261">
         <v>202510</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O261" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>76476277</v>
       </c>
@@ -13814,7 +14198,7 @@
         <v>20601080428</v>
       </c>
       <c r="G262" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H262">
         <v>20601080428</v>
@@ -13832,10 +14216,13 @@
         <v>202510</v>
       </c>
       <c r="N262" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="O262" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>76477724</v>
       </c>
@@ -13855,7 +14242,7 @@
         <v>20606561891</v>
       </c>
       <c r="G263" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H263">
         <v>20606561891</v>
@@ -13873,10 +14260,13 @@
         <v>202510</v>
       </c>
       <c r="N263" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="O263" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>76483490</v>
       </c>
@@ -13896,7 +14286,7 @@
         <v>20608413848</v>
       </c>
       <c r="G264" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H264">
         <v>20608413848</v>
@@ -13913,8 +14303,11 @@
       <c r="L264" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O264" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>76482054</v>
       </c>
@@ -13934,7 +14327,7 @@
         <v>45437760</v>
       </c>
       <c r="G265" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H265">
         <v>10454377601</v>
@@ -13952,7 +14345,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>76483751</v>
       </c>
@@ -13972,7 +14365,7 @@
         <v>20611895713</v>
       </c>
       <c r="G266" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H266">
         <v>20611895713</v>
@@ -13990,7 +14383,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>76487371</v>
       </c>
@@ -14010,7 +14403,7 @@
         <v>5292332</v>
       </c>
       <c r="G267" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H267">
         <v>10052923323</v>
@@ -14025,10 +14418,10 @@
         <v>18</v>
       </c>
       <c r="L267" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>76475103</v>
       </c>
@@ -14048,7 +14441,7 @@
         <v>20523639189</v>
       </c>
       <c r="G268" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H268">
         <v>20523639189</v>
@@ -14066,7 +14459,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>76482336</v>
       </c>
@@ -14086,7 +14479,7 @@
         <v>20482531301</v>
       </c>
       <c r="G269" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H269">
         <v>20482531301</v>
@@ -14104,7 +14497,7 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>76475236</v>
       </c>
@@ -14124,7 +14517,7 @@
         <v>20533805061</v>
       </c>
       <c r="G270" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H270">
         <v>20533805061</v>
@@ -14142,7 +14535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>76482156</v>
       </c>
@@ -14162,7 +14555,7 @@
         <v>20156754898</v>
       </c>
       <c r="G271" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H271">
         <v>20156754898</v>
@@ -14180,12 +14573,12 @@
         <v>202507</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>76482934</v>
+        <v>76483522</v>
       </c>
       <c r="B272" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C272">
         <v>45992</v>
@@ -14197,16 +14590,16 @@
         <v>17</v>
       </c>
       <c r="F272">
-        <v>20601116104</v>
+        <v>20608819771</v>
       </c>
       <c r="G272" t="s">
-        <v>644</v>
+        <v>694</v>
       </c>
       <c r="H272">
-        <v>20601116104</v>
+        <v>20608819771</v>
       </c>
       <c r="I272" s="4">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="J272">
         <v>66.099999999999994</v>
@@ -14218,12 +14611,12 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>76477617</v>
+        <v>76476639</v>
       </c>
       <c r="B273" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="C273" t="s">
         <v>82</v>
@@ -14235,74 +14628,80 @@
         <v>21</v>
       </c>
       <c r="F273">
-        <v>20606177632</v>
+        <v>20602174353</v>
       </c>
       <c r="G273" t="s">
-        <v>645</v>
+        <v>695</v>
       </c>
       <c r="H273">
-        <v>20606177632</v>
+        <v>20602174353</v>
       </c>
       <c r="I273" s="4">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="J273">
-        <v>66.099999999999994</v>
+        <v>74</v>
       </c>
       <c r="K273" t="s">
         <v>18</v>
       </c>
-      <c r="L273">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L273" t="s">
+        <v>67</v>
+      </c>
+      <c r="N273" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>76482075</v>
+        <v>76479451</v>
       </c>
       <c r="B274" t="s">
-        <v>64</v>
-      </c>
-      <c r="C274">
-        <v>45992</v>
+        <v>120</v>
+      </c>
+      <c r="C274" t="s">
+        <v>82</v>
       </c>
       <c r="D274" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E274" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F274">
-        <v>47292711</v>
+        <v>20614103320</v>
       </c>
       <c r="G274" t="s">
-        <v>646</v>
+        <v>697</v>
       </c>
       <c r="H274">
-        <v>10472927111</v>
+        <v>20614103320</v>
       </c>
       <c r="I274" s="4">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="J274">
-        <v>66.099999999999994</v>
+        <v>270.58999999999997</v>
       </c>
       <c r="K274" t="s">
-        <v>27</v>
-      </c>
-      <c r="M274">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="L274" t="s">
+        <v>67</v>
+      </c>
+      <c r="N274" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>76477497</v>
+        <v>76475844</v>
       </c>
       <c r="B275" t="s">
-        <v>19</v>
-      </c>
-      <c r="C275">
-        <v>45992</v>
+        <v>22</v>
+      </c>
+      <c r="C275" t="s">
+        <v>82</v>
       </c>
       <c r="D275" t="s">
         <v>20</v>
@@ -14311,19 +14710,19 @@
         <v>21</v>
       </c>
       <c r="F275">
-        <v>20605705414</v>
+        <v>20560145358</v>
       </c>
       <c r="G275" t="s">
-        <v>647</v>
+        <v>699</v>
       </c>
       <c r="H275">
-        <v>20605705414</v>
+        <v>20560145358</v>
       </c>
       <c r="I275" s="4">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="J275">
-        <v>73.73</v>
+        <v>95</v>
       </c>
       <c r="K275" t="s">
         <v>18</v>
@@ -14331,69 +14730,75 @@
       <c r="L275">
         <v>202510</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N275" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>76482598</v>
+        <v>76479247</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
-      </c>
-      <c r="C276">
-        <v>45992</v>
+        <v>120</v>
+      </c>
+      <c r="C276" t="s">
+        <v>82</v>
       </c>
       <c r="D276" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E276" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F276">
-        <v>20535697061</v>
+        <v>20613161032</v>
       </c>
       <c r="G276" t="s">
-        <v>648</v>
+        <v>701</v>
       </c>
       <c r="H276">
-        <v>20535697061</v>
+        <v>20613161032</v>
       </c>
       <c r="I276" s="4">
-        <v>46016</v>
+        <v>46017</v>
       </c>
       <c r="J276">
-        <v>128.75</v>
+        <v>172.99</v>
       </c>
       <c r="K276" t="s">
         <v>18</v>
       </c>
-      <c r="L276">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L276" t="s">
+        <v>702</v>
+      </c>
+      <c r="N276" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>76483116</v>
+        <v>76477192</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
-      </c>
-      <c r="C277">
-        <v>45992</v>
+        <v>120</v>
+      </c>
+      <c r="C277" t="s">
+        <v>82</v>
       </c>
       <c r="D277" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E277" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F277">
-        <v>20602868134</v>
+        <v>20604267197</v>
       </c>
       <c r="G277" t="s">
-        <v>649</v>
+        <v>704</v>
       </c>
       <c r="H277">
-        <v>20602868134</v>
+        <v>20604267197</v>
       </c>
       <c r="I277" s="4">
         <v>46017</v>
@@ -14408,12 +14813,12 @@
         <v>202510</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>76476778</v>
+        <v>76474342</v>
       </c>
       <c r="B278" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="C278" t="s">
         <v>82</v>
@@ -14425,62 +14830,1308 @@
         <v>21</v>
       </c>
       <c r="F278">
+        <v>20397739709</v>
+      </c>
+      <c r="G278" t="s">
+        <v>705</v>
+      </c>
+      <c r="H278">
+        <v>20397739709</v>
+      </c>
+      <c r="I278" s="4">
+        <v>46010</v>
+      </c>
+      <c r="J278">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K278" t="s">
+        <v>18</v>
+      </c>
+      <c r="L278">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>76478297</v>
+      </c>
+      <c r="B279" t="s">
+        <v>24</v>
+      </c>
+      <c r="C279">
+        <v>45992</v>
+      </c>
+      <c r="D279" t="s">
+        <v>20</v>
+      </c>
+      <c r="E279" t="s">
+        <v>21</v>
+      </c>
+      <c r="F279">
+        <v>20609206919</v>
+      </c>
+      <c r="G279" t="s">
+        <v>706</v>
+      </c>
+      <c r="H279">
+        <v>20609206919</v>
+      </c>
+      <c r="I279" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J279">
+        <v>116.68</v>
+      </c>
+      <c r="K279" t="s">
+        <v>18</v>
+      </c>
+      <c r="L279" t="s">
+        <v>69</v>
+      </c>
+      <c r="N279" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>76483919</v>
+      </c>
+      <c r="B280" t="s">
+        <v>26</v>
+      </c>
+      <c r="C280">
+        <v>45992</v>
+      </c>
+      <c r="D280" t="s">
+        <v>16</v>
+      </c>
+      <c r="E280" t="s">
+        <v>17</v>
+      </c>
+      <c r="F280">
+        <v>20614113341</v>
+      </c>
+      <c r="G280" t="s">
+        <v>708</v>
+      </c>
+      <c r="H280">
+        <v>20614113341</v>
+      </c>
+      <c r="I280" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J280">
+        <v>116.53</v>
+      </c>
+      <c r="K280" t="s">
+        <v>18</v>
+      </c>
+      <c r="L280" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>76483748</v>
+      </c>
+      <c r="B281" t="s">
+        <v>64</v>
+      </c>
+      <c r="C281">
+        <v>45992</v>
+      </c>
+      <c r="D281" t="s">
+        <v>16</v>
+      </c>
+      <c r="E281" t="s">
+        <v>17</v>
+      </c>
+      <c r="F281">
+        <v>20611823828</v>
+      </c>
+      <c r="G281" t="s">
+        <v>709</v>
+      </c>
+      <c r="H281">
+        <v>20611823828</v>
+      </c>
+      <c r="I281" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J281">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K281" t="s">
+        <v>18</v>
+      </c>
+      <c r="L281">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>76482504</v>
+      </c>
+      <c r="B282" t="s">
+        <v>15</v>
+      </c>
+      <c r="C282">
+        <v>45992</v>
+      </c>
+      <c r="D282" t="s">
+        <v>16</v>
+      </c>
+      <c r="E282" t="s">
+        <v>17</v>
+      </c>
+      <c r="F282">
+        <v>20518871588</v>
+      </c>
+      <c r="G282" t="s">
+        <v>710</v>
+      </c>
+      <c r="H282">
+        <v>20518871588</v>
+      </c>
+      <c r="I282" s="4">
+        <v>46014</v>
+      </c>
+      <c r="J282">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K282" t="s">
+        <v>18</v>
+      </c>
+      <c r="L282">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>76474384</v>
+      </c>
+      <c r="B283" t="s">
+        <v>19</v>
+      </c>
+      <c r="C283">
+        <v>45992</v>
+      </c>
+      <c r="D283" t="s">
+        <v>20</v>
+      </c>
+      <c r="E283" t="s">
+        <v>21</v>
+      </c>
+      <c r="F283">
+        <v>20434861528</v>
+      </c>
+      <c r="G283" t="s">
+        <v>711</v>
+      </c>
+      <c r="H283">
+        <v>20434861528</v>
+      </c>
+      <c r="I283" s="4">
+        <v>46003</v>
+      </c>
+      <c r="J283">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K283" t="s">
+        <v>18</v>
+      </c>
+      <c r="L283">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>76476314</v>
+      </c>
+      <c r="B284" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" t="s">
+        <v>82</v>
+      </c>
+      <c r="D284" t="s">
+        <v>20</v>
+      </c>
+      <c r="E284" t="s">
+        <v>21</v>
+      </c>
+      <c r="F284">
+        <v>20601219302</v>
+      </c>
+      <c r="G284" t="s">
+        <v>712</v>
+      </c>
+      <c r="H284">
+        <v>20601219302</v>
+      </c>
+      <c r="I284" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J284">
+        <v>455</v>
+      </c>
+      <c r="K284" t="s">
+        <v>23</v>
+      </c>
+      <c r="L284" t="s">
+        <v>33</v>
+      </c>
+      <c r="M284">
+        <v>202510</v>
+      </c>
+      <c r="N284" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>76474139</v>
+      </c>
+      <c r="B285" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" t="s">
+        <v>82</v>
+      </c>
+      <c r="D285" t="s">
+        <v>20</v>
+      </c>
+      <c r="E285" t="s">
+        <v>21</v>
+      </c>
+      <c r="F285">
+        <v>70342138</v>
+      </c>
+      <c r="G285" t="s">
+        <v>714</v>
+      </c>
+      <c r="H285">
+        <v>10703421381</v>
+      </c>
+      <c r="I285" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J285">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K285" t="s">
+        <v>18</v>
+      </c>
+      <c r="L285" t="s">
+        <v>67</v>
+      </c>
+      <c r="N285" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>76483356</v>
+      </c>
+      <c r="B286" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286">
+        <v>45992</v>
+      </c>
+      <c r="D286" t="s">
+        <v>16</v>
+      </c>
+      <c r="E286" t="s">
+        <v>17</v>
+      </c>
+      <c r="F286">
+        <v>20606231882</v>
+      </c>
+      <c r="G286" t="s">
+        <v>716</v>
+      </c>
+      <c r="H286">
+        <v>20606231882</v>
+      </c>
+      <c r="I286" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J286">
+        <v>56.1</v>
+      </c>
+      <c r="K286" t="s">
+        <v>18</v>
+      </c>
+      <c r="L286">
+        <v>202507</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>76478197</v>
+      </c>
+      <c r="B287" t="s">
+        <v>19</v>
+      </c>
+      <c r="C287">
+        <v>45992</v>
+      </c>
+      <c r="D287" t="s">
+        <v>20</v>
+      </c>
+      <c r="E287" t="s">
+        <v>21</v>
+      </c>
+      <c r="F287">
+        <v>20608786342</v>
+      </c>
+      <c r="G287" t="s">
+        <v>717</v>
+      </c>
+      <c r="H287">
+        <v>20608786342</v>
+      </c>
+      <c r="I287" s="4">
+        <v>46018</v>
+      </c>
+      <c r="J287">
+        <v>239.65</v>
+      </c>
+      <c r="K287" t="s">
+        <v>18</v>
+      </c>
+      <c r="L287">
+        <v>202510</v>
+      </c>
+      <c r="N287" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>76503948</v>
+      </c>
+      <c r="B288" t="s">
+        <v>719</v>
+      </c>
+      <c r="C288" t="s">
+        <v>82</v>
+      </c>
+      <c r="D288" t="s">
+        <v>50</v>
+      </c>
+      <c r="E288" t="s">
+        <v>51</v>
+      </c>
+      <c r="F288">
+        <v>20601471664</v>
+      </c>
+      <c r="G288" t="s">
+        <v>720</v>
+      </c>
+      <c r="H288">
+        <v>20601471664</v>
+      </c>
+      <c r="I288" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J288">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="K288" t="s">
+        <v>18</v>
+      </c>
+      <c r="L288">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>76475815</v>
+      </c>
+      <c r="B289" t="s">
+        <v>19</v>
+      </c>
+      <c r="C289">
+        <v>45992</v>
+      </c>
+      <c r="D289" t="s">
+        <v>20</v>
+      </c>
+      <c r="E289" t="s">
+        <v>21</v>
+      </c>
+      <c r="F289">
+        <v>20558622068</v>
+      </c>
+      <c r="G289" t="s">
+        <v>721</v>
+      </c>
+      <c r="H289">
+        <v>20558622068</v>
+      </c>
+      <c r="I289" s="4">
+        <v>46018</v>
+      </c>
+      <c r="J289">
+        <v>190.54</v>
+      </c>
+      <c r="K289" t="s">
+        <v>18</v>
+      </c>
+      <c r="L289" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>76476766</v>
+      </c>
+      <c r="B290" t="s">
+        <v>22</v>
+      </c>
+      <c r="C290" t="s">
+        <v>82</v>
+      </c>
+      <c r="D290" t="s">
+        <v>20</v>
+      </c>
+      <c r="E290" t="s">
+        <v>21</v>
+      </c>
+      <c r="F290">
+        <v>20602619517</v>
+      </c>
+      <c r="G290" t="s">
+        <v>722</v>
+      </c>
+      <c r="H290">
+        <v>20602619517</v>
+      </c>
+      <c r="I290" s="4">
+        <v>46019</v>
+      </c>
+      <c r="J290">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K290" t="s">
+        <v>23</v>
+      </c>
+      <c r="L290" t="s">
+        <v>552</v>
+      </c>
+      <c r="M290" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>76474667</v>
+      </c>
+      <c r="B291" t="s">
+        <v>24</v>
+      </c>
+      <c r="C291">
+        <v>45992</v>
+      </c>
+      <c r="D291" t="s">
+        <v>20</v>
+      </c>
+      <c r="E291" t="s">
+        <v>21</v>
+      </c>
+      <c r="F291">
+        <v>20491208776</v>
+      </c>
+      <c r="G291" t="s">
+        <v>723</v>
+      </c>
+      <c r="H291">
+        <v>20491208776</v>
+      </c>
+      <c r="I291" s="4">
+        <v>46010</v>
+      </c>
+      <c r="J291">
+        <v>172.89</v>
+      </c>
+      <c r="K291" t="s">
+        <v>18</v>
+      </c>
+      <c r="L291" t="s">
+        <v>543</v>
+      </c>
+      <c r="N291" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>76477202</v>
+      </c>
+      <c r="B292" t="s">
+        <v>19</v>
+      </c>
+      <c r="C292">
+        <v>45992</v>
+      </c>
+      <c r="D292" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" t="s">
+        <v>21</v>
+      </c>
+      <c r="F292">
+        <v>20604294437</v>
+      </c>
+      <c r="G292" t="s">
+        <v>725</v>
+      </c>
+      <c r="H292">
+        <v>20604294437</v>
+      </c>
+      <c r="I292" s="4">
+        <v>46018</v>
+      </c>
+      <c r="J292">
+        <v>100</v>
+      </c>
+      <c r="K292" t="s">
+        <v>18</v>
+      </c>
+      <c r="L292">
+        <v>202510</v>
+      </c>
+      <c r="N292" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>76482973</v>
+      </c>
+      <c r="B293" t="s">
+        <v>64</v>
+      </c>
+      <c r="C293">
+        <v>45992</v>
+      </c>
+      <c r="D293" t="s">
+        <v>16</v>
+      </c>
+      <c r="E293" t="s">
+        <v>17</v>
+      </c>
+      <c r="F293">
+        <v>20601572126</v>
+      </c>
+      <c r="G293" t="s">
+        <v>727</v>
+      </c>
+      <c r="H293">
+        <v>20601572126</v>
+      </c>
+      <c r="I293" s="4">
+        <v>46018</v>
+      </c>
+      <c r="J293">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K293" t="s">
+        <v>18</v>
+      </c>
+      <c r="L293">
+        <v>202506</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>76477814</v>
+      </c>
+      <c r="B294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C294">
+        <v>45992</v>
+      </c>
+      <c r="D294" t="s">
+        <v>20</v>
+      </c>
+      <c r="E294" t="s">
+        <v>21</v>
+      </c>
+      <c r="F294">
+        <v>20606971053</v>
+      </c>
+      <c r="G294" t="s">
+        <v>728</v>
+      </c>
+      <c r="H294">
+        <v>20606971053</v>
+      </c>
+      <c r="I294" s="4">
+        <v>46011</v>
+      </c>
+      <c r="J294">
+        <v>92.14</v>
+      </c>
+      <c r="K294" t="s">
+        <v>18</v>
+      </c>
+      <c r="L294">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>76483623</v>
+      </c>
+      <c r="B295" t="s">
+        <v>15</v>
+      </c>
+      <c r="C295">
+        <v>45992</v>
+      </c>
+      <c r="D295" t="s">
+        <v>16</v>
+      </c>
+      <c r="E295" t="s">
+        <v>17</v>
+      </c>
+      <c r="F295">
+        <v>20610127054</v>
+      </c>
+      <c r="G295" t="s">
+        <v>729</v>
+      </c>
+      <c r="H295">
+        <v>20610127054</v>
+      </c>
+      <c r="I295" s="4">
+        <v>46018</v>
+      </c>
+      <c r="J295">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K295" t="s">
+        <v>18</v>
+      </c>
+      <c r="L295">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>76478226</v>
+      </c>
+      <c r="B296" t="s">
+        <v>19</v>
+      </c>
+      <c r="C296">
+        <v>45992</v>
+      </c>
+      <c r="D296" t="s">
+        <v>20</v>
+      </c>
+      <c r="E296" t="s">
+        <v>21</v>
+      </c>
+      <c r="F296">
+        <v>20608919954</v>
+      </c>
+      <c r="G296" t="s">
+        <v>730</v>
+      </c>
+      <c r="H296">
+        <v>20608919954</v>
+      </c>
+      <c r="I296" s="4">
+        <v>46018</v>
+      </c>
+      <c r="J296">
+        <v>70.25</v>
+      </c>
+      <c r="K296" t="s">
+        <v>18</v>
+      </c>
+      <c r="L296" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>76475377</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297">
+        <v>45992</v>
+      </c>
+      <c r="D297" t="s">
+        <v>20</v>
+      </c>
+      <c r="E297" t="s">
+        <v>21</v>
+      </c>
+      <c r="F297">
+        <v>20541366505</v>
+      </c>
+      <c r="G297" t="s">
+        <v>731</v>
+      </c>
+      <c r="H297">
+        <v>20541366505</v>
+      </c>
+      <c r="I297" s="4">
+        <v>46018</v>
+      </c>
+      <c r="J297">
+        <v>106.48</v>
+      </c>
+      <c r="K297" t="s">
+        <v>27</v>
+      </c>
+      <c r="M297">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>76476343</v>
+      </c>
+      <c r="B298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C298">
+        <v>45992</v>
+      </c>
+      <c r="D298" t="s">
+        <v>20</v>
+      </c>
+      <c r="E298" t="s">
+        <v>21</v>
+      </c>
+      <c r="F298">
+        <v>20601320500</v>
+      </c>
+      <c r="G298" t="s">
+        <v>732</v>
+      </c>
+      <c r="H298">
+        <v>20601320500</v>
+      </c>
+      <c r="I298" s="4">
+        <v>46018</v>
+      </c>
+      <c r="J298">
+        <v>121.22</v>
+      </c>
+      <c r="K298" t="s">
+        <v>18</v>
+      </c>
+      <c r="L298" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>76483805</v>
+      </c>
+      <c r="B299" t="s">
+        <v>64</v>
+      </c>
+      <c r="C299">
+        <v>45992</v>
+      </c>
+      <c r="D299" t="s">
+        <v>16</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299">
+        <v>20612570273</v>
+      </c>
+      <c r="G299" t="s">
+        <v>734</v>
+      </c>
+      <c r="H299">
+        <v>20612570273</v>
+      </c>
+      <c r="I299" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J299">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K299" t="s">
+        <v>18</v>
+      </c>
+      <c r="L299">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>76495923</v>
+      </c>
+      <c r="B300" t="s">
+        <v>32</v>
+      </c>
+      <c r="C300" t="s">
+        <v>82</v>
+      </c>
+      <c r="D300" t="s">
+        <v>50</v>
+      </c>
+      <c r="E300" t="s">
+        <v>51</v>
+      </c>
+      <c r="F300">
+        <v>20455191557</v>
+      </c>
+      <c r="G300" t="s">
+        <v>735</v>
+      </c>
+      <c r="H300">
+        <v>20455191557</v>
+      </c>
+      <c r="I300" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J300">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K300" t="s">
+        <v>18</v>
+      </c>
+      <c r="L300">
+        <v>202510</v>
+      </c>
+      <c r="N300" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>76482934</v>
+      </c>
+      <c r="B301" t="s">
+        <v>64</v>
+      </c>
+      <c r="C301">
+        <v>45992</v>
+      </c>
+      <c r="D301" t="s">
+        <v>16</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301">
+        <v>20601116104</v>
+      </c>
+      <c r="G301" t="s">
+        <v>641</v>
+      </c>
+      <c r="H301">
+        <v>20601116104</v>
+      </c>
+      <c r="I301" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J301">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K301" t="s">
+        <v>18</v>
+      </c>
+      <c r="L301">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>76477617</v>
+      </c>
+      <c r="B302" t="s">
+        <v>169</v>
+      </c>
+      <c r="C302" t="s">
+        <v>82</v>
+      </c>
+      <c r="D302" t="s">
+        <v>20</v>
+      </c>
+      <c r="E302" t="s">
+        <v>21</v>
+      </c>
+      <c r="F302">
+        <v>20606177632</v>
+      </c>
+      <c r="G302" t="s">
+        <v>642</v>
+      </c>
+      <c r="H302">
+        <v>20606177632</v>
+      </c>
+      <c r="I302" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J302">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K302" t="s">
+        <v>18</v>
+      </c>
+      <c r="L302">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>76482075</v>
+      </c>
+      <c r="B303" t="s">
+        <v>64</v>
+      </c>
+      <c r="C303">
+        <v>45992</v>
+      </c>
+      <c r="D303" t="s">
+        <v>16</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303">
+        <v>47292711</v>
+      </c>
+      <c r="G303" t="s">
+        <v>643</v>
+      </c>
+      <c r="H303">
+        <v>10472927111</v>
+      </c>
+      <c r="I303" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J303">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K303" t="s">
+        <v>18</v>
+      </c>
+      <c r="L303">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>76477497</v>
+      </c>
+      <c r="B304" t="s">
+        <v>19</v>
+      </c>
+      <c r="C304">
+        <v>45992</v>
+      </c>
+      <c r="D304" t="s">
+        <v>20</v>
+      </c>
+      <c r="E304" t="s">
+        <v>21</v>
+      </c>
+      <c r="F304">
+        <v>20605705414</v>
+      </c>
+      <c r="G304" t="s">
+        <v>644</v>
+      </c>
+      <c r="H304">
+        <v>20605705414</v>
+      </c>
+      <c r="I304" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J304">
+        <v>73.73</v>
+      </c>
+      <c r="K304" t="s">
+        <v>18</v>
+      </c>
+      <c r="L304">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>76482598</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305">
+        <v>45992</v>
+      </c>
+      <c r="D305" t="s">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305">
+        <v>20535697061</v>
+      </c>
+      <c r="G305" t="s">
+        <v>645</v>
+      </c>
+      <c r="H305">
+        <v>20535697061</v>
+      </c>
+      <c r="I305" s="4">
+        <v>46016</v>
+      </c>
+      <c r="J305">
+        <v>128.75</v>
+      </c>
+      <c r="K305" t="s">
+        <v>18</v>
+      </c>
+      <c r="L305">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>76483116</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306">
+        <v>45992</v>
+      </c>
+      <c r="D306" t="s">
+        <v>16</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306">
+        <v>20602868134</v>
+      </c>
+      <c r="G306" t="s">
+        <v>646</v>
+      </c>
+      <c r="H306">
+        <v>20602868134</v>
+      </c>
+      <c r="I306" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J306">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K306" t="s">
+        <v>18</v>
+      </c>
+      <c r="L306">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>76476778</v>
+      </c>
+      <c r="B307" t="s">
+        <v>120</v>
+      </c>
+      <c r="C307" t="s">
+        <v>82</v>
+      </c>
+      <c r="D307" t="s">
+        <v>20</v>
+      </c>
+      <c r="E307" t="s">
+        <v>21</v>
+      </c>
+      <c r="F307">
         <v>20602669620</v>
       </c>
-      <c r="G278" t="s">
-        <v>650</v>
-      </c>
-      <c r="H278">
+      <c r="G307" t="s">
+        <v>647</v>
+      </c>
+      <c r="H307">
         <v>20602669620</v>
       </c>
-      <c r="I278" s="4">
+      <c r="I307" s="4">
         <v>46014</v>
       </c>
-      <c r="J278">
+      <c r="J307">
         <v>244.71</v>
       </c>
-      <c r="K278" t="s">
-        <v>18</v>
-      </c>
-      <c r="L278">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A279">
+      <c r="K307" t="s">
+        <v>18</v>
+      </c>
+      <c r="L307">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A308">
         <v>76483449</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B308" t="s">
         <v>64</v>
       </c>
-      <c r="C279">
-        <v>45992</v>
-      </c>
-      <c r="D279" t="s">
+      <c r="C308">
+        <v>45992</v>
+      </c>
+      <c r="D308" t="s">
         <v>16</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E308" t="s">
         <v>17</v>
       </c>
-      <c r="F279">
+      <c r="F308">
         <v>20607919462</v>
       </c>
-      <c r="G279" t="s">
-        <v>651</v>
-      </c>
-      <c r="H279">
+      <c r="G308" t="s">
+        <v>648</v>
+      </c>
+      <c r="H308">
         <v>20607919462</v>
       </c>
-      <c r="I279" s="4">
+      <c r="I308" s="4">
         <v>46015</v>
       </c>
-      <c r="J279">
+      <c r="J308">
         <v>66.099999999999994</v>
       </c>
-      <c r="K279" t="s">
-        <v>18</v>
-      </c>
-      <c r="L279">
+      <c r="K308" t="s">
+        <v>18</v>
+      </c>
+      <c r="L308">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>76482593</v>
+      </c>
+      <c r="B309" t="s">
+        <v>64</v>
+      </c>
+      <c r="C309">
+        <v>45992</v>
+      </c>
+      <c r="D309" t="s">
+        <v>16</v>
+      </c>
+      <c r="E309" t="s">
+        <v>17</v>
+      </c>
+      <c r="F309">
+        <v>20534295996</v>
+      </c>
+      <c r="G309" t="s">
+        <v>737</v>
+      </c>
+      <c r="H309">
+        <v>20534295996</v>
+      </c>
+      <c r="I309" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J309">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K309" t="s">
+        <v>18</v>
+      </c>
+      <c r="L309">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>76475363</v>
+      </c>
+      <c r="B310" t="s">
+        <v>19</v>
+      </c>
+      <c r="C310">
+        <v>45992</v>
+      </c>
+      <c r="D310" t="s">
+        <v>20</v>
+      </c>
+      <c r="E310" t="s">
+        <v>21</v>
+      </c>
+      <c r="F310">
+        <v>20539802284</v>
+      </c>
+      <c r="G310" t="s">
+        <v>738</v>
+      </c>
+      <c r="H310">
+        <v>20539802284</v>
+      </c>
+      <c r="I310" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J310">
+        <v>92.26</v>
+      </c>
+      <c r="K310" t="s">
+        <v>18</v>
+      </c>
+      <c r="L310" t="s">
+        <v>54</v>
+      </c>
+      <c r="N310" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>76482723</v>
+      </c>
+      <c r="B311" t="s">
+        <v>15</v>
+      </c>
+      <c r="C311">
+        <v>45992</v>
+      </c>
+      <c r="D311" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" t="s">
+        <v>17</v>
+      </c>
+      <c r="F311">
+        <v>20553032319</v>
+      </c>
+      <c r="G311" t="s">
+        <v>740</v>
+      </c>
+      <c r="H311">
+        <v>20553032319</v>
+      </c>
+      <c r="I311" s="4">
+        <v>46017</v>
+      </c>
+      <c r="J311">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K311" t="s">
+        <v>18</v>
+      </c>
+      <c r="L311">
         <v>202510</v>
       </c>
     </row>

--- a/CIERRE DE PAGOS.xlsx
+++ b/CIERRE DE PAGOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REPORTE MENSUAL WORLDTEL\DASHBOARD ANALISIS\WORLDTEL ANALISIS\ANALISIS-COMPARATIVO\AFP-ANALISIS-COMPARATIVO\AFP-ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982E836-C4EF-4AE6-A953-87135073EB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481328E2-A7D9-4716-BD80-9C0CC8CFB211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="944">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -2762,6 +2762,105 @@
   </si>
   <si>
     <t>lmontoya@fuxion.net/sara.osorio@fuxion.net</t>
+  </si>
+  <si>
+    <t>INGENIERIA DEL CONCRETO Y ALBAÑILERIA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>recursoshumanos.icya@gmail.com , admi.icya@gmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>MEGALUBE S.A.C.</t>
+  </si>
+  <si>
+    <t>F PROYECTS S.A.C.</t>
+  </si>
+  <si>
+    <t>FERNANDEZ PERALTA ROBINSON</t>
+  </si>
+  <si>
+    <t>R &amp; R BIOTECH S.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSIONES FRIO PACIFICO EIRL</t>
+  </si>
+  <si>
+    <t>ifp_eirl@hotmail.com / eoleiva@live.com.mx</t>
+  </si>
+  <si>
+    <t>ZUBIATE VILLANUEVA ARGENI</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA DRYWALL PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>AJT3C BUSINESS SERVICES S.A.C.</t>
+  </si>
+  <si>
+    <t>ajt3cbusiness@gmail.com , ASESOR30@GICORONADO.COM</t>
+  </si>
+  <si>
+    <t>IMSESA S.A.C</t>
+  </si>
+  <si>
+    <t>PAOL KAT IMPORT E.I.R.L.</t>
+  </si>
+  <si>
+    <t>vanessa_alvan@hotmail.com</t>
+  </si>
+  <si>
+    <t>METALES MONTAJES Y SERVICIOS INDUSTRIALES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>TEXTILES &amp; INDUSTRIAS ISABEL S.A.C.</t>
+  </si>
+  <si>
+    <t>alejandra15isabel00@gmail.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>OYACH 369 E.I.R.L.</t>
+  </si>
+  <si>
+    <t>goldcopperperu@gmail.com</t>
+  </si>
+  <si>
+    <t>PALMAGYAR S.A.</t>
+  </si>
+  <si>
+    <t>finanzas@palmagyar.com/elizabeth.cordova@palmagyar.com/contabilidad@palmagyar.com</t>
+  </si>
+  <si>
+    <t>INVERSIONES BASAQUI S.A.C.</t>
+  </si>
+  <si>
+    <t>CARLOS ZAVALETA (CONTADOR)</t>
+  </si>
+  <si>
+    <t>RELAMPAGO INDUSTRIAL SERVICE E.I.R.L</t>
+  </si>
+  <si>
+    <t>J &amp;J DISTRIBUCIONES S.R.L.</t>
+  </si>
+  <si>
+    <t>201707|201708|201709|201710|201711|201712|201801|201802|201803|201804|201805|201806|201807|201808</t>
+  </si>
+  <si>
+    <t>MS SANTOS S.A.C</t>
+  </si>
+  <si>
+    <t>AQUA SOSTENIBLE S.R.L.</t>
+  </si>
+  <si>
+    <t>GAMBOA REYES SABINA AMERICA</t>
+  </si>
+  <si>
+    <t>GRATINA S.A.C.</t>
+  </si>
+  <si>
+    <t>contabilidad@brendacafeterias.com , asesor30@gicoronado.com</t>
+  </si>
+  <si>
+    <t>SLIDER CONSTRUCCIONES B &amp; P S.A.C.</t>
   </si>
 </sst>
 </file>
@@ -3638,10 +3737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O400"/>
+  <dimension ref="A1:O423"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O400"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="K416" sqref="A416:XFD416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20255,6 +20354,910 @@
         <v>910</v>
       </c>
     </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>76475239</v>
+      </c>
+      <c r="B401" t="s">
+        <v>24</v>
+      </c>
+      <c r="C401">
+        <v>45992</v>
+      </c>
+      <c r="D401" t="s">
+        <v>20</v>
+      </c>
+      <c r="E401" t="s">
+        <v>21</v>
+      </c>
+      <c r="F401">
+        <v>20533984992</v>
+      </c>
+      <c r="G401" t="s">
+        <v>911</v>
+      </c>
+      <c r="H401">
+        <v>20533984992</v>
+      </c>
+      <c r="I401" s="4">
+        <v>46024</v>
+      </c>
+      <c r="J401">
+        <v>89.02</v>
+      </c>
+      <c r="K401" t="s">
+        <v>18</v>
+      </c>
+      <c r="L401">
+        <v>202510</v>
+      </c>
+      <c r="N401" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>76478339</v>
+      </c>
+      <c r="B402" t="s">
+        <v>19</v>
+      </c>
+      <c r="C402">
+        <v>45992</v>
+      </c>
+      <c r="D402" t="s">
+        <v>20</v>
+      </c>
+      <c r="E402" t="s">
+        <v>21</v>
+      </c>
+      <c r="F402">
+        <v>20609357712</v>
+      </c>
+      <c r="G402" t="s">
+        <v>913</v>
+      </c>
+      <c r="H402">
+        <v>20609357712</v>
+      </c>
+      <c r="I402" s="4">
+        <v>46023</v>
+      </c>
+      <c r="J402">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K402" t="s">
+        <v>18</v>
+      </c>
+      <c r="L402">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>76477545</v>
+      </c>
+      <c r="B403" t="s">
+        <v>22</v>
+      </c>
+      <c r="C403" t="s">
+        <v>82</v>
+      </c>
+      <c r="D403" t="s">
+        <v>20</v>
+      </c>
+      <c r="E403" t="s">
+        <v>21</v>
+      </c>
+      <c r="F403">
+        <v>20605901221</v>
+      </c>
+      <c r="G403" t="s">
+        <v>914</v>
+      </c>
+      <c r="H403">
+        <v>20605901221</v>
+      </c>
+      <c r="I403" s="4">
+        <v>46023</v>
+      </c>
+      <c r="J403">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K403" t="s">
+        <v>18</v>
+      </c>
+      <c r="L403" t="s">
+        <v>67</v>
+      </c>
+      <c r="N403" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>76478783</v>
+      </c>
+      <c r="B404" t="s">
+        <v>19</v>
+      </c>
+      <c r="C404">
+        <v>45992</v>
+      </c>
+      <c r="D404" t="s">
+        <v>20</v>
+      </c>
+      <c r="E404" t="s">
+        <v>21</v>
+      </c>
+      <c r="F404">
+        <v>20611205482</v>
+      </c>
+      <c r="G404" t="s">
+        <v>916</v>
+      </c>
+      <c r="H404">
+        <v>20611205482</v>
+      </c>
+      <c r="I404" s="4">
+        <v>46024</v>
+      </c>
+      <c r="J404">
+        <v>100.85</v>
+      </c>
+      <c r="K404" t="s">
+        <v>18</v>
+      </c>
+      <c r="L404" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>76500851</v>
+      </c>
+      <c r="B405" t="s">
+        <v>32</v>
+      </c>
+      <c r="C405" t="s">
+        <v>82</v>
+      </c>
+      <c r="D405" t="s">
+        <v>50</v>
+      </c>
+      <c r="E405" t="s">
+        <v>51</v>
+      </c>
+      <c r="F405">
+        <v>20544489616</v>
+      </c>
+      <c r="G405" t="s">
+        <v>917</v>
+      </c>
+      <c r="H405">
+        <v>20544489616</v>
+      </c>
+      <c r="I405" s="4">
+        <v>46024</v>
+      </c>
+      <c r="J405">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K405" t="s">
+        <v>18</v>
+      </c>
+      <c r="L405">
+        <v>202510</v>
+      </c>
+      <c r="N405" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>76473880</v>
+      </c>
+      <c r="B406" t="s">
+        <v>19</v>
+      </c>
+      <c r="C406">
+        <v>45992</v>
+      </c>
+      <c r="D406" t="s">
+        <v>20</v>
+      </c>
+      <c r="E406" t="s">
+        <v>21</v>
+      </c>
+      <c r="F406">
+        <v>10216409</v>
+      </c>
+      <c r="G406" t="s">
+        <v>919</v>
+      </c>
+      <c r="H406">
+        <v>10102164097</v>
+      </c>
+      <c r="I406" s="4">
+        <v>46024</v>
+      </c>
+      <c r="J406">
+        <v>77.64</v>
+      </c>
+      <c r="K406" t="s">
+        <v>18</v>
+      </c>
+      <c r="L406" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>76482548</v>
+      </c>
+      <c r="B407" t="s">
+        <v>15</v>
+      </c>
+      <c r="C407">
+        <v>45992</v>
+      </c>
+      <c r="D407" t="s">
+        <v>16</v>
+      </c>
+      <c r="E407" t="s">
+        <v>17</v>
+      </c>
+      <c r="F407">
+        <v>20524799082</v>
+      </c>
+      <c r="G407" t="s">
+        <v>920</v>
+      </c>
+      <c r="H407">
+        <v>20524799082</v>
+      </c>
+      <c r="I407" s="4">
+        <v>46024</v>
+      </c>
+      <c r="J407">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K407" t="s">
+        <v>18</v>
+      </c>
+      <c r="L407">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>76475715</v>
+      </c>
+      <c r="B408" t="s">
+        <v>24</v>
+      </c>
+      <c r="C408">
+        <v>45992</v>
+      </c>
+      <c r="D408" t="s">
+        <v>20</v>
+      </c>
+      <c r="E408" t="s">
+        <v>21</v>
+      </c>
+      <c r="F408">
+        <v>20554723510</v>
+      </c>
+      <c r="G408" t="s">
+        <v>921</v>
+      </c>
+      <c r="H408">
+        <v>20554723510</v>
+      </c>
+      <c r="I408" s="4">
+        <v>46024</v>
+      </c>
+      <c r="J408">
+        <v>87.95</v>
+      </c>
+      <c r="K408" t="s">
+        <v>18</v>
+      </c>
+      <c r="L408">
+        <v>202510</v>
+      </c>
+      <c r="N408" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>76478073</v>
+      </c>
+      <c r="B409" t="s">
+        <v>22</v>
+      </c>
+      <c r="C409" t="s">
+        <v>82</v>
+      </c>
+      <c r="D409" t="s">
+        <v>20</v>
+      </c>
+      <c r="E409" t="s">
+        <v>21</v>
+      </c>
+      <c r="F409">
+        <v>20608307410</v>
+      </c>
+      <c r="G409" t="s">
+        <v>519</v>
+      </c>
+      <c r="H409">
+        <v>20608307410</v>
+      </c>
+      <c r="I409" s="4">
+        <v>46027</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409" t="s">
+        <v>18</v>
+      </c>
+      <c r="L409" t="s">
+        <v>67</v>
+      </c>
+      <c r="N409" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>76478517</v>
+      </c>
+      <c r="B410" t="s">
+        <v>19</v>
+      </c>
+      <c r="C410">
+        <v>45992</v>
+      </c>
+      <c r="D410" t="s">
+        <v>20</v>
+      </c>
+      <c r="E410" t="s">
+        <v>21</v>
+      </c>
+      <c r="F410">
+        <v>20610069526</v>
+      </c>
+      <c r="G410" t="s">
+        <v>923</v>
+      </c>
+      <c r="H410">
+        <v>20610069526</v>
+      </c>
+      <c r="I410" s="4">
+        <v>46027</v>
+      </c>
+      <c r="J410">
+        <v>71.069999999999993</v>
+      </c>
+      <c r="K410" t="s">
+        <v>18</v>
+      </c>
+      <c r="L410">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>76476629</v>
+      </c>
+      <c r="B411" t="s">
+        <v>120</v>
+      </c>
+      <c r="C411" t="s">
+        <v>82</v>
+      </c>
+      <c r="D411" t="s">
+        <v>20</v>
+      </c>
+      <c r="E411" t="s">
+        <v>21</v>
+      </c>
+      <c r="F411">
+        <v>20602147160</v>
+      </c>
+      <c r="G411" t="s">
+        <v>924</v>
+      </c>
+      <c r="H411">
+        <v>20602147160</v>
+      </c>
+      <c r="I411" s="4">
+        <v>46027</v>
+      </c>
+      <c r="J411">
+        <v>79.09</v>
+      </c>
+      <c r="K411" t="s">
+        <v>18</v>
+      </c>
+      <c r="L411">
+        <v>202510</v>
+      </c>
+      <c r="N411" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>76474725</v>
+      </c>
+      <c r="B412" t="s">
+        <v>19</v>
+      </c>
+      <c r="C412">
+        <v>45992</v>
+      </c>
+      <c r="D412" t="s">
+        <v>20</v>
+      </c>
+      <c r="E412" t="s">
+        <v>21</v>
+      </c>
+      <c r="F412">
+        <v>20494389313</v>
+      </c>
+      <c r="G412" t="s">
+        <v>926</v>
+      </c>
+      <c r="H412">
+        <v>20494389313</v>
+      </c>
+      <c r="I412" s="4">
+        <v>46027</v>
+      </c>
+      <c r="J412">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K412" t="s">
+        <v>18</v>
+      </c>
+      <c r="L412" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>76477039</v>
+      </c>
+      <c r="B413" t="s">
+        <v>24</v>
+      </c>
+      <c r="C413">
+        <v>45992</v>
+      </c>
+      <c r="D413" t="s">
+        <v>20</v>
+      </c>
+      <c r="E413" t="s">
+        <v>21</v>
+      </c>
+      <c r="F413">
+        <v>20603541490</v>
+      </c>
+      <c r="G413" t="s">
+        <v>927</v>
+      </c>
+      <c r="H413">
+        <v>20603541490</v>
+      </c>
+      <c r="I413" s="4">
+        <v>46024</v>
+      </c>
+      <c r="J413">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K413" t="s">
+        <v>18</v>
+      </c>
+      <c r="L413">
+        <v>202510</v>
+      </c>
+      <c r="N413" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>76479098</v>
+      </c>
+      <c r="B414" t="s">
+        <v>19</v>
+      </c>
+      <c r="C414">
+        <v>45992</v>
+      </c>
+      <c r="D414" t="s">
+        <v>20</v>
+      </c>
+      <c r="E414" t="s">
+        <v>21</v>
+      </c>
+      <c r="F414">
+        <v>20612547964</v>
+      </c>
+      <c r="G414" t="s">
+        <v>929</v>
+      </c>
+      <c r="H414">
+        <v>20612547964</v>
+      </c>
+      <c r="I414" s="4">
+        <v>46024</v>
+      </c>
+      <c r="J414">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K414" t="s">
+        <v>18</v>
+      </c>
+      <c r="L414" t="s">
+        <v>67</v>
+      </c>
+      <c r="N414" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>76493243</v>
+      </c>
+      <c r="B415" t="s">
+        <v>32</v>
+      </c>
+      <c r="C415" t="s">
+        <v>82</v>
+      </c>
+      <c r="D415" t="s">
+        <v>50</v>
+      </c>
+      <c r="E415" t="s">
+        <v>51</v>
+      </c>
+      <c r="F415">
+        <v>20110620676</v>
+      </c>
+      <c r="G415" t="s">
+        <v>931</v>
+      </c>
+      <c r="H415">
+        <v>20110620676</v>
+      </c>
+      <c r="I415" s="4">
+        <v>46027</v>
+      </c>
+      <c r="J415">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K415" t="s">
+        <v>18</v>
+      </c>
+      <c r="L415">
+        <v>202510</v>
+      </c>
+      <c r="N415" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>76514002</v>
+      </c>
+      <c r="B416" t="s">
+        <v>32</v>
+      </c>
+      <c r="C416" t="s">
+        <v>82</v>
+      </c>
+      <c r="D416" t="s">
+        <v>29</v>
+      </c>
+      <c r="E416" t="s">
+        <v>30</v>
+      </c>
+      <c r="F416">
+        <v>20515161091</v>
+      </c>
+      <c r="G416" t="s">
+        <v>933</v>
+      </c>
+      <c r="H416">
+        <v>20515161091</v>
+      </c>
+      <c r="I416" s="4">
+        <v>46027</v>
+      </c>
+      <c r="J416">
+        <v>75.62</v>
+      </c>
+      <c r="K416" t="s">
+        <v>27</v>
+      </c>
+      <c r="N416" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>76478279</v>
+      </c>
+      <c r="B417" t="s">
+        <v>19</v>
+      </c>
+      <c r="C417">
+        <v>45992</v>
+      </c>
+      <c r="D417" t="s">
+        <v>20</v>
+      </c>
+      <c r="E417" t="s">
+        <v>21</v>
+      </c>
+      <c r="F417">
+        <v>20609122740</v>
+      </c>
+      <c r="G417" t="s">
+        <v>935</v>
+      </c>
+      <c r="H417">
+        <v>20609122740</v>
+      </c>
+      <c r="I417" s="4">
+        <v>46027</v>
+      </c>
+      <c r="J417">
+        <v>186.89</v>
+      </c>
+      <c r="K417" t="s">
+        <v>18</v>
+      </c>
+      <c r="L417">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>76495912</v>
+      </c>
+      <c r="B418" t="s">
+        <v>19</v>
+      </c>
+      <c r="C418">
+        <v>45992</v>
+      </c>
+      <c r="D418" t="s">
+        <v>50</v>
+      </c>
+      <c r="E418" t="s">
+        <v>51</v>
+      </c>
+      <c r="F418">
+        <v>20455043795</v>
+      </c>
+      <c r="G418" t="s">
+        <v>936</v>
+      </c>
+      <c r="H418">
+        <v>20455043795</v>
+      </c>
+      <c r="I418" s="4">
+        <v>46027</v>
+      </c>
+      <c r="J418">
+        <v>489.22</v>
+      </c>
+      <c r="K418" t="s">
+        <v>18</v>
+      </c>
+      <c r="L418" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>76482642</v>
+      </c>
+      <c r="B419" t="s">
+        <v>811</v>
+      </c>
+      <c r="C419">
+        <v>45992</v>
+      </c>
+      <c r="D419" t="s">
+        <v>16</v>
+      </c>
+      <c r="E419" t="s">
+        <v>17</v>
+      </c>
+      <c r="F419">
+        <v>20543082300</v>
+      </c>
+      <c r="G419" t="s">
+        <v>938</v>
+      </c>
+      <c r="H419">
+        <v>20543082300</v>
+      </c>
+      <c r="I419" s="4">
+        <v>46027</v>
+      </c>
+      <c r="J419">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K419" t="s">
+        <v>18</v>
+      </c>
+      <c r="L419">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>76483084</v>
+      </c>
+      <c r="B420" t="s">
+        <v>15</v>
+      </c>
+      <c r="C420">
+        <v>45992</v>
+      </c>
+      <c r="D420" t="s">
+        <v>16</v>
+      </c>
+      <c r="E420" t="s">
+        <v>17</v>
+      </c>
+      <c r="F420">
+        <v>20602555357</v>
+      </c>
+      <c r="G420" t="s">
+        <v>939</v>
+      </c>
+      <c r="H420">
+        <v>20602555357</v>
+      </c>
+      <c r="I420" s="4">
+        <v>46027</v>
+      </c>
+      <c r="J420">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K420" t="s">
+        <v>18</v>
+      </c>
+      <c r="L420" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>76481930</v>
+      </c>
+      <c r="B421" t="s">
+        <v>15</v>
+      </c>
+      <c r="C421">
+        <v>45992</v>
+      </c>
+      <c r="D421" t="s">
+        <v>16</v>
+      </c>
+      <c r="E421" t="s">
+        <v>17</v>
+      </c>
+      <c r="F421">
+        <v>10405251</v>
+      </c>
+      <c r="G421" t="s">
+        <v>940</v>
+      </c>
+      <c r="H421">
+        <v>10104052512</v>
+      </c>
+      <c r="I421" s="4">
+        <v>46028</v>
+      </c>
+      <c r="J421">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K421" t="s">
+        <v>18</v>
+      </c>
+      <c r="L421">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>76477380</v>
+      </c>
+      <c r="B422" t="s">
+        <v>24</v>
+      </c>
+      <c r="C422">
+        <v>45992</v>
+      </c>
+      <c r="D422" t="s">
+        <v>20</v>
+      </c>
+      <c r="E422" t="s">
+        <v>21</v>
+      </c>
+      <c r="F422">
+        <v>20605207554</v>
+      </c>
+      <c r="G422" t="s">
+        <v>941</v>
+      </c>
+      <c r="H422">
+        <v>20605207554</v>
+      </c>
+      <c r="I422" s="4">
+        <v>46028</v>
+      </c>
+      <c r="J422">
+        <v>106.5</v>
+      </c>
+      <c r="K422" t="s">
+        <v>18</v>
+      </c>
+      <c r="L422" t="s">
+        <v>67</v>
+      </c>
+      <c r="N422" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>76476056</v>
+      </c>
+      <c r="B423" t="s">
+        <v>15</v>
+      </c>
+      <c r="C423">
+        <v>45992</v>
+      </c>
+      <c r="D423" t="s">
+        <v>20</v>
+      </c>
+      <c r="E423" t="s">
+        <v>21</v>
+      </c>
+      <c r="F423">
+        <v>20600295633</v>
+      </c>
+      <c r="G423" t="s">
+        <v>943</v>
+      </c>
+      <c r="H423">
+        <v>20600295633</v>
+      </c>
+      <c r="I423" s="4">
+        <v>46028</v>
+      </c>
+      <c r="J423">
+        <v>68.83</v>
+      </c>
+      <c r="K423" t="s">
+        <v>18</v>
+      </c>
+      <c r="L423" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
